--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
@@ -31,7 +26,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6275,55 +6270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">リンクを指定する場合に使用する。
-Href属性が存在しない場合、target属性、download属性、rel属性、hreflang属性、type属性は記述できない。
-HTML5ではtarget="_blank"が非推奨ではなくなった。
-</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>strong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6602,14 +6548,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>small</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)datetime属性
 日付、日時を指定
@@ -6632,98 +6570,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">正確な日付や日時を記載する場合に使用する。コンピューターが読み取ることが可能な形式で日付、日時を記載する必要がある。
-Datetime属性を指定した場合、time要素の中に日付、日時以外の内容を記述することができる。ただし、記述した内容とdatetime属性で指定した日付、日時が一致する必要がある。
-例)&lt;time datetime="2015/01/01"&gt;元旦&lt;/time&gt;
-</t>
-    <rPh sb="0" eb="2">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>ガンタン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>em</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cite</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">文書内に引用して使用した作品のタイトルを表すために使用する。作者名などには使用できない。
-</t>
-    <rPh sb="0" eb="2">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>インヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクシャ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -9485,12 +9332,185 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">リンクを指定する場合に使用する。
+href属性が存在しない場合、target属性、download属性、rel属性、hreflang属性、type属性は記述できない。
+HTML5ではtarget="_blank"が非推奨ではなくなった。
+</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正確な日付や日時を記載する場合に使用する。コンピューターが読み取ることが可能な形式で日付、日時を記載する必要がある。
+datetime属性を指定した場合、time要素の中に日付、日時以外の内容を記述することができる。ただし、記述した内容とdatetime属性で指定した日付、日時が一致する必要がある。
+例)&lt;time datetime="2015/01/01"&gt;元旦&lt;/time&gt;
+</t>
+    <rPh sb="0" eb="2">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>ガンタン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cite</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>文書内に引用して使用した作品のタイトルを表すために使用する。作者名などには使用できない(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>イタリック体になる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)。
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクシャ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -10337,21 +10357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10376,32 +10381,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -10712,7 +10711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10726,13 +10725,13 @@
   <dimension ref="A1:X147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -10743,53 +10742,53 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="D1" s="111" t="s">
-        <v>531</v>
-      </c>
-      <c r="E1" s="109" t="s">
+      <c r="D1" s="119" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109" t="s">
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="108" t="s">
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="X1" s="108" t="s">
+      <c r="X1" s="116" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="112"/>
+    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="118"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="20" t="s">
         <v>410</v>
       </c>
@@ -10844,19 +10843,19 @@
       <c r="V2" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-    </row>
-    <row r="3" spans="1:24" ht="56.25">
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+    </row>
+    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -10883,16 +10882,16 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="78.75">
+    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>370</v>
@@ -10921,13 +10920,13 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="56.25">
+    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -10957,16 +10956,16 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="123.75">
+    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -10995,16 +10994,16 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="157.5">
+    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11033,16 +11032,16 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="67.5">
+    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11071,7 +11070,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="157.5">
+    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
         <v>382</v>
@@ -11109,7 +11108,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25">
+    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
         <v>382</v>
@@ -11141,11 +11140,11 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75">
+    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
         <v>386</v>
@@ -11179,13 +11178,13 @@
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1">
+    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
         <v>389</v>
@@ -11225,44 +11224,44 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="114" t="s">
-        <v>590</v>
-      </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="120"/>
-    </row>
-    <row r="14" spans="1:24" ht="22.5">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="109" t="s">
+        <v>584</v>
+      </c>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="115"/>
+    </row>
+    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>393</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
@@ -11276,7 +11275,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="16"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="113"/>
+      <c r="O14" s="108"/>
       <c r="P14" s="19" t="s">
         <v>384</v>
       </c>
@@ -11291,13 +11290,13 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25">
+    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>394</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
@@ -11331,13 +11330,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25">
+    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
@@ -11371,13 +11370,13 @@
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75">
+    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
         <v>396</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
@@ -11411,13 +11410,13 @@
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45">
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
         <v>397</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
@@ -11451,7 +11450,7 @@
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5">
+    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
         <v>398</v>
@@ -11491,7 +11490,7 @@
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45">
+    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
         <v>400</v>
@@ -11531,13 +11530,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25">
+    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
         <v>402</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
@@ -11569,13 +11568,13 @@
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11609,41 +11608,41 @@
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="114" t="s">
-        <v>591</v>
-      </c>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="120"/>
-    </row>
-    <row r="24" spans="1:24" ht="78.75">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23" s="109" t="s">
+        <v>585</v>
+      </c>
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="115"/>
+    </row>
+    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
         <v>404</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
@@ -11677,13 +11676,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5">
+    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
         <v>407</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
@@ -11715,16 +11714,16 @@
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5">
+    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -11755,7 +11754,7 @@
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5">
+    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
         <v>411</v>
@@ -11793,7 +11792,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5">
+    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
         <v>414</v>
@@ -11831,16 +11830,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45">
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
         <v>416</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
@@ -11869,13 +11868,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="67.5">
+    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
         <v>419</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -11907,16 +11906,16 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5">
+    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
@@ -11945,16 +11944,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75">
+    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
         <v>421</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
@@ -11983,16 +11982,16 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.25">
+    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
         <v>422</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12021,7 +12020,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="22.5">
+    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
         <v>424</v>
@@ -12059,7 +12058,7 @@
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45">
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
         <v>426</v>
@@ -12099,7 +12098,7 @@
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5">
+    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
         <v>429</v>
@@ -12139,7 +12138,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1">
+    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
         <v>431</v>
@@ -12175,13 +12174,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="157.5">
+    <row r="38" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="D38" s="53"/>
       <c r="E38" s="37"/>
@@ -12217,13 +12216,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45">
+    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="25"/>
@@ -12257,13 +12256,13 @@
       </c>
       <c r="X39" s="24"/>
     </row>
-    <row r="40" spans="1:24" ht="33.75">
+    <row r="40" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>439</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
@@ -12297,16 +12296,16 @@
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75">
+    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
@@ -12337,13 +12336,13 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="45">
+    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>472</v>
+        <v>590</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D42" s="51"/>
       <c r="E42" s="25"/>
@@ -12377,13 +12376,13 @@
       </c>
       <c r="X42" s="24"/>
     </row>
-    <row r="43" spans="1:24" ht="101.25">
+    <row r="43" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>473</v>
+        <v>591</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>475</v>
+        <v>592</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
@@ -12413,19 +12412,19 @@
         <v>385</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="X43" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="45">
+    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
@@ -12459,13 +12458,13 @@
       </c>
       <c r="X44" s="24"/>
     </row>
-    <row r="45" spans="1:24" ht="33.75">
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>477</v>
+        <v>593</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
@@ -12499,13 +12498,13 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45">
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
@@ -12539,10 +12538,10 @@
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="45">
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>217</v>
@@ -12581,13 +12580,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="45">
+    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
@@ -12621,13 +12620,13 @@
       </c>
       <c r="X48" s="24"/>
     </row>
-    <row r="49" spans="1:24" ht="22.5">
+    <row r="49" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
@@ -12661,13 +12660,13 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="33.75">
+    <row r="50" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
@@ -12701,13 +12700,13 @@
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75">
+    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
@@ -12741,13 +12740,13 @@
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75">
+    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
@@ -12781,13 +12780,13 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="22.5">
+    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
@@ -12821,13 +12820,13 @@
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5">
+    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
@@ -12861,13 +12860,13 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="56.25">
+    <row r="55" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
@@ -12901,13 +12900,13 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="45">
+    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
@@ -12941,13 +12940,13 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="33.75">
+    <row r="57" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
@@ -12981,13 +12980,13 @@
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75">
+    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
@@ -13021,13 +13020,13 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="45">
+    <row r="59" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
@@ -13063,13 +13062,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="33.75">
+    <row r="60" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
@@ -13096,16 +13095,16 @@
         <v>390</v>
       </c>
       <c r="X60" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="33.75">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
@@ -13132,16 +13131,16 @@
         <v>390</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="33.75">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
@@ -13168,16 +13167,16 @@
         <v>390</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="33.75">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
@@ -13211,13 +13210,13 @@
       </c>
       <c r="X63" s="24"/>
     </row>
-    <row r="64" spans="1:24" ht="22.5">
+    <row r="64" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
@@ -13251,16 +13250,16 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="33.75">
+    <row r="65" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26"/>
@@ -13289,13 +13288,13 @@
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="67.5">
+    <row r="66" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D66" s="51"/>
       <c r="E66" s="25"/>
@@ -13329,13 +13328,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="67.5">
+    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13367,13 +13366,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="34.5" thickBot="1">
+    <row r="68" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="15"/>
@@ -13405,13 +13404,13 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row r="69" spans="1:24" ht="157.5">
+    <row r="69" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A69" s="34"/>
       <c r="B69" s="35" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D69" s="53"/>
       <c r="E69" s="37"/>
@@ -13441,19 +13440,19 @@
         <v>385</v>
       </c>
       <c r="W69" s="36" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="X69" s="36" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="191.25">
+    <row r="70" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="23" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D70" s="51"/>
       <c r="E70" s="25"/>
@@ -13485,22 +13484,22 @@
         <v>385</v>
       </c>
       <c r="W70" s="24" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="X70" s="24" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" ht="112.5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A71" s="30"/>
       <c r="B71" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="D71" s="51" t="s">
         <v>529</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>535</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="26"/>
@@ -13537,7 +13536,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="213.75">
+    <row r="72" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
         <v>326</v>
@@ -13581,16 +13580,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="67.5">
+    <row r="73" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
         <v>329</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13617,7 +13616,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="258.75">
+    <row r="74" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
         <v>332</v>
@@ -13661,7 +13660,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="213.75">
+    <row r="75" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
         <v>334</v>
@@ -13705,16 +13704,16 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="90">
+    <row r="76" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
         <v>338</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
@@ -13741,16 +13740,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="135">
+    <row r="77" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
         <v>340</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
@@ -13777,7 +13776,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="67.5">
+    <row r="78" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
         <v>342</v>
@@ -13816,10 +13815,10 @@
         <v>344</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="67.5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
         <v>345</v>
@@ -13859,16 +13858,16 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="225">
+    <row r="80" spans="1:24" ht="225" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
         <v>348</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
@@ -13899,7 +13898,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="23.25" thickBot="1">
+    <row r="81" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="6" t="s">
         <v>350</v>
@@ -13935,13 +13934,13 @@
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row r="82" spans="1:24" ht="101.25">
+    <row r="82" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A82" s="34"/>
       <c r="B82" s="35" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D82" s="53"/>
       <c r="E82" s="37"/>
@@ -13970,13 +13969,13 @@
         <v>0</v>
       </c>
       <c r="X82" s="36" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="67.5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A83" s="30"/>
       <c r="B83" s="23" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>11</v>
@@ -14009,16 +14008,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="67.5">
+    <row r="84" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A84" s="30"/>
       <c r="B84" s="23" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>150</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="26"/>
@@ -14045,7 +14044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="56.25">
+    <row r="85" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A85" s="30"/>
       <c r="B85" s="23" t="s">
         <v>3</v>
@@ -14081,16 +14080,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="56.25">
+    <row r="86" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="26"/>
@@ -14117,7 +14116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="56.25">
+    <row r="87" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
@@ -14151,10 +14150,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="45">
+    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>316</v>
@@ -14193,10 +14192,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25">
+    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>318</v>
@@ -14229,10 +14228,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="157.5">
+    <row r="90" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>320</v>
@@ -14267,10 +14266,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="90.75" thickBot="1">
+    <row r="91" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>321</v>
@@ -14305,7 +14304,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="202.5">
+    <row r="92" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A92" s="34"/>
       <c r="B92" s="35" t="s">
         <v>12</v>
@@ -14345,7 +14344,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="90">
+    <row r="93" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>15</v>
@@ -14387,7 +14386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="45">
+    <row r="94" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A94" s="30"/>
       <c r="B94" s="23" t="s">
         <v>17</v>
@@ -14423,7 +14422,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="67.5">
+    <row r="95" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A95" s="30"/>
       <c r="B95" s="23" t="s">
         <v>19</v>
@@ -14467,7 +14466,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="101.25">
+    <row r="96" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
         <v>21</v>
@@ -14511,7 +14510,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="112.5">
+    <row r="97" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
       <c r="B97" s="64" t="s">
         <v>244</v>
@@ -14555,10 +14554,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="101.25">
+    <row r="98" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A98" s="71"/>
       <c r="B98" s="64" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C98" s="63" t="s">
         <v>22</v>
@@ -14599,10 +14598,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="78.75">
+    <row r="99" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A99" s="71"/>
       <c r="B99" s="64" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C99" s="63" t="s">
         <v>22</v>
@@ -14643,16 +14642,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="78.75">
+    <row r="100" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A100" s="71"/>
       <c r="B100" s="64" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C100" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="38"/>
@@ -14687,16 +14686,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="101.25">
+    <row r="101" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A101" s="71"/>
       <c r="B101" s="64" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
@@ -14731,16 +14730,16 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="123.75">
+    <row r="102" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
@@ -14775,16 +14774,16 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="123.75">
+    <row r="103" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A103" s="61"/>
       <c r="B103" s="60" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C103" s="72" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="62" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="19"/>
@@ -14817,7 +14816,7 @@
       </c>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" ht="135">
+    <row r="104" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A104" s="30"/>
       <c r="B104" s="23" t="s">
         <v>284</v>
@@ -14861,7 +14860,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="146.25">
+    <row r="105" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A105" s="28"/>
       <c r="B105" s="60" t="s">
         <v>254</v>
@@ -14903,7 +14902,7 @@
       </c>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" ht="157.5">
+    <row r="106" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A106" s="30"/>
       <c r="B106" s="23" t="s">
         <v>289</v>
@@ -14945,10 +14944,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="112.5">
+    <row r="107" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A107" s="30"/>
       <c r="B107" s="23" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>293</v>
@@ -14981,10 +14980,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="67.5">
+    <row r="108" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>296</v>
@@ -15017,7 +15016,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="270">
+    <row r="109" spans="1:24" ht="270" x14ac:dyDescent="0.15">
       <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
         <v>300</v>
@@ -15059,7 +15058,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="168.75">
+    <row r="110" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
         <v>304</v>
@@ -15103,7 +15102,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="101.25">
+    <row r="111" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
         <v>308</v>
@@ -15143,7 +15142,7 @@
       </c>
       <c r="X111" s="24"/>
     </row>
-    <row r="112" spans="1:24" ht="67.5">
+    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
         <v>311</v>
@@ -15185,7 +15184,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="168.75">
+    <row r="113" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>313</v>
@@ -15227,7 +15226,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="57" thickBot="1">
+    <row r="114" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="31"/>
       <c r="B114" s="6" t="s">
         <v>315</v>
@@ -15265,7 +15264,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="45">
+    <row r="115" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A115" s="34"/>
       <c r="B115" s="35" t="s">
         <v>269</v>
@@ -15307,7 +15306,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="33.75">
+    <row r="116" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
         <v>276</v>
@@ -15343,7 +15342,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="67.5">
+    <row r="117" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
         <v>278</v>
@@ -15381,7 +15380,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="45">
+    <row r="118" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A118" s="30"/>
       <c r="B118" s="23" t="s">
         <v>281</v>
@@ -15419,7 +15418,7 @@
       </c>
       <c r="X118" s="24"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A119" s="30"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
@@ -15445,7 +15444,7 @@
       <c r="W119" s="24"/>
       <c r="X119" s="24"/>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A120" s="30"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
@@ -15471,7 +15470,7 @@
       <c r="W120" s="24"/>
       <c r="X120" s="24"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A121" s="30"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
@@ -15497,7 +15496,7 @@
       <c r="W121" s="24"/>
       <c r="X121" s="24"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A122" s="30"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
@@ -15523,7 +15522,7 @@
       <c r="W122" s="24"/>
       <c r="X122" s="24"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A123" s="30"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
@@ -15549,7 +15548,7 @@
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A124" s="30"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
@@ -15575,7 +15574,7 @@
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A125" s="30"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
@@ -15601,7 +15600,7 @@
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A126" s="30"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
@@ -15627,7 +15626,7 @@
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A127" s="30"/>
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
@@ -15653,7 +15652,7 @@
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A128" s="30"/>
       <c r="B128" s="23"/>
       <c r="C128" s="24"/>
@@ -15679,7 +15678,7 @@
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A129" s="30"/>
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
@@ -15705,7 +15704,7 @@
       <c r="W129" s="24"/>
       <c r="X129" s="24"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A130" s="30"/>
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
@@ -15731,7 +15730,7 @@
       <c r="W130" s="24"/>
       <c r="X130" s="24"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A131" s="30"/>
       <c r="B131" s="23"/>
       <c r="C131" s="24"/>
@@ -15757,7 +15756,7 @@
       <c r="W131" s="24"/>
       <c r="X131" s="24"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A132" s="30"/>
       <c r="B132" s="23"/>
       <c r="C132" s="24"/>
@@ -15783,7 +15782,7 @@
       <c r="W132" s="24"/>
       <c r="X132" s="24"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A133" s="30"/>
       <c r="B133" s="23"/>
       <c r="C133" s="24"/>
@@ -15809,7 +15808,7 @@
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A134" s="30"/>
       <c r="B134" s="23"/>
       <c r="C134" s="24"/>
@@ -15835,7 +15834,7 @@
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A135" s="30"/>
       <c r="B135" s="23"/>
       <c r="C135" s="24"/>
@@ -15861,7 +15860,7 @@
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A136" s="30"/>
       <c r="B136" s="23"/>
       <c r="C136" s="24"/>
@@ -15887,7 +15886,7 @@
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A137" s="30"/>
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
@@ -15913,7 +15912,7 @@
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A138" s="30"/>
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
@@ -15939,7 +15938,7 @@
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A139" s="30"/>
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
@@ -15965,7 +15964,7 @@
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A140" s="30"/>
       <c r="B140" s="23"/>
       <c r="C140" s="24"/>
@@ -15991,7 +15990,7 @@
       <c r="W140" s="24"/>
       <c r="X140" s="24"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A141" s="30"/>
       <c r="B141" s="23"/>
       <c r="C141" s="24"/>
@@ -16017,7 +16016,7 @@
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A142" s="30"/>
       <c r="B142" s="23"/>
       <c r="C142" s="24"/>
@@ -16043,7 +16042,7 @@
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A143" s="30"/>
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
@@ -16069,7 +16068,7 @@
       <c r="W143" s="24"/>
       <c r="X143" s="24"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A144" s="30"/>
       <c r="B144" s="23"/>
       <c r="C144" s="24"/>
@@ -16095,7 +16094,7 @@
       <c r="W144" s="24"/>
       <c r="X144" s="24"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A145" s="30"/>
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
@@ -16121,7 +16120,7 @@
       <c r="W145" s="24"/>
       <c r="X145" s="24"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A146" s="30"/>
       <c r="B146" s="23"/>
       <c r="C146" s="24"/>
@@ -16147,7 +16146,7 @@
       <c r="W146" s="24"/>
       <c r="X146" s="24"/>
     </row>
-    <row r="147" spans="1:24" ht="12" thickBot="1">
+    <row r="147" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -16187,24 +16186,24 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D22 D24:D147">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D3="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$D3="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$D3="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D23="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D23="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D23="①"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16214,7 +16213,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.14000000000000001" right="0.2" top="0.33" bottom="0.28000000000000003" header="0.13" footer="0.13"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -16232,197 +16231,197 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75">
+    </row>
+    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A8" s="44">
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="44">
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="44">
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="44">
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="44">
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="44">
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="44">
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="44">
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="44">
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -16445,27 +16444,27 @@
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1">
+    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1">
+    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>23</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1">
+    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -16487,7 +16486,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1">
+    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1">
+    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -16509,7 +16508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1">
+    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1">
+    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1">
+    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1">
+    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -16553,7 +16552,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1">
+    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1">
+    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -16575,7 +16574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1">
+    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -16586,7 +16585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1">
+    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1">
+    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -16608,7 +16607,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1">
+    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -16619,7 +16618,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1">
+    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -16630,7 +16629,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1">
+    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -16641,7 +16640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1">
+    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -16652,17 +16651,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1">
+    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -16673,7 +16672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="81">
         <v>2</v>
       </c>
@@ -16695,7 +16694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="81">
         <v>3</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1">
+    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87">
         <v>4</v>
       </c>
@@ -16717,7 +16716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1">
+    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -16728,7 +16727,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -16739,7 +16738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -16761,7 +16760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -16772,7 +16771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -16783,7 +16782,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1">
+    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1">
+    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1">
+    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -16816,7 +16815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -16827,51 +16826,51 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="81">
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="81">
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="81">
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1">
+    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87">
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -16893,7 +16892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -16915,7 +16914,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1">
+    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1">
+    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1">
+    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1">
+    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -16959,7 +16958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1">
+    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -16970,7 +16969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1">
+    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -16981,7 +16980,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -16992,40 +16991,40 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="81">
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="81">
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1">
+    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="87">
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1">
+    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -17036,7 +17035,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -17047,62 +17046,62 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="81">
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="81">
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="81">
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="81">
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1">
+    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="85">
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -17113,51 +17112,51 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="81">
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="81">
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="81">
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1">
+    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="85">
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -17168,29 +17167,29 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="81">
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1">
+    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="87">
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1">
+    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -17201,7 +17200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -17212,7 +17211,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -17223,29 +17222,29 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="81">
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1">
+    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="87">
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1">
+    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -17256,7 +17255,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1">
+    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -17267,7 +17266,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -17278,7 +17277,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -17289,7 +17288,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -17300,7 +17299,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -17333,7 +17332,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -17355,7 +17354,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -17366,7 +17365,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1">
+    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -17377,7 +17376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1">
+    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1">
+    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -17410,18 +17409,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1">
+    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="87">
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1">
+    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -17432,7 +17431,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -17476,7 +17475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -17487,7 +17486,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -17498,7 +17497,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -17509,7 +17508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -17531,7 +17530,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1">
+    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -17553,7 +17552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -17564,7 +17563,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -17586,7 +17585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -17597,7 +17596,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -17608,7 +17607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -17619,7 +17618,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -17630,7 +17629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -17641,7 +17640,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -17652,7 +17651,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -17663,7 +17662,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1">
+    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -17674,7 +17673,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -17707,7 +17706,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1">
+    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -17729,7 +17728,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -17740,7 +17739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -17751,7 +17750,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -17762,7 +17761,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -17795,7 +17794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -17806,7 +17805,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -17817,7 +17816,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1">
+    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -17828,7 +17827,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -17861,7 +17860,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1">
+    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -17883,7 +17882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -17894,7 +17893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -17905,7 +17904,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1">
+    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -17927,7 +17926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -17938,7 +17937,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1">
+    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -17971,78 +17970,78 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -18053,7 +18052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -18064,7 +18063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -18097,63 +18096,63 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -18164,7 +18163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -18175,7 +18174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -18186,7 +18185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -18197,7 +18196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5">
+    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -18208,122 +18207,122 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="107" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="107" t="s">
         <v>90</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
@@ -26,7 +31,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7959,72 +7964,6 @@
     </rPh>
     <rPh sb="71" eb="72">
       <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>他のソースから引用して作成したテキストを表すために使用する(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>引用符で囲まれる。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">なお、q要素を使用せず、文中で引用符などで囲むことも可能)。
-</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>インヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>インヨウフ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ブンチュウ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>インヨウフ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9505,12 +9444,99 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>他のソースから引用して作成したテキストを表すために使用する(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>引用符で囲まれる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なお、q要素を使用せず、文中で引用符などで囲むことも可能)。
+html要素でlang="ja"を指定していると</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">で囲まれる模様。cssで言語と引用符を指定可能。
+</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>インヨウフ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ブンチュウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>インヨウフ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -10711,7 +10737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10728,10 +10754,10 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -10742,7 +10768,7 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="118" t="s">
         <v>352</v>
       </c>
@@ -10784,7 +10810,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="12" thickBot="1">
       <c r="A2" s="118"/>
       <c r="B2" s="117"/>
       <c r="C2" s="116"/>
@@ -10846,13 +10872,13 @@
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>527</v>
@@ -10882,13 +10908,13 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>527</v>
@@ -10920,7 +10946,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>372</v>
@@ -10956,7 +10982,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>374</v>
@@ -10994,13 +11020,13 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>529</v>
@@ -11032,7 +11058,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>379</v>
@@ -11070,7 +11096,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
         <v>382</v>
@@ -11108,7 +11134,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
         <v>382</v>
@@ -11140,11 +11166,11 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
         <v>386</v>
@@ -11178,13 +11204,13 @@
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
         <v>389</v>
@@ -11224,9 +11250,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11252,7 +11278,7 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>393</v>
@@ -11290,13 +11316,13 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>394</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
@@ -11330,13 +11356,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
@@ -11370,13 +11396,13 @@
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
         <v>396</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
@@ -11410,7 +11436,7 @@
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
         <v>397</v>
@@ -11450,7 +11476,7 @@
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
         <v>398</v>
@@ -11490,7 +11516,7 @@
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
         <v>400</v>
@@ -11530,13 +11556,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
         <v>402</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
@@ -11568,13 +11594,13 @@
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11608,9 +11634,9 @@
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11636,13 +11662,13 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
         <v>404</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
@@ -11676,13 +11702,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
         <v>407</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
@@ -11714,7 +11740,7 @@
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
         <v>408</v>
@@ -11754,7 +11780,7 @@
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
         <v>411</v>
@@ -11792,7 +11818,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
         <v>414</v>
@@ -11830,7 +11856,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
         <v>416</v>
@@ -11868,13 +11894,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
         <v>419</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -11906,7 +11932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
         <v>420</v>
@@ -11944,7 +11970,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
         <v>421</v>
@@ -11982,7 +12008,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
         <v>422</v>
@@ -12020,7 +12046,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
         <v>424</v>
@@ -12058,7 +12084,7 @@
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
         <v>426</v>
@@ -12098,7 +12124,7 @@
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
         <v>429</v>
@@ -12138,7 +12164,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
         <v>431</v>
@@ -12174,13 +12200,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="157.5">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D38" s="53"/>
       <c r="E38" s="37"/>
@@ -12216,13 +12242,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="45">
       <c r="A39" s="30"/>
       <c r="B39" s="23" t="s">
         <v>436</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="25"/>
@@ -12256,7 +12282,7 @@
       </c>
       <c r="X39" s="24"/>
     </row>
-    <row r="40" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="33.75">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
         <v>437</v>
@@ -12296,7 +12322,7 @@
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
         <v>470</v>
@@ -12336,13 +12362,13 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="45">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D42" s="51"/>
       <c r="E42" s="25"/>
@@ -12376,13 +12402,13 @@
       </c>
       <c r="X42" s="24"/>
     </row>
-    <row r="43" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="101.25">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>591</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>592</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
@@ -12418,7 +12444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="45">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
         <v>472</v>
@@ -12458,13 +12484,13 @@
       </c>
       <c r="X44" s="24"/>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>593</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>594</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
@@ -12498,13 +12524,13 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="67.5">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
         <v>473</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
@@ -12538,7 +12564,7 @@
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="45">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
         <v>474</v>
@@ -12580,13 +12606,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
         <v>475</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
@@ -12620,7 +12646,7 @@
       </c>
       <c r="X48" s="24"/>
     </row>
-    <row r="49" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="22.5">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
         <v>476</v>
@@ -12660,7 +12686,7 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="33.75">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
         <v>478</v>
@@ -12700,7 +12726,7 @@
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
         <v>480</v>
@@ -12740,7 +12766,7 @@
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
         <v>482</v>
@@ -12780,7 +12806,7 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="22.5">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
         <v>484</v>
@@ -12820,7 +12846,7 @@
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
         <v>485</v>
@@ -12860,13 +12886,13 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="56.25">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
         <v>488</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
@@ -12900,13 +12926,13 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="45">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
         <v>489</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
@@ -12940,13 +12966,13 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="33.75">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
         <v>490</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
@@ -12980,7 +13006,7 @@
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
         <v>491</v>
@@ -13020,7 +13046,7 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="45">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
         <v>493</v>
@@ -13062,7 +13088,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="33.75">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
         <v>495</v>
@@ -13098,7 +13124,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
         <v>498</v>
@@ -13134,7 +13160,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
         <v>500</v>
@@ -13170,7 +13196,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
         <v>502</v>
@@ -13210,7 +13236,7 @@
       </c>
       <c r="X63" s="24"/>
     </row>
-    <row r="64" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="22.5">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
         <v>503</v>
@@ -13250,7 +13276,7 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="33.75">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
         <v>505</v>
@@ -13288,7 +13314,7 @@
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="67.5">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
         <v>506</v>
@@ -13328,7 +13354,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
         <v>511</v>
@@ -13366,7 +13392,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="34.5" thickBot="1">
       <c r="A68" s="31"/>
       <c r="B68" s="6" t="s">
         <v>515</v>
@@ -13404,7 +13430,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row r="69" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="157.5">
       <c r="A69" s="34"/>
       <c r="B69" s="35" t="s">
         <v>517</v>
@@ -13446,7 +13472,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="191.25">
       <c r="A70" s="30"/>
       <c r="B70" s="23" t="s">
         <v>520</v>
@@ -13490,7 +13516,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="112.5">
       <c r="A71" s="30"/>
       <c r="B71" s="23" t="s">
         <v>523</v>
@@ -13536,7 +13562,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="213.75">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
         <v>326</v>
@@ -13580,7 +13606,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="67.5">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
         <v>329</v>
@@ -13616,7 +13642,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="258.75">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
         <v>332</v>
@@ -13660,7 +13686,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="213.75">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
         <v>334</v>
@@ -13704,7 +13730,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="90">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
         <v>338</v>
@@ -13740,7 +13766,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="135">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
         <v>340</v>
@@ -13776,7 +13802,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="67.5">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
         <v>342</v>
@@ -13818,7 +13844,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="67.5">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
         <v>345</v>
@@ -13858,7 +13884,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="225">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
         <v>348</v>
@@ -13898,7 +13924,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="23.25" thickBot="1">
       <c r="A81" s="31"/>
       <c r="B81" s="6" t="s">
         <v>350</v>
@@ -13934,13 +13960,13 @@
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row r="82" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="101.25">
       <c r="A82" s="34"/>
       <c r="B82" s="35" t="s">
         <v>562</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D82" s="53"/>
       <c r="E82" s="37"/>
@@ -13972,10 +13998,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" ht="67.5">
       <c r="A83" s="30"/>
       <c r="B83" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>11</v>
@@ -14008,7 +14034,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" ht="67.5">
       <c r="A84" s="30"/>
       <c r="B84" s="23" t="s">
         <v>549</v>
@@ -14044,7 +14070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="56.25">
       <c r="A85" s="30"/>
       <c r="B85" s="23" t="s">
         <v>3</v>
@@ -14080,7 +14106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="56.25">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
         <v>548</v>
@@ -14116,7 +14142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="56.25">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
@@ -14150,7 +14176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="45">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
         <v>555</v>
@@ -14192,7 +14218,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
         <v>550</v>
@@ -14228,7 +14254,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="157.5">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
         <v>552</v>
@@ -14266,7 +14292,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="90.75" thickBot="1">
       <c r="A91" s="31"/>
       <c r="B91" s="6" t="s">
         <v>551</v>
@@ -14304,7 +14330,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="202.5">
       <c r="A92" s="34"/>
       <c r="B92" s="35" t="s">
         <v>12</v>
@@ -14344,7 +14370,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="90">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>15</v>
@@ -14386,7 +14412,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" ht="45">
       <c r="A94" s="30"/>
       <c r="B94" s="23" t="s">
         <v>17</v>
@@ -14422,7 +14448,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="67.5">
       <c r="A95" s="30"/>
       <c r="B95" s="23" t="s">
         <v>19</v>
@@ -14466,7 +14492,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="101.25">
       <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
         <v>21</v>
@@ -14510,7 +14536,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="112.5">
       <c r="A97" s="34"/>
       <c r="B97" s="64" t="s">
         <v>244</v>
@@ -14554,7 +14580,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="101.25">
       <c r="A98" s="71"/>
       <c r="B98" s="64" t="s">
         <v>557</v>
@@ -14598,7 +14624,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="78.75">
       <c r="A99" s="71"/>
       <c r="B99" s="64" t="s">
         <v>557</v>
@@ -14642,7 +14668,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="78.75">
       <c r="A100" s="71"/>
       <c r="B100" s="64" t="s">
         <v>557</v>
@@ -14686,7 +14712,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" ht="101.25">
       <c r="A101" s="71"/>
       <c r="B101" s="64" t="s">
         <v>557</v>
@@ -14730,7 +14756,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="123.75">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
         <v>557</v>
@@ -14774,7 +14800,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="123.75">
       <c r="A103" s="61"/>
       <c r="B103" s="60" t="s">
         <v>557</v>
@@ -14816,7 +14842,7 @@
       </c>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="135">
       <c r="A104" s="30"/>
       <c r="B104" s="23" t="s">
         <v>284</v>
@@ -14860,7 +14886,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="146.25">
       <c r="A105" s="28"/>
       <c r="B105" s="60" t="s">
         <v>254</v>
@@ -14902,7 +14928,7 @@
       </c>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="157.5">
       <c r="A106" s="30"/>
       <c r="B106" s="23" t="s">
         <v>289</v>
@@ -14944,7 +14970,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="112.5">
       <c r="A107" s="30"/>
       <c r="B107" s="23" t="s">
         <v>554</v>
@@ -14980,7 +15006,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="67.5">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
         <v>553</v>
@@ -15016,7 +15042,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="270">
       <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
         <v>300</v>
@@ -15058,7 +15084,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="168.75">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
         <v>304</v>
@@ -15102,7 +15128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="101.25">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
         <v>308</v>
@@ -15142,7 +15168,7 @@
       </c>
       <c r="X111" s="24"/>
     </row>
-    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="67.5">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
         <v>311</v>
@@ -15184,7 +15210,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="168.75">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>313</v>
@@ -15226,7 +15252,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" ht="57" thickBot="1">
       <c r="A114" s="31"/>
       <c r="B114" s="6" t="s">
         <v>315</v>
@@ -15264,7 +15290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24" ht="45">
       <c r="A115" s="34"/>
       <c r="B115" s="35" t="s">
         <v>269</v>
@@ -15306,7 +15332,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24" ht="33.75">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
         <v>276</v>
@@ -15342,7 +15368,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" ht="67.5">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
         <v>278</v>
@@ -15380,7 +15406,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:24" ht="45">
       <c r="A118" s="30"/>
       <c r="B118" s="23" t="s">
         <v>281</v>
@@ -15418,7 +15444,7 @@
       </c>
       <c r="X118" s="24"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24">
       <c r="A119" s="30"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
@@ -15444,7 +15470,7 @@
       <c r="W119" s="24"/>
       <c r="X119" s="24"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24">
       <c r="A120" s="30"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
@@ -15470,7 +15496,7 @@
       <c r="W120" s="24"/>
       <c r="X120" s="24"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24">
       <c r="A121" s="30"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
@@ -15496,7 +15522,7 @@
       <c r="W121" s="24"/>
       <c r="X121" s="24"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24">
       <c r="A122" s="30"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
@@ -15522,7 +15548,7 @@
       <c r="W122" s="24"/>
       <c r="X122" s="24"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24">
       <c r="A123" s="30"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
@@ -15548,7 +15574,7 @@
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:24">
       <c r="A124" s="30"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
@@ -15574,7 +15600,7 @@
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:24">
       <c r="A125" s="30"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
@@ -15600,7 +15626,7 @@
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24">
       <c r="A126" s="30"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
@@ -15626,7 +15652,7 @@
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24">
       <c r="A127" s="30"/>
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
@@ -15652,7 +15678,7 @@
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:24">
       <c r="A128" s="30"/>
       <c r="B128" s="23"/>
       <c r="C128" s="24"/>
@@ -15678,7 +15704,7 @@
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24">
       <c r="A129" s="30"/>
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
@@ -15704,7 +15730,7 @@
       <c r="W129" s="24"/>
       <c r="X129" s="24"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:24">
       <c r="A130" s="30"/>
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
@@ -15730,7 +15756,7 @@
       <c r="W130" s="24"/>
       <c r="X130" s="24"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:24">
       <c r="A131" s="30"/>
       <c r="B131" s="23"/>
       <c r="C131" s="24"/>
@@ -15756,7 +15782,7 @@
       <c r="W131" s="24"/>
       <c r="X131" s="24"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:24">
       <c r="A132" s="30"/>
       <c r="B132" s="23"/>
       <c r="C132" s="24"/>
@@ -15782,7 +15808,7 @@
       <c r="W132" s="24"/>
       <c r="X132" s="24"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:24">
       <c r="A133" s="30"/>
       <c r="B133" s="23"/>
       <c r="C133" s="24"/>
@@ -15808,7 +15834,7 @@
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:24">
       <c r="A134" s="30"/>
       <c r="B134" s="23"/>
       <c r="C134" s="24"/>
@@ -15834,7 +15860,7 @@
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:24">
       <c r="A135" s="30"/>
       <c r="B135" s="23"/>
       <c r="C135" s="24"/>
@@ -15860,7 +15886,7 @@
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:24">
       <c r="A136" s="30"/>
       <c r="B136" s="23"/>
       <c r="C136" s="24"/>
@@ -15886,7 +15912,7 @@
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:24">
       <c r="A137" s="30"/>
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
@@ -15912,7 +15938,7 @@
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:24">
       <c r="A138" s="30"/>
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
@@ -15938,7 +15964,7 @@
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:24">
       <c r="A139" s="30"/>
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
@@ -15964,7 +15990,7 @@
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:24">
       <c r="A140" s="30"/>
       <c r="B140" s="23"/>
       <c r="C140" s="24"/>
@@ -15990,7 +16016,7 @@
       <c r="W140" s="24"/>
       <c r="X140" s="24"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:24">
       <c r="A141" s="30"/>
       <c r="B141" s="23"/>
       <c r="C141" s="24"/>
@@ -16016,7 +16042,7 @@
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:24">
       <c r="A142" s="30"/>
       <c r="B142" s="23"/>
       <c r="C142" s="24"/>
@@ -16042,7 +16068,7 @@
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:24">
       <c r="A143" s="30"/>
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
@@ -16068,7 +16094,7 @@
       <c r="W143" s="24"/>
       <c r="X143" s="24"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:24">
       <c r="A144" s="30"/>
       <c r="B144" s="23"/>
       <c r="C144" s="24"/>
@@ -16094,7 +16120,7 @@
       <c r="W144" s="24"/>
       <c r="X144" s="24"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:24">
       <c r="A145" s="30"/>
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
@@ -16120,7 +16146,7 @@
       <c r="W145" s="24"/>
       <c r="X145" s="24"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:24">
       <c r="A146" s="30"/>
       <c r="B146" s="23"/>
       <c r="C146" s="24"/>
@@ -16146,7 +16172,7 @@
       <c r="W146" s="24"/>
       <c r="X146" s="24"/>
     </row>
-    <row r="147" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" ht="12" thickBot="1">
       <c r="A147" s="31"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -16231,19 +16257,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
         <v>451</v>
       </c>
@@ -16254,7 +16280,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="44">
         <v>1</v>
       </c>
@@ -16265,7 +16291,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="44">
         <v>2</v>
       </c>
@@ -16276,7 +16302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="44">
         <v>3</v>
       </c>
@@ -16287,7 +16313,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="44">
         <v>4</v>
       </c>
@@ -16298,7 +16324,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="33.75">
       <c r="A8" s="44">
         <v>5</v>
       </c>
@@ -16309,7 +16335,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="44">
         <v>6</v>
       </c>
@@ -16320,7 +16346,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="44">
         <v>7</v>
       </c>
@@ -16331,7 +16357,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="44">
         <v>8</v>
       </c>
@@ -16342,7 +16368,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="44">
         <v>9</v>
       </c>
@@ -16353,7 +16379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="44">
         <v>10</v>
       </c>
@@ -16364,7 +16390,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="44">
         <v>11</v>
       </c>
@@ -16375,7 +16401,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="44">
         <v>12</v>
       </c>
@@ -16386,7 +16412,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="44">
         <v>13</v>
       </c>
@@ -16397,7 +16423,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>14</v>
       </c>
@@ -16408,7 +16434,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>15</v>
       </c>
@@ -16419,7 +16445,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
         <v>508</v>
       </c>
@@ -16444,27 +16470,27 @@
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12" thickBot="1">
       <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>23</v>
       </c>
@@ -16475,7 +16501,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12" thickBot="1">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -16486,7 +16512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12" thickBot="1">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -16497,7 +16523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12" thickBot="1">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -16508,7 +16534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12" thickBot="1">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -16519,7 +16545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12" thickBot="1">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -16530,7 +16556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12" thickBot="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -16541,7 +16567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12" thickBot="1">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -16552,7 +16578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12" thickBot="1">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -16563,7 +16589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12" thickBot="1">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -16574,7 +16600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12" thickBot="1">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -16585,7 +16611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12" thickBot="1">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -16596,7 +16622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12" thickBot="1">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -16607,7 +16633,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12" thickBot="1">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -16618,7 +16644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12" thickBot="1">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -16629,7 +16655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12" thickBot="1">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -16640,7 +16666,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12" thickBot="1">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -16651,17 +16677,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12" thickBot="1">
       <c r="A22" s="55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -16672,7 +16698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -16683,7 +16709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="81">
         <v>2</v>
       </c>
@@ -16694,7 +16720,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="81">
         <v>3</v>
       </c>
@@ -16705,7 +16731,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12" thickBot="1">
       <c r="A27" s="87">
         <v>4</v>
       </c>
@@ -16716,7 +16742,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12" thickBot="1">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -16727,7 +16753,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -16738,7 +16764,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -16749,7 +16775,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -16760,7 +16786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -16771,7 +16797,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -16782,7 +16808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12" thickBot="1">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -16793,7 +16819,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12" thickBot="1">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -16804,7 +16830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12" thickBot="1">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -16815,7 +16841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -16826,7 +16852,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="81">
         <v>15</v>
       </c>
@@ -16837,7 +16863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="81">
         <v>16</v>
       </c>
@@ -16848,7 +16874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="81">
         <v>17</v>
       </c>
@@ -16859,7 +16885,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="12" thickBot="1">
       <c r="A41" s="87">
         <v>18</v>
       </c>
@@ -16870,7 +16896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -16881,7 +16907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -16892,7 +16918,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -16903,7 +16929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -16914,7 +16940,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12" thickBot="1">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -16925,7 +16951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12" thickBot="1">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -16936,7 +16962,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12" thickBot="1">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -16947,7 +16973,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="12" thickBot="1">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -16958,7 +16984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="12" thickBot="1">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -16969,7 +16995,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="12" thickBot="1">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -16980,7 +17006,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -16991,7 +17017,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="81">
         <v>30</v>
       </c>
@@ -17002,7 +17028,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="81">
         <v>31</v>
       </c>
@@ -17013,7 +17039,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="12" thickBot="1">
       <c r="A55" s="87">
         <v>32</v>
       </c>
@@ -17024,7 +17050,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="12" thickBot="1">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -17035,7 +17061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -17046,7 +17072,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="81">
         <v>35</v>
       </c>
@@ -17057,7 +17083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="81">
         <v>36</v>
       </c>
@@ -17068,7 +17094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="81">
         <v>37</v>
       </c>
@@ -17079,7 +17105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="81">
         <v>38</v>
       </c>
@@ -17090,7 +17116,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="12" thickBot="1">
       <c r="A62" s="85">
         <v>39</v>
       </c>
@@ -17101,7 +17127,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -17112,7 +17138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="81">
         <v>41</v>
       </c>
@@ -17123,7 +17149,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="81">
         <v>42</v>
       </c>
@@ -17134,7 +17160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="81">
         <v>43</v>
       </c>
@@ -17145,7 +17171,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12" thickBot="1">
       <c r="A67" s="85">
         <v>44</v>
       </c>
@@ -17156,7 +17182,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -17167,7 +17193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="81">
         <v>46</v>
       </c>
@@ -17178,7 +17204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="12" thickBot="1">
       <c r="A70" s="87">
         <v>47</v>
       </c>
@@ -17189,7 +17215,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="12" thickBot="1">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -17200,7 +17226,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -17211,7 +17237,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -17222,7 +17248,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="81">
         <v>51</v>
       </c>
@@ -17233,7 +17259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="12" thickBot="1">
       <c r="A75" s="87">
         <v>52</v>
       </c>
@@ -17244,7 +17270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="12" thickBot="1">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -17255,7 +17281,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="12" thickBot="1">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -17266,7 +17292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -17277,7 +17303,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -17288,7 +17314,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -17299,7 +17325,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -17310,7 +17336,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -17321,7 +17347,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -17332,7 +17358,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -17343,7 +17369,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -17354,7 +17380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -17365,7 +17391,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="12" thickBot="1">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -17376,7 +17402,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="12" thickBot="1">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -17387,7 +17413,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="12" thickBot="1">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -17398,7 +17424,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -17409,7 +17435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="12" thickBot="1">
       <c r="A91" s="87">
         <v>68</v>
       </c>
@@ -17420,7 +17446,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="12" thickBot="1">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -17431,7 +17457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -17442,7 +17468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -17453,7 +17479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -17464,7 +17490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -17475,7 +17501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -17486,7 +17512,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -17497,7 +17523,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -17508,7 +17534,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -17519,7 +17545,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -17530,7 +17556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -17541,7 +17567,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="12" thickBot="1">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -17552,7 +17578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -17563,7 +17589,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -17574,7 +17600,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -17585,7 +17611,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -17596,7 +17622,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -17607,7 +17633,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -17618,7 +17644,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -17629,7 +17655,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -17640,7 +17666,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -17651,7 +17677,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -17662,7 +17688,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="12" thickBot="1">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -17673,7 +17699,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -17684,7 +17710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -17695,7 +17721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -17706,7 +17732,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="12" thickBot="1">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -17717,7 +17743,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -17728,7 +17754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -17739,7 +17765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -17750,7 +17776,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -17761,7 +17787,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -17772,7 +17798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -17783,7 +17809,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -17794,7 +17820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -17805,7 +17831,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -17816,7 +17842,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="12" thickBot="1">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -17827,7 +17853,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -17838,7 +17864,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -17849,7 +17875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -17860,7 +17886,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="12" thickBot="1">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -17871,7 +17897,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -17882,7 +17908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -17893,7 +17919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -17904,7 +17930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -17915,7 +17941,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="12" thickBot="1">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -17926,7 +17952,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -17937,7 +17963,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="12" thickBot="1">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -17970,67 +17996,67 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
         <v>451</v>
       </c>
@@ -18041,7 +18067,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -18052,7 +18078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -18063,7 +18089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -18074,7 +18100,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -18085,7 +18111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -18096,52 +18122,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
         <v>451</v>
       </c>
@@ -18152,7 +18178,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -18163,7 +18189,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -18174,7 +18200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -18185,7 +18211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -18196,7 +18222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -18207,122 +18233,122 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="107" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="107" t="s">
         <v>90</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
@@ -31,7 +26,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6391,10 +6386,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dir</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テキストの方向を指定。
 dir="ltr"　⇒　左から右
 dir="rtl"　⇒　右から左</t>
@@ -6639,10 +6630,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>samp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">プログラムやコンピュータからのサンプル出力を表示する場合に使用する。
 </t>
     <rPh sb="19" eb="21">
@@ -6660,10 +6647,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>kbd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">キーボードの入力や音声による入力などを指定する場合に使用する。
 </t>
     <rPh sb="6" eb="8">
@@ -6687,10 +6670,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sub</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>sup</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6825,10 +6804,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>rtc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">rt要素で指定された複数のルビをグループとしてまとめる場合に指定する。
 </t>
     <rPh sb="2" eb="4">
@@ -6849,10 +6824,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>bdi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>bdo</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6880,14 +6851,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>wbr</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ins</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">文書や画像などを後から挿入、追加する場合に使用する。
 </t>
     <rPh sb="0" eb="2">
@@ -6962,39 +6925,6 @@
     <t xml:space="preserve">【コンテンツモデル】
 トランスペアレント
 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>del</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">文書を削除、訂正する場合に使用する(取消線が表示される)。
-</t>
-    <rPh sb="0" eb="2">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -7022,32 +6952,6 @@
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストが正確でないことを示す場合に使用する(取消線が表示される)。
-</t>
-    <rPh sb="5" eb="7">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -9531,12 +9435,147 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>samp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kbd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rtc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bdi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wbr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ins</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>文書を削除、訂正する場合に使用する(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取消線が表示される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)。
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>テキストが正確でないことを示す場合に使用する(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取消線が表示される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)。
+</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -10737,7 +10776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10751,13 +10790,13 @@
   <dimension ref="A1:X147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -10768,7 +10807,7 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
         <v>352</v>
       </c>
@@ -10779,7 +10818,7 @@
         <v>354</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E1" s="117" t="s">
         <v>355</v>
@@ -10810,7 +10849,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1">
+    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="118"/>
       <c r="B2" s="117"/>
       <c r="C2" s="116"/>
@@ -10872,16 +10911,16 @@
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25">
+    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -10908,16 +10947,16 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="78.75">
+    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>370</v>
@@ -10946,13 +10985,13 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="56.25">
+    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -10982,16 +11021,16 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="123.75">
+    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -11020,16 +11059,16 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="157.5">
+    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11058,16 +11097,16 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="67.5">
+    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11096,7 +11135,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="157.5">
+    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
         <v>382</v>
@@ -11134,7 +11173,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25">
+    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
         <v>382</v>
@@ -11166,11 +11205,11 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75">
+    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
         <v>386</v>
@@ -11204,13 +11243,13 @@
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1">
+    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
         <v>389</v>
@@ -11250,9 +11289,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="109" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11278,16 +11317,16 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5">
+    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>393</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
@@ -11316,13 +11355,13 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25">
+    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>394</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
@@ -11356,13 +11395,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25">
+    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
         <v>395</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
@@ -11396,13 +11435,13 @@
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75">
+    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
         <v>396</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
@@ -11436,13 +11475,13 @@
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45">
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
         <v>397</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
@@ -11476,7 +11515,7 @@
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5">
+    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
         <v>398</v>
@@ -11516,7 +11555,7 @@
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45">
+    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
         <v>400</v>
@@ -11556,13 +11595,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25">
+    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
         <v>402</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
@@ -11594,13 +11633,13 @@
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11634,9 +11673,9 @@
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="109" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11662,13 +11701,13 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75">
+    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
         <v>404</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
@@ -11702,13 +11741,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5">
+    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
         <v>407</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
@@ -11740,16 +11779,16 @@
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5">
+    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
         <v>408</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -11780,7 +11819,7 @@
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5">
+    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
         <v>411</v>
@@ -11818,7 +11857,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5">
+    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
         <v>414</v>
@@ -11856,16 +11895,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45">
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
         <v>416</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
@@ -11894,13 +11933,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="67.5">
+    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
         <v>419</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -11932,16 +11971,16 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5">
+    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
         <v>420</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
@@ -11970,16 +12009,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75">
+    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
         <v>421</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
@@ -12008,16 +12047,16 @@
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.25">
+    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
         <v>422</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12046,7 +12085,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="22.5">
+    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
         <v>424</v>
@@ -12084,7 +12123,7 @@
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45">
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
         <v>426</v>
@@ -12124,7 +12163,7 @@
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5">
+    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
         <v>429</v>
@@ -12164,7 +12203,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1">
+    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
         <v>431</v>
@@ -12200,13 +12239,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="157.5">
+    <row r="38" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D38" s="53"/>
       <c r="E38" s="37"/>
@@ -12242,13 +12281,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45">
+    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="23" t="s">
         <v>436</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="25"/>
@@ -12282,7 +12321,7 @@
       </c>
       <c r="X39" s="24"/>
     </row>
-    <row r="40" spans="1:24" ht="33.75">
+    <row r="40" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
         <v>437</v>
@@ -12322,16 +12361,16 @@
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75">
+    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
@@ -12362,13 +12401,13 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="45">
+    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D42" s="51"/>
       <c r="E42" s="25"/>
@@ -12402,13 +12441,13 @@
       </c>
       <c r="X42" s="24"/>
     </row>
-    <row r="43" spans="1:24" ht="101.25">
+    <row r="43" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
@@ -12438,19 +12477,19 @@
         <v>385</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X43" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="45">
+    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
@@ -12484,13 +12523,13 @@
       </c>
       <c r="X44" s="24"/>
     </row>
-    <row r="45" spans="1:24" ht="45">
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
@@ -12524,13 +12563,13 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="67.5">
+    <row r="46" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
@@ -12564,10 +12603,10 @@
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="45">
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>217</v>
@@ -12606,13 +12645,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="45">
+    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
@@ -12646,13 +12685,13 @@
       </c>
       <c r="X48" s="24"/>
     </row>
-    <row r="49" spans="1:24" ht="22.5">
+    <row r="49" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>476</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>477</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
@@ -12686,13 +12725,13 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="33.75">
+    <row r="50" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>478</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>479</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
@@ -12726,13 +12765,13 @@
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75">
+    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
-        <v>480</v>
+        <v>584</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
@@ -12766,13 +12805,13 @@
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75">
+    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>482</v>
+        <v>585</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
@@ -12806,13 +12845,13 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="22.5">
+    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>484</v>
+        <v>586</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
@@ -12846,13 +12885,13 @@
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5">
+    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
@@ -12886,13 +12925,13 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="56.25">
+    <row r="55" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
@@ -12926,13 +12965,13 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="45">
+    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
@@ -12966,13 +13005,13 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="33.75">
+    <row r="57" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
@@ -13006,13 +13045,13 @@
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75">
+    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
@@ -13046,13 +13085,13 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="45">
+    <row r="59" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
@@ -13088,13 +13127,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="33.75">
+    <row r="60" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
@@ -13121,16 +13160,16 @@
         <v>390</v>
       </c>
       <c r="X60" s="24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="33.75">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
@@ -13157,16 +13196,16 @@
         <v>390</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="33.75">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
-        <v>500</v>
+        <v>587</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
@@ -13193,16 +13232,16 @@
         <v>390</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="33.75">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>502</v>
+        <v>588</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
@@ -13236,13 +13275,13 @@
       </c>
       <c r="X63" s="24"/>
     </row>
-    <row r="64" spans="1:24" ht="22.5">
+    <row r="64" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
@@ -13276,16 +13315,16 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="33.75">
+    <row r="65" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="26"/>
@@ -13314,13 +13353,13 @@
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="67.5">
+    <row r="66" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D66" s="51"/>
       <c r="E66" s="25"/>
@@ -13354,13 +13393,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="67.5">
+    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13392,13 +13431,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="34.5" thickBot="1">
+    <row r="68" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="6" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="15"/>
@@ -13430,13 +13469,13 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row r="69" spans="1:24" ht="157.5">
+    <row r="69" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A69" s="34"/>
       <c r="B69" s="35" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D69" s="53"/>
       <c r="E69" s="37"/>
@@ -13466,19 +13505,19 @@
         <v>385</v>
       </c>
       <c r="W69" s="36" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="X69" s="36" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="191.25">
+    <row r="70" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="23" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D70" s="51"/>
       <c r="E70" s="25"/>
@@ -13510,22 +13549,22 @@
         <v>385</v>
       </c>
       <c r="W70" s="24" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="X70" s="24" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" ht="112.5">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A71" s="30"/>
       <c r="B71" s="23" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D71" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="26"/>
@@ -13562,7 +13601,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="213.75">
+    <row r="72" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
         <v>326</v>
@@ -13606,16 +13645,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="67.5">
+    <row r="73" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
         <v>329</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13642,7 +13681,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="258.75">
+    <row r="74" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
         <v>332</v>
@@ -13686,7 +13725,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="213.75">
+    <row r="75" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
         <v>334</v>
@@ -13730,16 +13769,16 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="90">
+    <row r="76" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
         <v>338</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
@@ -13766,16 +13805,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="135">
+    <row r="77" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
         <v>340</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
@@ -13802,7 +13841,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="67.5">
+    <row r="78" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
         <v>342</v>
@@ -13841,10 +13880,10 @@
         <v>344</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="67.5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
         <v>345</v>
@@ -13884,16 +13923,16 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="225">
+    <row r="80" spans="1:24" ht="225" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
         <v>348</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
@@ -13924,7 +13963,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="23.25" thickBot="1">
+    <row r="81" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31"/>
       <c r="B81" s="6" t="s">
         <v>350</v>
@@ -13960,13 +13999,13 @@
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row r="82" spans="1:24" ht="101.25">
+    <row r="82" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A82" s="34"/>
       <c r="B82" s="35" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D82" s="53"/>
       <c r="E82" s="37"/>
@@ -13995,13 +14034,13 @@
         <v>0</v>
       </c>
       <c r="X82" s="36" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="67.5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A83" s="30"/>
       <c r="B83" s="23" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>11</v>
@@ -14034,16 +14073,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="67.5">
+    <row r="84" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A84" s="30"/>
       <c r="B84" s="23" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>150</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="26"/>
@@ -14070,7 +14109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="56.25">
+    <row r="85" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A85" s="30"/>
       <c r="B85" s="23" t="s">
         <v>3</v>
@@ -14106,16 +14145,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="56.25">
+    <row r="86" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="26"/>
@@ -14142,7 +14181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="56.25">
+    <row r="87" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
@@ -14176,10 +14215,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="45">
+    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>316</v>
@@ -14218,10 +14257,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25">
+    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>318</v>
@@ -14254,10 +14293,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="157.5">
+    <row r="90" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C90" s="24" t="s">
         <v>320</v>
@@ -14292,10 +14331,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="90.75" thickBot="1">
+    <row r="91" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31"/>
       <c r="B91" s="6" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>321</v>
@@ -14330,7 +14369,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="202.5">
+    <row r="92" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A92" s="34"/>
       <c r="B92" s="35" t="s">
         <v>12</v>
@@ -14370,7 +14409,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="90">
+    <row r="93" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>15</v>
@@ -14412,7 +14451,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="45">
+    <row r="94" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A94" s="30"/>
       <c r="B94" s="23" t="s">
         <v>17</v>
@@ -14448,7 +14487,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="67.5">
+    <row r="95" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A95" s="30"/>
       <c r="B95" s="23" t="s">
         <v>19</v>
@@ -14492,7 +14531,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="101.25">
+    <row r="96" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
         <v>21</v>
@@ -14536,7 +14575,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="112.5">
+    <row r="97" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
       <c r="B97" s="64" t="s">
         <v>244</v>
@@ -14580,10 +14619,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="101.25">
+    <row r="98" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A98" s="71"/>
       <c r="B98" s="64" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C98" s="63" t="s">
         <v>22</v>
@@ -14624,10 +14663,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="78.75">
+    <row r="99" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A99" s="71"/>
       <c r="B99" s="64" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C99" s="63" t="s">
         <v>22</v>
@@ -14668,16 +14707,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="78.75">
+    <row r="100" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A100" s="71"/>
       <c r="B100" s="64" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C100" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="38"/>
@@ -14712,16 +14751,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="101.25">
+    <row r="101" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A101" s="71"/>
       <c r="B101" s="64" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="38"/>
@@ -14756,16 +14795,16 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="123.75">
+    <row r="102" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
@@ -14800,16 +14839,16 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="123.75">
+    <row r="103" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A103" s="61"/>
       <c r="B103" s="60" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C103" s="72" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="62" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="19"/>
@@ -14842,7 +14881,7 @@
       </c>
       <c r="X103" s="9"/>
     </row>
-    <row r="104" spans="1:24" ht="135">
+    <row r="104" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A104" s="30"/>
       <c r="B104" s="23" t="s">
         <v>284</v>
@@ -14886,7 +14925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="146.25">
+    <row r="105" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A105" s="28"/>
       <c r="B105" s="60" t="s">
         <v>254</v>
@@ -14928,7 +14967,7 @@
       </c>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" ht="157.5">
+    <row r="106" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A106" s="30"/>
       <c r="B106" s="23" t="s">
         <v>289</v>
@@ -14970,10 +15009,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="112.5">
+    <row r="107" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A107" s="30"/>
       <c r="B107" s="23" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>293</v>
@@ -15006,10 +15045,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="67.5">
+    <row r="108" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>296</v>
@@ -15042,7 +15081,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="270">
+    <row r="109" spans="1:24" ht="270" x14ac:dyDescent="0.15">
       <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
         <v>300</v>
@@ -15084,7 +15123,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="168.75">
+    <row r="110" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
         <v>304</v>
@@ -15128,7 +15167,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="101.25">
+    <row r="111" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
         <v>308</v>
@@ -15168,7 +15207,7 @@
       </c>
       <c r="X111" s="24"/>
     </row>
-    <row r="112" spans="1:24" ht="67.5">
+    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
         <v>311</v>
@@ -15210,7 +15249,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="168.75">
+    <row r="113" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>313</v>
@@ -15252,7 +15291,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="57" thickBot="1">
+    <row r="114" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="31"/>
       <c r="B114" s="6" t="s">
         <v>315</v>
@@ -15290,7 +15329,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="45">
+    <row r="115" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A115" s="34"/>
       <c r="B115" s="35" t="s">
         <v>269</v>
@@ -15332,7 +15371,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="33.75">
+    <row r="116" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
         <v>276</v>
@@ -15368,7 +15407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="67.5">
+    <row r="117" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
         <v>278</v>
@@ -15406,7 +15445,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="45">
+    <row r="118" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A118" s="30"/>
       <c r="B118" s="23" t="s">
         <v>281</v>
@@ -15444,7 +15483,7 @@
       </c>
       <c r="X118" s="24"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A119" s="30"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
@@ -15470,7 +15509,7 @@
       <c r="W119" s="24"/>
       <c r="X119" s="24"/>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A120" s="30"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
@@ -15496,7 +15535,7 @@
       <c r="W120" s="24"/>
       <c r="X120" s="24"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A121" s="30"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
@@ -15522,7 +15561,7 @@
       <c r="W121" s="24"/>
       <c r="X121" s="24"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A122" s="30"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
@@ -15548,7 +15587,7 @@
       <c r="W122" s="24"/>
       <c r="X122" s="24"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A123" s="30"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
@@ -15574,7 +15613,7 @@
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A124" s="30"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
@@ -15600,7 +15639,7 @@
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A125" s="30"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
@@ -15626,7 +15665,7 @@
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A126" s="30"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
@@ -15652,7 +15691,7 @@
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A127" s="30"/>
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
@@ -15678,7 +15717,7 @@
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A128" s="30"/>
       <c r="B128" s="23"/>
       <c r="C128" s="24"/>
@@ -15704,7 +15743,7 @@
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A129" s="30"/>
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
@@ -15730,7 +15769,7 @@
       <c r="W129" s="24"/>
       <c r="X129" s="24"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A130" s="30"/>
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
@@ -15756,7 +15795,7 @@
       <c r="W130" s="24"/>
       <c r="X130" s="24"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A131" s="30"/>
       <c r="B131" s="23"/>
       <c r="C131" s="24"/>
@@ -15782,7 +15821,7 @@
       <c r="W131" s="24"/>
       <c r="X131" s="24"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A132" s="30"/>
       <c r="B132" s="23"/>
       <c r="C132" s="24"/>
@@ -15808,7 +15847,7 @@
       <c r="W132" s="24"/>
       <c r="X132" s="24"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A133" s="30"/>
       <c r="B133" s="23"/>
       <c r="C133" s="24"/>
@@ -15834,7 +15873,7 @@
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A134" s="30"/>
       <c r="B134" s="23"/>
       <c r="C134" s="24"/>
@@ -15860,7 +15899,7 @@
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A135" s="30"/>
       <c r="B135" s="23"/>
       <c r="C135" s="24"/>
@@ -15886,7 +15925,7 @@
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A136" s="30"/>
       <c r="B136" s="23"/>
       <c r="C136" s="24"/>
@@ -15912,7 +15951,7 @@
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A137" s="30"/>
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
@@ -15938,7 +15977,7 @@
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A138" s="30"/>
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
@@ -15964,7 +16003,7 @@
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A139" s="30"/>
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
@@ -15990,7 +16029,7 @@
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A140" s="30"/>
       <c r="B140" s="23"/>
       <c r="C140" s="24"/>
@@ -16016,7 +16055,7 @@
       <c r="W140" s="24"/>
       <c r="X140" s="24"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A141" s="30"/>
       <c r="B141" s="23"/>
       <c r="C141" s="24"/>
@@ -16042,7 +16081,7 @@
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A142" s="30"/>
       <c r="B142" s="23"/>
       <c r="C142" s="24"/>
@@ -16068,7 +16107,7 @@
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A143" s="30"/>
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
@@ -16094,7 +16133,7 @@
       <c r="W143" s="24"/>
       <c r="X143" s="24"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A144" s="30"/>
       <c r="B144" s="23"/>
       <c r="C144" s="24"/>
@@ -16120,7 +16159,7 @@
       <c r="W144" s="24"/>
       <c r="X144" s="24"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A145" s="30"/>
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
@@ -16146,7 +16185,7 @@
       <c r="W145" s="24"/>
       <c r="X145" s="24"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A146" s="30"/>
       <c r="B146" s="23"/>
       <c r="C146" s="24"/>
@@ -16172,7 +16211,7 @@
       <c r="W146" s="24"/>
       <c r="X146" s="24"/>
     </row>
-    <row r="147" spans="1:24" ht="12" thickBot="1">
+    <row r="147" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
@@ -16239,7 +16278,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.14000000000000001" right="0.2" top="0.33" bottom="0.28000000000000003" header="0.13" footer="0.13"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -16255,23 +16294,25 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>439</v>
@@ -16280,7 +16321,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
         <v>1</v>
       </c>
@@ -16291,7 +16332,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
         <v>2</v>
       </c>
@@ -16302,7 +16343,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
         <v>3</v>
       </c>
@@ -16313,7 +16354,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
         <v>4</v>
       </c>
@@ -16324,130 +16365,130 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33.75">
+    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A8" s="44">
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="44">
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="44">
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="44">
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>456</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="44">
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="44">
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="44">
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="44">
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="44">
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -16470,27 +16511,27 @@
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1">
+    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1">
+    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>23</v>
       </c>
@@ -16501,7 +16542,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1">
+    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -16512,7 +16553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1">
+    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -16523,7 +16564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1">
+    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -16534,7 +16575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1">
+    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -16545,7 +16586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1">
+    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -16556,7 +16597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1">
+    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -16567,7 +16608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1">
+    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -16578,7 +16619,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1">
+    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -16589,7 +16630,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1">
+    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -16600,7 +16641,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1">
+    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -16611,7 +16652,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1">
+    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -16622,7 +16663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1">
+    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -16633,7 +16674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1">
+    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -16644,7 +16685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1">
+    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -16655,7 +16696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1">
+    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -16666,7 +16707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1">
+    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -16677,17 +16718,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1">
+    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -16698,7 +16739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -16709,7 +16750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="81">
         <v>2</v>
       </c>
@@ -16720,7 +16761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="81">
         <v>3</v>
       </c>
@@ -16731,7 +16772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1">
+    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87">
         <v>4</v>
       </c>
@@ -16742,7 +16783,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1">
+    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -16753,7 +16794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -16764,7 +16805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -16775,7 +16816,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -16786,7 +16827,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -16797,7 +16838,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -16808,7 +16849,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1">
+    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -16819,7 +16860,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1">
+    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -16830,7 +16871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1">
+    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -16841,7 +16882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -16852,51 +16893,51 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="81">
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="81">
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="81">
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1">
+    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87">
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -16907,7 +16948,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -16918,7 +16959,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -16929,7 +16970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -16940,7 +16981,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1">
+    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -16951,7 +16992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1">
+    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -16962,7 +17003,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1">
+    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -16973,7 +17014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1">
+    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -16984,7 +17025,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1">
+    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -16995,7 +17036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1">
+    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -17006,7 +17047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -17017,40 +17058,40 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="81">
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="81">
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1">
+    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="87">
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1">
+    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -17061,7 +17102,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -17072,62 +17113,62 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="81">
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="81">
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="81">
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="81">
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1">
+    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="85">
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -17138,51 +17179,51 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="81">
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="81">
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="81">
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1">
+    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="85">
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -17193,29 +17234,29 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="81">
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1">
+    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="87">
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1">
+    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -17226,7 +17267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -17237,7 +17278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -17248,29 +17289,29 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="81">
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1">
+    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="87">
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1">
+    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -17281,7 +17322,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1">
+    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -17292,7 +17333,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -17303,7 +17344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -17314,7 +17355,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -17325,7 +17366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -17336,7 +17377,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -17347,7 +17388,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -17358,7 +17399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -17369,7 +17410,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -17380,7 +17421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -17391,7 +17432,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1">
+    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -17402,7 +17443,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1">
+    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -17413,7 +17454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1">
+    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -17424,7 +17465,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -17435,18 +17476,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1">
+    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="87">
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1">
+    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -17457,7 +17498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -17468,7 +17509,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -17479,7 +17520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -17490,7 +17531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -17501,7 +17542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -17512,7 +17553,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -17523,7 +17564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -17534,7 +17575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -17545,7 +17586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -17556,7 +17597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -17567,7 +17608,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1">
+    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -17578,7 +17619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -17589,7 +17630,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -17600,7 +17641,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -17611,7 +17652,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -17622,7 +17663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -17633,7 +17674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -17644,7 +17685,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -17655,7 +17696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -17666,7 +17707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -17677,7 +17718,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -17688,7 +17729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1">
+    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -17699,7 +17740,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -17710,7 +17751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -17721,7 +17762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -17732,7 +17773,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1">
+    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -17743,7 +17784,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -17754,7 +17795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -17765,7 +17806,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -17776,7 +17817,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -17787,7 +17828,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -17798,7 +17839,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -17809,7 +17850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -17820,7 +17861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -17831,7 +17872,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -17842,7 +17883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1">
+    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -17853,7 +17894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -17864,7 +17905,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -17875,7 +17916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -17886,7 +17927,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1">
+    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -17897,7 +17938,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -17908,7 +17949,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -17919,7 +17960,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -17930,7 +17971,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -17941,7 +17982,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1">
+    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -17952,7 +17993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -17963,7 +18004,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1">
+    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -17996,69 +18037,69 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>45</v>
@@ -18067,7 +18108,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -18078,7 +18119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -18089,7 +18130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -18100,7 +18141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -18111,7 +18152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -18122,54 +18163,54 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>45</v>
@@ -18178,7 +18219,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -18189,7 +18230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -18200,7 +18241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -18211,7 +18252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -18222,7 +18263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5">
+    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -18233,122 +18274,122 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="107" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="107" t="s">
         <v>90</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -13,7 +13,7 @@
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$149</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">要素一覧!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="597">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -7120,10 +7120,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>embed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)src属性
 コンテンツのURLを指定
@@ -7311,44 +7307,6 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>シヨウドウガシュルイシテイヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">object要素の子要素として、objet要素で指定されたオブジェクトのパラメータ初期値を定義する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t/>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9568,6 +9526,53 @@
     <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキスト関連の要素</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像・動画関連の要素</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>embed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">object要素の子要素として、object要素で指定されたオブジェクトのパラメータを指定する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10465,7 +10470,91 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10776,7 +10865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10787,13 +10876,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X147"/>
+  <dimension ref="A1:X149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10818,7 +10907,7 @@
         <v>354</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1" s="117" t="s">
         <v>355</v>
@@ -10917,10 +11006,10 @@
         <v>366</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -10953,10 +11042,10 @@
         <v>369</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>370</v>
@@ -10991,7 +11080,7 @@
         <v>372</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11027,10 +11116,10 @@
         <v>374</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -11065,10 +11154,10 @@
         <v>377</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11103,10 +11192,10 @@
         <v>379</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11205,7 +11294,7 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X10" s="9"/>
     </row>
@@ -11243,7 +11332,7 @@
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>388</v>
@@ -11291,7 +11380,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="109" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11323,10 +11412,10 @@
         <v>393</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
@@ -11361,7 +11450,7 @@
         <v>394</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
@@ -11401,7 +11490,7 @@
         <v>395</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
@@ -11441,7 +11530,7 @@
         <v>396</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
@@ -11481,7 +11570,7 @@
         <v>397</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
@@ -11601,7 +11690,7 @@
         <v>402</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
@@ -11639,7 +11728,7 @@
         <v>403</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11675,7 +11764,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="109" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11707,7 +11796,7 @@
         <v>404</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
@@ -11747,7 +11836,7 @@
         <v>407</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
@@ -11785,10 +11874,10 @@
         <v>408</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -11901,10 +11990,10 @@
         <v>416</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
@@ -11939,7 +12028,7 @@
         <v>419</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -11977,10 +12066,10 @@
         <v>420</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
@@ -12015,10 +12104,10 @@
         <v>421</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
@@ -12053,10 +12142,10 @@
         <v>422</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12239,122 +12328,110 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A38" s="109" t="s">
+        <v>593</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="115"/>
+    </row>
+    <row r="39" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="40" t="s">
+      <c r="C39" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38" t="s">
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38" t="s">
+      <c r="T39" s="38"/>
+      <c r="U39" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="V38" s="39" t="s">
+      <c r="V39" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="W38" s="36" t="s">
+      <c r="W39" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="X38" s="36" t="s">
+      <c r="X39" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
-      <c r="B39" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="W39" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X39" s="24"/>
-    </row>
-    <row r="40" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>438</v>
+        <v>552</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
+      <c r="F40" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
-      <c r="J40" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="27"/>
       <c r="N40" s="25"/>
       <c r="O40" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W40" s="24" t="s">
         <v>390</v>
@@ -12364,56 +12441,56 @@
     <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>518</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D41" s="51"/>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="J41" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
       <c r="N41" s="25"/>
       <c r="O41" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
-      <c r="V41" s="27"/>
+      <c r="V41" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="W41" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X41" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="X41" s="24"/>
+    </row>
+    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>578</v>
+        <v>469</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="D42" s="51"/>
+        <v>524</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>517</v>
+      </c>
       <c r="E42" s="25"/>
-      <c r="F42" s="26" t="s">
-        <v>385</v>
-      </c>
+      <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
@@ -12433,21 +12510,21 @@
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
-      <c r="V42" s="27" t="s">
-        <v>385</v>
-      </c>
+      <c r="V42" s="27"/>
       <c r="W42" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X42" s="24"/>
-    </row>
-    <row r="43" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="X42" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
@@ -12477,19 +12554,17 @@
         <v>385</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="X43" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+      <c r="X43" s="24"/>
+    </row>
+    <row r="44" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
@@ -12519,17 +12594,19 @@
         <v>385</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X44" s="24"/>
+        <v>470</v>
+      </c>
+      <c r="X44" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>581</v>
+        <v>471</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
@@ -12563,13 +12640,13 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
-        <v>472</v>
+        <v>579</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
@@ -12599,17 +12676,17 @@
         <v>385</v>
       </c>
       <c r="W46" s="24" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>217</v>
+        <v>581</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
@@ -12639,19 +12716,17 @@
         <v>385</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X47" s="24" t="s">
-        <v>229</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="X47" s="24"/>
     </row>
     <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>555</v>
+        <v>217</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
@@ -12683,15 +12758,17 @@
       <c r="W48" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X48" s="24"/>
-    </row>
-    <row r="49" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="X48" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
@@ -12725,13 +12802,13 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
@@ -12768,10 +12845,10 @@
     <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
-        <v>584</v>
+        <v>477</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
@@ -12808,10 +12885,10 @@
     <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
@@ -12845,13 +12922,13 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
@@ -12888,10 +12965,10 @@
     <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>481</v>
+        <v>584</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
@@ -12925,13 +13002,13 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
@@ -12965,13 +13042,13 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
@@ -13005,13 +13082,13 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
@@ -13048,10 +13125,10 @@
     <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
@@ -13085,13 +13162,13 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
@@ -13123,17 +13200,15 @@
       <c r="W59" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X59" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="X59" s="24"/>
+    </row>
+    <row r="60" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
@@ -13148,28 +13223,34 @@
       <c r="L60" s="26"/>
       <c r="M60" s="27"/>
       <c r="N60" s="25"/>
-      <c r="O60" s="33"/>
+      <c r="O60" s="33" t="s">
+        <v>385</v>
+      </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
+      <c r="S60" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
-      <c r="V60" s="27"/>
+      <c r="V60" s="27" t="s">
+        <v>385</v>
+      </c>
       <c r="W60" s="24" t="s">
         <v>390</v>
       </c>
       <c r="X60" s="24" t="s">
-        <v>493</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
@@ -13202,10 +13283,10 @@
     <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
-        <v>587</v>
+        <v>494</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
@@ -13238,10 +13319,10 @@
     <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
@@ -13256,32 +13337,28 @@
       <c r="L63" s="26"/>
       <c r="M63" s="27"/>
       <c r="N63" s="25"/>
-      <c r="O63" s="33" t="s">
-        <v>385</v>
-      </c>
+      <c r="O63" s="33"/>
       <c r="P63" s="26"/>
       <c r="Q63" s="26"/>
       <c r="R63" s="26"/>
-      <c r="S63" s="26" t="s">
-        <v>385</v>
-      </c>
+      <c r="S63" s="26"/>
       <c r="T63" s="26"/>
       <c r="U63" s="26"/>
-      <c r="V63" s="27" t="s">
-        <v>385</v>
-      </c>
+      <c r="V63" s="27"/>
       <c r="W63" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X63" s="24"/>
-    </row>
-    <row r="64" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="X63" s="24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>497</v>
+        <v>586</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
@@ -13315,19 +13392,19 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
-        <v>590</v>
+        <v>497</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>518</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D65" s="51"/>
       <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
+      <c r="F65" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
@@ -13347,21 +13424,25 @@
       </c>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
-      <c r="V65" s="27"/>
+      <c r="V65" s="27" t="s">
+        <v>385</v>
+      </c>
       <c r="W65" s="24" t="s">
         <v>390</v>
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="D66" s="51"/>
+        <v>523</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>517</v>
+      </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
@@ -13383,23 +13464,19 @@
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
-      <c r="V66" s="27" t="s">
-        <v>385</v>
-      </c>
+      <c r="V66" s="27"/>
       <c r="W66" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X66" s="24" t="s">
-        <v>231</v>
-      </c>
+      <c r="X66" s="24"/>
     </row>
     <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>593</v>
+        <v>499</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13423,191 +13500,169 @@
       </c>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
-      <c r="V67" s="27"/>
+      <c r="V67" s="27" t="s">
+        <v>385</v>
+      </c>
       <c r="W67" s="24" t="s">
         <v>390</v>
       </c>
       <c r="X67" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="30"/>
+      <c r="B68" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="X68" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="6" t="s">
+    <row r="69" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="31"/>
+      <c r="B69" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D69" s="52"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A70" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="12" t="s">
+      <c r="B70" s="110"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="113"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="113"/>
+      <c r="U70" s="113"/>
+      <c r="V70" s="113"/>
+      <c r="W70" s="111"/>
+      <c r="X70" s="115"/>
+    </row>
+    <row r="71" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="D71" s="53"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-    </row>
-    <row r="69" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="34"/>
-      <c r="B69" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="V69" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="W69" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="X69" s="36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="30"/>
-      <c r="B70" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="T70" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="U70" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="V70" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="W70" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="X70" s="24" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="30"/>
-      <c r="B71" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
       <c r="S71" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="T71" s="26" t="s">
+      <c r="T71" s="38"/>
+      <c r="U71" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="U71" s="26" t="s">
+      <c r="V71" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="V71" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="W71" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="X71" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+      <c r="W71" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="X71" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
-        <v>326</v>
+        <v>509</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>328</v>
+        <v>510</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -13639,22 +13694,22 @@
         <v>385</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>327</v>
+        <v>512</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
-        <v>329</v>
+        <v>595</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13666,28 +13721,38 @@
       <c r="L73" s="26"/>
       <c r="M73" s="27"/>
       <c r="N73" s="25"/>
-      <c r="O73" s="33"/>
+      <c r="O73" s="33" t="s">
+        <v>385</v>
+      </c>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="27"/>
+      <c r="S73" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="T73" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="U73" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="V73" s="27" t="s">
+        <v>385</v>
+      </c>
       <c r="W73" s="24" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -13701,39 +13766,41 @@
       <c r="M74" s="27"/>
       <c r="N74" s="25"/>
       <c r="O74" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U74" s="26" t="s">
         <v>385</v>
       </c>
       <c r="V74" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W74" s="24" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="X74" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D75" s="51"/>
+        <v>596</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>517</v>
+      </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
@@ -13744,42 +13811,30 @@
       <c r="L75" s="26"/>
       <c r="M75" s="27"/>
       <c r="N75" s="25"/>
-      <c r="O75" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O75" s="33"/>
       <c r="P75" s="26"/>
       <c r="Q75" s="26"/>
       <c r="R75" s="26"/>
-      <c r="S75" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="T75" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="U75" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="V75" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="27"/>
       <c r="W75" s="24" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="X75" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>518</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D76" s="51"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
@@ -13790,32 +13845,40 @@
       <c r="L76" s="26"/>
       <c r="M76" s="27"/>
       <c r="N76" s="25"/>
-      <c r="O76" s="33"/>
+      <c r="O76" s="33" t="s">
+        <v>384</v>
+      </c>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="27"/>
+      <c r="S76" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="U76" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="V76" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="W76" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="X76" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>518</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="D77" s="51"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
@@ -13826,30 +13889,42 @@
       <c r="L77" s="26"/>
       <c r="M77" s="27"/>
       <c r="N77" s="25"/>
-      <c r="O77" s="33"/>
+      <c r="O77" s="33" t="s">
+        <v>384</v>
+      </c>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="26"/>
-      <c r="V77" s="27"/>
+      <c r="S77" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T77" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="U77" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="V77" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="W77" s="24" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="X77" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D78" s="51"/>
+        <v>521</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>517</v>
+      </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
@@ -13860,38 +13935,32 @@
       <c r="L78" s="26"/>
       <c r="M78" s="27"/>
       <c r="N78" s="25"/>
-      <c r="O78" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O78" s="33"/>
       <c r="P78" s="26"/>
       <c r="Q78" s="26"/>
       <c r="R78" s="26"/>
-      <c r="S78" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="T78" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
       <c r="U78" s="26"/>
-      <c r="V78" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="V78" s="27"/>
       <c r="W78" s="24" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D79" s="51"/>
+        <v>520</v>
+      </c>
+      <c r="D79" s="51" t="s">
+        <v>517</v>
+      </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -13902,38 +13971,30 @@
       <c r="L79" s="26"/>
       <c r="M79" s="27"/>
       <c r="N79" s="25"/>
-      <c r="O79" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O79" s="33"/>
       <c r="P79" s="26"/>
       <c r="Q79" s="26"/>
       <c r="R79" s="26"/>
-      <c r="S79" s="26" t="s">
-        <v>385</v>
-      </c>
+      <c r="S79" s="26"/>
       <c r="T79" s="26"/>
       <c r="U79" s="26"/>
-      <c r="V79" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="V79" s="27"/>
       <c r="W79" s="24" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="X79" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>518</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D80" s="51"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -13953,175 +14014,187 @@
       <c r="S80" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="T80" s="26"/>
+      <c r="T80" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="U80" s="26"/>
-      <c r="V80" s="27"/>
+      <c r="V80" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="W80" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="X80" s="24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="30"/>
+      <c r="B81" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D81" s="51"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="W81" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="X81" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+      <c r="A82" s="30"/>
+      <c r="B82" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="D82" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="X80" s="24" t="s">
+      <c r="X82" s="24" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="6" t="s">
+    <row r="83" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="31"/>
+      <c r="B83" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D81" s="52"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="41" t="s">
+      <c r="D83" s="52"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12" t="s">
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="T81" s="12" t="s">
+      <c r="T83" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="U81" s="12"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-    </row>
-    <row r="82" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="34"/>
-      <c r="B82" s="35" t="s">
-        <v>551</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>560</v>
-      </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="40" t="s">
+      <c r="U83" s="12"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+    </row>
+    <row r="84" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="34"/>
+      <c r="B84" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="D84" s="53"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="39" t="s">
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="W82" s="36" t="s">
+      <c r="W84" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="X82" s="36" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
-      <c r="B83" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="51"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X83" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="30"/>
-      <c r="B84" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="X84" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="X84" s="36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A85" s="30"/>
       <c r="B85" s="23" t="s">
-        <v>3</v>
+        <v>559</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D85" s="51"/>
       <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
+      <c r="F85" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
@@ -14139,22 +14212,22 @@
       <c r="U85" s="26"/>
       <c r="V85" s="27"/>
       <c r="W85" s="24" t="s">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="X85" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="26"/>
@@ -14175,21 +14248,23 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
       <c r="W86" s="24" t="s">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="X86" s="24" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D87" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="D87" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -14209,27 +14284,25 @@
       <c r="U87" s="26"/>
       <c r="V87" s="27"/>
       <c r="W87" s="24" t="s">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="X87" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
       <c r="E88" s="25"/>
-      <c r="F88" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="F88" s="26"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
       <c r="I88" s="26"/>
@@ -14238,36 +14311,30 @@
       <c r="L88" s="26"/>
       <c r="M88" s="27"/>
       <c r="N88" s="25"/>
-      <c r="O88" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O88" s="33"/>
       <c r="P88" s="26"/>
       <c r="Q88" s="26"/>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
       <c r="T88" s="26"/>
       <c r="U88" s="26"/>
-      <c r="V88" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="V88" s="27"/>
       <c r="W88" s="24" t="s">
         <v>390</v>
       </c>
       <c r="X88" s="24" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>539</v>
+        <v>10</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>317</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D89" s="51"/>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
@@ -14290,16 +14357,16 @@
         <v>390</v>
       </c>
       <c r="X89" s="24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D90" s="51" t="s">
         <v>317</v>
@@ -14316,194 +14383,194 @@
       <c r="L90" s="26"/>
       <c r="M90" s="27"/>
       <c r="N90" s="25"/>
-      <c r="O90" s="33"/>
+      <c r="O90" s="33" t="s">
+        <v>384</v>
+      </c>
       <c r="P90" s="26"/>
       <c r="Q90" s="26"/>
       <c r="R90" s="26"/>
       <c r="S90" s="26"/>
       <c r="T90" s="26"/>
       <c r="U90" s="26"/>
-      <c r="V90" s="27"/>
+      <c r="V90" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="W90" s="24" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="X90" s="24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D91" s="52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="30"/>
+      <c r="B91" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="15"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="X91" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="34"/>
-      <c r="B92" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="37"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="X91" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="30"/>
+      <c r="B92" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="25"/>
       <c r="F92" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="40" t="s">
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="X92" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="31"/>
+      <c r="B93" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="X93" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="34"/>
+      <c r="B94" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="53"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="38"/>
-      <c r="S92" s="38"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="39" t="s">
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="W92" s="36" t="s">
+      <c r="W94" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="X92" s="36" t="s">
+      <c r="X94" s="36" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="90" x14ac:dyDescent="0.15">
-      <c r="A93" s="30"/>
-      <c r="B93" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P93" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="W93" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="X93" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" ht="45" x14ac:dyDescent="0.15">
-      <c r="A94" s="30"/>
-      <c r="B94" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
-      <c r="T94" s="26"/>
-      <c r="U94" s="26"/>
-      <c r="V94" s="27"/>
-      <c r="W94" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X94" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A95" s="30"/>
       <c r="B95" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D95" s="51"/>
       <c r="E95" s="25"/>
-      <c r="F95" s="26"/>
+      <c r="F95" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="26" t="s">
-        <v>385</v>
-      </c>
+      <c r="J95" s="26"/>
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
       <c r="M95" s="27"/>
@@ -14511,162 +14578,152 @@
       <c r="O95" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="P95" s="26"/>
+      <c r="P95" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="Q95" s="26"/>
       <c r="R95" s="26"/>
-      <c r="S95" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="S95" s="26"/>
       <c r="T95" s="26"/>
-      <c r="U95" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="U95" s="26"/>
       <c r="V95" s="27" t="s">
         <v>384</v>
       </c>
       <c r="W95" s="24" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="X95" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="51" t="s">
-        <v>286</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D96" s="51"/>
       <c r="E96" s="25"/>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="J96" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
       <c r="M96" s="27"/>
       <c r="N96" s="25"/>
-      <c r="O96" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O96" s="33"/>
       <c r="P96" s="26"/>
       <c r="Q96" s="26"/>
       <c r="R96" s="26"/>
-      <c r="S96" s="26" t="s">
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="X96" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="30"/>
+      <c r="B97" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="51"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26" t="s">
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="V97" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="W97" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="X97" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="30"/>
+      <c r="B98" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="25"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T98" s="26"/>
+      <c r="U98" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="V96" s="26" t="s">
+      <c r="V98" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="W96" s="24" t="s">
+      <c r="W98" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="X96" s="24" t="s">
+      <c r="X98" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="34"/>
-      <c r="B97" s="64" t="s">
+    <row r="99" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="34"/>
+      <c r="B99" s="64" t="s">
         <v>244</v>
-      </c>
-      <c r="C97" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="E97" s="66"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="67"/>
-      <c r="L97" s="67"/>
-      <c r="M97" s="68"/>
-      <c r="N97" s="66"/>
-      <c r="O97" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="P97" s="67"/>
-      <c r="Q97" s="67"/>
-      <c r="R97" s="67"/>
-      <c r="S97" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="T97" s="67"/>
-      <c r="U97" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="V97" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="W97" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="X97" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
-      <c r="B98" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C98" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="E98" s="66"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="68"/>
-      <c r="N98" s="66"/>
-      <c r="O98" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="P98" s="67"/>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="67"/>
-      <c r="S98" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="T98" s="67"/>
-      <c r="U98" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="V98" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="W98" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="X98" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="71"/>
-      <c r="B99" s="64" t="s">
-        <v>546</v>
       </c>
       <c r="C99" s="63" t="s">
         <v>22</v>
@@ -14697,114 +14754,114 @@
       <c r="U99" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="V99" s="70" t="s">
+      <c r="V99" s="67" t="s">
         <v>288</v>
       </c>
       <c r="W99" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X99" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A100" s="71"/>
       <c r="B100" s="64" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C100" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>518</v>
-      </c>
-      <c r="E100" s="37"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="37"/>
+        <v>287</v>
+      </c>
+      <c r="E100" s="66"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
+      <c r="L100" s="67"/>
+      <c r="M100" s="68"/>
+      <c r="N100" s="66"/>
       <c r="O100" s="69" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="P100" s="67"/>
       <c r="Q100" s="67"/>
       <c r="R100" s="67"/>
       <c r="S100" s="67" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="T100" s="67"/>
       <c r="U100" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="V100" s="68" t="s">
-        <v>370</v>
+        <v>288</v>
+      </c>
+      <c r="V100" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="W100" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X100" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A101" s="71"/>
       <c r="B101" s="64" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>518</v>
-      </c>
-      <c r="E101" s="37"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="37"/>
+        <v>287</v>
+      </c>
+      <c r="E101" s="66"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="68"/>
+      <c r="N101" s="66"/>
       <c r="O101" s="69" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="P101" s="67"/>
       <c r="Q101" s="67"/>
       <c r="R101" s="67"/>
       <c r="S101" s="67" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="T101" s="67"/>
       <c r="U101" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="V101" s="68" t="s">
-        <v>370</v>
+        <v>288</v>
+      </c>
+      <c r="V101" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="W101" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X101" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E102" s="37"/>
       <c r="F102" s="38"/>
@@ -14833,147 +14890,149 @@
         <v>370</v>
       </c>
       <c r="W102" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="X102" s="36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="71"/>
+      <c r="B103" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="E103" s="37"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="P103" s="67"/>
+      <c r="Q103" s="67"/>
+      <c r="R103" s="67"/>
+      <c r="S103" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="T103" s="67"/>
+      <c r="U103" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="V103" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="W103" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="X103" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="A104" s="71"/>
+      <c r="B104" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="E104" s="37"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="39"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="P104" s="67"/>
+      <c r="Q104" s="67"/>
+      <c r="R104" s="67"/>
+      <c r="S104" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="T104" s="67"/>
+      <c r="U104" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="V104" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="W104" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="X102" s="36" t="s">
+      <c r="X104" s="36" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="61"/>
-      <c r="B103" s="60" t="s">
-        <v>546</v>
-      </c>
-      <c r="C103" s="72" t="s">
+    <row r="105" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="A105" s="61"/>
+      <c r="B105" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="C105" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="62" t="s">
-        <v>518</v>
-      </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="57" t="s">
+      <c r="D105" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="57" t="s">
         <v>370</v>
-      </c>
-      <c r="P103" s="58"/>
-      <c r="Q103" s="58"/>
-      <c r="R103" s="58"/>
-      <c r="S103" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="T103" s="58"/>
-      <c r="U103" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="V103" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="W103" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="X103" s="9"/>
-    </row>
-    <row r="104" spans="1:24" ht="135" x14ac:dyDescent="0.15">
-      <c r="A104" s="30"/>
-      <c r="B104" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V104" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="W104" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="X104" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
-      <c r="A105" s="28"/>
-      <c r="B105" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="C105" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="D105" s="62"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="K105" s="58"/>
-      <c r="L105" s="58"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="106"/>
-      <c r="O105" s="57" t="s">
-        <v>255</v>
       </c>
       <c r="P105" s="58"/>
       <c r="Q105" s="58"/>
       <c r="R105" s="58"/>
       <c r="S105" s="58" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="T105" s="58"/>
       <c r="U105" s="58" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="V105" s="59" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="W105" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="X105" s="9"/>
     </row>
-    <row r="106" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A106" s="30"/>
       <c r="B106" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D106" s="51"/>
       <c r="E106" s="25"/>
@@ -14981,7 +15040,9 @@
       <c r="G106" s="26"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
+      <c r="J106" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
       <c r="M106" s="27"/>
@@ -15003,59 +15064,63 @@
         <v>384</v>
       </c>
       <c r="W106" s="24" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="X106" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="30"/>
-      <c r="B107" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D107" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="33"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="27"/>
-      <c r="W107" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="X107" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="28"/>
+      <c r="B107" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="62"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="106"/>
+      <c r="O107" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="T107" s="58"/>
+      <c r="U107" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="V107" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="W107" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="X107" s="9"/>
+    </row>
+    <row r="108" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
-        <v>542</v>
+        <v>289</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D108" s="51" t="s">
-        <v>317</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D108" s="51"/>
       <c r="E108" s="25"/>
       <c r="F108" s="26"/>
       <c r="G108" s="26"/>
@@ -15066,30 +15131,40 @@
       <c r="L108" s="26"/>
       <c r="M108" s="27"/>
       <c r="N108" s="25"/>
-      <c r="O108" s="33"/>
+      <c r="O108" s="33" t="s">
+        <v>384</v>
+      </c>
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
       <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
+      <c r="S108" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="27"/>
+      <c r="U108" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="V108" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="W108" s="24" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="X108" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
-        <v>300</v>
+        <v>541</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D109" s="51"/>
+        <v>293</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>317</v>
+      </c>
       <c r="E109" s="25"/>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -15100,39 +15175,31 @@
       <c r="L109" s="26"/>
       <c r="M109" s="27"/>
       <c r="N109" s="25"/>
-      <c r="O109" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O109" s="33"/>
       <c r="P109" s="26"/>
       <c r="Q109" s="26"/>
       <c r="R109" s="26"/>
-      <c r="S109" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="S109" s="26"/>
       <c r="T109" s="26"/>
-      <c r="U109" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V109" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="U109" s="26"/>
+      <c r="V109" s="27"/>
       <c r="W109" s="24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="X109" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
-        <v>304</v>
+        <v>540</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="26"/>
@@ -15144,36 +15211,28 @@
       <c r="L110" s="26"/>
       <c r="M110" s="27"/>
       <c r="N110" s="25"/>
-      <c r="O110" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O110" s="33"/>
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
       <c r="R110" s="26"/>
-      <c r="S110" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="S110" s="26"/>
       <c r="T110" s="26"/>
-      <c r="U110" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V110" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="U110" s="26"/>
+      <c r="V110" s="27"/>
       <c r="W110" s="24" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="X110" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="270" x14ac:dyDescent="0.15">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D111" s="51"/>
       <c r="E111" s="25"/>
@@ -15181,9 +15240,7 @@
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
-      <c r="J111" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="J111" s="26"/>
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
       <c r="M111" s="27"/>
@@ -15198,32 +15255,36 @@
         <v>384</v>
       </c>
       <c r="T111" s="26"/>
-      <c r="U111" s="26"/>
+      <c r="U111" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="V111" s="27" t="s">
         <v>384</v>
       </c>
       <c r="W111" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="X111" s="24"/>
-    </row>
-    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+      <c r="X111" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D112" s="51"/>
+        <v>305</v>
+      </c>
+      <c r="D112" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="E112" s="25"/>
       <c r="F112" s="26"/>
       <c r="G112" s="26"/>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="26" t="s">
-        <v>385</v>
-      </c>
+      <c r="J112" s="26"/>
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
       <c r="M112" s="27"/>
@@ -15238,24 +15299,26 @@
         <v>384</v>
       </c>
       <c r="T112" s="26"/>
-      <c r="U112" s="26"/>
+      <c r="U112" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="V112" s="27" t="s">
         <v>384</v>
       </c>
       <c r="W112" s="24" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="X112" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D113" s="51"/>
       <c r="E113" s="25"/>
@@ -15264,7 +15327,7 @@
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
       <c r="J113" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
@@ -15285,193 +15348,197 @@
         <v>384</v>
       </c>
       <c r="W113" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="X113" s="24"/>
+    </row>
+    <row r="114" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="30"/>
+      <c r="B114" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D114" s="51"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="P114" s="26"/>
+      <c r="Q114" s="26"/>
+      <c r="R114" s="26"/>
+      <c r="S114" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T114" s="26"/>
+      <c r="U114" s="26"/>
+      <c r="V114" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="W114" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="X114" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A115" s="30"/>
+      <c r="B115" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D115" s="51"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="T115" s="26"/>
+      <c r="U115" s="26"/>
+      <c r="V115" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="W115" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="X113" s="24" t="s">
+      <c r="X115" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="31"/>
-      <c r="B114" s="6" t="s">
+    <row r="116" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="31"/>
+      <c r="B116" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="41" t="s">
+      <c r="D116" s="52"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12" t="s">
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="T114" s="12"/>
-      <c r="U114" s="12"/>
-      <c r="V114" s="18"/>
-      <c r="W114" s="7" t="s">
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="18"/>
+      <c r="W116" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="X114" s="7" t="s">
+      <c r="X116" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="45" x14ac:dyDescent="0.15">
-      <c r="A115" s="34"/>
-      <c r="B115" s="35" t="s">
+    <row r="117" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A117" s="34"/>
+      <c r="B117" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C117" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="D115" s="53"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="39"/>
-      <c r="N115" s="37"/>
-      <c r="O115" s="40" t="s">
+      <c r="D117" s="53"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="39"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="P115" s="38" t="s">
+      <c r="P117" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="Q115" s="38"/>
-      <c r="R115" s="38"/>
-      <c r="S115" s="38"/>
-      <c r="T115" s="38"/>
-      <c r="U115" s="38" t="s">
+      <c r="Q117" s="38"/>
+      <c r="R117" s="38"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="V115" s="39" t="s">
+      <c r="V117" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="W115" s="36" t="s">
+      <c r="W117" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="X115" s="36" t="s">
+      <c r="X117" s="36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
-      <c r="B116" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="51"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="K116" s="26"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="26"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="26"/>
-      <c r="T116" s="26"/>
-      <c r="U116" s="26"/>
-      <c r="V116" s="27"/>
-      <c r="W116" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X116" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="30"/>
-      <c r="B117" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D117" s="51"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="26"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="26"/>
-      <c r="V117" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="W117" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="X117" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A118" s="30"/>
       <c r="B118" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D118" s="51"/>
       <c r="E118" s="25"/>
-      <c r="F118" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="F118" s="26"/>
       <c r="G118" s="26"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
+      <c r="J118" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
       <c r="M118" s="27"/>
       <c r="N118" s="25"/>
-      <c r="O118" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P118" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="O118" s="33"/>
+      <c r="P118" s="26"/>
       <c r="Q118" s="26"/>
       <c r="R118" s="26"/>
       <c r="S118" s="26"/>
@@ -15479,14 +15546,20 @@
       <c r="U118" s="26"/>
       <c r="V118" s="27"/>
       <c r="W118" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="X118" s="24"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+      <c r="X118" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A119" s="30"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
+      <c r="B119" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>280</v>
+      </c>
       <c r="D119" s="51"/>
       <c r="E119" s="25"/>
       <c r="F119" s="26"/>
@@ -15498,24 +15571,38 @@
       <c r="L119" s="26"/>
       <c r="M119" s="27"/>
       <c r="N119" s="25"/>
-      <c r="O119" s="33"/>
+      <c r="O119" s="33" t="s">
+        <v>384</v>
+      </c>
       <c r="P119" s="26"/>
       <c r="Q119" s="26"/>
       <c r="R119" s="26"/>
       <c r="S119" s="26"/>
       <c r="T119" s="26"/>
       <c r="U119" s="26"/>
-      <c r="V119" s="27"/>
-      <c r="W119" s="24"/>
-      <c r="X119" s="24"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="V119" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="W119" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="X119" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A120" s="30"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24"/>
+      <c r="B120" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="D120" s="51"/>
       <c r="E120" s="25"/>
-      <c r="F120" s="26"/>
+      <c r="F120" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
@@ -15524,15 +15611,21 @@
       <c r="L120" s="26"/>
       <c r="M120" s="27"/>
       <c r="N120" s="25"/>
-      <c r="O120" s="33"/>
-      <c r="P120" s="26"/>
+      <c r="O120" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="P120" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="Q120" s="26"/>
       <c r="R120" s="26"/>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
       <c r="U120" s="26"/>
       <c r="V120" s="27"/>
-      <c r="W120" s="24"/>
+      <c r="W120" s="24" t="s">
+        <v>283</v>
+      </c>
       <c r="X120" s="24"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.15">
@@ -16211,34 +16304,86 @@
       <c r="W146" s="24"/>
       <c r="X146" s="24"/>
     </row>
-    <row r="147" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="31"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
-      <c r="Q147" s="12"/>
-      <c r="R147" s="12"/>
-      <c r="S147" s="12"/>
-      <c r="T147" s="12"/>
-      <c r="U147" s="12"/>
-      <c r="V147" s="18"/>
-      <c r="W147" s="7"/>
-      <c r="X147" s="7"/>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A147" s="30"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="33"/>
+      <c r="P147" s="26"/>
+      <c r="Q147" s="26"/>
+      <c r="R147" s="26"/>
+      <c r="S147" s="26"/>
+      <c r="T147" s="26"/>
+      <c r="U147" s="26"/>
+      <c r="V147" s="27"/>
+      <c r="W147" s="24"/>
+      <c r="X147" s="24"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A148" s="30"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="27"/>
+      <c r="N148" s="25"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="26"/>
+      <c r="Q148" s="26"/>
+      <c r="R148" s="26"/>
+      <c r="S148" s="26"/>
+      <c r="T148" s="26"/>
+      <c r="U148" s="26"/>
+      <c r="V148" s="27"/>
+      <c r="W148" s="24"/>
+      <c r="X148" s="24"/>
+    </row>
+    <row r="149" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="31"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="7"/>
+      <c r="X149" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X147"/>
+  <autoFilter ref="A2:X149"/>
   <mergeCells count="8">
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="B1:B2"/>
@@ -16250,30 +16395,52 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D22 D24:D147">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D149">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>$D3="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$D3="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>$D3="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$D23="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$D23="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$D23="①"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$D38="③"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>$D38="②"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>$D38="①"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$D70="③"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$D70="②"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$D70="①"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D149">
       <formula1>"①,②,③"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16307,7 +16474,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -16370,7 +16537,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>449</v>
@@ -16509,7 +16676,9 @@
   </sheetPr>
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16898,7 +17067,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>144</v>
@@ -16909,7 +17078,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>147</v>
@@ -16920,7 +17089,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>128</v>
@@ -16931,7 +17100,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>148</v>
@@ -17063,7 +17232,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>146</v>
@@ -17074,7 +17243,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>144</v>
@@ -17085,7 +17254,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>161</v>
@@ -17239,7 +17408,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>175</v>
@@ -17250,7 +17419,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>176</v>
@@ -17294,7 +17463,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>128</v>
@@ -17305,7 +17474,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>180</v>
@@ -17481,7 +17650,7 @@
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>179</v>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$150</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">要素一覧!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
@@ -26,7 +31,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="598">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -4896,20 +4901,6 @@
     </rPh>
     <rPh sb="250" eb="252">
       <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SVGやHTMLなどのファイルを表示する場合に使用する。
-</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9575,12 +9566,64 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>テーブル関連の要素</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>SVGやHTMLなどのファイルを表示する場合に使用する。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+最低でもdata属性かtype属性のどちらか1つは指定する必要がある。</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -10865,7 +10908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10876,16 +10919,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X149"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -10896,21 +10939,21 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="118" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="D1" s="119" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>354</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>513</v>
-      </c>
-      <c r="E1" s="117" t="s">
-        <v>355</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -10921,7 +10964,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O1" s="117"/>
       <c r="P1" s="117"/>
@@ -10932,84 +10975,84 @@
       <c r="U1" s="117"/>
       <c r="V1" s="117"/>
       <c r="W1" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="X1" s="116" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" ht="12" thickBot="1">
       <c r="A2" s="118"/>
       <c r="B2" s="117"/>
       <c r="C2" s="116"/>
       <c r="D2" s="120"/>
       <c r="E2" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="O2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>364</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>365</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -11030,25 +11073,25 @@
       <c r="U3" s="19"/>
       <c r="V3" s="16"/>
       <c r="W3" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>370</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -11068,19 +11111,19 @@
       <c r="U4" s="11"/>
       <c r="V4" s="17"/>
       <c r="W4" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11093,7 +11136,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="17"/>
       <c r="N5" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -11104,22 +11147,22 @@
       <c r="U5" s="11"/>
       <c r="V5" s="17"/>
       <c r="W5" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -11131,7 +11174,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="17"/>
       <c r="N6" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -11142,22 +11185,22 @@
       <c r="U6" s="11"/>
       <c r="V6" s="17"/>
       <c r="W6" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11169,7 +11212,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="17"/>
       <c r="N7" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -11180,22 +11223,22 @@
       <c r="U7" s="11"/>
       <c r="V7" s="17"/>
       <c r="W7" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11207,7 +11250,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="17"/>
       <c r="N8" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -11218,19 +11261,19 @@
       <c r="U8" s="11"/>
       <c r="V8" s="17"/>
       <c r="W8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="25"/>
@@ -11243,10 +11286,10 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
       <c r="N9" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>384</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>385</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -11262,13 +11305,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>382</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>383</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="106"/>
@@ -11294,17 +11337,17 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>387</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="25"/>
@@ -11317,34 +11360,34 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
       <c r="N11" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="25"/>
@@ -11357,30 +11400,30 @@
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
       <c r="N12" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="27"/>
       <c r="W12" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11406,20 +11449,20 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -11431,7 +11474,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="108"/>
       <c r="P14" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -11440,22 +11483,22 @@
       <c r="U14" s="19"/>
       <c r="V14" s="16"/>
       <c r="W14" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G15" s="104"/>
       <c r="H15" s="26"/>
@@ -11466,7 +11509,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -11475,27 +11518,27 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -11506,36 +11549,36 @@
       <c r="M16" s="27"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -11546,36 +11589,36 @@
       <c r="M17" s="27"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -11586,36 +11629,36 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W18" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>399</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -11626,36 +11669,36 @@
       <c r="M19" s="27"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W19" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>400</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>401</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" s="26"/>
@@ -11666,7 +11709,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -11675,27 +11718,27 @@
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -11706,7 +11749,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -11715,20 +11758,20 @@
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11737,34 +11780,34 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="18"/>
       <c r="N22" s="15"/>
       <c r="O22" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11790,18 +11833,18 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
       <c r="F24" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="38"/>
@@ -11812,7 +11855,7 @@
       <c r="M24" s="39"/>
       <c r="N24" s="37"/>
       <c r="O24" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -11821,27 +11864,27 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W24" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X24" s="36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -11852,7 +11895,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="25"/>
       <c r="O25" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -11861,23 +11904,23 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W25" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -11885,14 +11928,14 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
       <c r="N26" s="25"/>
       <c r="O26" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -11901,20 +11944,20 @@
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W26" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>411</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>412</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="25"/>
@@ -11928,7 +11971,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="25"/>
       <c r="O27" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -11937,22 +11980,22 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W27" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X27" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>414</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>415</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="25"/>
@@ -11966,7 +12009,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="25"/>
       <c r="O28" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -11975,29 +12018,29 @@
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -12016,19 +12059,19 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
       <c r="W29" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -12042,7 +12085,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="25"/>
       <c r="O30" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -12051,29 +12094,29 @@
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W30" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X30" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -12092,26 +12135,26 @@
       <c r="U31" s="26"/>
       <c r="V31" s="27"/>
       <c r="W31" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X31" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -12130,22 +12173,22 @@
       <c r="U32" s="26"/>
       <c r="V32" s="27"/>
       <c r="W32" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12158,7 +12201,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="25"/>
       <c r="O33" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
@@ -12168,19 +12211,19 @@
       <c r="U33" s="26"/>
       <c r="V33" s="27"/>
       <c r="W33" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>424</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>425</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="25"/>
@@ -12189,14 +12232,14 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
       <c r="N34" s="25"/>
       <c r="O34" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
@@ -12205,20 +12248,20 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="25"/>
@@ -12227,17 +12270,17 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
       <c r="N35" s="25"/>
       <c r="O35" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
@@ -12245,20 +12288,20 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W35" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="25"/>
@@ -12272,10 +12315,10 @@
       <c r="M36" s="27"/>
       <c r="N36" s="25"/>
       <c r="O36" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
@@ -12283,27 +12326,27 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W36" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="15"/>
       <c r="F37" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -12322,15 +12365,15 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18"/>
       <c r="W37" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="109" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="111"/>
@@ -12356,13 +12399,13 @@
       <c r="W38" s="111"/>
       <c r="X38" s="115"/>
     </row>
-    <row r="39" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="157.5">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="37"/>
@@ -12376,40 +12419,40 @@
       <c r="M39" s="39"/>
       <c r="N39" s="37"/>
       <c r="O39" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V39" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W39" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X39" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="45">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -12420,31 +12463,31 @@
       <c r="M40" s="27"/>
       <c r="N40" s="25"/>
       <c r="O40" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W40" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>437</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>438</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="25"/>
@@ -12453,41 +12496,41 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
       <c r="N41" s="25"/>
       <c r="O41" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W41" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="33.75">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -12500,36 +12543,36 @@
       <c r="M42" s="27"/>
       <c r="N42" s="25"/>
       <c r="O42" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="27"/>
       <c r="W42" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="45">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -12540,36 +12583,36 @@
       <c r="M43" s="27"/>
       <c r="N43" s="25"/>
       <c r="O43" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="101.25">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>577</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>578</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -12580,38 +12623,38 @@
       <c r="M44" s="27"/>
       <c r="N44" s="25"/>
       <c r="O44" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -12622,36 +12665,36 @@
       <c r="M45" s="27"/>
       <c r="N45" s="25"/>
       <c r="O45" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W45" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="45">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>579</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>580</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -12662,36 +12705,36 @@
       <c r="M46" s="27"/>
       <c r="N46" s="25"/>
       <c r="O46" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W46" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="67.5">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -12702,28 +12745,28 @@
       <c r="M47" s="27"/>
       <c r="N47" s="25"/>
       <c r="O47" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
       <c r="V47" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>217</v>
@@ -12731,7 +12774,7 @@
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -12742,38 +12785,38 @@
       <c r="M48" s="27"/>
       <c r="N48" s="25"/>
       <c r="O48" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W48" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X48" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="45">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -12784,36 +12827,36 @@
       <c r="M49" s="27"/>
       <c r="N49" s="25"/>
       <c r="O49" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
       <c r="V49" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W49" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>475</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>476</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -12824,36 +12867,36 @@
       <c r="M50" s="27"/>
       <c r="N50" s="25"/>
       <c r="O50" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W50" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>477</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>478</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -12864,36 +12907,36 @@
       <c r="M51" s="27"/>
       <c r="N51" s="25"/>
       <c r="O51" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W51" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -12904,36 +12947,36 @@
       <c r="M52" s="27"/>
       <c r="N52" s="25"/>
       <c r="O52" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="26"/>
       <c r="V52" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W52" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="33.75">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -12944,36 +12987,36 @@
       <c r="M53" s="27"/>
       <c r="N53" s="25"/>
       <c r="O53" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W53" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -12984,36 +13027,36 @@
       <c r="M54" s="27"/>
       <c r="N54" s="25"/>
       <c r="O54" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W54" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="22.5">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
@@ -13024,36 +13067,36 @@
       <c r="M55" s="27"/>
       <c r="N55" s="25"/>
       <c r="O55" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
       <c r="V55" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W55" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="56.25">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
@@ -13064,36 +13107,36 @@
       <c r="M56" s="27"/>
       <c r="N56" s="25"/>
       <c r="O56" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="26"/>
       <c r="V56" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W56" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="45">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -13104,36 +13147,36 @@
       <c r="M57" s="27"/>
       <c r="N57" s="25"/>
       <c r="O57" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W57" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -13144,36 +13187,36 @@
       <c r="M58" s="27"/>
       <c r="N58" s="25"/>
       <c r="O58" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W58" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="33.75">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
@@ -13184,36 +13227,36 @@
       <c r="M59" s="27"/>
       <c r="N59" s="25"/>
       <c r="O59" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
       <c r="V59" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W59" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="45">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>489</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>490</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -13224,38 +13267,38 @@
       <c r="M60" s="27"/>
       <c r="N60" s="25"/>
       <c r="O60" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W60" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X60" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>491</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>492</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -13274,24 +13317,24 @@
       <c r="U61" s="26"/>
       <c r="V61" s="27"/>
       <c r="W61" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -13310,24 +13353,24 @@
       <c r="U62" s="26"/>
       <c r="V62" s="27"/>
       <c r="W62" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
@@ -13346,24 +13389,24 @@
       <c r="U63" s="26"/>
       <c r="V63" s="27"/>
       <c r="W63" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X63" s="24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="33.75">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -13374,36 +13417,36 @@
       <c r="M64" s="27"/>
       <c r="N64" s="25"/>
       <c r="O64" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="26"/>
       <c r="S64" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T64" s="26"/>
       <c r="U64" s="26"/>
       <c r="V64" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W64" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="22.5">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>497</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>498</v>
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -13414,34 +13457,34 @@
       <c r="M65" s="27"/>
       <c r="N65" s="25"/>
       <c r="O65" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
       <c r="V65" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W65" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="33.75">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
@@ -13454,29 +13497,29 @@
       <c r="M66" s="27"/>
       <c r="N66" s="25"/>
       <c r="O66" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="26"/>
       <c r="S66" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
       <c r="V66" s="27"/>
       <c r="W66" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X66" s="24"/>
     </row>
-    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13490,33 +13533,33 @@
       <c r="M67" s="27"/>
       <c r="N67" s="25"/>
       <c r="O67" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
       <c r="V67" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W67" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X67" s="24" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="67.5">
       <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>590</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>591</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="25"/>
@@ -13530,36 +13573,36 @@
       <c r="M68" s="27"/>
       <c r="N68" s="25"/>
       <c r="O68" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T68" s="26"/>
       <c r="U68" s="26"/>
       <c r="V68" s="27"/>
       <c r="W68" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="34.5" thickBot="1">
       <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15"/>
       <c r="F69" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -13570,25 +13613,25 @@
       <c r="M69" s="18"/>
       <c r="N69" s="15"/>
       <c r="O69" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24">
       <c r="A70" s="109" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="111"/>
@@ -13614,15 +13657,17 @@
       <c r="W70" s="111"/>
       <c r="X70" s="115"/>
     </row>
-    <row r="71" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="157.5">
       <c r="A71" s="34"/>
       <c r="B71" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="D71" s="53"/>
+        <v>507</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>516</v>
+      </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -13634,35 +13679,35 @@
       <c r="M71" s="39"/>
       <c r="N71" s="37"/>
       <c r="O71" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V71" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="X71" s="36" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="191.25">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>509</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>510</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -13676,40 +13721,40 @@
       <c r="M72" s="27"/>
       <c r="N72" s="25"/>
       <c r="O72" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V72" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="112.5">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13722,37 +13767,37 @@
       <c r="M73" s="27"/>
       <c r="N73" s="25"/>
       <c r="O73" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V73" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W73" s="24" t="s">
         <v>325</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="213.75">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
         <v>326</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>328</v>
+        <v>597</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -13766,22 +13811,22 @@
       <c r="M74" s="27"/>
       <c r="N74" s="25"/>
       <c r="O74" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V74" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W74" s="24" t="s">
         <v>327</v>
@@ -13790,16 +13835,16 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="67.5">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
@@ -13820,19 +13865,19 @@
       <c r="U75" s="26"/>
       <c r="V75" s="27"/>
       <c r="W75" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="X75" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="X75" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:24" ht="258.75">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>332</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>333</v>
       </c>
       <c r="D76" s="51"/>
       <c r="E76" s="25"/>
@@ -13846,37 +13891,37 @@
       <c r="M76" s="27"/>
       <c r="N76" s="25"/>
       <c r="O76" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="U76" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="T76" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="U76" s="26" t="s">
-        <v>385</v>
-      </c>
       <c r="V76" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W76" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X76" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="213.75">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D77" s="51"/>
       <c r="E77" s="25"/>
@@ -13890,40 +13935,40 @@
       <c r="M77" s="27"/>
       <c r="N77" s="25"/>
       <c r="O77" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="T77" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="U77" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="T77" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="U77" s="26" t="s">
-        <v>385</v>
-      </c>
       <c r="V77" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W77" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X77" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="90">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -13944,22 +13989,22 @@
       <c r="U78" s="26"/>
       <c r="V78" s="27"/>
       <c r="W78" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="135">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -13980,19 +14025,19 @@
       <c r="U79" s="26"/>
       <c r="V79" s="27"/>
       <c r="W79" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X79" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="67.5">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="25"/>
@@ -14006,35 +14051,35 @@
       <c r="M80" s="27"/>
       <c r="N80" s="25"/>
       <c r="O80" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
       <c r="R80" s="26"/>
       <c r="S80" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T80" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U80" s="26"/>
       <c r="V80" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W80" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X80" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="67.5">
       <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>346</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="25"/>
@@ -14048,36 +14093,36 @@
       <c r="M81" s="27"/>
       <c r="N81" s="25"/>
       <c r="O81" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
       <c r="R81" s="26"/>
       <c r="S81" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T81" s="26"/>
       <c r="U81" s="26"/>
       <c r="V81" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W81" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="X81" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="225">
       <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -14090,31 +14135,31 @@
       <c r="M82" s="27"/>
       <c r="N82" s="25"/>
       <c r="O82" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
       <c r="R82" s="26"/>
       <c r="S82" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T82" s="26"/>
       <c r="U82" s="26"/>
       <c r="V82" s="27"/>
       <c r="W82" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X82" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="23.25" thickBot="1">
       <c r="A83" s="31"/>
       <c r="B83" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="D83" s="52"/>
       <c r="E83" s="15"/>
@@ -14128,109 +14173,101 @@
       <c r="M83" s="18"/>
       <c r="N83" s="15"/>
       <c r="O83" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="18"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row r="84" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35" t="s">
+    <row r="84" spans="1:24">
+      <c r="A84" s="109" t="s">
+        <v>596</v>
+      </c>
+      <c r="B84" s="110"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="113"/>
+      <c r="G84" s="113"/>
+      <c r="H84" s="113"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="113"/>
+      <c r="M84" s="113"/>
+      <c r="N84" s="113"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="113"/>
+      <c r="Q84" s="113"/>
+      <c r="R84" s="113"/>
+      <c r="S84" s="113"/>
+      <c r="T84" s="113"/>
+      <c r="U84" s="113"/>
+      <c r="V84" s="113"/>
+      <c r="W84" s="111"/>
+      <c r="X84" s="115"/>
+    </row>
+    <row r="85" spans="1:24" ht="101.25">
+      <c r="A85" s="34"/>
+      <c r="B85" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D85" s="53"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="W85" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="X85" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="D84" s="53"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="W84" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="X84" s="36" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="30"/>
-      <c r="B85" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="26"/>
-      <c r="T85" s="26"/>
-      <c r="U85" s="26"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X85" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:24" ht="67.5">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>516</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D86" s="51"/>
       <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
+      <c r="F86" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
@@ -14248,22 +14285,22 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
       <c r="W86" s="24" t="s">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="X86" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="67.5">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
-        <v>3</v>
+        <v>535</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>4</v>
+        <v>515</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
@@ -14284,22 +14321,22 @@
       <c r="U87" s="26"/>
       <c r="V87" s="27"/>
       <c r="W87" s="24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X87" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="56.25">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
@@ -14320,21 +14357,23 @@
       <c r="U88" s="26"/>
       <c r="V88" s="27"/>
       <c r="W88" s="24" t="s">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="X88" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>10</v>
+        <v>534</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="51"/>
+        <v>8</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>515</v>
+      </c>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
@@ -14354,27 +14393,23 @@
       <c r="U89" s="26"/>
       <c r="V89" s="27"/>
       <c r="W89" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X89" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="56.25">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
-        <v>542</v>
+        <v>10</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>317</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D90" s="51"/>
       <c r="E90" s="25"/>
-      <c r="F90" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="F90" s="26"/>
       <c r="G90" s="26"/>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
@@ -14383,38 +14418,36 @@
       <c r="L90" s="26"/>
       <c r="M90" s="27"/>
       <c r="N90" s="25"/>
-      <c r="O90" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O90" s="33"/>
       <c r="P90" s="26"/>
       <c r="Q90" s="26"/>
       <c r="R90" s="26"/>
       <c r="S90" s="26"/>
       <c r="T90" s="26"/>
       <c r="U90" s="26"/>
-      <c r="V90" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="V90" s="27"/>
       <c r="W90" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X90" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="45">
       <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D91" s="51" t="s">
         <v>317</v>
       </c>
       <c r="E91" s="25"/>
-      <c r="F91" s="26"/>
+      <c r="F91" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -14423,36 +14456,38 @@
       <c r="L91" s="26"/>
       <c r="M91" s="27"/>
       <c r="N91" s="25"/>
-      <c r="O91" s="33"/>
+      <c r="O91" s="33" t="s">
+        <v>383</v>
+      </c>
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
       <c r="R91" s="26"/>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
-      <c r="V91" s="27"/>
+      <c r="V91" s="27" t="s">
+        <v>383</v>
+      </c>
       <c r="W91" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X91" s="24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="56.25">
       <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D92" s="51" t="s">
         <v>317</v>
       </c>
       <c r="E92" s="25"/>
-      <c r="F92" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="F92" s="26"/>
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
@@ -14470,175 +14505,177 @@
       <c r="U92" s="26"/>
       <c r="V92" s="27"/>
       <c r="W92" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="X92" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="157.5">
+      <c r="A93" s="30"/>
+      <c r="B93" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="E93" s="25"/>
+      <c r="F93" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="X92" s="24" t="s">
+      <c r="X93" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
-      <c r="B93" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C93" s="7" t="s">
+    <row r="94" spans="1:24" ht="90.75" thickBot="1">
+      <c r="A94" s="31"/>
+      <c r="B94" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D94" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="12" t="s">
+      <c r="E94" s="15"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="X94" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="202.5">
+      <c r="A95" s="34"/>
+      <c r="B95" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="53"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="X93" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="26" t="s">
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="W94" s="36" t="s">
+      <c r="W95" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="X94" s="36" t="s">
+      <c r="X95" s="36" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="90" x14ac:dyDescent="0.15">
-      <c r="A95" s="30"/>
-      <c r="B95" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="51"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P95" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
-      <c r="V95" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="W95" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="X95" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="90">
       <c r="A96" s="30"/>
       <c r="B96" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D96" s="51"/>
       <c r="E96" s="25"/>
-      <c r="F96" s="26"/>
+      <c r="F96" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="J96" s="26"/>
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
       <c r="M96" s="27"/>
       <c r="N96" s="25"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="26"/>
+      <c r="O96" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="P96" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="Q96" s="26"/>
       <c r="R96" s="26"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
       <c r="U96" s="26"/>
-      <c r="V96" s="27"/>
+      <c r="V96" s="27" t="s">
+        <v>383</v>
+      </c>
       <c r="W96" s="24" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="X96" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="45">
       <c r="A97" s="30"/>
       <c r="B97" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D97" s="51"/>
       <c r="E97" s="25"/>
@@ -14647,127 +14684,119 @@
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
       <c r="M97" s="27"/>
       <c r="N97" s="25"/>
-      <c r="O97" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O97" s="33"/>
       <c r="P97" s="26"/>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
-      <c r="S97" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="S97" s="26"/>
       <c r="T97" s="26"/>
-      <c r="U97" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V97" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="U97" s="26"/>
+      <c r="V97" s="27"/>
       <c r="W97" s="24" t="s">
-        <v>271</v>
+        <v>389</v>
       </c>
       <c r="X97" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="67.5">
       <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>286</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D98" s="51"/>
       <c r="E98" s="25"/>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
+      <c r="J98" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
       <c r="M98" s="27"/>
       <c r="N98" s="25"/>
       <c r="O98" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
       <c r="R98" s="26"/>
       <c r="S98" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T98" s="26"/>
       <c r="U98" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="V98" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
+      </c>
+      <c r="V98" s="27" t="s">
+        <v>383</v>
       </c>
       <c r="W98" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="X98" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="101.25">
+      <c r="A99" s="30"/>
+      <c r="B99" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="T99" s="26"/>
+      <c r="U99" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="V99" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="W99" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="X98" s="24" t="s">
+      <c r="X99" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="34"/>
-      <c r="B99" s="64" t="s">
+    <row r="100" spans="1:24" ht="112.5">
+      <c r="A100" s="34"/>
+      <c r="B100" s="64" t="s">
         <v>244</v>
-      </c>
-      <c r="C99" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" s="66"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="68"/>
-      <c r="N99" s="66"/>
-      <c r="O99" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="67"/>
-      <c r="R99" s="67"/>
-      <c r="S99" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="V99" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="W99" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="X99" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A100" s="71"/>
-      <c r="B100" s="64" t="s">
-        <v>544</v>
       </c>
       <c r="C100" s="63" t="s">
         <v>22</v>
@@ -14798,20 +14827,20 @@
       <c r="U100" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="V100" s="70" t="s">
+      <c r="V100" s="67" t="s">
         <v>288</v>
       </c>
       <c r="W100" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X100" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="101.25">
       <c r="A101" s="71"/>
       <c r="B101" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>22</v>
@@ -14846,66 +14875,66 @@
         <v>288</v>
       </c>
       <c r="W101" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X101" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="78.75">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>517</v>
-      </c>
-      <c r="E102" s="37"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="39"/>
-      <c r="N102" s="37"/>
+        <v>287</v>
+      </c>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="66"/>
       <c r="O102" s="69" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="P102" s="67"/>
       <c r="Q102" s="67"/>
       <c r="R102" s="67"/>
       <c r="S102" s="67" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="T102" s="67"/>
       <c r="U102" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="V102" s="68" t="s">
-        <v>370</v>
+        <v>288</v>
+      </c>
+      <c r="V102" s="70" t="s">
+        <v>288</v>
       </c>
       <c r="W102" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X102" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="78.75">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C103" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E103" s="37"/>
       <c r="F103" s="38"/>
@@ -14918,38 +14947,38 @@
       <c r="M103" s="39"/>
       <c r="N103" s="37"/>
       <c r="O103" s="69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P103" s="67"/>
       <c r="Q103" s="67"/>
       <c r="R103" s="67"/>
       <c r="S103" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T103" s="67"/>
       <c r="U103" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V103" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W103" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X103" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="101.25">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C104" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -14962,209 +14991,209 @@
       <c r="M104" s="39"/>
       <c r="N104" s="37"/>
       <c r="O104" s="69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P104" s="67"/>
       <c r="Q104" s="67"/>
       <c r="R104" s="67"/>
       <c r="S104" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T104" s="67"/>
       <c r="U104" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V104" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W104" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="X104" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="123.75">
+      <c r="A105" s="71"/>
+      <c r="B105" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="C105" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="65" t="s">
+        <v>516</v>
+      </c>
+      <c r="E105" s="37"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="P105" s="67"/>
+      <c r="Q105" s="67"/>
+      <c r="R105" s="67"/>
+      <c r="S105" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="T105" s="67"/>
+      <c r="U105" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="V105" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="W105" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="X104" s="36" t="s">
+      <c r="X105" s="36" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="A105" s="61"/>
-      <c r="B105" s="60" t="s">
-        <v>544</v>
-      </c>
-      <c r="C105" s="72" t="s">
+    <row r="106" spans="1:24" ht="123.75">
+      <c r="A106" s="61"/>
+      <c r="B106" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="C106" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D105" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="P105" s="58"/>
-      <c r="Q105" s="58"/>
-      <c r="R105" s="58"/>
-      <c r="S105" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="T105" s="58"/>
-      <c r="U105" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="V105" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="W105" s="9" t="s">
+      <c r="D106" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="E106" s="13"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="58"/>
+      <c r="S106" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="T106" s="58"/>
+      <c r="U106" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="V106" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="W106" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="X105" s="9"/>
-    </row>
-    <row r="106" spans="1:24" ht="135" x14ac:dyDescent="0.15">
-      <c r="A106" s="30"/>
-      <c r="B106" s="23" t="s">
+      <c r="X106" s="9"/>
+    </row>
+    <row r="107" spans="1:24" ht="135">
+      <c r="A107" s="30"/>
+      <c r="B107" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C107" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="25"/>
-      <c r="O106" s="33" t="s">
+      <c r="D107" s="51"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="T106" s="26"/>
-      <c r="U106" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V106" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="W106" s="24" t="s">
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="V107" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="W107" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="X106" s="24" t="s">
+      <c r="X107" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
-      <c r="A107" s="28"/>
-      <c r="B107" s="60" t="s">
+    <row r="108" spans="1:24" ht="146.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="72" t="s">
+      <c r="C108" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58" t="s">
+      <c r="D108" s="62"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="K107" s="58"/>
-      <c r="L107" s="58"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="106"/>
-      <c r="O107" s="57" t="s">
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="106"/>
+      <c r="O108" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="P107" s="58"/>
-      <c r="Q107" s="58"/>
-      <c r="R107" s="58"/>
-      <c r="S107" s="58" t="s">
+      <c r="P108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="58"/>
+      <c r="S108" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="T107" s="58"/>
-      <c r="U107" s="58" t="s">
+      <c r="T108" s="58"/>
+      <c r="U108" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="V107" s="59" t="s">
+      <c r="V108" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="W107" s="9" t="s">
+      <c r="W108" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="X107" s="9"/>
-    </row>
-    <row r="108" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="30"/>
-      <c r="B108" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D108" s="51"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V108" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="W108" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="X108" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="X108" s="9"/>
+    </row>
+    <row r="109" spans="1:24" ht="157.5">
       <c r="A109" s="30"/>
       <c r="B109" s="23" t="s">
-        <v>541</v>
+        <v>289</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D109" s="51" t="s">
-        <v>317</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D109" s="51"/>
       <c r="E109" s="25"/>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -15175,28 +15204,36 @@
       <c r="L109" s="26"/>
       <c r="M109" s="27"/>
       <c r="N109" s="25"/>
-      <c r="O109" s="33"/>
+      <c r="O109" s="33" t="s">
+        <v>383</v>
+      </c>
       <c r="P109" s="26"/>
       <c r="Q109" s="26"/>
       <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
+      <c r="S109" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="27"/>
+      <c r="U109" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="V109" s="27" t="s">
+        <v>383</v>
+      </c>
       <c r="W109" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="X109" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="112.5">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
         <v>540</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D110" s="51" t="s">
         <v>317</v>
@@ -15220,21 +15257,23 @@
       <c r="U110" s="26"/>
       <c r="V110" s="27"/>
       <c r="W110" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X110" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="67.5">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
-        <v>300</v>
+        <v>539</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D111" s="51"/>
+        <v>296</v>
+      </c>
+      <c r="D111" s="51" t="s">
+        <v>317</v>
+      </c>
       <c r="E111" s="25"/>
       <c r="F111" s="26"/>
       <c r="G111" s="26"/>
@@ -15245,40 +15284,30 @@
       <c r="L111" s="26"/>
       <c r="M111" s="27"/>
       <c r="N111" s="25"/>
-      <c r="O111" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O111" s="33"/>
       <c r="P111" s="26"/>
       <c r="Q111" s="26"/>
       <c r="R111" s="26"/>
-      <c r="S111" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="S111" s="26"/>
       <c r="T111" s="26"/>
-      <c r="U111" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V111" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="U111" s="26"/>
+      <c r="V111" s="27"/>
       <c r="W111" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="X111" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="270">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" s="51" t="s">
-        <v>4</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D112" s="51"/>
       <c r="E112" s="25"/>
       <c r="F112" s="26"/>
       <c r="G112" s="26"/>
@@ -15290,75 +15319,79 @@
       <c r="M112" s="27"/>
       <c r="N112" s="25"/>
       <c r="O112" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
       <c r="R112" s="26"/>
       <c r="S112" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T112" s="26"/>
       <c r="U112" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V112" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W112" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="X112" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="168.75">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D113" s="51"/>
+        <v>305</v>
+      </c>
+      <c r="D113" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="E113" s="25"/>
       <c r="F113" s="26"/>
       <c r="G113" s="26"/>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
-      <c r="J113" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="J113" s="26"/>
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
       <c r="M113" s="27"/>
       <c r="N113" s="25"/>
       <c r="O113" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
       <c r="R113" s="26"/>
       <c r="S113" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T113" s="26"/>
-      <c r="U113" s="26"/>
+      <c r="U113" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="V113" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W113" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="X113" s="24"/>
-    </row>
-    <row r="114" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+      <c r="X113" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="101.25">
       <c r="A114" s="30"/>
       <c r="B114" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="51"/>
       <c r="E114" s="25"/>
@@ -15367,40 +15400,38 @@
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
       <c r="J114" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
       <c r="M114" s="27"/>
       <c r="N114" s="25"/>
       <c r="O114" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="26"/>
       <c r="S114" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T114" s="26"/>
       <c r="U114" s="26"/>
       <c r="V114" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W114" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="X114" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+      <c r="X114" s="24"/>
+    </row>
+    <row r="115" spans="1:24" ht="67.5">
       <c r="A115" s="30"/>
       <c r="B115" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D115" s="51"/>
       <c r="E115" s="25"/>
@@ -15409,156 +15440,162 @@
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
       <c r="J115" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
       <c r="M115" s="27"/>
       <c r="N115" s="25"/>
       <c r="O115" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T115" s="26"/>
       <c r="U115" s="26"/>
       <c r="V115" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="W115" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="X115" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="168.75">
+      <c r="A116" s="30"/>
+      <c r="B116" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D116" s="51"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="W115" s="24" t="s">
+      <c r="K116" s="26"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="27"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+      <c r="S116" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="T116" s="26"/>
+      <c r="U116" s="26"/>
+      <c r="V116" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="W116" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="X115" s="24" t="s">
+      <c r="X116" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="31"/>
-      <c r="B116" s="6" t="s">
+    <row r="117" spans="1:24" ht="57" thickBot="1">
+      <c r="A117" s="31"/>
+      <c r="B117" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D116" s="52"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="X116" s="7" t="s">
+      <c r="D117" s="52"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="18"/>
+      <c r="W117" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="X117" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="45" x14ac:dyDescent="0.15">
-      <c r="A117" s="34"/>
-      <c r="B117" s="35" t="s">
+    <row r="118" spans="1:24" ht="45">
+      <c r="A118" s="34"/>
+      <c r="B118" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C118" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="D117" s="53"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="39"/>
-      <c r="N117" s="37"/>
-      <c r="O117" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="P117" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
-      <c r="S117" s="38"/>
-      <c r="T117" s="38"/>
-      <c r="U117" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="V117" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="W117" s="36" t="s">
+      <c r="D118" s="53"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="P118" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q118" s="38"/>
+      <c r="R118" s="38"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="V118" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="W118" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="X117" s="36" t="s">
+      <c r="X118" s="36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="30"/>
-      <c r="B118" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D118" s="51"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="26"/>
-      <c r="S118" s="26"/>
-      <c r="T118" s="26"/>
-      <c r="U118" s="26"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="X118" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24" ht="33.75">
       <c r="A119" s="30"/>
       <c r="B119" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D119" s="51"/>
       <c r="E119" s="25"/>
@@ -15566,43 +15603,39 @@
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
-      <c r="J119" s="26"/>
+      <c r="J119" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="K119" s="26"/>
       <c r="L119" s="26"/>
       <c r="M119" s="27"/>
       <c r="N119" s="25"/>
-      <c r="O119" s="33" t="s">
-        <v>384</v>
-      </c>
+      <c r="O119" s="33"/>
       <c r="P119" s="26"/>
       <c r="Q119" s="26"/>
       <c r="R119" s="26"/>
       <c r="S119" s="26"/>
       <c r="T119" s="26"/>
       <c r="U119" s="26"/>
-      <c r="V119" s="27" t="s">
-        <v>384</v>
-      </c>
+      <c r="V119" s="27"/>
       <c r="W119" s="24" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="X119" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="67.5">
       <c r="A120" s="30"/>
       <c r="B120" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D120" s="51"/>
       <c r="E120" s="25"/>
-      <c r="F120" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="F120" s="26"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
@@ -15612,29 +15645,37 @@
       <c r="M120" s="27"/>
       <c r="N120" s="25"/>
       <c r="O120" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="P120" s="26" t="s">
-        <v>384</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="P120" s="26"/>
       <c r="Q120" s="26"/>
       <c r="R120" s="26"/>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
       <c r="U120" s="26"/>
-      <c r="V120" s="27"/>
+      <c r="V120" s="27" t="s">
+        <v>383</v>
+      </c>
       <c r="W120" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="X120" s="24"/>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+      <c r="X120" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="45">
       <c r="A121" s="30"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="24"/>
+      <c r="B121" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="D121" s="51"/>
       <c r="E121" s="25"/>
-      <c r="F121" s="26"/>
+      <c r="F121" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="G121" s="26"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
@@ -15643,18 +15684,24 @@
       <c r="L121" s="26"/>
       <c r="M121" s="27"/>
       <c r="N121" s="25"/>
-      <c r="O121" s="33"/>
-      <c r="P121" s="26"/>
+      <c r="O121" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="P121" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="Q121" s="26"/>
       <c r="R121" s="26"/>
       <c r="S121" s="26"/>
       <c r="T121" s="26"/>
       <c r="U121" s="26"/>
       <c r="V121" s="27"/>
-      <c r="W121" s="24"/>
+      <c r="W121" s="24" t="s">
+        <v>283</v>
+      </c>
       <c r="X121" s="24"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24">
       <c r="A122" s="30"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
@@ -15680,7 +15727,7 @@
       <c r="W122" s="24"/>
       <c r="X122" s="24"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24">
       <c r="A123" s="30"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
@@ -15706,7 +15753,7 @@
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:24">
       <c r="A124" s="30"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
@@ -15732,7 +15779,7 @@
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:24">
       <c r="A125" s="30"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
@@ -15758,7 +15805,7 @@
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24">
       <c r="A126" s="30"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
@@ -15784,7 +15831,7 @@
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24">
       <c r="A127" s="30"/>
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
@@ -15810,7 +15857,7 @@
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:24">
       <c r="A128" s="30"/>
       <c r="B128" s="23"/>
       <c r="C128" s="24"/>
@@ -15836,7 +15883,7 @@
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24">
       <c r="A129" s="30"/>
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
@@ -15862,7 +15909,7 @@
       <c r="W129" s="24"/>
       <c r="X129" s="24"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:24">
       <c r="A130" s="30"/>
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
@@ -15888,7 +15935,7 @@
       <c r="W130" s="24"/>
       <c r="X130" s="24"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:24">
       <c r="A131" s="30"/>
       <c r="B131" s="23"/>
       <c r="C131" s="24"/>
@@ -15914,7 +15961,7 @@
       <c r="W131" s="24"/>
       <c r="X131" s="24"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:24">
       <c r="A132" s="30"/>
       <c r="B132" s="23"/>
       <c r="C132" s="24"/>
@@ -15940,7 +15987,7 @@
       <c r="W132" s="24"/>
       <c r="X132" s="24"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:24">
       <c r="A133" s="30"/>
       <c r="B133" s="23"/>
       <c r="C133" s="24"/>
@@ -15966,7 +16013,7 @@
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:24">
       <c r="A134" s="30"/>
       <c r="B134" s="23"/>
       <c r="C134" s="24"/>
@@ -15992,7 +16039,7 @@
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:24">
       <c r="A135" s="30"/>
       <c r="B135" s="23"/>
       <c r="C135" s="24"/>
@@ -16018,7 +16065,7 @@
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:24">
       <c r="A136" s="30"/>
       <c r="B136" s="23"/>
       <c r="C136" s="24"/>
@@ -16044,7 +16091,7 @@
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:24">
       <c r="A137" s="30"/>
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
@@ -16070,7 +16117,7 @@
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:24">
       <c r="A138" s="30"/>
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
@@ -16096,7 +16143,7 @@
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:24">
       <c r="A139" s="30"/>
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
@@ -16122,7 +16169,7 @@
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:24">
       <c r="A140" s="30"/>
       <c r="B140" s="23"/>
       <c r="C140" s="24"/>
@@ -16148,7 +16195,7 @@
       <c r="W140" s="24"/>
       <c r="X140" s="24"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:24">
       <c r="A141" s="30"/>
       <c r="B141" s="23"/>
       <c r="C141" s="24"/>
@@ -16174,7 +16221,7 @@
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:24">
       <c r="A142" s="30"/>
       <c r="B142" s="23"/>
       <c r="C142" s="24"/>
@@ -16200,7 +16247,7 @@
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:24">
       <c r="A143" s="30"/>
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
@@ -16226,7 +16273,7 @@
       <c r="W143" s="24"/>
       <c r="X143" s="24"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:24">
       <c r="A144" s="30"/>
       <c r="B144" s="23"/>
       <c r="C144" s="24"/>
@@ -16252,7 +16299,7 @@
       <c r="W144" s="24"/>
       <c r="X144" s="24"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:24">
       <c r="A145" s="30"/>
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
@@ -16278,7 +16325,7 @@
       <c r="W145" s="24"/>
       <c r="X145" s="24"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:24">
       <c r="A146" s="30"/>
       <c r="B146" s="23"/>
       <c r="C146" s="24"/>
@@ -16304,7 +16351,7 @@
       <c r="W146" s="24"/>
       <c r="X146" s="24"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:24">
       <c r="A147" s="30"/>
       <c r="B147" s="23"/>
       <c r="C147" s="24"/>
@@ -16330,7 +16377,7 @@
       <c r="W147" s="24"/>
       <c r="X147" s="24"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:24">
       <c r="A148" s="30"/>
       <c r="B148" s="23"/>
       <c r="C148" s="24"/>
@@ -16356,34 +16403,60 @@
       <c r="W148" s="24"/>
       <c r="X148" s="24"/>
     </row>
-    <row r="149" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="31"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
-      <c r="Q149" s="12"/>
-      <c r="R149" s="12"/>
-      <c r="S149" s="12"/>
-      <c r="T149" s="12"/>
-      <c r="U149" s="12"/>
-      <c r="V149" s="18"/>
-      <c r="W149" s="7"/>
-      <c r="X149" s="7"/>
+    <row r="149" spans="1:24">
+      <c r="A149" s="30"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="26"/>
+      <c r="M149" s="27"/>
+      <c r="N149" s="25"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="26"/>
+      <c r="Q149" s="26"/>
+      <c r="R149" s="26"/>
+      <c r="S149" s="26"/>
+      <c r="T149" s="26"/>
+      <c r="U149" s="26"/>
+      <c r="V149" s="27"/>
+      <c r="W149" s="24"/>
+      <c r="X149" s="24"/>
+    </row>
+    <row r="150" spans="1:24" ht="12" thickBot="1">
+      <c r="A150" s="31"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="12"/>
+      <c r="U150" s="12"/>
+      <c r="V150" s="18"/>
+      <c r="W150" s="7"/>
+      <c r="X150" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X149"/>
+  <autoFilter ref="A2:X150"/>
   <mergeCells count="8">
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="B1:B2"/>
@@ -16395,52 +16468,63 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D149">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D83 D85:D150">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>$D3="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>$D3="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>$D3="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>$D23="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$D23="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>$D23="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$D38="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$D38="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$D38="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>$D70="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>$D70="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>$D70="①"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$D84="③"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$D84="②"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$D84="①"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D150">
       <formula1>"①,②,③"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16465,197 +16549,197 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="44">
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="44">
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="44">
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="44">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" ht="33.75">
       <c r="A8" s="44">
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="44">
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="44">
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="44">
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="44">
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="44">
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="44">
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="44">
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="44">
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="C18" s="47" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -16680,27 +16764,27 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12" thickBot="1">
       <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>23</v>
       </c>
@@ -16711,7 +16795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12" thickBot="1">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -16722,7 +16806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12" thickBot="1">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -16733,7 +16817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12" thickBot="1">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -16744,7 +16828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12" thickBot="1">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -16755,7 +16839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12" thickBot="1">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -16766,7 +16850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12" thickBot="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -16777,7 +16861,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12" thickBot="1">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -16788,7 +16872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12" thickBot="1">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -16799,7 +16883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12" thickBot="1">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -16810,7 +16894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12" thickBot="1">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -16821,7 +16905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12" thickBot="1">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -16832,7 +16916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12" thickBot="1">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -16843,7 +16927,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12" thickBot="1">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -16854,7 +16938,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12" thickBot="1">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -16865,7 +16949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12" thickBot="1">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -16876,7 +16960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12" thickBot="1">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -16887,17 +16971,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12" thickBot="1">
       <c r="A22" s="55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -16908,7 +16992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -16919,40 +17003,40 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="81">
         <v>2</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="81">
         <v>3</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12" thickBot="1">
       <c r="A27" s="87">
         <v>4</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12" thickBot="1">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -16963,7 +17047,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -16974,7 +17058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -16985,7 +17069,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -16996,7 +17080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -17007,7 +17091,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -17018,7 +17102,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12" thickBot="1">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -17029,7 +17113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12" thickBot="1">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -17040,7 +17124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12" thickBot="1">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -17051,7 +17135,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -17062,51 +17146,51 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="81">
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="81">
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="81">
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="12" thickBot="1">
       <c r="A41" s="87">
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -17117,7 +17201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -17128,7 +17212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -17139,7 +17223,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -17150,7 +17234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12" thickBot="1">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -17161,7 +17245,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12" thickBot="1">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -17172,7 +17256,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12" thickBot="1">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -17183,7 +17267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="12" thickBot="1">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -17194,7 +17278,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="12" thickBot="1">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -17205,7 +17289,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="12" thickBot="1">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -17216,7 +17300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -17227,40 +17311,40 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="81">
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="81">
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="12" thickBot="1">
       <c r="A55" s="87">
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="12" thickBot="1">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -17271,7 +17355,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -17282,62 +17366,62 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="81">
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="81">
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="81">
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="81">
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="12" thickBot="1">
       <c r="A62" s="85">
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -17348,51 +17432,51 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="81">
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="81">
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="81">
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12" thickBot="1">
       <c r="A67" s="85">
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -17403,29 +17487,29 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="81">
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="12" thickBot="1">
       <c r="A70" s="87">
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="12" thickBot="1">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -17436,7 +17520,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -17447,7 +17531,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -17458,29 +17542,29 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="81">
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="12" thickBot="1">
       <c r="A75" s="87">
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="12" thickBot="1">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -17491,7 +17575,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="12" thickBot="1">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -17502,7 +17586,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -17513,7 +17597,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -17524,7 +17608,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -17535,7 +17619,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -17546,7 +17630,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -17557,7 +17641,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -17568,7 +17652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -17579,7 +17663,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -17590,7 +17674,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -17601,7 +17685,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="12" thickBot="1">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -17612,7 +17696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="12" thickBot="1">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -17623,7 +17707,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="12" thickBot="1">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -17634,7 +17718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -17645,18 +17729,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="12" thickBot="1">
       <c r="A91" s="87">
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="12" thickBot="1">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -17667,7 +17751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -17678,7 +17762,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -17689,7 +17773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -17700,7 +17784,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -17711,7 +17795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -17722,7 +17806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -17733,7 +17817,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -17744,7 +17828,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -17755,7 +17839,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -17766,7 +17850,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -17777,7 +17861,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="12" thickBot="1">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -17788,7 +17872,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -17799,7 +17883,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -17810,7 +17894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -17821,7 +17905,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -17832,7 +17916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -17843,7 +17927,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -17854,7 +17938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -17865,7 +17949,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -17876,7 +17960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -17887,7 +17971,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -17898,7 +17982,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="12" thickBot="1">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -17909,7 +17993,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -17920,7 +18004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -17931,7 +18015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -17942,7 +18026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="12" thickBot="1">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -17953,7 +18037,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -17964,7 +18048,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -17975,7 +18059,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -17986,7 +18070,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -17997,7 +18081,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -18008,7 +18092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -18019,7 +18103,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -18030,7 +18114,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -18041,7 +18125,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -18052,7 +18136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="12" thickBot="1">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -18063,7 +18147,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -18074,7 +18158,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -18085,7 +18169,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -18096,7 +18180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="12" thickBot="1">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -18107,7 +18191,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -18118,7 +18202,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -18129,7 +18213,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -18140,7 +18224,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -18151,7 +18235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="12" thickBot="1">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -18162,7 +18246,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -18173,7 +18257,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="12" thickBot="1">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -18206,78 +18290,78 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -18288,7 +18372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -18299,7 +18383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -18310,7 +18394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -18321,7 +18405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -18332,63 +18416,63 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -18399,7 +18483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -18410,7 +18494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -18421,7 +18505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -18432,7 +18516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -18443,122 +18527,122 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="107" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="107" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="107" t="s">
         <v>90</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -18,7 +18,7 @@
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$152</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">要素一覧!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="600">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -2479,24 +2479,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">【コンテンツモデル】
-トランスペアレント(子要素にINを含まない)
-【カテゴリ】
-・PH
-PHのみを含む場合
-</t>
-    <rPh sb="21" eb="22">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【コンテンツモデル】
 0個以上のparam要素に続きトランスペアレント
 【コンテンツモデル】
@@ -5349,50 +5331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">任意のimg要素のイメージマップを定義する。map要素内に複数のarea要素を配置する。また、map要素の中には、その他のコンテンツも配置することが可能。
-</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)name属性
 イメージマップの名前を指定
@@ -7211,44 +7149,6 @@
     <t>②</t>
   </si>
   <si>
-    <r>
-      <t>画像内にリンクを指定する場合に使用する。map要素内に指定する。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">id属性を指定する場合は、name属性と同値にしなければならない。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">HTML5ではリンク領域はarea要素でのみ指定が可能となった。また、input要素との関連付けが不可となった。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">動画やオーディオファイルに字幕やキャプションなどのテキストを指定する。
 </t>
     <rPh sb="0" eb="2">
@@ -7595,11 +7495,6 @@
   </si>
   <si>
     <t xml:space="preserve">文書内に記述されるURLの相対パスの基準となるURLを指定する。head要素内に最大1つ記述可能。
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML文書にタイトルを付けるための要素。title要素の中にタイトルをテキストで記述する。head要素の中に必ず1つ記述する。記述したタイトルはブラウザのツールバーに表示される。
 </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -9615,6 +9510,199 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">head要素内に記述する。title要素は通常必須だが、メール本文にHTMLを使用する場合など(件名がタイトルの役割を果たすので)、タイトル相当の情報が他から与えられる場合に限っては省略可能。
+</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【コンテンツモデル】
+空
+【カテゴリ】
+・PH
+PHのみを含む場合
+</t>
+    <rPh sb="11" eb="12">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>画像内にリンクを指定する場合に使用する。map要素内に指定する。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">HTML5ではリンク領域はarea要素でのみ指定が可能となった。また、input要素との関連付けが不可となった。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">任意のimg要素のイメージマップを定義する。map要素内に複数のarea要素を配置する。また、map要素の中には、その他のコンテンツも配置することが可能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">id属性を指定する場合は、name属性とid属性の値は同じにしなければならない。
+</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーム関連の要素</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタラクティブ関連の要素</t>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10513,7 +10601,70 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10919,13 +11070,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X150"/>
+  <dimension ref="A1:X152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10941,19 +11092,19 @@
   <sheetData>
     <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="118" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="D1" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>352</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>512</v>
-      </c>
-      <c r="E1" s="117" t="s">
-        <v>354</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -10964,7 +11115,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O1" s="117"/>
       <c r="P1" s="117"/>
@@ -10975,10 +11126,10 @@
       <c r="U1" s="117"/>
       <c r="V1" s="117"/>
       <c r="W1" s="116" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="X1" s="116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="12" thickBot="1">
@@ -10987,58 +11138,58 @@
       <c r="C2" s="116"/>
       <c r="D2" s="120"/>
       <c r="E2" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="K2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>364</v>
-      </c>
       <c r="N2" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O2" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="S2" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="S2" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="T2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
@@ -11046,13 +11197,13 @@
     <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -11073,25 +11224,25 @@
       <c r="U3" s="19"/>
       <c r="V3" s="16"/>
       <c r="W3" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -11111,19 +11262,19 @@
       <c r="U4" s="11"/>
       <c r="V4" s="17"/>
       <c r="W4" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11136,7 +11287,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="17"/>
       <c r="N5" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -11147,22 +11298,22 @@
       <c r="U5" s="11"/>
       <c r="V5" s="17"/>
       <c r="W5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -11174,7 +11325,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="17"/>
       <c r="N6" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -11185,22 +11336,22 @@
       <c r="U6" s="11"/>
       <c r="V6" s="17"/>
       <c r="W6" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11212,7 +11363,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="17"/>
       <c r="N7" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -11223,22 +11374,22 @@
       <c r="U7" s="11"/>
       <c r="V7" s="17"/>
       <c r="W7" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11250,7 +11401,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="17"/>
       <c r="N8" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -11261,19 +11412,19 @@
       <c r="U8" s="11"/>
       <c r="V8" s="17"/>
       <c r="W8" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="25"/>
@@ -11286,10 +11437,10 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
       <c r="N9" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -11308,10 +11459,10 @@
     <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="106"/>
@@ -11337,17 +11488,17 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="25"/>
@@ -11360,34 +11511,34 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
       <c r="N11" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>390</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="25"/>
@@ -11400,30 +11551,30 @@
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
       <c r="N12" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="27"/>
       <c r="W12" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="X12" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="X12" s="24" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11452,17 +11603,17 @@
     <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -11474,7 +11625,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="108"/>
       <c r="P14" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -11483,22 +11634,22 @@
       <c r="U14" s="19"/>
       <c r="V14" s="16"/>
       <c r="W14" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G15" s="104"/>
       <c r="H15" s="26"/>
@@ -11509,7 +11660,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -11518,10 +11669,10 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>219</v>
@@ -11530,15 +11681,15 @@
     <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -11549,36 +11700,36 @@
       <c r="M16" s="27"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -11589,36 +11740,36 @@
       <c r="M17" s="27"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -11629,36 +11780,36 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W18" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -11669,36 +11820,36 @@
       <c r="M19" s="27"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W19" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" s="26"/>
@@ -11709,7 +11860,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -11718,10 +11869,10 @@
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>219</v>
@@ -11730,15 +11881,15 @@
     <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -11749,7 +11900,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -11758,20 +11909,20 @@
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X21" s="24"/>
     </row>
     <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11780,34 +11931,34 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="18"/>
       <c r="N22" s="15"/>
       <c r="O22" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11836,15 +11987,15 @@
     <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
       <c r="F24" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="38"/>
@@ -11855,7 +12006,7 @@
       <c r="M24" s="39"/>
       <c r="N24" s="37"/>
       <c r="O24" s="40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -11864,10 +12015,10 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="W24" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X24" s="36" t="s">
         <v>218</v>
@@ -11876,15 +12027,15 @@
     <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -11895,7 +12046,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="25"/>
       <c r="O25" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -11904,23 +12055,23 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W25" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -11928,14 +12079,14 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
       <c r="N26" s="25"/>
       <c r="O26" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -11944,20 +12095,20 @@
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W26" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="25"/>
@@ -11971,7 +12122,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="25"/>
       <c r="O27" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -11980,10 +12131,10 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W27" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="X27" s="24" t="s">
         <v>223</v>
@@ -11992,10 +12143,10 @@
     <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="25"/>
@@ -12009,7 +12160,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="25"/>
       <c r="O28" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -12018,10 +12169,10 @@
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>224</v>
@@ -12030,17 +12181,17 @@
     <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -12059,19 +12210,19 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
       <c r="W29" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -12085,7 +12236,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="25"/>
       <c r="O30" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -12094,10 +12245,10 @@
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W30" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X30" s="24" t="s">
         <v>225</v>
@@ -12106,17 +12257,17 @@
     <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -12135,7 +12286,7 @@
       <c r="U31" s="26"/>
       <c r="V31" s="27"/>
       <c r="W31" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X31" s="24" t="s">
         <v>226</v>
@@ -12144,17 +12295,17 @@
     <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -12173,22 +12324,22 @@
       <c r="U32" s="26"/>
       <c r="V32" s="27"/>
       <c r="W32" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12201,7 +12352,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="25"/>
       <c r="O33" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
@@ -12211,19 +12362,19 @@
       <c r="U33" s="26"/>
       <c r="V33" s="27"/>
       <c r="W33" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="25"/>
@@ -12232,14 +12383,14 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
       <c r="N34" s="25"/>
       <c r="O34" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
@@ -12248,20 +12399,20 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X34" s="24"/>
     </row>
     <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="25"/>
@@ -12270,17 +12421,17 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
       <c r="N35" s="25"/>
       <c r="O35" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
@@ -12288,20 +12439,20 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W35" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="X35" s="24"/>
     </row>
     <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="25"/>
@@ -12315,10 +12466,10 @@
       <c r="M36" s="27"/>
       <c r="N36" s="25"/>
       <c r="O36" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
@@ -12326,27 +12477,27 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W36" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="15"/>
       <c r="F37" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -12365,15 +12516,15 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18"/>
       <c r="W37" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="109" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="111"/>
@@ -12402,10 +12553,10 @@
     <row r="39" spans="1:24" ht="157.5">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="37"/>
@@ -12419,23 +12570,23 @@
       <c r="M39" s="39"/>
       <c r="N39" s="37"/>
       <c r="O39" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V39" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W39" s="36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="X39" s="36" t="s">
         <v>227</v>
@@ -12444,15 +12595,15 @@
     <row r="40" spans="1:24" ht="45">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -12463,31 +12614,31 @@
       <c r="M40" s="27"/>
       <c r="N40" s="25"/>
       <c r="O40" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W40" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X40" s="24"/>
     </row>
     <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="25"/>
@@ -12496,41 +12647,41 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
       <c r="N41" s="25"/>
       <c r="O41" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W41" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X41" s="24"/>
     </row>
     <row r="42" spans="1:24" ht="33.75">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -12543,36 +12694,36 @@
       <c r="M42" s="27"/>
       <c r="N42" s="25"/>
       <c r="O42" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="27"/>
       <c r="W42" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="45">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -12583,36 +12734,36 @@
       <c r="M43" s="27"/>
       <c r="N43" s="25"/>
       <c r="O43" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X43" s="24"/>
     </row>
     <row r="44" spans="1:24" ht="101.25">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -12623,21 +12774,21 @@
       <c r="M44" s="27"/>
       <c r="N44" s="25"/>
       <c r="O44" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>228</v>
@@ -12646,15 +12797,15 @@
     <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -12665,36 +12816,36 @@
       <c r="M45" s="27"/>
       <c r="N45" s="25"/>
       <c r="O45" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W45" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X45" s="24"/>
     </row>
     <row r="46" spans="1:24" ht="45">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -12705,36 +12856,36 @@
       <c r="M46" s="27"/>
       <c r="N46" s="25"/>
       <c r="O46" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W46" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X46" s="24"/>
     </row>
     <row r="47" spans="1:24" ht="67.5">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -12745,28 +12896,28 @@
       <c r="M47" s="27"/>
       <c r="N47" s="25"/>
       <c r="O47" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
       <c r="V47" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="X47" s="24"/>
     </row>
     <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>217</v>
@@ -12774,7 +12925,7 @@
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -12785,21 +12936,21 @@
       <c r="M48" s="27"/>
       <c r="N48" s="25"/>
       <c r="O48" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W48" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X48" s="24" t="s">
         <v>229</v>
@@ -12808,15 +12959,15 @@
     <row r="49" spans="1:24" ht="45">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -12827,36 +12978,36 @@
       <c r="M49" s="27"/>
       <c r="N49" s="25"/>
       <c r="O49" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
       <c r="V49" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W49" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X49" s="24"/>
     </row>
     <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -12867,36 +13018,36 @@
       <c r="M50" s="27"/>
       <c r="N50" s="25"/>
       <c r="O50" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W50" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X50" s="24"/>
     </row>
     <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -12907,36 +13058,36 @@
       <c r="M51" s="27"/>
       <c r="N51" s="25"/>
       <c r="O51" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W51" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X51" s="24"/>
     </row>
     <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -12947,36 +13098,36 @@
       <c r="M52" s="27"/>
       <c r="N52" s="25"/>
       <c r="O52" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="26"/>
       <c r="V52" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W52" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X52" s="24"/>
     </row>
     <row r="53" spans="1:24" ht="33.75">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -12987,36 +13138,36 @@
       <c r="M53" s="27"/>
       <c r="N53" s="25"/>
       <c r="O53" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W53" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X53" s="24"/>
     </row>
     <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -13027,36 +13178,36 @@
       <c r="M54" s="27"/>
       <c r="N54" s="25"/>
       <c r="O54" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W54" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X54" s="24"/>
     </row>
     <row r="55" spans="1:24" ht="22.5">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>480</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>482</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
@@ -13067,36 +13218,36 @@
       <c r="M55" s="27"/>
       <c r="N55" s="25"/>
       <c r="O55" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
       <c r="V55" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W55" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X55" s="24"/>
     </row>
     <row r="56" spans="1:24" ht="56.25">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
@@ -13107,36 +13258,36 @@
       <c r="M56" s="27"/>
       <c r="N56" s="25"/>
       <c r="O56" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="26"/>
       <c r="V56" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W56" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X56" s="24"/>
     </row>
     <row r="57" spans="1:24" ht="45">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -13147,36 +13298,36 @@
       <c r="M57" s="27"/>
       <c r="N57" s="25"/>
       <c r="O57" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W57" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X57" s="24"/>
     </row>
     <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -13187,36 +13338,36 @@
       <c r="M58" s="27"/>
       <c r="N58" s="25"/>
       <c r="O58" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W58" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X58" s="24"/>
     </row>
     <row r="59" spans="1:24" ht="33.75">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
@@ -13227,36 +13378,36 @@
       <c r="M59" s="27"/>
       <c r="N59" s="25"/>
       <c r="O59" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
       <c r="V59" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W59" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X59" s="24"/>
     </row>
     <row r="60" spans="1:24" ht="45">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -13267,21 +13418,21 @@
       <c r="M60" s="27"/>
       <c r="N60" s="25"/>
       <c r="O60" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W60" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X60" s="24" t="s">
         <v>230</v>
@@ -13290,15 +13441,15 @@
     <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -13317,24 +13468,24 @@
       <c r="U61" s="26"/>
       <c r="V61" s="27"/>
       <c r="W61" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -13353,24 +13504,24 @@
       <c r="U62" s="26"/>
       <c r="V62" s="27"/>
       <c r="W62" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
@@ -13389,24 +13540,24 @@
       <c r="U63" s="26"/>
       <c r="V63" s="27"/>
       <c r="W63" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X63" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="33.75">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -13417,36 +13568,36 @@
       <c r="M64" s="27"/>
       <c r="N64" s="25"/>
       <c r="O64" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="26"/>
       <c r="S64" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T64" s="26"/>
       <c r="U64" s="26"/>
       <c r="V64" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W64" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X64" s="24"/>
     </row>
     <row r="65" spans="1:24" ht="22.5">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -13457,34 +13608,34 @@
       <c r="M65" s="27"/>
       <c r="N65" s="25"/>
       <c r="O65" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
       <c r="V65" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W65" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X65" s="24"/>
     </row>
     <row r="66" spans="1:24" ht="33.75">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
@@ -13497,29 +13648,29 @@
       <c r="M66" s="27"/>
       <c r="N66" s="25"/>
       <c r="O66" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="26"/>
       <c r="S66" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
       <c r="V66" s="27"/>
       <c r="W66" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X66" s="24"/>
     </row>
     <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13533,21 +13684,21 @@
       <c r="M67" s="27"/>
       <c r="N67" s="25"/>
       <c r="O67" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
       <c r="V67" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W67" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X67" s="24" t="s">
         <v>231</v>
@@ -13556,10 +13707,10 @@
     <row r="68" spans="1:24" ht="67.5">
       <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="25"/>
@@ -13573,19 +13724,19 @@
       <c r="M68" s="27"/>
       <c r="N68" s="25"/>
       <c r="O68" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T68" s="26"/>
       <c r="U68" s="26"/>
       <c r="V68" s="27"/>
       <c r="W68" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>232</v>
@@ -13594,15 +13745,15 @@
     <row r="69" spans="1:24" ht="34.5" thickBot="1">
       <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15"/>
       <c r="F69" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -13613,25 +13764,25 @@
       <c r="M69" s="18"/>
       <c r="N69" s="15"/>
       <c r="O69" s="41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="109" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="111"/>
@@ -13660,13 +13811,13 @@
     <row r="71" spans="1:24" ht="157.5">
       <c r="A71" s="34"/>
       <c r="B71" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="C71" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>507</v>
-      </c>
       <c r="D71" s="53" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -13679,35 +13830,35 @@
       <c r="M71" s="39"/>
       <c r="N71" s="37"/>
       <c r="O71" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V71" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="X71" s="36" t="s">
-        <v>233</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="191.25">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -13721,40 +13872,40 @@
       <c r="M72" s="27"/>
       <c r="N72" s="25"/>
       <c r="O72" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V72" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="112.5">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13767,37 +13918,37 @@
       <c r="M73" s="27"/>
       <c r="N73" s="25"/>
       <c r="O73" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V73" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W73" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="213.75">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -13811,40 +13962,40 @@
       <c r="M74" s="27"/>
       <c r="N74" s="25"/>
       <c r="O74" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V74" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W74" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X74" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="67.5">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
@@ -13865,19 +14016,19 @@
       <c r="U75" s="26"/>
       <c r="V75" s="27"/>
       <c r="W75" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="X75" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="X75" s="24" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="258.75">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>332</v>
       </c>
       <c r="D76" s="51"/>
       <c r="E76" s="25"/>
@@ -13891,37 +14042,37 @@
       <c r="M76" s="27"/>
       <c r="N76" s="25"/>
       <c r="O76" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T76" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U76" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V76" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W76" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X76" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="213.75">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D77" s="51"/>
       <c r="E77" s="25"/>
@@ -13935,40 +14086,40 @@
       <c r="M77" s="27"/>
       <c r="N77" s="25"/>
       <c r="O77" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T77" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U77" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V77" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W77" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X77" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="90">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -13989,22 +14140,22 @@
       <c r="U78" s="26"/>
       <c r="V78" s="27"/>
       <c r="W78" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="135">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -14025,19 +14176,19 @@
       <c r="U79" s="26"/>
       <c r="V79" s="27"/>
       <c r="W79" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X79" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="67.5">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>341</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>342</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="25"/>
@@ -14051,35 +14202,35 @@
       <c r="M80" s="27"/>
       <c r="N80" s="25"/>
       <c r="O80" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
       <c r="R80" s="26"/>
       <c r="S80" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T80" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U80" s="26"/>
       <c r="V80" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W80" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X80" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="67.5">
       <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>345</v>
+        <v>597</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="25"/>
@@ -14093,36 +14244,36 @@
       <c r="M81" s="27"/>
       <c r="N81" s="25"/>
       <c r="O81" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
       <c r="R81" s="26"/>
       <c r="S81" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="T81" s="26"/>
       <c r="U81" s="26"/>
       <c r="V81" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W81" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="X81" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="225">
       <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -14135,31 +14286,31 @@
       <c r="M82" s="27"/>
       <c r="N82" s="25"/>
       <c r="O82" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
       <c r="R82" s="26"/>
       <c r="S82" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T82" s="26"/>
       <c r="U82" s="26"/>
       <c r="V82" s="27"/>
       <c r="W82" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="X82" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="23.25" thickBot="1">
       <c r="A83" s="31"/>
       <c r="B83" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D83" s="52"/>
       <c r="E83" s="15"/>
@@ -14173,16 +14324,16 @@
       <c r="M83" s="18"/>
       <c r="N83" s="15"/>
       <c r="O83" s="41" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="18"/>
@@ -14191,7 +14342,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="109" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="111"/>
@@ -14220,10 +14371,10 @@
     <row r="85" spans="1:24" ht="101.25">
       <c r="A85" s="34"/>
       <c r="B85" s="35" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="37"/>
@@ -14237,7 +14388,7 @@
       <c r="M85" s="39"/>
       <c r="N85" s="37"/>
       <c r="O85" s="40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P85" s="38"/>
       <c r="Q85" s="38"/>
@@ -14246,19 +14397,19 @@
       <c r="T85" s="38"/>
       <c r="U85" s="38"/>
       <c r="V85" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W85" s="36" t="s">
         <v>0</v>
       </c>
       <c r="X85" s="36" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="67.5">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>11</v>
@@ -14266,7 +14417,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="25"/>
       <c r="F86" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
@@ -14285,22 +14436,22 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
       <c r="W86" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X86" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="67.5">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>150</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
@@ -14366,13 +14517,13 @@
     <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
@@ -14393,7 +14544,7 @@
       <c r="U89" s="26"/>
       <c r="V89" s="27"/>
       <c r="W89" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X89" s="24" t="s">
         <v>9</v>
@@ -14427,7 +14578,7 @@
       <c r="U90" s="26"/>
       <c r="V90" s="27"/>
       <c r="W90" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X90" s="24" t="s">
         <v>9</v>
@@ -14436,17 +14587,17 @@
     <row r="91" spans="1:24" ht="45">
       <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C91" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" s="51" t="s">
         <v>316</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>317</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
@@ -14457,7 +14608,7 @@
       <c r="M91" s="27"/>
       <c r="N91" s="25"/>
       <c r="O91" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
@@ -14466,25 +14617,25 @@
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
       <c r="V91" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W91" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X91" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="56.25">
       <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="26"/>
@@ -14505,26 +14656,26 @@
       <c r="U92" s="26"/>
       <c r="V92" s="27"/>
       <c r="W92" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="X92" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="157.5">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -14543,7 +14694,7 @@
       <c r="U93" s="26"/>
       <c r="V93" s="27"/>
       <c r="W93" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X93" s="24" t="s">
         <v>226</v>
@@ -14552,13 +14703,13 @@
     <row r="94" spans="1:24" ht="90.75" thickBot="1">
       <c r="A94" s="31"/>
       <c r="B94" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="12"/>
@@ -14572,7 +14723,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="41"/>
       <c r="P94" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -14581,137 +14732,129 @@
       <c r="U94" s="12"/>
       <c r="V94" s="18"/>
       <c r="W94" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X94" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" ht="202.5">
-      <c r="A95" s="34"/>
-      <c r="B95" s="35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95" s="109" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" s="110"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="113"/>
+      <c r="F95" s="113"/>
+      <c r="G95" s="113"/>
+      <c r="H95" s="113"/>
+      <c r="I95" s="113"/>
+      <c r="J95" s="113"/>
+      <c r="K95" s="113"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="113"/>
+      <c r="N95" s="113"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="113"/>
+      <c r="R95" s="113"/>
+      <c r="S95" s="113"/>
+      <c r="T95" s="113"/>
+      <c r="U95" s="113"/>
+      <c r="V95" s="113"/>
+      <c r="W95" s="111"/>
+      <c r="X95" s="115"/>
+    </row>
+    <row r="96" spans="1:24" ht="202.5">
+      <c r="A96" s="34"/>
+      <c r="B96" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C96" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="W95" s="36" t="s">
+      <c r="D96" s="53"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="W96" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="X95" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="90">
-      <c r="A96" s="30"/>
-      <c r="B96" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="51"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="P96" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26"/>
-      <c r="V96" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="W96" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="X96" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" ht="45">
+      <c r="X96" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="90">
       <c r="A97" s="30"/>
       <c r="B97" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D97" s="51"/>
       <c r="E97" s="25"/>
-      <c r="F97" s="26"/>
+      <c r="F97" s="26" t="s">
+        <v>382</v>
+      </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
-      <c r="J97" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="J97" s="26"/>
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
       <c r="M97" s="27"/>
       <c r="N97" s="25"/>
-      <c r="O97" s="33"/>
-      <c r="P97" s="26"/>
+      <c r="O97" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="P97" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
       <c r="U97" s="26"/>
-      <c r="V97" s="27"/>
+      <c r="V97" s="27" t="s">
+        <v>381</v>
+      </c>
       <c r="W97" s="24" t="s">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="X97" s="24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" ht="67.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="45">
       <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D98" s="51"/>
       <c r="E98" s="25"/>
@@ -14720,133 +14863,125 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
       <c r="M98" s="27"/>
       <c r="N98" s="25"/>
-      <c r="O98" s="33" t="s">
-        <v>383</v>
-      </c>
+      <c r="O98" s="33"/>
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
       <c r="R98" s="26"/>
-      <c r="S98" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="S98" s="26"/>
       <c r="T98" s="26"/>
-      <c r="U98" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="V98" s="27" t="s">
-        <v>383</v>
-      </c>
+      <c r="U98" s="26"/>
+      <c r="V98" s="27"/>
       <c r="W98" s="24" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="X98" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" ht="101.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="67.5">
       <c r="A99" s="30"/>
       <c r="B99" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="51" t="s">
-        <v>286</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D99" s="51"/>
       <c r="E99" s="25"/>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
+      <c r="J99" s="26" t="s">
+        <v>382</v>
+      </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
       <c r="M99" s="27"/>
       <c r="N99" s="25"/>
       <c r="O99" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T99" s="26"/>
       <c r="U99" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="V99" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="V99" s="27" t="s">
+        <v>381</v>
       </c>
       <c r="W99" s="24" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X99" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="101.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26"/>
+      <c r="S100" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="T100" s="26"/>
+      <c r="U100" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="V100" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="W100" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X100" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="112.5">
+      <c r="A101" s="34"/>
+      <c r="B101" s="64" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" ht="112.5">
-      <c r="A100" s="34"/>
-      <c r="B100" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="C100" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="E100" s="66"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="67"/>
-      <c r="L100" s="67"/>
-      <c r="M100" s="68"/>
-      <c r="N100" s="66"/>
-      <c r="O100" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="P100" s="67"/>
-      <c r="Q100" s="67"/>
-      <c r="R100" s="67"/>
-      <c r="S100" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="T100" s="67"/>
-      <c r="U100" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="V100" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="W100" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="X100" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" ht="101.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="64" t="s">
-        <v>543</v>
       </c>
       <c r="C101" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E101" s="66"/>
       <c r="F101" s="67"/>
@@ -14859,38 +14994,38 @@
       <c r="M101" s="68"/>
       <c r="N101" s="66"/>
       <c r="O101" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P101" s="67"/>
       <c r="Q101" s="67"/>
       <c r="R101" s="67"/>
       <c r="S101" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T101" s="67"/>
       <c r="U101" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="V101" s="70" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="V101" s="67" t="s">
+        <v>287</v>
       </c>
       <c r="W101" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="X101" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" ht="78.75">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="101.25">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="67"/>
@@ -14903,82 +15038,82 @@
       <c r="M102" s="68"/>
       <c r="N102" s="66"/>
       <c r="O102" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P102" s="67"/>
       <c r="Q102" s="67"/>
       <c r="R102" s="67"/>
       <c r="S102" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T102" s="67"/>
       <c r="U102" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V102" s="70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W102" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X102" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="78.75">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C103" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>516</v>
-      </c>
-      <c r="E103" s="37"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="37"/>
+        <v>286</v>
+      </c>
+      <c r="E103" s="66"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="68"/>
+      <c r="N103" s="66"/>
       <c r="O103" s="69" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="P103" s="67"/>
       <c r="Q103" s="67"/>
       <c r="R103" s="67"/>
       <c r="S103" s="67" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="T103" s="67"/>
       <c r="U103" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="V103" s="68" t="s">
-        <v>369</v>
+        <v>287</v>
+      </c>
+      <c r="V103" s="70" t="s">
+        <v>287</v>
       </c>
       <c r="W103" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X103" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" ht="101.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="78.75">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C104" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -14991,38 +15126,38 @@
       <c r="M104" s="39"/>
       <c r="N104" s="37"/>
       <c r="O104" s="69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P104" s="67"/>
       <c r="Q104" s="67"/>
       <c r="R104" s="67"/>
       <c r="S104" s="67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T104" s="67"/>
       <c r="U104" s="67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="V104" s="68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W104" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X104" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" ht="123.75">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="101.25">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C105" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
@@ -15035,209 +15170,209 @@
       <c r="M105" s="39"/>
       <c r="N105" s="37"/>
       <c r="O105" s="69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P105" s="67"/>
       <c r="Q105" s="67"/>
       <c r="R105" s="67"/>
       <c r="S105" s="67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T105" s="67"/>
       <c r="U105" s="67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="V105" s="68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W105" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="X105" s="36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="123.75">
+      <c r="A106" s="71"/>
+      <c r="B106" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="C106" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="65" t="s">
+        <v>514</v>
+      </c>
+      <c r="E106" s="37"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="P106" s="67"/>
+      <c r="Q106" s="67"/>
+      <c r="R106" s="67"/>
+      <c r="S106" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="T106" s="67"/>
+      <c r="U106" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="V106" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="W106" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="X106" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="123.75">
+      <c r="A107" s="61"/>
+      <c r="B107" s="60" t="s">
+        <v>539</v>
+      </c>
+      <c r="C107" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T107" s="58"/>
+      <c r="U107" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V107" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="W107" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="X105" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" ht="123.75">
-      <c r="A106" s="61"/>
-      <c r="B106" s="60" t="s">
-        <v>543</v>
-      </c>
-      <c r="C106" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="62" t="s">
-        <v>516</v>
-      </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="P106" s="58"/>
-      <c r="Q106" s="58"/>
-      <c r="R106" s="58"/>
-      <c r="S106" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="T106" s="58"/>
-      <c r="U106" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="V106" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="W106" s="9" t="s">
+      <c r="X107" s="9"/>
+    </row>
+    <row r="108" spans="1:24" ht="135">
+      <c r="A108" s="30"/>
+      <c r="B108" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D108" s="51"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="T108" s="26"/>
+      <c r="U108" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="V108" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="W108" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="X108" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="X106" s="9"/>
-    </row>
-    <row r="107" spans="1:24" ht="135">
-      <c r="A107" s="30"/>
-      <c r="B107" s="23" t="s">
+    </row>
+    <row r="109" spans="1:24" ht="146.25">
+      <c r="A109" s="28"/>
+      <c r="B109" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="C107" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="V107" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="W107" s="24" t="s">
+      <c r="D109" s="62"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="106"/>
+      <c r="O109" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="58"/>
+      <c r="S109" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="T109" s="58"/>
+      <c r="U109" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="V109" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="W109" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="X107" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" ht="146.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="C108" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="D108" s="62"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="106"/>
-      <c r="O108" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="P108" s="58"/>
-      <c r="Q108" s="58"/>
-      <c r="R108" s="58"/>
-      <c r="S108" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="T108" s="58"/>
-      <c r="U108" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="V108" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="W108" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="X108" s="9"/>
-    </row>
-    <row r="109" spans="1:24" ht="157.5">
-      <c r="A109" s="30"/>
-      <c r="B109" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D109" s="51"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="V109" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="W109" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="X109" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" ht="112.5">
+      <c r="X109" s="9"/>
+    </row>
+    <row r="110" spans="1:24" ht="157.5">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
-        <v>540</v>
+        <v>288</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D110" s="51" t="s">
-        <v>317</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D110" s="51"/>
       <c r="E110" s="25"/>
       <c r="F110" s="26"/>
       <c r="G110" s="26"/>
@@ -15248,31 +15383,39 @@
       <c r="L110" s="26"/>
       <c r="M110" s="27"/>
       <c r="N110" s="25"/>
-      <c r="O110" s="33"/>
+      <c r="O110" s="33" t="s">
+        <v>381</v>
+      </c>
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
       <c r="R110" s="26"/>
-      <c r="S110" s="26"/>
+      <c r="S110" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="T110" s="26"/>
-      <c r="U110" s="26"/>
-      <c r="V110" s="27"/>
+      <c r="U110" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="V110" s="27" t="s">
+        <v>381</v>
+      </c>
       <c r="W110" s="24" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="X110" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="67.5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="112.5">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="26"/>
@@ -15293,21 +15436,23 @@
       <c r="U111" s="26"/>
       <c r="V111" s="27"/>
       <c r="W111" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X111" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" ht="270">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="67.5">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
-        <v>300</v>
+        <v>535</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D112" s="51"/>
+        <v>295</v>
+      </c>
+      <c r="D112" s="51" t="s">
+        <v>316</v>
+      </c>
       <c r="E112" s="25"/>
       <c r="F112" s="26"/>
       <c r="G112" s="26"/>
@@ -15318,40 +15463,30 @@
       <c r="L112" s="26"/>
       <c r="M112" s="27"/>
       <c r="N112" s="25"/>
-      <c r="O112" s="33" t="s">
-        <v>383</v>
-      </c>
+      <c r="O112" s="33"/>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
       <c r="R112" s="26"/>
-      <c r="S112" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="S112" s="26"/>
       <c r="T112" s="26"/>
-      <c r="U112" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="V112" s="27" t="s">
-        <v>383</v>
-      </c>
+      <c r="U112" s="26"/>
+      <c r="V112" s="27"/>
       <c r="W112" s="24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="X112" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" ht="168.75">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="270">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D113" s="51" t="s">
-        <v>4</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D113" s="51"/>
       <c r="E113" s="25"/>
       <c r="F113" s="26"/>
       <c r="G113" s="26"/>
@@ -15363,75 +15498,79 @@
       <c r="M113" s="27"/>
       <c r="N113" s="25"/>
       <c r="O113" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
       <c r="R113" s="26"/>
       <c r="S113" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T113" s="26"/>
       <c r="U113" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="V113" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W113" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="X113" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" ht="101.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="168.75">
       <c r="A114" s="30"/>
       <c r="B114" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D114" s="51"/>
+        <v>304</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="E114" s="25"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
-      <c r="J114" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="J114" s="26"/>
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
       <c r="M114" s="27"/>
       <c r="N114" s="25"/>
       <c r="O114" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="26"/>
       <c r="S114" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T114" s="26"/>
-      <c r="U114" s="26"/>
+      <c r="U114" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="V114" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W114" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="X114" s="24"/>
-    </row>
-    <row r="115" spans="1:24" ht="67.5">
+        <v>306</v>
+      </c>
+      <c r="X114" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="101.25">
       <c r="A115" s="30"/>
       <c r="B115" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D115" s="51"/>
       <c r="E115" s="25"/>
@@ -15440,40 +15579,38 @@
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
       <c r="J115" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
       <c r="M115" s="27"/>
       <c r="N115" s="25"/>
       <c r="O115" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T115" s="26"/>
       <c r="U115" s="26"/>
       <c r="V115" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W115" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="X115" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" ht="168.75">
+        <v>309</v>
+      </c>
+      <c r="X115" s="24"/>
+    </row>
+    <row r="116" spans="1:24" ht="67.5">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D116" s="51"/>
       <c r="E116" s="25"/>
@@ -15482,214 +15619,206 @@
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
       <c r="J116" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
       <c r="M116" s="27"/>
       <c r="N116" s="25"/>
       <c r="O116" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
       <c r="R116" s="26"/>
       <c r="S116" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="T116" s="26"/>
       <c r="U116" s="26"/>
       <c r="V116" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W116" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="X116" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="168.75">
+      <c r="A117" s="30"/>
+      <c r="B117" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D117" s="51"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+      <c r="S117" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="T117" s="26"/>
+      <c r="U117" s="26"/>
+      <c r="V117" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="W117" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="X117" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="57" thickBot="1">
+      <c r="A118" s="31"/>
+      <c r="B118" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" s="52"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="X118" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="A119" s="109" t="s">
+        <v>599</v>
+      </c>
+      <c r="B119" s="110"/>
+      <c r="C119" s="111"/>
+      <c r="D119" s="112"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="113"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="113"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="113"/>
+      <c r="M119" s="113"/>
+      <c r="N119" s="113"/>
+      <c r="O119" s="114"/>
+      <c r="P119" s="113"/>
+      <c r="Q119" s="113"/>
+      <c r="R119" s="113"/>
+      <c r="S119" s="113"/>
+      <c r="T119" s="113"/>
+      <c r="U119" s="113"/>
+      <c r="V119" s="113"/>
+      <c r="W119" s="111"/>
+      <c r="X119" s="115"/>
+    </row>
+    <row r="120" spans="1:24" ht="45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="53"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="39"/>
+      <c r="N120" s="37"/>
+      <c r="O120" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="P120" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q120" s="38"/>
+      <c r="R120" s="38"/>
+      <c r="S120" s="38"/>
+      <c r="T120" s="38"/>
+      <c r="U120" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="V120" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="W120" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="X116" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" ht="57" thickBot="1">
-      <c r="A117" s="31"/>
-      <c r="B117" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D117" s="52"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="X117" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" ht="45">
-      <c r="A118" s="34"/>
-      <c r="B118" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="C118" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" s="53"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="37"/>
-      <c r="O118" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="P118" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="38"/>
-      <c r="S118" s="38"/>
-      <c r="T118" s="38"/>
-      <c r="U118" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="V118" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="W118" s="36" t="s">
+      <c r="X120" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="X118" s="36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" ht="33.75">
-      <c r="A119" s="30"/>
-      <c r="B119" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="51"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="K119" s="26"/>
-      <c r="L119" s="26"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="33"/>
-      <c r="P119" s="26"/>
-      <c r="Q119" s="26"/>
-      <c r="R119" s="26"/>
-      <c r="S119" s="26"/>
-      <c r="T119" s="26"/>
-      <c r="U119" s="26"/>
-      <c r="V119" s="27"/>
-      <c r="W119" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="X119" s="24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" ht="67.5">
-      <c r="A120" s="30"/>
-      <c r="B120" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="51"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="P120" s="26"/>
-      <c r="Q120" s="26"/>
-      <c r="R120" s="26"/>
-      <c r="S120" s="26"/>
-      <c r="T120" s="26"/>
-      <c r="U120" s="26"/>
-      <c r="V120" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="W120" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="X120" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" ht="45">
+    </row>
+    <row r="121" spans="1:24" ht="33.75">
       <c r="A121" s="30"/>
       <c r="B121" s="23" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D121" s="51"/>
       <c r="E121" s="25"/>
-      <c r="F121" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="F121" s="26"/>
       <c r="G121" s="26"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
-      <c r="J121" s="26"/>
+      <c r="J121" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="27"/>
       <c r="N121" s="25"/>
-      <c r="O121" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="P121" s="26" t="s">
-        <v>383</v>
-      </c>
+      <c r="O121" s="33"/>
+      <c r="P121" s="26"/>
       <c r="Q121" s="26"/>
       <c r="R121" s="26"/>
       <c r="S121" s="26"/>
@@ -15697,14 +15826,20 @@
       <c r="U121" s="26"/>
       <c r="V121" s="27"/>
       <c r="W121" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="X121" s="24"/>
-    </row>
-    <row r="122" spans="1:24">
+        <v>387</v>
+      </c>
+      <c r="X121" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="67.5">
       <c r="A122" s="30"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24"/>
+      <c r="B122" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>279</v>
+      </c>
       <c r="D122" s="51"/>
       <c r="E122" s="25"/>
       <c r="F122" s="26"/>
@@ -15716,24 +15851,38 @@
       <c r="L122" s="26"/>
       <c r="M122" s="27"/>
       <c r="N122" s="25"/>
-      <c r="O122" s="33"/>
+      <c r="O122" s="33" t="s">
+        <v>381</v>
+      </c>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
       <c r="R122" s="26"/>
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
       <c r="U122" s="26"/>
-      <c r="V122" s="27"/>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="V122" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="W122" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="X122" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="45">
       <c r="A123" s="30"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24"/>
+      <c r="B123" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>281</v>
+      </c>
       <c r="D123" s="51"/>
       <c r="E123" s="25"/>
-      <c r="F123" s="26"/>
+      <c r="F123" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
@@ -15742,15 +15891,21 @@
       <c r="L123" s="26"/>
       <c r="M123" s="27"/>
       <c r="N123" s="25"/>
-      <c r="O123" s="33"/>
-      <c r="P123" s="26"/>
+      <c r="O123" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="P123" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="Q123" s="26"/>
       <c r="R123" s="26"/>
       <c r="S123" s="26"/>
       <c r="T123" s="26"/>
       <c r="U123" s="26"/>
       <c r="V123" s="27"/>
-      <c r="W123" s="24"/>
+      <c r="W123" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="X123" s="24"/>
     </row>
     <row r="124" spans="1:24">
@@ -16429,34 +16584,86 @@
       <c r="W149" s="24"/>
       <c r="X149" s="24"/>
     </row>
-    <row r="150" spans="1:24" ht="12" thickBot="1">
-      <c r="A150" s="31"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="12"/>
-      <c r="P150" s="12"/>
-      <c r="Q150" s="12"/>
-      <c r="R150" s="12"/>
-      <c r="S150" s="12"/>
-      <c r="T150" s="12"/>
-      <c r="U150" s="12"/>
-      <c r="V150" s="18"/>
-      <c r="W150" s="7"/>
-      <c r="X150" s="7"/>
+    <row r="150" spans="1:24">
+      <c r="A150" s="30"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="26"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="25"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="26"/>
+      <c r="Q150" s="26"/>
+      <c r="R150" s="26"/>
+      <c r="S150" s="26"/>
+      <c r="T150" s="26"/>
+      <c r="U150" s="26"/>
+      <c r="V150" s="27"/>
+      <c r="W150" s="24"/>
+      <c r="X150" s="24"/>
+    </row>
+    <row r="151" spans="1:24">
+      <c r="A151" s="30"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="27"/>
+      <c r="N151" s="25"/>
+      <c r="O151" s="33"/>
+      <c r="P151" s="26"/>
+      <c r="Q151" s="26"/>
+      <c r="R151" s="26"/>
+      <c r="S151" s="26"/>
+      <c r="T151" s="26"/>
+      <c r="U151" s="26"/>
+      <c r="V151" s="27"/>
+      <c r="W151" s="24"/>
+      <c r="X151" s="24"/>
+    </row>
+    <row r="152" spans="1:24" ht="12" thickBot="1">
+      <c r="A152" s="31"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="18"/>
+      <c r="W152" s="7"/>
+      <c r="X152" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X150"/>
+  <autoFilter ref="A2:X152"/>
   <mergeCells count="8">
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="B1:B2"/>
@@ -16468,63 +16675,85 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D83 D85:D150">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D83 D85:D94 D96:D118 D120:D152">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>$D3="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
       <formula>$D3="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>$D3="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
       <formula>$D23="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>$D23="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
       <formula>$D23="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>$D38="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>$D38="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>$D38="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>$D70="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>$D70="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>$D70="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$D84="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$D84="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$D84="①"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$D95="③"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>$D95="②"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>$D95="①"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$D119="③"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$D119="②"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$D119="①"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D150">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D152">
       <formula1>"①,②,③"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16558,18 +16787,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16577,10 +16806,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16588,10 +16817,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16599,10 +16828,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16610,10 +16839,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33.75">
@@ -16621,10 +16850,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16632,10 +16861,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16643,10 +16872,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16654,10 +16883,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16665,10 +16894,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16676,10 +16905,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16687,10 +16916,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16698,10 +16927,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16709,10 +16938,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16720,10 +16949,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16731,15 +16960,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -17008,7 +17237,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>129</v>
@@ -17019,7 +17248,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>130</v>
@@ -17030,7 +17259,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>131</v>
@@ -17151,7 +17380,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>144</v>
@@ -17162,7 +17391,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>147</v>
@@ -17173,7 +17402,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>128</v>
@@ -17184,7 +17413,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>148</v>
@@ -17316,7 +17545,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>146</v>
@@ -17327,7 +17556,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>144</v>
@@ -17338,7 +17567,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>161</v>
@@ -17371,7 +17600,7 @@
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>166</v>
@@ -17382,7 +17611,7 @@
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>167</v>
@@ -17393,7 +17622,7 @@
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>168</v>
@@ -17404,7 +17633,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>169</v>
@@ -17415,7 +17644,7 @@
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>144</v>
@@ -17437,7 +17666,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>171</v>
@@ -17448,7 +17677,7 @@
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>144</v>
@@ -17459,7 +17688,7 @@
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>172</v>
@@ -17470,7 +17699,7 @@
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>173</v>
@@ -17492,7 +17721,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>175</v>
@@ -17503,7 +17732,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>176</v>
@@ -17547,7 +17776,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>128</v>
@@ -17558,7 +17787,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>180</v>
@@ -17602,7 +17831,7 @@
         <v>56</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C79" s="83" t="s">
         <v>186</v>
@@ -17613,7 +17842,7 @@
         <v>57</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C80" s="83" t="s">
         <v>187</v>
@@ -17624,7 +17853,7 @@
         <v>58</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C81" s="83" t="s">
         <v>188</v>
@@ -17635,7 +17864,7 @@
         <v>59</v>
       </c>
       <c r="B82" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C82" s="83" t="s">
         <v>189</v>
@@ -17646,7 +17875,7 @@
         <v>60</v>
       </c>
       <c r="B83" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C83" s="83" t="s">
         <v>190</v>
@@ -17657,7 +17886,7 @@
         <v>61</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C84" s="83" t="s">
         <v>144</v>
@@ -17668,7 +17897,7 @@
         <v>62</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C85" s="83" t="s">
         <v>191</v>
@@ -17679,7 +17908,7 @@
         <v>63</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C86" s="83" t="s">
         <v>192</v>
@@ -17690,7 +17919,7 @@
         <v>64</v>
       </c>
       <c r="B87" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C87" s="82" t="s">
         <v>173</v>
@@ -17734,7 +17963,7 @@
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>179</v>
@@ -18352,13 +18581,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -18463,13 +18692,13 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:3">

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -389,26 +389,6 @@
   </si>
   <si>
     <t>form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML5ではaccept属性が廃止され、autocomplete属性、novalidate属性が追加された。form要素外に入力フォーム(テキストボックス等)を配置可能となった(form要素のid属性値を入力フォームのform属性に指定する)。
-</t>
-    <rPh sb="13" eb="15">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハイシ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ツイカゾクセイハイシゾクセイゾクセイツイカヨウソ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -9703,6 +9683,49 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTML5ではaccept属性が廃止され、autocomplete属性、novalidate属性が追加された。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>form要素外に入力フォーム(テキストボックス等)を配置可能となった(form要素のid属性値を入力フォームのform属性に指定する)。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ツイカゾクセイハイシゾクセイゾクセイツイカヨウソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10601,49 +10624,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -11073,10 +11054,10 @@
   <dimension ref="A1:X152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11092,19 +11073,19 @@
   <sheetData>
     <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="118" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="D1" s="119" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>351</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="117" t="s">
-        <v>352</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -11115,7 +11096,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O1" s="117"/>
       <c r="P1" s="117"/>
@@ -11126,10 +11107,10 @@
       <c r="U1" s="117"/>
       <c r="V1" s="117"/>
       <c r="W1" s="116" t="s">
+        <v>353</v>
+      </c>
+      <c r="X1" s="116" t="s">
         <v>354</v>
-      </c>
-      <c r="X1" s="116" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="12" thickBot="1">
@@ -11138,58 +11119,58 @@
       <c r="C2" s="116"/>
       <c r="D2" s="120"/>
       <c r="E2" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="O2" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>361</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>362</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
@@ -11197,13 +11178,13 @@
     <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -11224,25 +11205,25 @@
       <c r="U3" s="19"/>
       <c r="V3" s="16"/>
       <c r="W3" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>367</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -11262,19 +11243,19 @@
       <c r="U4" s="11"/>
       <c r="V4" s="17"/>
       <c r="W4" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11287,7 +11268,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="17"/>
       <c r="N5" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -11298,22 +11279,22 @@
       <c r="U5" s="11"/>
       <c r="V5" s="17"/>
       <c r="W5" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -11325,7 +11306,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="17"/>
       <c r="N6" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -11336,22 +11317,22 @@
       <c r="U6" s="11"/>
       <c r="V6" s="17"/>
       <c r="W6" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11363,7 +11344,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="17"/>
       <c r="N7" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -11374,22 +11355,22 @@
       <c r="U7" s="11"/>
       <c r="V7" s="17"/>
       <c r="W7" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11401,7 +11382,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="17"/>
       <c r="N8" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -11412,19 +11393,19 @@
       <c r="U8" s="11"/>
       <c r="V8" s="17"/>
       <c r="W8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>379</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>380</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="25"/>
@@ -11437,10 +11418,10 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
       <c r="N9" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>381</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>382</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -11450,19 +11431,19 @@
       <c r="U9" s="26"/>
       <c r="V9" s="27"/>
       <c r="W9" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>379</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>380</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="106"/>
@@ -11475,10 +11456,10 @@
       <c r="L10" s="58"/>
       <c r="M10" s="59"/>
       <c r="N10" s="106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P10" s="58"/>
       <c r="Q10" s="58"/>
@@ -11488,17 +11469,17 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>384</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="25"/>
@@ -11511,34 +11492,34 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
       <c r="N11" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="25"/>
@@ -11551,30 +11532,30 @@
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
       <c r="N12" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="27"/>
       <c r="W12" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11603,17 +11584,17 @@
     <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -11625,7 +11606,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="108"/>
       <c r="P14" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -11634,22 +11615,22 @@
       <c r="U14" s="19"/>
       <c r="V14" s="16"/>
       <c r="W14" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G15" s="104"/>
       <c r="H15" s="26"/>
@@ -11660,7 +11641,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -11669,27 +11650,27 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -11700,36 +11681,36 @@
       <c r="M16" s="27"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -11740,36 +11721,36 @@
       <c r="M17" s="27"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -11780,36 +11761,36 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W18" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>395</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>396</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -11820,36 +11801,36 @@
       <c r="M19" s="27"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W19" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>397</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>398</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" s="26"/>
@@ -11860,7 +11841,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -11869,27 +11850,27 @@
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X20" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -11900,7 +11881,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -11909,20 +11890,20 @@
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X21" s="24"/>
     </row>
     <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11931,34 +11912,34 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="18"/>
       <c r="N22" s="15"/>
       <c r="O22" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11987,15 +11968,15 @@
     <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
       <c r="F24" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="38"/>
@@ -12006,7 +11987,7 @@
       <c r="M24" s="39"/>
       <c r="N24" s="37"/>
       <c r="O24" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -12015,27 +11996,27 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W24" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X24" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -12046,7 +12027,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="25"/>
       <c r="O25" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -12055,23 +12036,23 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W25" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -12079,14 +12060,14 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
       <c r="N26" s="25"/>
       <c r="O26" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -12095,20 +12076,20 @@
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W26" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>408</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>409</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="25"/>
@@ -12122,7 +12103,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="25"/>
       <c r="O27" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -12131,22 +12112,22 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W27" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X27" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>411</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>412</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="25"/>
@@ -12160,7 +12141,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="25"/>
       <c r="O28" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -12169,29 +12150,29 @@
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -12210,19 +12191,19 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
       <c r="W29" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -12236,7 +12217,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="25"/>
       <c r="O30" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -12245,29 +12226,29 @@
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W30" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X30" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -12286,26 +12267,26 @@
       <c r="U31" s="26"/>
       <c r="V31" s="27"/>
       <c r="W31" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X31" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -12324,22 +12305,22 @@
       <c r="U32" s="26"/>
       <c r="V32" s="27"/>
       <c r="W32" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12352,7 +12333,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="25"/>
       <c r="O33" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
@@ -12362,19 +12343,19 @@
       <c r="U33" s="26"/>
       <c r="V33" s="27"/>
       <c r="W33" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="25"/>
@@ -12383,14 +12364,14 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
       <c r="N34" s="25"/>
       <c r="O34" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
@@ -12399,20 +12380,20 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X34" s="24"/>
     </row>
     <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>423</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>424</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="25"/>
@@ -12421,17 +12402,17 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
       <c r="N35" s="25"/>
       <c r="O35" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
@@ -12439,20 +12420,20 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W35" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X35" s="24"/>
     </row>
     <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="25"/>
@@ -12466,10 +12447,10 @@
       <c r="M36" s="27"/>
       <c r="N36" s="25"/>
       <c r="O36" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
@@ -12477,27 +12458,27 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W36" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="15"/>
       <c r="F37" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -12516,15 +12497,15 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18"/>
       <c r="W37" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="109" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="111"/>
@@ -12553,10 +12534,10 @@
     <row r="39" spans="1:24" ht="157.5">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="37"/>
@@ -12570,40 +12551,40 @@
       <c r="M39" s="39"/>
       <c r="N39" s="37"/>
       <c r="O39" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V39" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W39" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X39" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="45">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -12614,31 +12595,31 @@
       <c r="M40" s="27"/>
       <c r="N40" s="25"/>
       <c r="O40" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W40" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X40" s="24"/>
     </row>
     <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>435</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="25"/>
@@ -12647,41 +12628,41 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
       <c r="N41" s="25"/>
       <c r="O41" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W41" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X41" s="24"/>
     </row>
     <row r="42" spans="1:24" ht="33.75">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -12694,36 +12675,36 @@
       <c r="M42" s="27"/>
       <c r="N42" s="25"/>
       <c r="O42" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="27"/>
       <c r="W42" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="45">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -12734,36 +12715,36 @@
       <c r="M43" s="27"/>
       <c r="N43" s="25"/>
       <c r="O43" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X43" s="24"/>
     </row>
     <row r="44" spans="1:24" ht="101.25">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>572</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>573</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -12774,38 +12755,38 @@
       <c r="M44" s="27"/>
       <c r="N44" s="25"/>
       <c r="O44" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X44" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -12816,36 +12797,36 @@
       <c r="M45" s="27"/>
       <c r="N45" s="25"/>
       <c r="O45" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W45" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X45" s="24"/>
     </row>
     <row r="46" spans="1:24" ht="45">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>574</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>575</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -12856,36 +12837,36 @@
       <c r="M46" s="27"/>
       <c r="N46" s="25"/>
       <c r="O46" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W46" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X46" s="24"/>
     </row>
     <row r="47" spans="1:24" ht="67.5">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -12896,36 +12877,36 @@
       <c r="M47" s="27"/>
       <c r="N47" s="25"/>
       <c r="O47" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
       <c r="V47" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X47" s="24"/>
     </row>
     <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -12936,38 +12917,38 @@
       <c r="M48" s="27"/>
       <c r="N48" s="25"/>
       <c r="O48" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W48" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X48" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="45">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -12978,36 +12959,36 @@
       <c r="M49" s="27"/>
       <c r="N49" s="25"/>
       <c r="O49" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
       <c r="V49" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W49" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X49" s="24"/>
     </row>
     <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>472</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>473</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -13018,36 +12999,36 @@
       <c r="M50" s="27"/>
       <c r="N50" s="25"/>
       <c r="O50" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W50" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X50" s="24"/>
     </row>
     <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>474</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>475</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -13058,36 +13039,36 @@
       <c r="M51" s="27"/>
       <c r="N51" s="25"/>
       <c r="O51" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W51" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X51" s="24"/>
     </row>
     <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -13098,36 +13079,36 @@
       <c r="M52" s="27"/>
       <c r="N52" s="25"/>
       <c r="O52" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="26"/>
       <c r="V52" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W52" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X52" s="24"/>
     </row>
     <row r="53" spans="1:24" ht="33.75">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -13138,36 +13119,36 @@
       <c r="M53" s="27"/>
       <c r="N53" s="25"/>
       <c r="O53" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W53" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X53" s="24"/>
     </row>
     <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -13178,36 +13159,36 @@
       <c r="M54" s="27"/>
       <c r="N54" s="25"/>
       <c r="O54" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W54" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X54" s="24"/>
     </row>
     <row r="55" spans="1:24" ht="22.5">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
@@ -13218,36 +13199,36 @@
       <c r="M55" s="27"/>
       <c r="N55" s="25"/>
       <c r="O55" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
       <c r="V55" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W55" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X55" s="24"/>
     </row>
     <row r="56" spans="1:24" ht="56.25">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
@@ -13258,36 +13239,36 @@
       <c r="M56" s="27"/>
       <c r="N56" s="25"/>
       <c r="O56" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="26"/>
       <c r="V56" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W56" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X56" s="24"/>
     </row>
     <row r="57" spans="1:24" ht="45">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -13298,36 +13279,36 @@
       <c r="M57" s="27"/>
       <c r="N57" s="25"/>
       <c r="O57" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W57" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X57" s="24"/>
     </row>
     <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -13338,36 +13319,36 @@
       <c r="M58" s="27"/>
       <c r="N58" s="25"/>
       <c r="O58" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W58" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X58" s="24"/>
     </row>
     <row r="59" spans="1:24" ht="33.75">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>484</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>485</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
@@ -13378,36 +13359,36 @@
       <c r="M59" s="27"/>
       <c r="N59" s="25"/>
       <c r="O59" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
       <c r="V59" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W59" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X59" s="24"/>
     </row>
     <row r="60" spans="1:24" ht="45">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>486</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>487</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -13418,38 +13399,38 @@
       <c r="M60" s="27"/>
       <c r="N60" s="25"/>
       <c r="O60" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W60" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X60" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>488</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>489</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -13468,24 +13449,24 @@
       <c r="U61" s="26"/>
       <c r="V61" s="27"/>
       <c r="W61" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>491</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>492</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -13504,24 +13485,24 @@
       <c r="U62" s="26"/>
       <c r="V62" s="27"/>
       <c r="W62" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
@@ -13540,24 +13521,24 @@
       <c r="U63" s="26"/>
       <c r="V63" s="27"/>
       <c r="W63" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X63" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="33.75">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -13568,36 +13549,36 @@
       <c r="M64" s="27"/>
       <c r="N64" s="25"/>
       <c r="O64" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="26"/>
       <c r="S64" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T64" s="26"/>
       <c r="U64" s="26"/>
       <c r="V64" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W64" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X64" s="24"/>
     </row>
     <row r="65" spans="1:24" ht="22.5">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -13608,34 +13589,34 @@
       <c r="M65" s="27"/>
       <c r="N65" s="25"/>
       <c r="O65" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
       <c r="V65" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W65" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X65" s="24"/>
     </row>
     <row r="66" spans="1:24" ht="33.75">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
@@ -13648,29 +13629,29 @@
       <c r="M66" s="27"/>
       <c r="N66" s="25"/>
       <c r="O66" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="26"/>
       <c r="S66" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
       <c r="V66" s="27"/>
       <c r="W66" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X66" s="24"/>
     </row>
     <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13684,33 +13665,33 @@
       <c r="M67" s="27"/>
       <c r="N67" s="25"/>
       <c r="O67" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
       <c r="V67" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W67" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X67" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="67.5">
       <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>585</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>586</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="25"/>
@@ -13724,36 +13705,36 @@
       <c r="M68" s="27"/>
       <c r="N68" s="25"/>
       <c r="O68" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T68" s="26"/>
       <c r="U68" s="26"/>
       <c r="V68" s="27"/>
       <c r="W68" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X68" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="34.5" thickBot="1">
       <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15"/>
       <c r="F69" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -13764,25 +13745,25 @@
       <c r="M69" s="18"/>
       <c r="N69" s="15"/>
       <c r="O69" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="109" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="111"/>
@@ -13811,13 +13792,13 @@
     <row r="71" spans="1:24" ht="157.5">
       <c r="A71" s="34"/>
       <c r="B71" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -13830,35 +13811,35 @@
       <c r="M71" s="39"/>
       <c r="N71" s="37"/>
       <c r="O71" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V71" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="X71" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="191.25">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>506</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>507</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -13872,40 +13853,40 @@
       <c r="M72" s="27"/>
       <c r="N72" s="25"/>
       <c r="O72" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V72" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="112.5">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13918,37 +13899,37 @@
       <c r="M73" s="27"/>
       <c r="N73" s="25"/>
       <c r="O73" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V73" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W73" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="213.75">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -13962,40 +13943,40 @@
       <c r="M74" s="27"/>
       <c r="N74" s="25"/>
       <c r="O74" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V74" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W74" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X74" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="67.5">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
@@ -14016,19 +13997,19 @@
       <c r="U75" s="26"/>
       <c r="V75" s="27"/>
       <c r="W75" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="X75" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="X75" s="24" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="258.75">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>330</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>331</v>
       </c>
       <c r="D76" s="51"/>
       <c r="E76" s="25"/>
@@ -14042,37 +14023,37 @@
       <c r="M76" s="27"/>
       <c r="N76" s="25"/>
       <c r="O76" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="U76" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="T76" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="U76" s="26" t="s">
-        <v>382</v>
-      </c>
       <c r="V76" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W76" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X76" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="213.75">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D77" s="51"/>
       <c r="E77" s="25"/>
@@ -14086,40 +14067,40 @@
       <c r="M77" s="27"/>
       <c r="N77" s="25"/>
       <c r="O77" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="T77" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="U77" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="T77" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="U77" s="26" t="s">
-        <v>382</v>
-      </c>
       <c r="V77" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W77" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X77" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="90">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -14140,22 +14121,22 @@
       <c r="U78" s="26"/>
       <c r="V78" s="27"/>
       <c r="W78" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="135">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -14176,19 +14157,19 @@
       <c r="U79" s="26"/>
       <c r="V79" s="27"/>
       <c r="W79" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X79" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="67.5">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>340</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>341</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="25"/>
@@ -14202,35 +14183,35 @@
       <c r="M80" s="27"/>
       <c r="N80" s="25"/>
       <c r="O80" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
       <c r="R80" s="26"/>
       <c r="S80" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T80" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U80" s="26"/>
       <c r="V80" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W80" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X80" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="67.5">
       <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="25"/>
@@ -14244,36 +14225,36 @@
       <c r="M81" s="27"/>
       <c r="N81" s="25"/>
       <c r="O81" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
       <c r="R81" s="26"/>
       <c r="S81" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T81" s="26"/>
       <c r="U81" s="26"/>
       <c r="V81" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W81" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X81" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="225">
       <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -14286,31 +14267,31 @@
       <c r="M82" s="27"/>
       <c r="N82" s="25"/>
       <c r="O82" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
       <c r="R82" s="26"/>
       <c r="S82" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T82" s="26"/>
       <c r="U82" s="26"/>
       <c r="V82" s="27"/>
       <c r="W82" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X82" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="23.25" thickBot="1">
       <c r="A83" s="31"/>
       <c r="B83" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="D83" s="52"/>
       <c r="E83" s="15"/>
@@ -14324,16 +14305,16 @@
       <c r="M83" s="18"/>
       <c r="N83" s="15"/>
       <c r="O83" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="18"/>
@@ -14342,7 +14323,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="109" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="111"/>
@@ -14371,10 +14352,10 @@
     <row r="85" spans="1:24" ht="101.25">
       <c r="A85" s="34"/>
       <c r="B85" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="37"/>
@@ -14388,7 +14369,7 @@
       <c r="M85" s="39"/>
       <c r="N85" s="37"/>
       <c r="O85" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P85" s="38"/>
       <c r="Q85" s="38"/>
@@ -14397,19 +14378,19 @@
       <c r="T85" s="38"/>
       <c r="U85" s="38"/>
       <c r="V85" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W85" s="36" t="s">
         <v>0</v>
       </c>
       <c r="X85" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="67.5">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>11</v>
@@ -14417,7 +14398,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="25"/>
       <c r="F86" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
@@ -14436,22 +14417,22 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
       <c r="W86" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X86" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="67.5">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
@@ -14517,13 +14498,13 @@
     <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
@@ -14544,7 +14525,7 @@
       <c r="U89" s="26"/>
       <c r="V89" s="27"/>
       <c r="W89" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X89" s="24" t="s">
         <v>9</v>
@@ -14556,7 +14537,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90" s="51"/>
       <c r="E90" s="25"/>
@@ -14578,7 +14559,7 @@
       <c r="U90" s="26"/>
       <c r="V90" s="27"/>
       <c r="W90" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X90" s="24" t="s">
         <v>9</v>
@@ -14587,17 +14568,17 @@
     <row r="91" spans="1:24" ht="45">
       <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C91" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" s="51" t="s">
         <v>315</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>316</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
@@ -14608,7 +14589,7 @@
       <c r="M91" s="27"/>
       <c r="N91" s="25"/>
       <c r="O91" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
@@ -14617,25 +14598,25 @@
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
       <c r="V91" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W91" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X91" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="56.25">
       <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D92" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="26"/>
@@ -14656,26 +14637,26 @@
       <c r="U92" s="26"/>
       <c r="V92" s="27"/>
       <c r="W92" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X92" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="157.5">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -14694,22 +14675,22 @@
       <c r="U93" s="26"/>
       <c r="V93" s="27"/>
       <c r="W93" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X93" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="90.75" thickBot="1">
       <c r="A94" s="31"/>
       <c r="B94" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="12"/>
@@ -14723,7 +14704,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="41"/>
       <c r="P94" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -14732,15 +14713,15 @@
       <c r="U94" s="12"/>
       <c r="V94" s="18"/>
       <c r="W94" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X94" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B95" s="110"/>
       <c r="C95" s="111"/>
@@ -14772,12 +14753,12 @@
         <v>12</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>13</v>
+        <v>599</v>
       </c>
       <c r="D96" s="53"/>
       <c r="E96" s="37"/>
       <c r="F96" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
@@ -14788,7 +14769,7 @@
       <c r="M96" s="39"/>
       <c r="N96" s="37"/>
       <c r="O96" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P96" s="38"/>
       <c r="Q96" s="38"/>
@@ -14797,27 +14778,27 @@
       <c r="T96" s="38"/>
       <c r="U96" s="38"/>
       <c r="V96" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W96" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X96" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="90">
       <c r="A97" s="30"/>
       <c r="B97" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>15</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>16</v>
       </c>
       <c r="D97" s="51"/>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
@@ -14828,10 +14809,10 @@
       <c r="M97" s="27"/>
       <c r="N97" s="25"/>
       <c r="O97" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P97" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
@@ -14839,22 +14820,22 @@
       <c r="T97" s="26"/>
       <c r="U97" s="26"/>
       <c r="V97" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W97" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X97" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="45">
       <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="D98" s="51"/>
       <c r="E98" s="25"/>
@@ -14863,7 +14844,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
@@ -14878,19 +14859,19 @@
       <c r="U98" s="26"/>
       <c r="V98" s="27"/>
       <c r="W98" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X98" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="67.5">
       <c r="A99" s="30"/>
       <c r="B99" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D99" s="51"/>
       <c r="E99" s="25"/>
@@ -14899,45 +14880,45 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
       <c r="M99" s="27"/>
       <c r="N99" s="25"/>
       <c r="O99" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T99" s="26"/>
       <c r="U99" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V99" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W99" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X99" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="101.25">
       <c r="A100" s="30"/>
       <c r="B100" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="D100" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="26"/>
@@ -14950,38 +14931,38 @@
       <c r="M100" s="27"/>
       <c r="N100" s="25"/>
       <c r="O100" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
       <c r="S100" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T100" s="26"/>
       <c r="U100" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V100" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W100" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X100" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="112.5">
       <c r="A101" s="34"/>
       <c r="B101" s="64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C101" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E101" s="66"/>
       <c r="F101" s="67"/>
@@ -14994,38 +14975,38 @@
       <c r="M101" s="68"/>
       <c r="N101" s="66"/>
       <c r="O101" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P101" s="67"/>
       <c r="Q101" s="67"/>
       <c r="R101" s="67"/>
       <c r="S101" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T101" s="67"/>
       <c r="U101" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V101" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W101" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X101" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="101.25">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C102" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="67"/>
@@ -15038,38 +15019,38 @@
       <c r="M102" s="68"/>
       <c r="N102" s="66"/>
       <c r="O102" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P102" s="67"/>
       <c r="Q102" s="67"/>
       <c r="R102" s="67"/>
       <c r="S102" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T102" s="67"/>
       <c r="U102" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V102" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W102" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X102" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="78.75">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C103" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E103" s="66"/>
       <c r="F103" s="67"/>
@@ -15082,38 +15063,38 @@
       <c r="M103" s="68"/>
       <c r="N103" s="66"/>
       <c r="O103" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P103" s="67"/>
       <c r="Q103" s="67"/>
       <c r="R103" s="67"/>
       <c r="S103" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T103" s="67"/>
       <c r="U103" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V103" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W103" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X103" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="78.75">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C104" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -15126,38 +15107,38 @@
       <c r="M104" s="39"/>
       <c r="N104" s="37"/>
       <c r="O104" s="69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P104" s="67"/>
       <c r="Q104" s="67"/>
       <c r="R104" s="67"/>
       <c r="S104" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T104" s="67"/>
       <c r="U104" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V104" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W104" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X104" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="101.25">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C105" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
@@ -15170,38 +15151,38 @@
       <c r="M105" s="39"/>
       <c r="N105" s="37"/>
       <c r="O105" s="69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P105" s="67"/>
       <c r="Q105" s="67"/>
       <c r="R105" s="67"/>
       <c r="S105" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T105" s="67"/>
       <c r="U105" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V105" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W105" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X105" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="123.75">
       <c r="A106" s="71"/>
       <c r="B106" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C106" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
@@ -15214,38 +15195,38 @@
       <c r="M106" s="39"/>
       <c r="N106" s="37"/>
       <c r="O106" s="69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P106" s="67"/>
       <c r="Q106" s="67"/>
       <c r="R106" s="67"/>
       <c r="S106" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T106" s="67"/>
       <c r="U106" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V106" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W106" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X106" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="123.75">
       <c r="A107" s="61"/>
       <c r="B107" s="60" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C107" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="19"/>
@@ -15258,33 +15239,33 @@
       <c r="M107" s="16"/>
       <c r="N107" s="13"/>
       <c r="O107" s="57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P107" s="58"/>
       <c r="Q107" s="58"/>
       <c r="R107" s="58"/>
       <c r="S107" s="58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T107" s="58"/>
       <c r="U107" s="58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V107" s="59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W107" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X107" s="9"/>
     </row>
     <row r="108" spans="1:24" ht="135">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>284</v>
       </c>
       <c r="D108" s="51"/>
       <c r="E108" s="25"/>
@@ -15293,42 +15274,42 @@
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
       <c r="J108" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
       <c r="M108" s="27"/>
       <c r="N108" s="25"/>
       <c r="O108" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T108" s="26"/>
       <c r="U108" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V108" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W108" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X108" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="146.25">
       <c r="A109" s="28"/>
       <c r="B109" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D109" s="62"/>
       <c r="E109" s="106"/>
@@ -15337,40 +15318,40 @@
       <c r="H109" s="58"/>
       <c r="I109" s="58"/>
       <c r="J109" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K109" s="58"/>
       <c r="L109" s="58"/>
       <c r="M109" s="59"/>
       <c r="N109" s="106"/>
       <c r="O109" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P109" s="58"/>
       <c r="Q109" s="58"/>
       <c r="R109" s="58"/>
       <c r="S109" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T109" s="58"/>
       <c r="U109" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V109" s="59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W109" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X109" s="9"/>
     </row>
     <row r="110" spans="1:24" ht="157.5">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="D110" s="51"/>
       <c r="E110" s="25"/>
@@ -15384,38 +15365,38 @@
       <c r="M110" s="27"/>
       <c r="N110" s="25"/>
       <c r="O110" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
       <c r="R110" s="26"/>
       <c r="S110" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T110" s="26"/>
       <c r="U110" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V110" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W110" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="X110" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="X110" s="24" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="112.5">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="26"/>
@@ -15436,22 +15417,22 @@
       <c r="U111" s="26"/>
       <c r="V111" s="27"/>
       <c r="W111" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X111" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="67.5">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="26"/>
@@ -15472,19 +15453,19 @@
       <c r="U112" s="26"/>
       <c r="V112" s="27"/>
       <c r="W112" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X112" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="270">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="51"/>
       <c r="E113" s="25"/>
@@ -15498,35 +15479,35 @@
       <c r="M113" s="27"/>
       <c r="N113" s="25"/>
       <c r="O113" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
       <c r="R113" s="26"/>
       <c r="S113" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T113" s="26"/>
       <c r="U113" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V113" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W113" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X113" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="168.75">
       <c r="A114" s="30"/>
       <c r="B114" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>303</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>304</v>
       </c>
       <c r="D114" s="51" t="s">
         <v>4</v>
@@ -15542,35 +15523,35 @@
       <c r="M114" s="27"/>
       <c r="N114" s="25"/>
       <c r="O114" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="26"/>
       <c r="S114" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T114" s="26"/>
       <c r="U114" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V114" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W114" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X114" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="101.25">
       <c r="A115" s="30"/>
       <c r="B115" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>308</v>
       </c>
       <c r="D115" s="51"/>
       <c r="E115" s="25"/>
@@ -15579,38 +15560,38 @@
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
       <c r="J115" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
       <c r="M115" s="27"/>
       <c r="N115" s="25"/>
       <c r="O115" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T115" s="26"/>
       <c r="U115" s="26"/>
       <c r="V115" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W115" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X115" s="24"/>
     </row>
     <row r="116" spans="1:24" ht="67.5">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>311</v>
       </c>
       <c r="D116" s="51"/>
       <c r="E116" s="25"/>
@@ -15619,40 +15600,40 @@
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
       <c r="J116" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
       <c r="M116" s="27"/>
       <c r="N116" s="25"/>
       <c r="O116" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
       <c r="R116" s="26"/>
       <c r="S116" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T116" s="26"/>
       <c r="U116" s="26"/>
       <c r="V116" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X116" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="168.75">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>313</v>
       </c>
       <c r="D117" s="51"/>
       <c r="E117" s="25"/>
@@ -15661,40 +15642,40 @@
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
       <c r="J117" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
       <c r="M117" s="27"/>
       <c r="N117" s="25"/>
       <c r="O117" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
       <c r="R117" s="26"/>
       <c r="S117" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T117" s="26"/>
       <c r="U117" s="26"/>
       <c r="V117" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W117" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X117" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="57" thickBot="1">
       <c r="A118" s="31"/>
       <c r="B118" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D118" s="52"/>
       <c r="E118" s="15"/>
@@ -15708,27 +15689,27 @@
       <c r="M118" s="18"/>
       <c r="N118" s="15"/>
       <c r="O118" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
       <c r="V118" s="18"/>
       <c r="W118" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X118" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="109" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B119" s="110"/>
       <c r="C119" s="111"/>
@@ -15757,10 +15738,10 @@
     <row r="120" spans="1:24" ht="45">
       <c r="A120" s="34"/>
       <c r="B120" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="36" t="s">
         <v>268</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>269</v>
       </c>
       <c r="D120" s="53"/>
       <c r="E120" s="37"/>
@@ -15774,35 +15755,35 @@
       <c r="M120" s="39"/>
       <c r="N120" s="37"/>
       <c r="O120" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="38"/>
       <c r="S120" s="38"/>
       <c r="T120" s="38"/>
       <c r="U120" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V120" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W120" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="X120" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="X120" s="36" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="33.75">
       <c r="A121" s="30"/>
       <c r="B121" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>276</v>
       </c>
       <c r="D121" s="51"/>
       <c r="E121" s="25"/>
@@ -15811,7 +15792,7 @@
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
       <c r="J121" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
@@ -15826,19 +15807,19 @@
       <c r="U121" s="26"/>
       <c r="V121" s="27"/>
       <c r="W121" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X121" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="67.5">
       <c r="A122" s="30"/>
       <c r="B122" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D122" s="51"/>
       <c r="E122" s="25"/>
@@ -15852,7 +15833,7 @@
       <c r="M122" s="27"/>
       <c r="N122" s="25"/>
       <c r="O122" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
@@ -15861,27 +15842,27 @@
       <c r="T122" s="26"/>
       <c r="U122" s="26"/>
       <c r="V122" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W122" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X122" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="45">
       <c r="A123" s="30"/>
       <c r="B123" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>281</v>
       </c>
       <c r="D123" s="51"/>
       <c r="E123" s="25"/>
       <c r="F123" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
@@ -15892,10 +15873,10 @@
       <c r="M123" s="27"/>
       <c r="N123" s="25"/>
       <c r="O123" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P123" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q123" s="26"/>
       <c r="R123" s="26"/>
@@ -15904,7 +15885,7 @@
       <c r="U123" s="26"/>
       <c r="V123" s="27"/>
       <c r="W123" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X123" s="24"/>
     </row>
@@ -16676,79 +16657,79 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D83 D85:D94 D96:D118 D120:D152">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>$D3="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>$D3="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>$D3="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>$D23="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>$D23="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>$D23="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$D38="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$D38="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>$D38="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$D70="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$D70="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>$D70="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$D84="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$D84="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$D84="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D95="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$D95="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$D95="①"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D119="③"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D119="②"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D119="①"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16787,18 +16768,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>436</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16806,10 +16787,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>438</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16817,10 +16798,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>440</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16828,10 +16809,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>442</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16839,10 +16820,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>444</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33.75">
@@ -16850,10 +16831,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16861,10 +16842,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>448</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16872,10 +16853,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>450</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16883,10 +16864,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>452</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16894,10 +16875,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>454</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16905,10 +16886,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>456</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16916,10 +16897,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>458</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16927,10 +16908,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>460</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16938,10 +16919,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>462</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16949,10 +16930,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>464</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16960,15 +16941,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>500</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -17002,7 +16983,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -17010,18 +16991,18 @@
     </row>
     <row r="3" spans="1:3" ht="12" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" thickBot="1">
       <c r="A4" s="75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" thickBot="1">
@@ -17029,10 +17010,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" thickBot="1">
@@ -17040,10 +17021,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" thickBot="1">
@@ -17051,10 +17032,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" thickBot="1">
@@ -17062,10 +17043,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" thickBot="1">
@@ -17073,10 +17054,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" thickBot="1">
@@ -17084,10 +17065,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="78" t="s">
         <v>103</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" thickBot="1">
@@ -17095,10 +17076,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="79" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" thickBot="1">
@@ -17106,10 +17087,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="79" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" thickBot="1">
@@ -17117,10 +17098,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="79" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" thickBot="1">
@@ -17128,10 +17109,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" thickBot="1">
@@ -17139,10 +17120,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" thickBot="1">
@@ -17150,10 +17131,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>114</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" thickBot="1">
@@ -17161,10 +17142,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="79" t="s">
         <v>116</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" thickBot="1">
@@ -17172,10 +17153,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="79" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" thickBot="1">
@@ -17183,10 +17164,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>120</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" thickBot="1">
@@ -17194,10 +17175,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="79" t="s">
         <v>122</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -17207,18 +17188,18 @@
     </row>
     <row r="22" spans="1:3" ht="12" thickBot="1">
       <c r="A22" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17226,10 +17207,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="83" t="s">
         <v>127</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -17237,10 +17218,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -17248,10 +17229,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" thickBot="1">
@@ -17259,10 +17240,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" thickBot="1">
@@ -17270,10 +17251,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="79" t="s">
         <v>132</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -17281,10 +17262,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="91" t="s">
         <v>134</v>
-      </c>
-      <c r="C29" s="91" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -17292,10 +17273,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -17303,10 +17284,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17314,10 +17295,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17325,10 +17306,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12" thickBot="1">
@@ -17336,10 +17317,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12" thickBot="1">
@@ -17347,10 +17328,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="93" t="s">
         <v>141</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12" thickBot="1">
@@ -17358,10 +17339,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="79" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -17369,10 +17350,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="91" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -17380,10 +17361,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -17391,10 +17372,10 @@
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -17402,10 +17383,10 @@
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C40" s="83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12" thickBot="1">
@@ -17413,10 +17394,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17424,10 +17405,10 @@
         <v>19</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17435,10 +17416,10 @@
         <v>20</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17446,10 +17427,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17457,10 +17438,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12" thickBot="1">
@@ -17468,10 +17449,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12" thickBot="1">
@@ -17479,10 +17460,10 @@
         <v>24</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12" thickBot="1">
@@ -17490,10 +17471,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="79" t="s">
         <v>152</v>
-      </c>
-      <c r="C48" s="79" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12" thickBot="1">
@@ -17501,10 +17482,10 @@
         <v>26</v>
       </c>
       <c r="B49" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="79" t="s">
         <v>154</v>
-      </c>
-      <c r="C49" s="79" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12" thickBot="1">
@@ -17512,10 +17493,10 @@
         <v>27</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12" thickBot="1">
@@ -17523,10 +17504,10 @@
         <v>28</v>
       </c>
       <c r="B51" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="79" t="s">
         <v>157</v>
-      </c>
-      <c r="C51" s="79" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -17534,10 +17515,10 @@
         <v>29</v>
       </c>
       <c r="B52" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="91" t="s">
         <v>159</v>
-      </c>
-      <c r="C52" s="91" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -17545,10 +17526,10 @@
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -17556,10 +17537,10 @@
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C54" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12" thickBot="1">
@@ -17567,10 +17548,10 @@
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12" thickBot="1">
@@ -17578,10 +17559,10 @@
         <v>33</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -17589,10 +17570,10 @@
         <v>34</v>
       </c>
       <c r="B57" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="91" t="s">
         <v>164</v>
-      </c>
-      <c r="C57" s="91" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -17600,10 +17581,10 @@
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -17611,10 +17592,10 @@
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -17622,10 +17603,10 @@
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -17633,10 +17614,10 @@
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12" thickBot="1">
@@ -17644,10 +17625,10 @@
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C62" s="86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -17655,10 +17636,10 @@
         <v>40</v>
       </c>
       <c r="B63" s="99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -17666,10 +17647,10 @@
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -17677,10 +17658,10 @@
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17688,10 +17669,10 @@
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12" thickBot="1">
@@ -17699,10 +17680,10 @@
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C67" s="86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17710,10 +17691,10 @@
         <v>45</v>
       </c>
       <c r="B68" s="99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17721,10 +17702,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12" thickBot="1">
@@ -17732,10 +17713,10 @@
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C70" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12" thickBot="1">
@@ -17743,10 +17724,10 @@
         <v>48</v>
       </c>
       <c r="B71" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17754,10 +17735,10 @@
         <v>49</v>
       </c>
       <c r="B72" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="91" t="s">
         <v>178</v>
-      </c>
-      <c r="C72" s="91" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17765,10 +17746,10 @@
         <v>50</v>
       </c>
       <c r="B73" s="102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17776,10 +17757,10 @@
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C74" s="83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12" thickBot="1">
@@ -17787,10 +17768,10 @@
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12" thickBot="1">
@@ -17798,10 +17779,10 @@
         <v>53</v>
       </c>
       <c r="B76" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C76" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12" thickBot="1">
@@ -17809,10 +17790,10 @@
         <v>54</v>
       </c>
       <c r="B77" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="79" t="s">
         <v>182</v>
-      </c>
-      <c r="C77" s="79" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17820,10 +17801,10 @@
         <v>55</v>
       </c>
       <c r="B78" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="91" t="s">
         <v>184</v>
-      </c>
-      <c r="C78" s="91" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17831,10 +17812,10 @@
         <v>56</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C79" s="83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17842,10 +17823,10 @@
         <v>57</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C80" s="83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17853,10 +17834,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C81" s="83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17864,10 +17845,10 @@
         <v>59</v>
       </c>
       <c r="B82" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17875,10 +17856,10 @@
         <v>60</v>
       </c>
       <c r="B83" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17886,10 +17867,10 @@
         <v>61</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C84" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17897,10 +17878,10 @@
         <v>62</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C85" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17908,10 +17889,10 @@
         <v>63</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C86" s="83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12" thickBot="1">
@@ -17919,10 +17900,10 @@
         <v>64</v>
       </c>
       <c r="B87" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C87" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12" thickBot="1">
@@ -17930,10 +17911,10 @@
         <v>65</v>
       </c>
       <c r="B88" s="77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12" thickBot="1">
@@ -17941,10 +17922,10 @@
         <v>66</v>
       </c>
       <c r="B89" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C89" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17952,10 +17933,10 @@
         <v>67</v>
       </c>
       <c r="B90" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="91" t="s">
         <v>195</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12" thickBot="1">
@@ -17963,10 +17944,10 @@
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12" thickBot="1">
@@ -17974,10 +17955,10 @@
         <v>69</v>
       </c>
       <c r="B92" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C92" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17985,10 +17966,10 @@
         <v>70</v>
       </c>
       <c r="B93" s="99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C93" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17996,10 +17977,10 @@
         <v>71</v>
       </c>
       <c r="B94" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -18007,10 +17988,10 @@
         <v>72</v>
       </c>
       <c r="B95" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -18018,10 +17999,10 @@
         <v>73</v>
       </c>
       <c r="B96" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C96" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -18029,10 +18010,10 @@
         <v>74</v>
       </c>
       <c r="B97" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C97" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -18040,10 +18021,10 @@
         <v>75</v>
       </c>
       <c r="B98" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -18051,10 +18032,10 @@
         <v>76</v>
       </c>
       <c r="B99" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -18062,10 +18043,10 @@
         <v>77</v>
       </c>
       <c r="B100" s="100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -18073,10 +18054,10 @@
         <v>78</v>
       </c>
       <c r="B101" s="100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -18084,10 +18065,10 @@
         <v>79</v>
       </c>
       <c r="B102" s="100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C102" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12" thickBot="1">
@@ -18095,10 +18076,10 @@
         <v>80</v>
       </c>
       <c r="B103" s="101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -18106,10 +18087,10 @@
         <v>81</v>
       </c>
       <c r="B104" s="99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C104" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -18117,10 +18098,10 @@
         <v>82</v>
       </c>
       <c r="B105" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -18128,10 +18109,10 @@
         <v>83</v>
       </c>
       <c r="B106" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -18139,10 +18120,10 @@
         <v>84</v>
       </c>
       <c r="B107" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -18150,10 +18131,10 @@
         <v>85</v>
       </c>
       <c r="B108" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" s="83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -18161,10 +18142,10 @@
         <v>86</v>
       </c>
       <c r="B109" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109" s="83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -18172,10 +18153,10 @@
         <v>87</v>
       </c>
       <c r="B110" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C110" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -18183,10 +18164,10 @@
         <v>88</v>
       </c>
       <c r="B111" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -18194,10 +18175,10 @@
         <v>89</v>
       </c>
       <c r="B112" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C112" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -18205,10 +18186,10 @@
         <v>90</v>
       </c>
       <c r="B113" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12" thickBot="1">
@@ -18216,10 +18197,10 @@
         <v>91</v>
       </c>
       <c r="B114" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114" s="82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -18227,10 +18208,10 @@
         <v>92</v>
       </c>
       <c r="B115" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -18238,10 +18219,10 @@
         <v>93</v>
       </c>
       <c r="B116" s="100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -18249,10 +18230,10 @@
         <v>94</v>
       </c>
       <c r="B117" s="100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12" thickBot="1">
@@ -18260,10 +18241,10 @@
         <v>95</v>
       </c>
       <c r="B118" s="100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C118" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -18271,10 +18252,10 @@
         <v>96</v>
       </c>
       <c r="B119" s="103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C119" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -18282,10 +18263,10 @@
         <v>97</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C120" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -18293,10 +18274,10 @@
         <v>98</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -18304,10 +18285,10 @@
         <v>99</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -18315,10 +18296,10 @@
         <v>100</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" s="83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -18326,10 +18307,10 @@
         <v>101</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C124" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -18337,10 +18318,10 @@
         <v>102</v>
       </c>
       <c r="B125" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -18348,10 +18329,10 @@
         <v>103</v>
       </c>
       <c r="B126" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -18359,10 +18340,10 @@
         <v>104</v>
       </c>
       <c r="B127" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127" s="83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12" thickBot="1">
@@ -18370,10 +18351,10 @@
         <v>105</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" s="82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -18381,10 +18362,10 @@
         <v>106</v>
       </c>
       <c r="B129" s="103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C129" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -18395,7 +18376,7 @@
         <v>10</v>
       </c>
       <c r="C130" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -18406,7 +18387,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12" thickBot="1">
@@ -18417,7 +18398,7 @@
         <v>10</v>
       </c>
       <c r="C132" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -18425,10 +18406,10 @@
         <v>110</v>
       </c>
       <c r="B133" s="103" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -18436,10 +18417,10 @@
         <v>111</v>
       </c>
       <c r="B134" s="100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C134" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -18447,10 +18428,10 @@
         <v>112</v>
       </c>
       <c r="B135" s="100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C135" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -18458,10 +18439,10 @@
         <v>113</v>
       </c>
       <c r="B136" s="100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C136" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="12" thickBot="1">
@@ -18469,10 +18450,10 @@
         <v>114</v>
       </c>
       <c r="B137" s="100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C137" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -18480,10 +18461,10 @@
         <v>115</v>
       </c>
       <c r="B138" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C138" s="89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="12" thickBot="1">
@@ -18491,10 +18472,10 @@
         <v>116</v>
       </c>
       <c r="B139" s="101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" s="86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -18528,7 +18509,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -18536,58 +18517,58 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -18595,10 +18576,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -18606,10 +18587,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -18617,10 +18598,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -18628,10 +18609,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -18639,66 +18620,66 @@
         <v>5</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -18706,10 +18687,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -18717,10 +18698,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -18728,10 +18709,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -18739,10 +18720,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="22.5">
@@ -18750,130 +18731,130 @@
         <v>5</v>
       </c>
       <c r="B40" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="要素一覧" sheetId="1" r:id="rId1"/>
     <sheet name="グローバル属性" sheetId="3" r:id="rId2"/>
-    <sheet name="HTML5で廃止された要素・属性" sheetId="6" r:id="rId3"/>
-    <sheet name="セマンティックWeb" sheetId="7" r:id="rId4"/>
+    <sheet name="input要素type属性" sheetId="8" r:id="rId3"/>
+    <sheet name="HTML5で廃止された要素・属性" sheetId="6" r:id="rId4"/>
+    <sheet name="セマンティックWeb" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$152</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="675">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -3076,54 +3077,6 @@
   </si>
   <si>
     <t>●</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)グローバル
-(2)autofocus属性
-オートフォーカスを指定
-(3)disabled属性
-操作を無効に指定
-(4)form属性
-formのid属性値を指定(form要素と関連付ける)
-(5)formaction属性
-送信先のURLを指定
-(6)formenctype属性
-送信するデータの形式を指定
-</t>
-    <rPh sb="21" eb="23">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -9729,6 +9682,726 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>■input要素type属性</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>autocomplete</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>autofocus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>checked</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dirname</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>formaction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>formenctype</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>formmethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>formnovalidate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>formtarget</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maxlength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>minlength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>placeholder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>readonly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●：属性指定可能</t>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>accept</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileの場合にサーバ側で受信できるファイルの種類を指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像の代替テキストを指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ表示時にフォーカスを当てる場合に指定する。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オートコンプリートを有効にする場合に指定する。</t>
+    <rPh sb="10" eb="12">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタン、チェックボックスをチェック状態にする場合に指定する。</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input要素のテキスト方向を指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input要素を無効にする場合に指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>属するフォームのid属性値を指定する。</t>
+    <rPh sb="0" eb="1">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォームアクションを指定する。</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信するデータの形式を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信方法を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>validationを無効化する場合に指定する。</t>
+    <rPh sb="11" eb="14">
+      <t>ムコウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信先ターゲットを指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高さを指定する。</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力選択値として使用するdatalist要素のid属性値を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大入力可能値を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大入力可能文字数を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最小入力可能値を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最小入力可能文字数を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数値の入力、もしくは複数値の選択可能とする場合に指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input要素の名前を指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>許可する入力値のパターンを表す正規表現を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレースフォルダーを指定する。</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input要素を読取専用にする場合に指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨミトリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力必須とする場合に指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示可能文字数を指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input要素の値を指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input要素の幅を指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　●</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像のURLを指定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>増減ステップ値を指定する。</t>
+    <rPh sb="0" eb="1">
+      <t>ゾウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)グローバル属性
+(2)autofocus属性
+オートフォーカスを指定
+(3)disabled属性
+操作を無効に指定
+(4)form属性
+formのid属性値を指定(form要素と関連付ける)
+(5)formaction属性
+送信先のURLを指定
+(6)formenctype属性
+送信するデータの形式を指定
+</t>
+    <rPh sb="8" eb="10">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -9799,7 +10472,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9815,6 +10488,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10256,7 +10941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10619,6 +11304,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11054,10 +11766,10 @@
   <dimension ref="A1:X152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11073,19 +11785,19 @@
   <sheetData>
     <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="118" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="D1" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>350</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="117" t="s">
-        <v>351</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="117"/>
@@ -11096,7 +11808,7 @@
       <c r="L1" s="117"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O1" s="117"/>
       <c r="P1" s="117"/>
@@ -11107,10 +11819,10 @@
       <c r="U1" s="117"/>
       <c r="V1" s="117"/>
       <c r="W1" s="116" t="s">
+        <v>352</v>
+      </c>
+      <c r="X1" s="116" t="s">
         <v>353</v>
-      </c>
-      <c r="X1" s="116" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="12" thickBot="1">
@@ -11119,58 +11831,58 @@
       <c r="C2" s="116"/>
       <c r="D2" s="120"/>
       <c r="E2" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="O2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>360</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="W2" s="116"/>
       <c r="X2" s="116"/>
@@ -11178,13 +11890,13 @@
     <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -11205,25 +11917,25 @@
       <c r="U3" s="19"/>
       <c r="V3" s="16"/>
       <c r="W3" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -11243,19 +11955,19 @@
       <c r="U4" s="11"/>
       <c r="V4" s="17"/>
       <c r="W4" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11268,7 +11980,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="17"/>
       <c r="N5" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -11279,22 +11991,22 @@
       <c r="U5" s="11"/>
       <c r="V5" s="17"/>
       <c r="W5" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -11306,7 +12018,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="17"/>
       <c r="N6" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -11317,22 +12029,22 @@
       <c r="U6" s="11"/>
       <c r="V6" s="17"/>
       <c r="W6" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -11344,7 +12056,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="17"/>
       <c r="N7" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -11355,22 +12067,22 @@
       <c r="U7" s="11"/>
       <c r="V7" s="17"/>
       <c r="W7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -11382,7 +12094,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="17"/>
       <c r="N8" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -11393,19 +12105,19 @@
       <c r="U8" s="11"/>
       <c r="V8" s="17"/>
       <c r="W8" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="25"/>
@@ -11418,10 +12130,10 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
       <c r="N9" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>380</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>381</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -11440,10 +12152,10 @@
     <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>378</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>379</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="106"/>
@@ -11469,17 +12181,17 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="25"/>
@@ -11492,34 +12204,34 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
       <c r="N11" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="25"/>
@@ -11532,30 +12244,30 @@
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
       <c r="N12" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="27"/>
       <c r="W12" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -11584,17 +12296,17 @@
     <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -11606,7 +12318,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="108"/>
       <c r="P14" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -11615,22 +12327,22 @@
       <c r="U14" s="19"/>
       <c r="V14" s="16"/>
       <c r="W14" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G15" s="104"/>
       <c r="H15" s="26"/>
@@ -11641,7 +12353,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -11650,10 +12362,10 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>218</v>
@@ -11662,15 +12374,15 @@
     <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -11681,36 +12393,36 @@
       <c r="M16" s="27"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -11721,36 +12433,36 @@
       <c r="M17" s="27"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -11761,36 +12473,36 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W18" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>394</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>395</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -11801,36 +12513,36 @@
       <c r="M19" s="27"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W19" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" s="26"/>
@@ -11841,7 +12553,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -11850,10 +12562,10 @@
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>218</v>
@@ -11862,15 +12574,15 @@
     <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -11881,7 +12593,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -11890,20 +12602,20 @@
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X21" s="24"/>
     </row>
     <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -11912,34 +12624,34 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="18"/>
       <c r="N22" s="15"/>
       <c r="O22" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -11968,15 +12680,15 @@
     <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
       <c r="F24" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="38"/>
@@ -11987,7 +12699,7 @@
       <c r="M24" s="39"/>
       <c r="N24" s="37"/>
       <c r="O24" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -11996,10 +12708,10 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W24" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X24" s="36" t="s">
         <v>217</v>
@@ -12008,15 +12720,15 @@
     <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -12027,7 +12739,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="25"/>
       <c r="O25" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -12036,23 +12748,23 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W25" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -12060,14 +12772,14 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
       <c r="N26" s="25"/>
       <c r="O26" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -12076,20 +12788,20 @@
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W26" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X26" s="24"/>
     </row>
     <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="25"/>
@@ -12103,7 +12815,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="25"/>
       <c r="O27" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -12112,10 +12824,10 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W27" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X27" s="24" t="s">
         <v>222</v>
@@ -12124,10 +12836,10 @@
     <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>410</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>411</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="25"/>
@@ -12141,7 +12853,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="25"/>
       <c r="O28" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -12150,10 +12862,10 @@
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>223</v>
@@ -12162,17 +12874,17 @@
     <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -12191,19 +12903,19 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
       <c r="W29" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -12217,7 +12929,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="25"/>
       <c r="O30" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -12226,10 +12938,10 @@
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W30" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X30" s="24" t="s">
         <v>224</v>
@@ -12238,17 +12950,17 @@
     <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -12267,7 +12979,7 @@
       <c r="U31" s="26"/>
       <c r="V31" s="27"/>
       <c r="W31" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X31" s="24" t="s">
         <v>225</v>
@@ -12276,17 +12988,17 @@
     <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -12305,22 +13017,22 @@
       <c r="U32" s="26"/>
       <c r="V32" s="27"/>
       <c r="W32" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -12333,7 +13045,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="25"/>
       <c r="O33" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
@@ -12343,19 +13055,19 @@
       <c r="U33" s="26"/>
       <c r="V33" s="27"/>
       <c r="W33" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>420</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>421</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="25"/>
@@ -12364,14 +13076,14 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
       <c r="N34" s="25"/>
       <c r="O34" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
@@ -12380,20 +13092,20 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X34" s="24"/>
     </row>
     <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>422</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>423</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="25"/>
@@ -12402,17 +13114,17 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
       <c r="N35" s="25"/>
       <c r="O35" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
@@ -12420,20 +13132,20 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W35" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X35" s="24"/>
     </row>
     <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="25"/>
@@ -12447,10 +13159,10 @@
       <c r="M36" s="27"/>
       <c r="N36" s="25"/>
       <c r="O36" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
@@ -12458,27 +13170,27 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W36" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="15"/>
       <c r="F37" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -12497,15 +13209,15 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18"/>
       <c r="W37" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="109" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="111"/>
@@ -12534,10 +13246,10 @@
     <row r="39" spans="1:24" ht="157.5">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="37"/>
@@ -12551,23 +13263,23 @@
       <c r="M39" s="39"/>
       <c r="N39" s="37"/>
       <c r="O39" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V39" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W39" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X39" s="36" t="s">
         <v>226</v>
@@ -12576,15 +13288,15 @@
     <row r="40" spans="1:24" ht="45">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -12595,31 +13307,31 @@
       <c r="M40" s="27"/>
       <c r="N40" s="25"/>
       <c r="O40" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W40" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X40" s="24"/>
     </row>
     <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>433</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>434</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="25"/>
@@ -12628,41 +13340,41 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
       <c r="N41" s="25"/>
       <c r="O41" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W41" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X41" s="24"/>
     </row>
     <row r="42" spans="1:24" ht="33.75">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -12675,36 +13387,36 @@
       <c r="M42" s="27"/>
       <c r="N42" s="25"/>
       <c r="O42" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="27"/>
       <c r="W42" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="45">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -12715,36 +13427,36 @@
       <c r="M43" s="27"/>
       <c r="N43" s="25"/>
       <c r="O43" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X43" s="24"/>
     </row>
     <row r="44" spans="1:24" ht="101.25">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>571</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>572</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -12755,21 +13467,21 @@
       <c r="M44" s="27"/>
       <c r="N44" s="25"/>
       <c r="O44" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>227</v>
@@ -12778,15 +13490,15 @@
     <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -12797,36 +13509,36 @@
       <c r="M45" s="27"/>
       <c r="N45" s="25"/>
       <c r="O45" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W45" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X45" s="24"/>
     </row>
     <row r="46" spans="1:24" ht="45">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>573</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>574</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -12837,36 +13549,36 @@
       <c r="M46" s="27"/>
       <c r="N46" s="25"/>
       <c r="O46" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W46" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X46" s="24"/>
     </row>
     <row r="47" spans="1:24" ht="67.5">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -12877,28 +13589,28 @@
       <c r="M47" s="27"/>
       <c r="N47" s="25"/>
       <c r="O47" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
       <c r="V47" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X47" s="24"/>
     </row>
     <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>216</v>
@@ -12906,7 +13618,7 @@
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -12917,21 +13629,21 @@
       <c r="M48" s="27"/>
       <c r="N48" s="25"/>
       <c r="O48" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W48" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X48" s="24" t="s">
         <v>228</v>
@@ -12940,15 +13652,15 @@
     <row r="49" spans="1:24" ht="45">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -12959,36 +13671,36 @@
       <c r="M49" s="27"/>
       <c r="N49" s="25"/>
       <c r="O49" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
       <c r="V49" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W49" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X49" s="24"/>
     </row>
     <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>471</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>472</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -12999,36 +13711,36 @@
       <c r="M50" s="27"/>
       <c r="N50" s="25"/>
       <c r="O50" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W50" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X50" s="24"/>
     </row>
     <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>473</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>474</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -13039,36 +13751,36 @@
       <c r="M51" s="27"/>
       <c r="N51" s="25"/>
       <c r="O51" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W51" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X51" s="24"/>
     </row>
     <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -13079,36 +13791,36 @@
       <c r="M52" s="27"/>
       <c r="N52" s="25"/>
       <c r="O52" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="26"/>
       <c r="V52" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W52" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X52" s="24"/>
     </row>
     <row r="53" spans="1:24" ht="33.75">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -13119,36 +13831,36 @@
       <c r="M53" s="27"/>
       <c r="N53" s="25"/>
       <c r="O53" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W53" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X53" s="24"/>
     </row>
     <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -13159,36 +13871,36 @@
       <c r="M54" s="27"/>
       <c r="N54" s="25"/>
       <c r="O54" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W54" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X54" s="24"/>
     </row>
     <row r="55" spans="1:24" ht="22.5">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
@@ -13199,36 +13911,36 @@
       <c r="M55" s="27"/>
       <c r="N55" s="25"/>
       <c r="O55" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
       <c r="V55" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W55" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X55" s="24"/>
     </row>
     <row r="56" spans="1:24" ht="56.25">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
@@ -13239,36 +13951,36 @@
       <c r="M56" s="27"/>
       <c r="N56" s="25"/>
       <c r="O56" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="26"/>
       <c r="V56" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W56" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X56" s="24"/>
     </row>
     <row r="57" spans="1:24" ht="45">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -13279,36 +13991,36 @@
       <c r="M57" s="27"/>
       <c r="N57" s="25"/>
       <c r="O57" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W57" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X57" s="24"/>
     </row>
     <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -13319,36 +14031,36 @@
       <c r="M58" s="27"/>
       <c r="N58" s="25"/>
       <c r="O58" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W58" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X58" s="24"/>
     </row>
     <row r="59" spans="1:24" ht="33.75">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>483</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>484</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
@@ -13359,36 +14071,36 @@
       <c r="M59" s="27"/>
       <c r="N59" s="25"/>
       <c r="O59" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
       <c r="V59" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W59" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X59" s="24"/>
     </row>
     <row r="60" spans="1:24" ht="45">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>485</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>486</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -13399,21 +14111,21 @@
       <c r="M60" s="27"/>
       <c r="N60" s="25"/>
       <c r="O60" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W60" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X60" s="24" t="s">
         <v>229</v>
@@ -13422,15 +14134,15 @@
     <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -13449,24 +14161,24 @@
       <c r="U61" s="26"/>
       <c r="V61" s="27"/>
       <c r="W61" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>490</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>491</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -13485,24 +14197,24 @@
       <c r="U62" s="26"/>
       <c r="V62" s="27"/>
       <c r="W62" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
@@ -13521,24 +14233,24 @@
       <c r="U63" s="26"/>
       <c r="V63" s="27"/>
       <c r="W63" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X63" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="33.75">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -13549,36 +14261,36 @@
       <c r="M64" s="27"/>
       <c r="N64" s="25"/>
       <c r="O64" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="26"/>
       <c r="S64" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T64" s="26"/>
       <c r="U64" s="26"/>
       <c r="V64" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W64" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X64" s="24"/>
     </row>
     <row r="65" spans="1:24" ht="22.5">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>493</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>494</v>
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -13589,34 +14301,34 @@
       <c r="M65" s="27"/>
       <c r="N65" s="25"/>
       <c r="O65" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
       <c r="V65" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W65" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X65" s="24"/>
     </row>
     <row r="66" spans="1:24" ht="33.75">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
@@ -13629,29 +14341,29 @@
       <c r="M66" s="27"/>
       <c r="N66" s="25"/>
       <c r="O66" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="26"/>
       <c r="S66" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
       <c r="V66" s="27"/>
       <c r="W66" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X66" s="24"/>
     </row>
     <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -13665,21 +14377,21 @@
       <c r="M67" s="27"/>
       <c r="N67" s="25"/>
       <c r="O67" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
       <c r="V67" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W67" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X67" s="24" t="s">
         <v>230</v>
@@ -13688,10 +14400,10 @@
     <row r="68" spans="1:24" ht="67.5">
       <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>584</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>585</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="25"/>
@@ -13705,19 +14417,19 @@
       <c r="M68" s="27"/>
       <c r="N68" s="25"/>
       <c r="O68" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T68" s="26"/>
       <c r="U68" s="26"/>
       <c r="V68" s="27"/>
       <c r="W68" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>231</v>
@@ -13726,15 +14438,15 @@
     <row r="69" spans="1:24" ht="34.5" thickBot="1">
       <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15"/>
       <c r="F69" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -13745,25 +14457,25 @@
       <c r="M69" s="18"/>
       <c r="N69" s="15"/>
       <c r="O69" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="109" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="111"/>
@@ -13792,13 +14504,13 @@
     <row r="71" spans="1:24" ht="157.5">
       <c r="A71" s="34"/>
       <c r="B71" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -13811,35 +14523,35 @@
       <c r="M71" s="39"/>
       <c r="N71" s="37"/>
       <c r="O71" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V71" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X71" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="191.25">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>505</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>506</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -13853,40 +14565,40 @@
       <c r="M72" s="27"/>
       <c r="N72" s="25"/>
       <c r="O72" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V72" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="112.5">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -13899,37 +14611,37 @@
       <c r="M73" s="27"/>
       <c r="N73" s="25"/>
       <c r="O73" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V73" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W73" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="213.75">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -13943,25 +14655,25 @@
       <c r="M74" s="27"/>
       <c r="N74" s="25"/>
       <c r="O74" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V74" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W74" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X74" s="24" t="s">
         <v>232</v>
@@ -13970,13 +14682,13 @@
     <row r="75" spans="1:24" ht="67.5">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
@@ -13997,19 +14709,19 @@
       <c r="U75" s="26"/>
       <c r="V75" s="27"/>
       <c r="W75" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="X75" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="X75" s="24" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="258.75">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="D76" s="51"/>
       <c r="E76" s="25"/>
@@ -14023,25 +14735,25 @@
       <c r="M76" s="27"/>
       <c r="N76" s="25"/>
       <c r="O76" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="U76" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="T76" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="U76" s="26" t="s">
-        <v>381</v>
-      </c>
       <c r="V76" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W76" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X76" s="24" t="s">
         <v>234</v>
@@ -14050,10 +14762,10 @@
     <row r="77" spans="1:24" ht="213.75">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="51"/>
       <c r="E77" s="25"/>
@@ -14067,25 +14779,25 @@
       <c r="M77" s="27"/>
       <c r="N77" s="25"/>
       <c r="O77" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="T77" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="U77" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="T77" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="U77" s="26" t="s">
-        <v>381</v>
-      </c>
       <c r="V77" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W77" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X77" s="24" t="s">
         <v>233</v>
@@ -14094,13 +14806,13 @@
     <row r="78" spans="1:24" ht="90">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -14121,22 +14833,22 @@
       <c r="U78" s="26"/>
       <c r="V78" s="27"/>
       <c r="W78" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="135">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -14157,19 +14869,19 @@
       <c r="U79" s="26"/>
       <c r="V79" s="27"/>
       <c r="W79" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X79" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="67.5">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>339</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>340</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="25"/>
@@ -14183,35 +14895,35 @@
       <c r="M80" s="27"/>
       <c r="N80" s="25"/>
       <c r="O80" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
       <c r="R80" s="26"/>
       <c r="S80" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T80" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U80" s="26"/>
       <c r="V80" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W80" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X80" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="67.5">
       <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="25"/>
@@ -14225,21 +14937,21 @@
       <c r="M81" s="27"/>
       <c r="N81" s="25"/>
       <c r="O81" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
       <c r="R81" s="26"/>
       <c r="S81" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T81" s="26"/>
       <c r="U81" s="26"/>
       <c r="V81" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W81" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X81" s="24" t="s">
         <v>235</v>
@@ -14248,13 +14960,13 @@
     <row r="82" spans="1:24" ht="225">
       <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -14267,31 +14979,31 @@
       <c r="M82" s="27"/>
       <c r="N82" s="25"/>
       <c r="O82" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
       <c r="R82" s="26"/>
       <c r="S82" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T82" s="26"/>
       <c r="U82" s="26"/>
       <c r="V82" s="27"/>
       <c r="W82" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X82" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="23.25" thickBot="1">
       <c r="A83" s="31"/>
       <c r="B83" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="D83" s="52"/>
       <c r="E83" s="15"/>
@@ -14305,16 +15017,16 @@
       <c r="M83" s="18"/>
       <c r="N83" s="15"/>
       <c r="O83" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="18"/>
@@ -14323,7 +15035,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="109" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="111"/>
@@ -14352,10 +15064,10 @@
     <row r="85" spans="1:24" ht="101.25">
       <c r="A85" s="34"/>
       <c r="B85" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="37"/>
@@ -14369,7 +15081,7 @@
       <c r="M85" s="39"/>
       <c r="N85" s="37"/>
       <c r="O85" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P85" s="38"/>
       <c r="Q85" s="38"/>
@@ -14378,19 +15090,19 @@
       <c r="T85" s="38"/>
       <c r="U85" s="38"/>
       <c r="V85" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W85" s="36" t="s">
         <v>0</v>
       </c>
       <c r="X85" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="67.5">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>11</v>
@@ -14398,7 +15110,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="25"/>
       <c r="F86" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
@@ -14417,7 +15129,7 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
       <c r="W86" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X86" s="24" t="s">
         <v>237</v>
@@ -14426,13 +15138,13 @@
     <row r="87" spans="1:24" ht="67.5">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
@@ -14498,13 +15210,13 @@
     <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
@@ -14525,7 +15237,7 @@
       <c r="U89" s="26"/>
       <c r="V89" s="27"/>
       <c r="W89" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X89" s="24" t="s">
         <v>9</v>
@@ -14559,7 +15271,7 @@
       <c r="U90" s="26"/>
       <c r="V90" s="27"/>
       <c r="W90" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X90" s="24" t="s">
         <v>9</v>
@@ -14568,17 +15280,17 @@
     <row r="91" spans="1:24" ht="45">
       <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C91" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" s="51" t="s">
         <v>314</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>315</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
@@ -14589,7 +15301,7 @@
       <c r="M91" s="27"/>
       <c r="N91" s="25"/>
       <c r="O91" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
@@ -14598,10 +15310,10 @@
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
       <c r="V91" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W91" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X91" s="24" t="s">
         <v>236</v>
@@ -14610,13 +15322,13 @@
     <row r="92" spans="1:24" ht="56.25">
       <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D92" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="26"/>
@@ -14637,26 +15349,26 @@
       <c r="U92" s="26"/>
       <c r="V92" s="27"/>
       <c r="W92" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X92" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="157.5">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -14675,7 +15387,7 @@
       <c r="U93" s="26"/>
       <c r="V93" s="27"/>
       <c r="W93" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X93" s="24" t="s">
         <v>225</v>
@@ -14684,13 +15396,13 @@
     <row r="94" spans="1:24" ht="90.75" thickBot="1">
       <c r="A94" s="31"/>
       <c r="B94" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="12"/>
@@ -14704,7 +15416,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="41"/>
       <c r="P94" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -14713,15 +15425,15 @@
       <c r="U94" s="12"/>
       <c r="V94" s="18"/>
       <c r="W94" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X94" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="109" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B95" s="110"/>
       <c r="C95" s="111"/>
@@ -14753,12 +15465,12 @@
         <v>12</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D96" s="53"/>
       <c r="E96" s="37"/>
       <c r="F96" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
@@ -14769,7 +15481,7 @@
       <c r="M96" s="39"/>
       <c r="N96" s="37"/>
       <c r="O96" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P96" s="38"/>
       <c r="Q96" s="38"/>
@@ -14778,7 +15490,7 @@
       <c r="T96" s="38"/>
       <c r="U96" s="38"/>
       <c r="V96" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W96" s="36" t="s">
         <v>13</v>
@@ -14798,7 +15510,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
@@ -14809,10 +15521,10 @@
       <c r="M97" s="27"/>
       <c r="N97" s="25"/>
       <c r="O97" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P97" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
@@ -14820,10 +15532,10 @@
       <c r="T97" s="26"/>
       <c r="U97" s="26"/>
       <c r="V97" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W97" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X97" s="24" t="s">
         <v>239</v>
@@ -14844,7 +15556,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
@@ -14859,10 +15571,10 @@
       <c r="U98" s="26"/>
       <c r="V98" s="27"/>
       <c r="W98" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X98" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="67.5">
@@ -14880,30 +15592,30 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
       <c r="M99" s="27"/>
       <c r="N99" s="25"/>
       <c r="O99" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T99" s="26"/>
       <c r="U99" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V99" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W99" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X99" s="24" t="s">
         <v>240</v>
@@ -14918,7 +15630,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="26"/>
@@ -14931,20 +15643,20 @@
       <c r="M100" s="27"/>
       <c r="N100" s="25"/>
       <c r="O100" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
       <c r="S100" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T100" s="26"/>
       <c r="U100" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V100" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W100" s="24" t="s">
         <v>243</v>
@@ -14962,7 +15674,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E101" s="66"/>
       <c r="F101" s="67"/>
@@ -14975,38 +15687,38 @@
       <c r="M101" s="68"/>
       <c r="N101" s="66"/>
       <c r="O101" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P101" s="67"/>
       <c r="Q101" s="67"/>
       <c r="R101" s="67"/>
       <c r="S101" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T101" s="67"/>
       <c r="U101" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V101" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W101" s="36" t="s">
         <v>244</v>
       </c>
       <c r="X101" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="101.25">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="67"/>
@@ -15019,38 +15731,38 @@
       <c r="M102" s="68"/>
       <c r="N102" s="66"/>
       <c r="O102" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P102" s="67"/>
       <c r="Q102" s="67"/>
       <c r="R102" s="67"/>
       <c r="S102" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T102" s="67"/>
       <c r="U102" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V102" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W102" s="36" t="s">
         <v>245</v>
       </c>
       <c r="X102" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="78.75">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C103" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E103" s="66"/>
       <c r="F103" s="67"/>
@@ -15063,38 +15775,38 @@
       <c r="M103" s="68"/>
       <c r="N103" s="66"/>
       <c r="O103" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P103" s="67"/>
       <c r="Q103" s="67"/>
       <c r="R103" s="67"/>
       <c r="S103" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T103" s="67"/>
       <c r="U103" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V103" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W103" s="36" t="s">
         <v>246</v>
       </c>
       <c r="X103" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="78.75">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C104" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -15107,38 +15819,38 @@
       <c r="M104" s="39"/>
       <c r="N104" s="37"/>
       <c r="O104" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P104" s="67"/>
       <c r="Q104" s="67"/>
       <c r="R104" s="67"/>
       <c r="S104" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T104" s="67"/>
       <c r="U104" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V104" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W104" s="36" t="s">
         <v>247</v>
       </c>
       <c r="X104" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="101.25">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C105" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
@@ -15151,38 +15863,38 @@
       <c r="M105" s="39"/>
       <c r="N105" s="37"/>
       <c r="O105" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P105" s="67"/>
       <c r="Q105" s="67"/>
       <c r="R105" s="67"/>
       <c r="S105" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T105" s="67"/>
       <c r="U105" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V105" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W105" s="36" t="s">
         <v>248</v>
       </c>
       <c r="X105" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="123.75">
       <c r="A106" s="71"/>
       <c r="B106" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C106" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
@@ -15195,38 +15907,38 @@
       <c r="M106" s="39"/>
       <c r="N106" s="37"/>
       <c r="O106" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P106" s="67"/>
       <c r="Q106" s="67"/>
       <c r="R106" s="67"/>
       <c r="S106" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T106" s="67"/>
       <c r="U106" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V106" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W106" s="36" t="s">
         <v>249</v>
       </c>
       <c r="X106" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="123.75">
       <c r="A107" s="61"/>
       <c r="B107" s="60" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C107" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="19"/>
@@ -15239,20 +15951,20 @@
       <c r="M107" s="16"/>
       <c r="N107" s="13"/>
       <c r="O107" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P107" s="58"/>
       <c r="Q107" s="58"/>
       <c r="R107" s="58"/>
       <c r="S107" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T107" s="58"/>
       <c r="U107" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V107" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W107" s="9" t="s">
         <v>250</v>
@@ -15262,10 +15974,10 @@
     <row r="108" spans="1:24" ht="135">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>283</v>
       </c>
       <c r="D108" s="51"/>
       <c r="E108" s="25"/>
@@ -15274,30 +15986,30 @@
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
       <c r="J108" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
       <c r="M108" s="27"/>
       <c r="N108" s="25"/>
       <c r="O108" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T108" s="26"/>
       <c r="U108" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V108" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W108" s="24" t="s">
-        <v>254</v>
+        <v>674</v>
       </c>
       <c r="X108" s="24" t="s">
         <v>251</v>
@@ -15309,7 +16021,7 @@
         <v>252</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D109" s="62"/>
       <c r="E109" s="106"/>
@@ -15341,17 +16053,17 @@
         <v>253</v>
       </c>
       <c r="W109" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X109" s="9"/>
     </row>
     <row r="110" spans="1:24" ht="157.5">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="24" t="s">
         <v>287</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>288</v>
       </c>
       <c r="D110" s="51"/>
       <c r="E110" s="25"/>
@@ -15365,38 +16077,38 @@
       <c r="M110" s="27"/>
       <c r="N110" s="25"/>
       <c r="O110" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
       <c r="R110" s="26"/>
       <c r="S110" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T110" s="26"/>
       <c r="U110" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V110" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W110" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="X110" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="X110" s="24" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="112.5">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="26"/>
@@ -15417,22 +16129,22 @@
       <c r="U111" s="26"/>
       <c r="V111" s="27"/>
       <c r="W111" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X111" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="67.5">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="26"/>
@@ -15453,19 +16165,19 @@
       <c r="U112" s="26"/>
       <c r="V112" s="27"/>
       <c r="W112" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X112" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="270">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="51"/>
       <c r="E113" s="25"/>
@@ -15479,35 +16191,35 @@
       <c r="M113" s="27"/>
       <c r="N113" s="25"/>
       <c r="O113" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
       <c r="R113" s="26"/>
       <c r="S113" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T113" s="26"/>
       <c r="U113" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V113" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W113" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X113" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="168.75">
       <c r="A114" s="30"/>
       <c r="B114" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="D114" s="51" t="s">
         <v>4</v>
@@ -15523,35 +16235,35 @@
       <c r="M114" s="27"/>
       <c r="N114" s="25"/>
       <c r="O114" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="26"/>
       <c r="S114" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T114" s="26"/>
       <c r="U114" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V114" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W114" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X114" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="101.25">
       <c r="A115" s="30"/>
       <c r="B115" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>307</v>
       </c>
       <c r="D115" s="51"/>
       <c r="E115" s="25"/>
@@ -15560,38 +16272,38 @@
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
       <c r="J115" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
       <c r="M115" s="27"/>
       <c r="N115" s="25"/>
       <c r="O115" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T115" s="26"/>
       <c r="U115" s="26"/>
       <c r="V115" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W115" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X115" s="24"/>
     </row>
     <row r="116" spans="1:24" ht="67.5">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="D116" s="51"/>
       <c r="E116" s="25"/>
@@ -15600,40 +16312,40 @@
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
       <c r="J116" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
       <c r="M116" s="27"/>
       <c r="N116" s="25"/>
       <c r="O116" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
       <c r="R116" s="26"/>
       <c r="S116" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T116" s="26"/>
       <c r="U116" s="26"/>
       <c r="V116" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X116" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="168.75">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="D117" s="51"/>
       <c r="E117" s="25"/>
@@ -15642,40 +16354,40 @@
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
       <c r="J117" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
       <c r="M117" s="27"/>
       <c r="N117" s="25"/>
       <c r="O117" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
       <c r="R117" s="26"/>
       <c r="S117" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T117" s="26"/>
       <c r="U117" s="26"/>
       <c r="V117" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W117" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X117" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="57" thickBot="1">
       <c r="A118" s="31"/>
       <c r="B118" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D118" s="52"/>
       <c r="E118" s="15"/>
@@ -15689,27 +16401,27 @@
       <c r="M118" s="18"/>
       <c r="N118" s="15"/>
       <c r="O118" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
       <c r="V118" s="18"/>
       <c r="W118" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X118" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B119" s="110"/>
       <c r="C119" s="111"/>
@@ -15738,10 +16450,10 @@
     <row r="120" spans="1:24" ht="45">
       <c r="A120" s="34"/>
       <c r="B120" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="36" t="s">
         <v>267</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>268</v>
       </c>
       <c r="D120" s="53"/>
       <c r="E120" s="37"/>
@@ -15755,35 +16467,35 @@
       <c r="M120" s="39"/>
       <c r="N120" s="37"/>
       <c r="O120" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="38"/>
       <c r="S120" s="38"/>
       <c r="T120" s="38"/>
       <c r="U120" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V120" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W120" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="X120" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="X120" s="36" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="33.75">
       <c r="A121" s="30"/>
       <c r="B121" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="D121" s="51"/>
       <c r="E121" s="25"/>
@@ -15792,7 +16504,7 @@
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
       <c r="J121" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
@@ -15807,19 +16519,19 @@
       <c r="U121" s="26"/>
       <c r="V121" s="27"/>
       <c r="W121" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X121" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="67.5">
       <c r="A122" s="30"/>
       <c r="B122" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D122" s="51"/>
       <c r="E122" s="25"/>
@@ -15833,7 +16545,7 @@
       <c r="M122" s="27"/>
       <c r="N122" s="25"/>
       <c r="O122" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
@@ -15842,27 +16554,27 @@
       <c r="T122" s="26"/>
       <c r="U122" s="26"/>
       <c r="V122" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W122" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X122" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="45">
       <c r="A123" s="30"/>
       <c r="B123" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>279</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="D123" s="51"/>
       <c r="E123" s="25"/>
       <c r="F123" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
@@ -15873,10 +16585,10 @@
       <c r="M123" s="27"/>
       <c r="N123" s="25"/>
       <c r="O123" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P123" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q123" s="26"/>
       <c r="R123" s="26"/>
@@ -15885,7 +16597,7 @@
       <c r="U123" s="26"/>
       <c r="V123" s="27"/>
       <c r="W123" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X123" s="24"/>
     </row>
@@ -16768,18 +17480,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>435</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16787,10 +17499,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>437</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16798,10 +17510,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>439</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16809,10 +17521,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>441</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16820,10 +17532,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>443</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33.75">
@@ -16831,10 +17543,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16842,10 +17554,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>447</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16853,10 +17565,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>449</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16864,10 +17576,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>451</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -16875,10 +17587,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>453</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16886,10 +17598,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>455</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16897,10 +17609,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>457</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -16908,10 +17620,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>459</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -16919,10 +17631,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>461</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -16930,10 +17642,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>463</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -16941,15 +17653,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>499</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -16968,9 +17680,1445 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="2"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="3" customWidth="1"/>
+    <col min="4" max="25" width="10.83203125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="14.25">
+      <c r="A1" s="121" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="122"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="123" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>600</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>602</v>
+      </c>
+      <c r="I4" s="126" t="s">
+        <v>603</v>
+      </c>
+      <c r="J4" s="126" t="s">
+        <v>604</v>
+      </c>
+      <c r="K4" s="126" t="s">
+        <v>498</v>
+      </c>
+      <c r="L4" s="126" t="s">
+        <v>605</v>
+      </c>
+      <c r="M4" s="126" t="s">
+        <v>606</v>
+      </c>
+      <c r="N4" s="126" t="s">
+        <v>607</v>
+      </c>
+      <c r="O4" s="126" t="s">
+        <v>570</v>
+      </c>
+      <c r="P4" s="126" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q4" s="126" t="s">
+        <v>609</v>
+      </c>
+      <c r="R4" s="126" t="s">
+        <v>610</v>
+      </c>
+      <c r="S4" s="126" t="s">
+        <v>611</v>
+      </c>
+      <c r="T4" s="126" t="s">
+        <v>612</v>
+      </c>
+      <c r="U4" s="126" t="s">
+        <v>613</v>
+      </c>
+      <c r="V4" s="126" t="s">
+        <v>614</v>
+      </c>
+      <c r="W4" s="126" t="s">
+        <v>615</v>
+      </c>
+      <c r="X4" s="126" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y4" s="126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A5" s="127">
+        <v>1</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+    </row>
+    <row r="6" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A6" s="127">
+        <v>2</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>617</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+    </row>
+    <row r="7" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A7" s="127">
+        <v>3</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+    </row>
+    <row r="8" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A8" s="127">
+        <v>4</v>
+      </c>
+      <c r="B8" s="128" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="129" t="s">
+        <v>643</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+    </row>
+    <row r="9" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A9" s="127">
+        <v>5</v>
+      </c>
+      <c r="B9" s="128" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>645</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+    </row>
+    <row r="10" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A10" s="127">
+        <v>6</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>621</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>646</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+    </row>
+    <row r="11" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A11" s="127">
+        <v>7</v>
+      </c>
+      <c r="B11" s="128" t="s">
+        <v>622</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>647</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+    </row>
+    <row r="12" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A12" s="127">
+        <v>8</v>
+      </c>
+      <c r="B12" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="129" t="s">
+        <v>648</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+    </row>
+    <row r="13" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A13" s="127">
+        <v>9</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>623</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>649</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W13" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+    </row>
+    <row r="14" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A14" s="127">
+        <v>10</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" s="129" t="s">
+        <v>650</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W14" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+    </row>
+    <row r="15" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A15" s="127">
+        <v>11</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>651</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W15" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+    </row>
+    <row r="16" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A16" s="127">
+        <v>12</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>652</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W16" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+    </row>
+    <row r="17" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A17" s="127">
+        <v>13</v>
+      </c>
+      <c r="B17" s="128" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="129" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W17" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+    </row>
+    <row r="18" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A18" s="127">
+        <v>14</v>
+      </c>
+      <c r="B18" s="128" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="129" t="s">
+        <v>654</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+    </row>
+    <row r="19" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A19" s="127">
+        <v>15</v>
+      </c>
+      <c r="B19" s="128" t="s">
+        <v>628</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R19" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+    </row>
+    <row r="20" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A20" s="127">
+        <v>16</v>
+      </c>
+      <c r="B20" s="128" t="s">
+        <v>629</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>656</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q20" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+    </row>
+    <row r="21" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A21" s="127">
+        <v>17</v>
+      </c>
+      <c r="B21" s="128" t="s">
+        <v>630</v>
+      </c>
+      <c r="C21" s="129" t="s">
+        <v>657</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+    </row>
+    <row r="22" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A22" s="127">
+        <v>18</v>
+      </c>
+      <c r="B22" s="128" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="129" t="s">
+        <v>658</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+    </row>
+    <row r="23" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A23" s="127">
+        <v>19</v>
+      </c>
+      <c r="B23" s="128" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" s="129" t="s">
+        <v>659</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+    </row>
+    <row r="24" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A24" s="127">
+        <v>20</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" s="129" t="s">
+        <v>660</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+    </row>
+    <row r="25" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A25" s="127">
+        <v>21</v>
+      </c>
+      <c r="B25" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="129" t="s">
+        <v>661</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="S25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="U25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="V25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X25" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y25" s="44" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A26" s="127">
+        <v>22</v>
+      </c>
+      <c r="B26" s="128" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" s="129" t="s">
+        <v>662</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+    </row>
+    <row r="27" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A27" s="127">
+        <v>23</v>
+      </c>
+      <c r="B27" s="128" t="s">
+        <v>635</v>
+      </c>
+      <c r="C27" s="129" t="s">
+        <v>663</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+    </row>
+    <row r="28" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A28" s="127">
+        <v>24</v>
+      </c>
+      <c r="B28" s="128" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="129" t="s">
+        <v>664</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+    </row>
+    <row r="29" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A29" s="127">
+        <v>25</v>
+      </c>
+      <c r="B29" s="128" t="s">
+        <v>637</v>
+      </c>
+      <c r="C29" s="129" t="s">
+        <v>665</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="T29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="U29" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+    </row>
+    <row r="30" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A30" s="127">
+        <v>26</v>
+      </c>
+      <c r="B30" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="129" t="s">
+        <v>666</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+    </row>
+    <row r="31" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A31" s="127">
+        <v>27</v>
+      </c>
+      <c r="B31" s="128" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" s="129" t="s">
+        <v>672</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+    </row>
+    <row r="32" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A32" s="127">
+        <v>28</v>
+      </c>
+      <c r="B32" s="128" t="s">
+        <v>670</v>
+      </c>
+      <c r="C32" s="129" t="s">
+        <v>673</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q32" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+    </row>
+    <row r="33" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A33" s="127">
+        <v>29</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>638</v>
+      </c>
+      <c r="C33" s="129" t="s">
+        <v>667</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="M33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="O33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="R33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="S33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="T33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="V33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="W33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X33" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y33" s="44" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="22.5" customHeight="1">
+      <c r="A34" s="127">
+        <v>30</v>
+      </c>
+      <c r="B34" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="129" t="s">
+        <v>668</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -17218,7 +19366,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>128</v>
@@ -17229,7 +19377,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>129</v>
@@ -17240,7 +19388,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>130</v>
@@ -17361,7 +19509,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>143</v>
@@ -17372,7 +19520,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>146</v>
@@ -17383,7 +19531,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>127</v>
@@ -17394,7 +19542,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>147</v>
@@ -17526,7 +19674,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>145</v>
@@ -17537,7 +19685,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>143</v>
@@ -17548,7 +19696,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>160</v>
@@ -17581,7 +19729,7 @@
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>165</v>
@@ -17592,7 +19740,7 @@
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>166</v>
@@ -17603,7 +19751,7 @@
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>167</v>
@@ -17614,7 +19762,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>168</v>
@@ -17625,7 +19773,7 @@
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>143</v>
@@ -17647,7 +19795,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>170</v>
@@ -17658,7 +19806,7 @@
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>143</v>
@@ -17669,7 +19817,7 @@
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>171</v>
@@ -17680,7 +19828,7 @@
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>172</v>
@@ -17702,7 +19850,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>174</v>
@@ -17713,7 +19861,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>175</v>
@@ -17757,7 +19905,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>127</v>
@@ -17768,7 +19916,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>179</v>
@@ -17812,7 +19960,7 @@
         <v>56</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C79" s="83" t="s">
         <v>185</v>
@@ -17823,7 +19971,7 @@
         <v>57</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C80" s="83" t="s">
         <v>186</v>
@@ -17834,7 +19982,7 @@
         <v>58</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C81" s="83" t="s">
         <v>187</v>
@@ -17845,7 +19993,7 @@
         <v>59</v>
       </c>
       <c r="B82" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C82" s="83" t="s">
         <v>188</v>
@@ -17856,7 +20004,7 @@
         <v>60</v>
       </c>
       <c r="B83" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C83" s="83" t="s">
         <v>189</v>
@@ -17867,7 +20015,7 @@
         <v>61</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C84" s="83" t="s">
         <v>143</v>
@@ -17878,7 +20026,7 @@
         <v>62</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C85" s="83" t="s">
         <v>190</v>
@@ -17889,7 +20037,7 @@
         <v>63</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C86" s="83" t="s">
         <v>191</v>
@@ -17900,7 +20048,7 @@
         <v>64</v>
       </c>
       <c r="B87" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C87" s="82" t="s">
         <v>172</v>
@@ -17944,7 +20092,7 @@
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>178</v>
@@ -18489,7 +20637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -18562,13 +20710,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -18673,13 +20821,13 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:3">

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
@@ -32,7 +27,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3302,10 +3297,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>details</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">ユーザ操作により表示、非表示を指定できるディスクロジャーウィジェットを作成する場合に使用する。
 </t>
     <rPh sb="3" eb="5">
@@ -3563,10 +3554,6 @@
     <rPh sb="32" eb="34">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>menu</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4191,10 +4178,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>output</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">計算結果を表す場合に使用する。
 </t>
     <rPh sb="0" eb="2">
@@ -4278,39 +4261,6 @@
   </si>
   <si>
     <t>progress</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">プログレスバーを作成する場合に使用する。
-Progress要素内には非対応のブラウザ時の表示コンテンツを記述する。
-</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ヒタイオウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キジュツ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -10402,12 +10352,57 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プログレスバーを作成する場合に使用する。
+progress要素内には非対応のブラウザ時の表示コンテンツを記述する。
+</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ヒタイオウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -11290,21 +11285,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -11331,6 +11311,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11752,7 +11747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11766,13 +11761,13 @@
   <dimension ref="A1:X152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
+      <selection pane="bottomRight" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -11783,120 +11778,120 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="128" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="125" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="X1" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="119" t="s">
-        <v>508</v>
-      </c>
-      <c r="E1" s="117" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117" t="s">
+      <c r="G2" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="116" t="s">
+      <c r="H2" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="X1" s="116" t="s">
+      <c r="I2" s="21" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="J2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>360</v>
-      </c>
       <c r="N2" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O2" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="R2" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-    </row>
-    <row r="3" spans="1:24" ht="56.25">
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+    </row>
+    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -11917,25 +11912,25 @@
       <c r="U3" s="19"/>
       <c r="V3" s="16"/>
       <c r="W3" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="78.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -11955,19 +11950,19 @@
       <c r="U4" s="11"/>
       <c r="V4" s="17"/>
       <c r="W4" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="56.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11980,7 +11975,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="17"/>
       <c r="N5" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -11991,22 +11986,22 @@
       <c r="U5" s="11"/>
       <c r="V5" s="17"/>
       <c r="W5" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="123.75">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -12018,7 +12013,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="17"/>
       <c r="N6" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -12029,22 +12024,22 @@
       <c r="U6" s="11"/>
       <c r="V6" s="17"/>
       <c r="W6" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="157.5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -12056,7 +12051,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="17"/>
       <c r="N7" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -12067,22 +12062,22 @@
       <c r="U7" s="11"/>
       <c r="V7" s="17"/>
       <c r="W7" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="67.5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -12094,7 +12089,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="17"/>
       <c r="N8" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -12105,19 +12100,19 @@
       <c r="U8" s="11"/>
       <c r="V8" s="17"/>
       <c r="W8" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="157.5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="25"/>
@@ -12130,10 +12125,10 @@
       <c r="L9" s="26"/>
       <c r="M9" s="27"/>
       <c r="N9" s="25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -12149,13 +12144,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25">
+    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="106"/>
@@ -12181,17 +12176,17 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75">
+    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="25"/>
@@ -12204,34 +12199,34 @@
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
       <c r="N11" s="25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="25"/>
@@ -12244,30 +12239,30 @@
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
       <c r="N12" s="25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="27"/>
       <c r="W12" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="109" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -12293,20 +12288,20 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5">
+    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -12318,7 +12313,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="108"/>
       <c r="P14" s="19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -12327,22 +12322,22 @@
       <c r="U14" s="19"/>
       <c r="V14" s="16"/>
       <c r="W14" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25">
+    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G15" s="104"/>
       <c r="H15" s="26"/>
@@ -12353,7 +12348,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="25"/>
       <c r="O15" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -12362,27 +12357,27 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25">
+    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -12393,36 +12388,36 @@
       <c r="M16" s="27"/>
       <c r="N16" s="25"/>
       <c r="O16" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75">
+    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -12433,36 +12428,36 @@
       <c r="M17" s="27"/>
       <c r="N17" s="25"/>
       <c r="O17" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45">
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -12473,36 +12468,36 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W18" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5">
+    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -12513,36 +12508,36 @@
       <c r="M19" s="27"/>
       <c r="N19" s="25"/>
       <c r="O19" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W19" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45">
+    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" s="26"/>
@@ -12553,7 +12548,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="25"/>
       <c r="O20" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -12562,27 +12557,27 @@
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W20" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25">
+    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
@@ -12593,7 +12588,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="25"/>
       <c r="O21" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -12602,20 +12597,20 @@
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W21" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -12624,34 +12619,34 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="18"/>
       <c r="N22" s="15"/>
       <c r="O22" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="109" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -12677,18 +12672,18 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75">
+    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
       <c r="F24" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="38"/>
@@ -12699,7 +12694,7 @@
       <c r="M24" s="39"/>
       <c r="N24" s="37"/>
       <c r="O24" s="40" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -12708,27 +12703,27 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="W24" s="36" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X24" s="36" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5">
+    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -12739,7 +12734,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="25"/>
       <c r="O25" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -12748,23 +12743,23 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W25" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5">
+    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -12772,14 +12767,14 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="27"/>
       <c r="N26" s="25"/>
       <c r="O26" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -12788,20 +12783,20 @@
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W26" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5">
+    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="25"/>
@@ -12815,7 +12810,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="25"/>
       <c r="O27" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -12824,22 +12819,22 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W27" s="24" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="X27" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5">
+    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="25"/>
@@ -12853,7 +12848,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="25"/>
       <c r="O28" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -12862,29 +12857,29 @@
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W28" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45">
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -12903,19 +12898,19 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
       <c r="W29" s="24" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="67.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -12929,7 +12924,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="25"/>
       <c r="O30" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -12938,29 +12933,29 @@
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W30" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X30" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5">
+    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -12979,26 +12974,26 @@
       <c r="U31" s="26"/>
       <c r="V31" s="27"/>
       <c r="W31" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X31" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75">
+    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -13017,22 +13012,22 @@
       <c r="U32" s="26"/>
       <c r="V32" s="27"/>
       <c r="W32" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="56.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -13045,7 +13040,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="25"/>
       <c r="O33" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
@@ -13055,19 +13050,19 @@
       <c r="U33" s="26"/>
       <c r="V33" s="27"/>
       <c r="W33" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="22.5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="25"/>
@@ -13076,14 +13071,14 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
       <c r="N34" s="25"/>
       <c r="O34" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
@@ -13092,20 +13087,20 @@
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45">
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="25"/>
@@ -13114,17 +13109,17 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
       <c r="N35" s="25"/>
       <c r="O35" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
@@ -13132,20 +13127,20 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W35" s="24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5">
+    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="25"/>
@@ -13159,10 +13154,10 @@
       <c r="M36" s="27"/>
       <c r="N36" s="25"/>
       <c r="O36" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
@@ -13170,27 +13165,27 @@
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W36" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X36" s="24" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="15"/>
       <c r="F37" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -13209,15 +13204,15 @@
       <c r="U37" s="12"/>
       <c r="V37" s="18"/>
       <c r="W37" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="109" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="111"/>
@@ -13243,13 +13238,13 @@
       <c r="W38" s="111"/>
       <c r="X38" s="115"/>
     </row>
-    <row r="39" spans="1:24" ht="157.5">
+    <row r="39" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="37"/>
@@ -13263,40 +13258,40 @@
       <c r="M39" s="39"/>
       <c r="N39" s="37"/>
       <c r="O39" s="40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V39" s="39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W39" s="36" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="X39" s="36" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="45">
+    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -13307,31 +13302,31 @@
       <c r="M40" s="27"/>
       <c r="N40" s="25"/>
       <c r="O40" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W40" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75">
+    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="25"/>
@@ -13340,41 +13335,41 @@
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="27"/>
       <c r="N41" s="25"/>
       <c r="O41" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W41" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24" ht="33.75">
+    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -13387,36 +13382,36 @@
       <c r="M42" s="27"/>
       <c r="N42" s="25"/>
       <c r="O42" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
       <c r="V42" s="27"/>
       <c r="W42" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="45">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -13427,36 +13422,36 @@
       <c r="M43" s="27"/>
       <c r="N43" s="25"/>
       <c r="O43" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W43" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24" ht="101.25">
+    <row r="44" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -13467,38 +13462,38 @@
       <c r="M44" s="27"/>
       <c r="N44" s="25"/>
       <c r="O44" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="45">
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -13509,36 +13504,36 @@
       <c r="M45" s="27"/>
       <c r="N45" s="25"/>
       <c r="O45" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W45" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45">
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -13549,36 +13544,36 @@
       <c r="M46" s="27"/>
       <c r="N46" s="25"/>
       <c r="O46" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W46" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="67.5">
+    <row r="47" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -13589,28 +13584,28 @@
       <c r="M47" s="27"/>
       <c r="N47" s="25"/>
       <c r="O47" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
       <c r="V47" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24" ht="45">
+    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>216</v>
@@ -13618,7 +13613,7 @@
       <c r="D48" s="51"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -13629,38 +13624,38 @@
       <c r="M48" s="27"/>
       <c r="N48" s="25"/>
       <c r="O48" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W48" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X48" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="45">
+    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -13671,36 +13666,36 @@
       <c r="M49" s="27"/>
       <c r="N49" s="25"/>
       <c r="O49" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
       <c r="V49" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W49" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="22.5">
+    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -13711,36 +13706,36 @@
       <c r="M50" s="27"/>
       <c r="N50" s="25"/>
       <c r="O50" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W50" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75">
+    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -13751,36 +13746,36 @@
       <c r="M51" s="27"/>
       <c r="N51" s="25"/>
       <c r="O51" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W51" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75">
+    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -13791,36 +13786,36 @@
       <c r="M52" s="27"/>
       <c r="N52" s="25"/>
       <c r="O52" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="26"/>
       <c r="V52" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W52" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="33.75">
+    <row r="53" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -13831,36 +13826,36 @@
       <c r="M53" s="27"/>
       <c r="N53" s="25"/>
       <c r="O53" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
       <c r="V53" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W53" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5">
+    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -13871,36 +13866,36 @@
       <c r="M54" s="27"/>
       <c r="N54" s="25"/>
       <c r="O54" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W54" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5">
+    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
@@ -13911,36 +13906,36 @@
       <c r="M55" s="27"/>
       <c r="N55" s="25"/>
       <c r="O55" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
       <c r="V55" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W55" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="56.25">
+    <row r="56" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
@@ -13951,36 +13946,36 @@
       <c r="M56" s="27"/>
       <c r="N56" s="25"/>
       <c r="O56" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="26"/>
       <c r="V56" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W56" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="45">
+    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -13991,36 +13986,36 @@
       <c r="M57" s="27"/>
       <c r="N57" s="25"/>
       <c r="O57" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W57" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75">
+    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -14031,36 +14026,36 @@
       <c r="M58" s="27"/>
       <c r="N58" s="25"/>
       <c r="O58" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W58" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="33.75">
+    <row r="59" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
@@ -14071,36 +14066,36 @@
       <c r="M59" s="27"/>
       <c r="N59" s="25"/>
       <c r="O59" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
       <c r="V59" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W59" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="45">
+    <row r="60" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -14111,38 +14106,38 @@
       <c r="M60" s="27"/>
       <c r="N60" s="25"/>
       <c r="O60" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W60" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X60" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.75">
+    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -14161,24 +14156,24 @@
       <c r="U61" s="26"/>
       <c r="V61" s="27"/>
       <c r="W61" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="33.75">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -14197,24 +14192,24 @@
       <c r="U62" s="26"/>
       <c r="V62" s="27"/>
       <c r="W62" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="33.75">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="26"/>
@@ -14233,24 +14228,24 @@
       <c r="U63" s="26"/>
       <c r="V63" s="27"/>
       <c r="W63" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X63" s="24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="33.75">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -14261,36 +14256,36 @@
       <c r="M64" s="27"/>
       <c r="N64" s="25"/>
       <c r="O64" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="26"/>
       <c r="S64" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T64" s="26"/>
       <c r="U64" s="26"/>
       <c r="V64" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W64" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5">
+    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -14301,34 +14296,34 @@
       <c r="M65" s="27"/>
       <c r="N65" s="25"/>
       <c r="O65" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
       <c r="V65" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W65" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="33.75">
+    <row r="66" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
@@ -14341,29 +14336,29 @@
       <c r="M66" s="27"/>
       <c r="N66" s="25"/>
       <c r="O66" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="26"/>
       <c r="S66" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
       <c r="V66" s="27"/>
       <c r="W66" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X66" s="24"/>
     </row>
-    <row r="67" spans="1:24" ht="67.5">
+    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -14377,33 +14372,33 @@
       <c r="M67" s="27"/>
       <c r="N67" s="25"/>
       <c r="O67" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
       <c r="V67" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W67" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X67" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="67.5">
+    <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="25"/>
@@ -14417,36 +14412,36 @@
       <c r="M68" s="27"/>
       <c r="N68" s="25"/>
       <c r="O68" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T68" s="26"/>
       <c r="U68" s="26"/>
       <c r="V68" s="27"/>
       <c r="W68" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="34.5" thickBot="1">
+    <row r="69" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15"/>
       <c r="F69" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -14457,25 +14452,25 @@
       <c r="M69" s="18"/>
       <c r="N69" s="15"/>
       <c r="O69" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
       <c r="V69" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="109" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="111"/>
@@ -14501,16 +14496,16 @@
       <c r="W70" s="111"/>
       <c r="X70" s="115"/>
     </row>
-    <row r="71" spans="1:24" ht="157.5">
+    <row r="71" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A71" s="34"/>
       <c r="B71" s="35" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -14523,35 +14518,35 @@
       <c r="M71" s="39"/>
       <c r="N71" s="37"/>
       <c r="O71" s="40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V71" s="39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W71" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="X71" s="36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" ht="191.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -14565,40 +14560,40 @@
       <c r="M72" s="27"/>
       <c r="N72" s="25"/>
       <c r="O72" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V72" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="112.5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -14611,37 +14606,37 @@
       <c r="M73" s="27"/>
       <c r="N73" s="25"/>
       <c r="O73" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V73" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W73" s="24" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="213.75">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -14655,40 +14650,40 @@
       <c r="M74" s="27"/>
       <c r="N74" s="25"/>
       <c r="O74" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V74" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W74" s="24" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="X74" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="67.5">
+    <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
@@ -14709,19 +14704,19 @@
       <c r="U75" s="26"/>
       <c r="V75" s="27"/>
       <c r="W75" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="X75" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" ht="258.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D76" s="51"/>
       <c r="E76" s="25"/>
@@ -14735,37 +14730,37 @@
       <c r="M76" s="27"/>
       <c r="N76" s="25"/>
       <c r="O76" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T76" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="U76" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V76" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W76" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="X76" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="213.75">
+    <row r="77" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D77" s="51"/>
       <c r="E77" s="25"/>
@@ -14779,40 +14774,40 @@
       <c r="M77" s="27"/>
       <c r="N77" s="25"/>
       <c r="O77" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T77" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="U77" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V77" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W77" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="X77" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="90">
+    <row r="78" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -14833,22 +14828,22 @@
       <c r="U78" s="26"/>
       <c r="V78" s="27"/>
       <c r="W78" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="X78" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" ht="135">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -14869,19 +14864,19 @@
       <c r="U79" s="26"/>
       <c r="V79" s="27"/>
       <c r="W79" s="24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="X79" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" ht="67.5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="25"/>
@@ -14895,35 +14890,35 @@
       <c r="M80" s="27"/>
       <c r="N80" s="25"/>
       <c r="O80" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
       <c r="R80" s="26"/>
       <c r="S80" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T80" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="U80" s="26"/>
       <c r="V80" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W80" s="24" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="X80" s="24" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="67.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="25"/>
@@ -14937,36 +14932,36 @@
       <c r="M81" s="27"/>
       <c r="N81" s="25"/>
       <c r="O81" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
       <c r="R81" s="26"/>
       <c r="S81" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T81" s="26"/>
       <c r="U81" s="26"/>
       <c r="V81" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W81" s="24" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="X81" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="225">
+    <row r="82" spans="1:24" ht="225" x14ac:dyDescent="0.15">
       <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -14979,31 +14974,31 @@
       <c r="M82" s="27"/>
       <c r="N82" s="25"/>
       <c r="O82" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
       <c r="R82" s="26"/>
       <c r="S82" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T82" s="26"/>
       <c r="U82" s="26"/>
       <c r="V82" s="27"/>
       <c r="W82" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="X82" s="24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="23.25" thickBot="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="31"/>
       <c r="B83" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D83" s="52"/>
       <c r="E83" s="15"/>
@@ -15017,25 +15012,25 @@
       <c r="M83" s="18"/>
       <c r="N83" s="15"/>
       <c r="O83" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="18"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84" s="109" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="111"/>
@@ -15061,13 +15056,13 @@
       <c r="W84" s="111"/>
       <c r="X84" s="115"/>
     </row>
-    <row r="85" spans="1:24" ht="101.25">
+    <row r="85" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A85" s="34"/>
       <c r="B85" s="35" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="37"/>
@@ -15081,7 +15076,7 @@
       <c r="M85" s="39"/>
       <c r="N85" s="37"/>
       <c r="O85" s="40" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P85" s="38"/>
       <c r="Q85" s="38"/>
@@ -15090,19 +15085,19 @@
       <c r="T85" s="38"/>
       <c r="U85" s="38"/>
       <c r="V85" s="39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W85" s="36" t="s">
         <v>0</v>
       </c>
       <c r="X85" s="36" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="67.5">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>11</v>
@@ -15110,7 +15105,7 @@
       <c r="D86" s="51"/>
       <c r="E86" s="25"/>
       <c r="F86" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
@@ -15129,22 +15124,22 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
       <c r="W86" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X86" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="67.5">
+    <row r="87" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
@@ -15171,7 +15166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="56.25">
+    <row r="88" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
         <v>3</v>
@@ -15207,16 +15202,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25">
+    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
@@ -15237,13 +15232,13 @@
       <c r="U89" s="26"/>
       <c r="V89" s="27"/>
       <c r="W89" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X89" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="56.25">
+    <row r="90" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
         <v>10</v>
@@ -15271,26 +15266,26 @@
       <c r="U90" s="26"/>
       <c r="V90" s="27"/>
       <c r="W90" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X90" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="45">
+    <row r="91" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D91" s="51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
@@ -15301,7 +15296,7 @@
       <c r="M91" s="27"/>
       <c r="N91" s="25"/>
       <c r="O91" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
@@ -15310,25 +15305,25 @@
       <c r="T91" s="26"/>
       <c r="U91" s="26"/>
       <c r="V91" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W91" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X91" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="56.25">
+    <row r="92" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D92" s="51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="26"/>
@@ -15349,26 +15344,26 @@
       <c r="U92" s="26"/>
       <c r="V92" s="27"/>
       <c r="W92" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X92" s="24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" ht="157.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E93" s="25"/>
       <c r="F93" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -15387,22 +15382,22 @@
       <c r="U93" s="26"/>
       <c r="V93" s="27"/>
       <c r="W93" s="24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="X93" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="90.75" thickBot="1">
+    <row r="94" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31"/>
       <c r="B94" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="12"/>
@@ -15416,7 +15411,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="41"/>
       <c r="P94" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -15425,15 +15420,15 @@
       <c r="U94" s="12"/>
       <c r="V94" s="18"/>
       <c r="W94" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="X94" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A95" s="109" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B95" s="110"/>
       <c r="C95" s="111"/>
@@ -15459,18 +15454,18 @@
       <c r="W95" s="111"/>
       <c r="X95" s="115"/>
     </row>
-    <row r="96" spans="1:24" ht="202.5">
+    <row r="96" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A96" s="34"/>
       <c r="B96" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D96" s="53"/>
       <c r="E96" s="37"/>
       <c r="F96" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
@@ -15481,7 +15476,7 @@
       <c r="M96" s="39"/>
       <c r="N96" s="37"/>
       <c r="O96" s="40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P96" s="38"/>
       <c r="Q96" s="38"/>
@@ -15490,7 +15485,7 @@
       <c r="T96" s="38"/>
       <c r="U96" s="38"/>
       <c r="V96" s="39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W96" s="36" t="s">
         <v>13</v>
@@ -15499,7 +15494,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="90">
+    <row r="97" spans="1:24" ht="90" x14ac:dyDescent="0.15">
       <c r="A97" s="30"/>
       <c r="B97" s="23" t="s">
         <v>14</v>
@@ -15510,7 +15505,7 @@
       <c r="D97" s="51"/>
       <c r="E97" s="25"/>
       <c r="F97" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
@@ -15521,10 +15516,10 @@
       <c r="M97" s="27"/>
       <c r="N97" s="25"/>
       <c r="O97" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P97" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
@@ -15532,16 +15527,16 @@
       <c r="T97" s="26"/>
       <c r="U97" s="26"/>
       <c r="V97" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W97" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="X97" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="45">
+    <row r="98" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
         <v>16</v>
@@ -15556,7 +15551,7 @@
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K98" s="26"/>
       <c r="L98" s="26"/>
@@ -15571,13 +15566,13 @@
       <c r="U98" s="26"/>
       <c r="V98" s="27"/>
       <c r="W98" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X98" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" ht="67.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A99" s="30"/>
       <c r="B99" s="23" t="s">
         <v>18</v>
@@ -15592,36 +15587,36 @@
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
       <c r="M99" s="27"/>
       <c r="N99" s="25"/>
       <c r="O99" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T99" s="26"/>
       <c r="U99" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V99" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W99" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X99" s="24" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="101.25">
+    <row r="100" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A100" s="30"/>
       <c r="B100" s="23" t="s">
         <v>20</v>
@@ -15630,7 +15625,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="26"/>
@@ -15643,20 +15638,20 @@
       <c r="M100" s="27"/>
       <c r="N100" s="25"/>
       <c r="O100" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
       <c r="S100" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T100" s="26"/>
       <c r="U100" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V100" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="W100" s="24" t="s">
         <v>243</v>
@@ -15665,7 +15660,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="112.5">
+    <row r="101" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A101" s="34"/>
       <c r="B101" s="64" t="s">
         <v>242</v>
@@ -15674,7 +15669,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E101" s="66"/>
       <c r="F101" s="67"/>
@@ -15687,20 +15682,20 @@
       <c r="M101" s="68"/>
       <c r="N101" s="66"/>
       <c r="O101" s="69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P101" s="67"/>
       <c r="Q101" s="67"/>
       <c r="R101" s="67"/>
       <c r="S101" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T101" s="67"/>
       <c r="U101" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V101" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W101" s="36" t="s">
         <v>244</v>
@@ -15709,16 +15704,16 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="101.25">
+    <row r="102" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="67"/>
@@ -15731,20 +15726,20 @@
       <c r="M102" s="68"/>
       <c r="N102" s="66"/>
       <c r="O102" s="69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P102" s="67"/>
       <c r="Q102" s="67"/>
       <c r="R102" s="67"/>
       <c r="S102" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T102" s="67"/>
       <c r="U102" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V102" s="70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W102" s="36" t="s">
         <v>245</v>
@@ -15753,16 +15748,16 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="78.75">
+    <row r="103" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C103" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E103" s="66"/>
       <c r="F103" s="67"/>
@@ -15775,20 +15770,20 @@
       <c r="M103" s="68"/>
       <c r="N103" s="66"/>
       <c r="O103" s="69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P103" s="67"/>
       <c r="Q103" s="67"/>
       <c r="R103" s="67"/>
       <c r="S103" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T103" s="67"/>
       <c r="U103" s="67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V103" s="70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W103" s="36" t="s">
         <v>246</v>
@@ -15797,16 +15792,16 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="78.75">
+    <row r="104" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C104" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -15819,20 +15814,20 @@
       <c r="M104" s="39"/>
       <c r="N104" s="37"/>
       <c r="O104" s="69" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P104" s="67"/>
       <c r="Q104" s="67"/>
       <c r="R104" s="67"/>
       <c r="S104" s="67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T104" s="67"/>
       <c r="U104" s="67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V104" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="W104" s="36" t="s">
         <v>247</v>
@@ -15841,16 +15836,16 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="101.25">
+    <row r="105" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C105" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
@@ -15863,20 +15858,20 @@
       <c r="M105" s="39"/>
       <c r="N105" s="37"/>
       <c r="O105" s="69" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P105" s="67"/>
       <c r="Q105" s="67"/>
       <c r="R105" s="67"/>
       <c r="S105" s="67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T105" s="67"/>
       <c r="U105" s="67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V105" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="W105" s="36" t="s">
         <v>248</v>
@@ -15885,16 +15880,16 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="123.75">
+    <row r="106" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A106" s="71"/>
       <c r="B106" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C106" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
@@ -15907,20 +15902,20 @@
       <c r="M106" s="39"/>
       <c r="N106" s="37"/>
       <c r="O106" s="69" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P106" s="67"/>
       <c r="Q106" s="67"/>
       <c r="R106" s="67"/>
       <c r="S106" s="67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T106" s="67"/>
       <c r="U106" s="67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V106" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="W106" s="36" t="s">
         <v>249</v>
@@ -15929,16 +15924,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="123.75">
+    <row r="107" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A107" s="61"/>
       <c r="B107" s="60" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C107" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="19"/>
@@ -15951,33 +15946,33 @@
       <c r="M107" s="16"/>
       <c r="N107" s="13"/>
       <c r="O107" s="57" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P107" s="58"/>
       <c r="Q107" s="58"/>
       <c r="R107" s="58"/>
       <c r="S107" s="58" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T107" s="58"/>
       <c r="U107" s="58" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V107" s="59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="W107" s="9" t="s">
         <v>250</v>
       </c>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" ht="135">
+    <row r="108" spans="1:24" ht="135" x14ac:dyDescent="0.15">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D108" s="51"/>
       <c r="E108" s="25"/>
@@ -15986,42 +15981,42 @@
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
       <c r="J108" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
       <c r="M108" s="27"/>
       <c r="N108" s="25"/>
       <c r="O108" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T108" s="26"/>
       <c r="U108" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V108" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W108" s="24" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="X108" s="24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="146.25">
+    <row r="109" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A109" s="28"/>
       <c r="B109" s="60" t="s">
         <v>252</v>
       </c>
       <c r="C109" s="72" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D109" s="62"/>
       <c r="E109" s="106"/>
@@ -16057,13 +16052,13 @@
       </c>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" ht="157.5">
+    <row r="110" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D110" s="51"/>
       <c r="E110" s="25"/>
@@ -16077,38 +16072,38 @@
       <c r="M110" s="27"/>
       <c r="N110" s="25"/>
       <c r="O110" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
       <c r="R110" s="26"/>
       <c r="S110" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T110" s="26"/>
       <c r="U110" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V110" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W110" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X110" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="112.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="26"/>
@@ -16129,22 +16124,22 @@
       <c r="U111" s="26"/>
       <c r="V111" s="27"/>
       <c r="W111" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="X111" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" ht="67.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="26"/>
@@ -16165,19 +16160,19 @@
       <c r="U112" s="26"/>
       <c r="V112" s="27"/>
       <c r="W112" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="X112" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" ht="270">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="270" x14ac:dyDescent="0.15">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>299</v>
       </c>
       <c r="D113" s="51"/>
       <c r="E113" s="25"/>
@@ -16191,35 +16186,35 @@
       <c r="M113" s="27"/>
       <c r="N113" s="25"/>
       <c r="O113" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
       <c r="R113" s="26"/>
       <c r="S113" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T113" s="26"/>
       <c r="U113" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V113" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W113" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="X113" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" ht="168.75">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A114" s="30"/>
       <c r="B114" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D114" s="51" t="s">
         <v>4</v>
@@ -16235,35 +16230,35 @@
       <c r="M114" s="27"/>
       <c r="N114" s="25"/>
       <c r="O114" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="26"/>
       <c r="S114" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T114" s="26"/>
       <c r="U114" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V114" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W114" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="X114" s="24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" ht="101.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A115" s="30"/>
       <c r="B115" s="23" t="s">
-        <v>305</v>
+        <v>671</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D115" s="51"/>
       <c r="E115" s="25"/>
@@ -16272,38 +16267,38 @@
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
       <c r="J115" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
       <c r="M115" s="27"/>
       <c r="N115" s="25"/>
       <c r="O115" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
       <c r="R115" s="26"/>
       <c r="S115" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T115" s="26"/>
       <c r="U115" s="26"/>
       <c r="V115" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W115" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="X115" s="24"/>
     </row>
-    <row r="116" spans="1:24" ht="67.5">
+    <row r="116" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>309</v>
+        <v>672</v>
       </c>
       <c r="D116" s="51"/>
       <c r="E116" s="25"/>
@@ -16312,40 +16307,40 @@
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
       <c r="J116" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
       <c r="M116" s="27"/>
       <c r="N116" s="25"/>
       <c r="O116" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
       <c r="R116" s="26"/>
       <c r="S116" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T116" s="26"/>
       <c r="U116" s="26"/>
       <c r="V116" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X116" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="168.75">
+    <row r="117" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D117" s="51"/>
       <c r="E117" s="25"/>
@@ -16354,37 +16349,37 @@
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
       <c r="J117" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K117" s="26"/>
       <c r="L117" s="26"/>
       <c r="M117" s="27"/>
       <c r="N117" s="25"/>
       <c r="O117" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
       <c r="R117" s="26"/>
       <c r="S117" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T117" s="26"/>
       <c r="U117" s="26"/>
       <c r="V117" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W117" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X117" s="24" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="57" thickBot="1">
+    <row r="118" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="31"/>
       <c r="B118" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>264</v>
@@ -16401,27 +16396,27 @@
       <c r="M118" s="18"/>
       <c r="N118" s="15"/>
       <c r="O118" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="T118" s="12"/>
       <c r="U118" s="12"/>
       <c r="V118" s="18"/>
       <c r="W118" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X118" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A119" s="109" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B119" s="110"/>
       <c r="C119" s="111"/>
@@ -16447,13 +16442,13 @@
       <c r="W119" s="111"/>
       <c r="X119" s="115"/>
     </row>
-    <row r="120" spans="1:24" ht="45">
+    <row r="120" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A120" s="34"/>
       <c r="B120" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="C120" s="36" t="s">
         <v>266</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>267</v>
       </c>
       <c r="D120" s="53"/>
       <c r="E120" s="37"/>
@@ -16467,35 +16462,35 @@
       <c r="M120" s="39"/>
       <c r="N120" s="37"/>
       <c r="O120" s="40" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="38"/>
       <c r="S120" s="38"/>
       <c r="T120" s="38"/>
       <c r="U120" s="38" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V120" s="39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W120" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="X120" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="X120" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" ht="33.75">
+    </row>
+    <row r="121" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A121" s="30"/>
       <c r="B121" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>274</v>
       </c>
       <c r="D121" s="51"/>
       <c r="E121" s="25"/>
@@ -16504,7 +16499,7 @@
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
       <c r="J121" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
@@ -16519,19 +16514,19 @@
       <c r="U121" s="26"/>
       <c r="V121" s="27"/>
       <c r="W121" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="X121" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" ht="67.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A122" s="30"/>
       <c r="B122" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>277</v>
       </c>
       <c r="D122" s="51"/>
       <c r="E122" s="25"/>
@@ -16545,7 +16540,7 @@
       <c r="M122" s="27"/>
       <c r="N122" s="25"/>
       <c r="O122" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P122" s="26"/>
       <c r="Q122" s="26"/>
@@ -16554,27 +16549,27 @@
       <c r="T122" s="26"/>
       <c r="U122" s="26"/>
       <c r="V122" s="27" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W122" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X122" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="45">
+    <row r="123" spans="1:24" ht="45" x14ac:dyDescent="0.15">
       <c r="A123" s="30"/>
       <c r="B123" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D123" s="51"/>
       <c r="E123" s="25"/>
       <c r="F123" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
@@ -16585,10 +16580,10 @@
       <c r="M123" s="27"/>
       <c r="N123" s="25"/>
       <c r="O123" s="33" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P123" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q123" s="26"/>
       <c r="R123" s="26"/>
@@ -16597,11 +16592,11 @@
       <c r="U123" s="26"/>
       <c r="V123" s="27"/>
       <c r="W123" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X123" s="24"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A124" s="30"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
@@ -16627,7 +16622,7 @@
       <c r="W124" s="24"/>
       <c r="X124" s="24"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A125" s="30"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
@@ -16653,7 +16648,7 @@
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A126" s="30"/>
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
@@ -16679,7 +16674,7 @@
       <c r="W126" s="24"/>
       <c r="X126" s="24"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A127" s="30"/>
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
@@ -16705,7 +16700,7 @@
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A128" s="30"/>
       <c r="B128" s="23"/>
       <c r="C128" s="24"/>
@@ -16731,7 +16726,7 @@
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A129" s="30"/>
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
@@ -16757,7 +16752,7 @@
       <c r="W129" s="24"/>
       <c r="X129" s="24"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A130" s="30"/>
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
@@ -16783,7 +16778,7 @@
       <c r="W130" s="24"/>
       <c r="X130" s="24"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A131" s="30"/>
       <c r="B131" s="23"/>
       <c r="C131" s="24"/>
@@ -16809,7 +16804,7 @@
       <c r="W131" s="24"/>
       <c r="X131" s="24"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A132" s="30"/>
       <c r="B132" s="23"/>
       <c r="C132" s="24"/>
@@ -16835,7 +16830,7 @@
       <c r="W132" s="24"/>
       <c r="X132" s="24"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A133" s="30"/>
       <c r="B133" s="23"/>
       <c r="C133" s="24"/>
@@ -16861,7 +16856,7 @@
       <c r="W133" s="24"/>
       <c r="X133" s="24"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A134" s="30"/>
       <c r="B134" s="23"/>
       <c r="C134" s="24"/>
@@ -16887,7 +16882,7 @@
       <c r="W134" s="24"/>
       <c r="X134" s="24"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A135" s="30"/>
       <c r="B135" s="23"/>
       <c r="C135" s="24"/>
@@ -16913,7 +16908,7 @@
       <c r="W135" s="24"/>
       <c r="X135" s="24"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A136" s="30"/>
       <c r="B136" s="23"/>
       <c r="C136" s="24"/>
@@ -16939,7 +16934,7 @@
       <c r="W136" s="24"/>
       <c r="X136" s="24"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A137" s="30"/>
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
@@ -16965,7 +16960,7 @@
       <c r="W137" s="24"/>
       <c r="X137" s="24"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A138" s="30"/>
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
@@ -16991,7 +16986,7 @@
       <c r="W138" s="24"/>
       <c r="X138" s="24"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A139" s="30"/>
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
@@ -17017,7 +17012,7 @@
       <c r="W139" s="24"/>
       <c r="X139" s="24"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A140" s="30"/>
       <c r="B140" s="23"/>
       <c r="C140" s="24"/>
@@ -17043,7 +17038,7 @@
       <c r="W140" s="24"/>
       <c r="X140" s="24"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A141" s="30"/>
       <c r="B141" s="23"/>
       <c r="C141" s="24"/>
@@ -17069,7 +17064,7 @@
       <c r="W141" s="24"/>
       <c r="X141" s="24"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A142" s="30"/>
       <c r="B142" s="23"/>
       <c r="C142" s="24"/>
@@ -17095,7 +17090,7 @@
       <c r="W142" s="24"/>
       <c r="X142" s="24"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A143" s="30"/>
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
@@ -17121,7 +17116,7 @@
       <c r="W143" s="24"/>
       <c r="X143" s="24"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A144" s="30"/>
       <c r="B144" s="23"/>
       <c r="C144" s="24"/>
@@ -17147,7 +17142,7 @@
       <c r="W144" s="24"/>
       <c r="X144" s="24"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A145" s="30"/>
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
@@ -17173,7 +17168,7 @@
       <c r="W145" s="24"/>
       <c r="X145" s="24"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A146" s="30"/>
       <c r="B146" s="23"/>
       <c r="C146" s="24"/>
@@ -17199,7 +17194,7 @@
       <c r="W146" s="24"/>
       <c r="X146" s="24"/>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A147" s="30"/>
       <c r="B147" s="23"/>
       <c r="C147" s="24"/>
@@ -17225,7 +17220,7 @@
       <c r="W147" s="24"/>
       <c r="X147" s="24"/>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A148" s="30"/>
       <c r="B148" s="23"/>
       <c r="C148" s="24"/>
@@ -17251,7 +17246,7 @@
       <c r="W148" s="24"/>
       <c r="X148" s="24"/>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A149" s="30"/>
       <c r="B149" s="23"/>
       <c r="C149" s="24"/>
@@ -17277,7 +17272,7 @@
       <c r="W149" s="24"/>
       <c r="X149" s="24"/>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A150" s="30"/>
       <c r="B150" s="23"/>
       <c r="C150" s="24"/>
@@ -17303,7 +17298,7 @@
       <c r="W150" s="24"/>
       <c r="X150" s="24"/>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A151" s="30"/>
       <c r="B151" s="23"/>
       <c r="C151" s="24"/>
@@ -17329,7 +17324,7 @@
       <c r="W151" s="24"/>
       <c r="X151" s="24"/>
     </row>
-    <row r="152" spans="1:24" ht="12" thickBot="1">
+    <row r="152" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="31"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
@@ -17471,197 +17466,197 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A8" s="44">
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="44">
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="44">
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="44">
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="44">
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="44">
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="44">
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="44">
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="44">
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -17689,7 +17684,7 @@
       <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -17698,105 +17693,105 @@
     <col min="26" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="116" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="117"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" s="118" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>596</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="121" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="122"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="123" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="126" t="s">
-        <v>448</v>
-      </c>
-      <c r="E4" s="126" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="126" t="s">
+      <c r="J4" s="121" t="s">
         <v>600</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="K4" s="121" t="s">
+        <v>494</v>
+      </c>
+      <c r="L4" s="121" t="s">
         <v>601</v>
       </c>
-      <c r="H4" s="126" t="s">
+      <c r="M4" s="121" t="s">
         <v>602</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="N4" s="121" t="s">
         <v>603</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="O4" s="121" t="s">
+        <v>566</v>
+      </c>
+      <c r="P4" s="121" t="s">
         <v>604</v>
       </c>
-      <c r="K4" s="126" t="s">
-        <v>498</v>
-      </c>
-      <c r="L4" s="126" t="s">
+      <c r="Q4" s="121" t="s">
         <v>605</v>
       </c>
-      <c r="M4" s="126" t="s">
+      <c r="R4" s="121" t="s">
         <v>606</v>
       </c>
-      <c r="N4" s="126" t="s">
+      <c r="S4" s="121" t="s">
         <v>607</v>
       </c>
-      <c r="O4" s="126" t="s">
-        <v>570</v>
-      </c>
-      <c r="P4" s="126" t="s">
+      <c r="T4" s="121" t="s">
         <v>608</v>
       </c>
-      <c r="Q4" s="126" t="s">
+      <c r="U4" s="121" t="s">
         <v>609</v>
       </c>
-      <c r="R4" s="126" t="s">
+      <c r="V4" s="121" t="s">
         <v>610</v>
       </c>
-      <c r="S4" s="126" t="s">
+      <c r="W4" s="121" t="s">
         <v>611</v>
       </c>
-      <c r="T4" s="126" t="s">
+      <c r="X4" s="121" t="s">
         <v>612</v>
       </c>
-      <c r="U4" s="126" t="s">
-        <v>613</v>
-      </c>
-      <c r="V4" s="126" t="s">
-        <v>614</v>
-      </c>
-      <c r="W4" s="126" t="s">
-        <v>615</v>
-      </c>
-      <c r="X4" s="126" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y4" s="126" t="s">
+      <c r="Y4" s="121" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A5" s="127">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="122">
         <v>1</v>
       </c>
-      <c r="B5" s="128" t="s">
-        <v>640</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>641</v>
+      <c r="B5" s="123" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>637</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -17816,22 +17811,22 @@
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
     </row>
-    <row r="6" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A6" s="127">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
-      <c r="B6" s="128" t="s">
-        <v>617</v>
-      </c>
-      <c r="C6" s="129" t="s">
-        <v>642</v>
+      <c r="B6" s="123" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>638</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -17853,63 +17848,63 @@
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
       <c r="W6" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
     </row>
-    <row r="7" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A7" s="127">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="122">
         <v>3</v>
       </c>
-      <c r="B7" s="128" t="s">
-        <v>618</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>644</v>
+      <c r="B7" s="123" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>640</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
@@ -17919,15 +17914,15 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
     </row>
-    <row r="8" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A8" s="127">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="122">
         <v>4</v>
       </c>
-      <c r="B8" s="128" t="s">
-        <v>619</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>643</v>
+      <c r="B8" s="123" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>639</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -17952,15 +17947,15 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
     </row>
-    <row r="9" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A9" s="127">
+    <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="122">
         <v>5</v>
       </c>
-      <c r="B9" s="128" t="s">
-        <v>620</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>645</v>
+      <c r="B9" s="123" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>641</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
@@ -17978,10 +17973,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="U9" s="44"/>
       <c r="V9" s="44"/>
@@ -17989,15 +17984,15 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
     </row>
-    <row r="10" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A10" s="127">
+    <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="122">
         <v>6</v>
       </c>
-      <c r="B10" s="128" t="s">
-        <v>621</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>646</v>
+      <c r="B10" s="123" t="s">
+        <v>617</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>642</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
@@ -18022,15 +18017,15 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
     </row>
-    <row r="11" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A11" s="127">
+    <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="122">
         <v>7</v>
       </c>
-      <c r="B11" s="128" t="s">
-        <v>622</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>647</v>
+      <c r="B11" s="123" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>643</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -18055,15 +18050,15 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
     </row>
-    <row r="12" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A12" s="127">
+    <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="122">
         <v>8</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="129" t="s">
-        <v>648</v>
+      <c r="C12" s="124" t="s">
+        <v>644</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -18088,15 +18083,15 @@
       <c r="X12" s="44"/>
       <c r="Y12" s="44"/>
     </row>
-    <row r="13" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A13" s="127">
+    <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="122">
         <v>9</v>
       </c>
-      <c r="B13" s="128" t="s">
-        <v>623</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>649</v>
+      <c r="B13" s="123" t="s">
+        <v>619</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>645</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -18117,23 +18112,23 @@
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W13" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
     </row>
-    <row r="14" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A14" s="127">
+    <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="122">
         <v>10</v>
       </c>
-      <c r="B14" s="128" t="s">
-        <v>624</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>650</v>
+      <c r="B14" s="123" t="s">
+        <v>620</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>646</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -18154,23 +18149,23 @@
       <c r="T14" s="44"/>
       <c r="U14" s="44"/>
       <c r="V14" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W14" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
     </row>
-    <row r="15" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A15" s="127">
+    <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="122">
         <v>11</v>
       </c>
-      <c r="B15" s="128" t="s">
-        <v>625</v>
-      </c>
-      <c r="C15" s="129" t="s">
-        <v>651</v>
+      <c r="B15" s="123" t="s">
+        <v>621</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>647</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
@@ -18191,23 +18186,23 @@
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W15" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
     </row>
-    <row r="16" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A16" s="127">
+    <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="122">
         <v>12</v>
       </c>
-      <c r="B16" s="128" t="s">
-        <v>626</v>
-      </c>
-      <c r="C16" s="129" t="s">
-        <v>652</v>
+      <c r="B16" s="123" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>648</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -18228,23 +18223,23 @@
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
       <c r="V16" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W16" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
     </row>
-    <row r="17" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A17" s="127">
+    <row r="17" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="122">
         <v>13</v>
       </c>
-      <c r="B17" s="128" t="s">
-        <v>627</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>653</v>
+      <c r="B17" s="123" t="s">
+        <v>623</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>649</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -18265,23 +18260,23 @@
       <c r="T17" s="44"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W17" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
     </row>
-    <row r="18" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A18" s="127">
+    <row r="18" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="122">
         <v>14</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="129" t="s">
-        <v>654</v>
+      <c r="C18" s="124" t="s">
+        <v>650</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -18303,61 +18298,61 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
     </row>
-    <row r="19" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A19" s="127">
+    <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="122">
         <v>15</v>
       </c>
-      <c r="B19" s="128" t="s">
-        <v>628</v>
-      </c>
-      <c r="C19" s="129" t="s">
-        <v>655</v>
+      <c r="B19" s="123" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>651</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J19" s="44"/>
       <c r="K19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
@@ -18367,15 +18362,15 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
     </row>
-    <row r="20" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A20" s="127">
+    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="122">
         <v>16</v>
       </c>
-      <c r="B20" s="128" t="s">
-        <v>629</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>656</v>
+      <c r="B20" s="123" t="s">
+        <v>625</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>652</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
@@ -18385,25 +18380,25 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -18414,34 +18409,34 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
     </row>
-    <row r="21" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A21" s="127">
+    <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="122">
         <v>17</v>
       </c>
-      <c r="B21" s="128" t="s">
-        <v>630</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>657</v>
+      <c r="B21" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>653</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
@@ -18459,15 +18454,15 @@
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
     </row>
-    <row r="22" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A22" s="127">
+    <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="122">
         <v>18</v>
       </c>
-      <c r="B22" s="128" t="s">
-        <v>631</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>658</v>
+      <c r="B22" s="123" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>654</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -18477,25 +18472,25 @@
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
@@ -18506,15 +18501,15 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
     </row>
-    <row r="23" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A23" s="127">
+    <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="122">
         <v>19</v>
       </c>
-      <c r="B23" s="128" t="s">
-        <v>632</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>659</v>
+      <c r="B23" s="123" t="s">
+        <v>628</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>655</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -18539,15 +18534,15 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
     </row>
-    <row r="24" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A24" s="127">
+    <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="122">
         <v>20</v>
       </c>
-      <c r="B24" s="128" t="s">
-        <v>633</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>660</v>
+      <c r="B24" s="123" t="s">
+        <v>629</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>656</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
@@ -18567,118 +18562,118 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
       <c r="X24" s="44"/>
       <c r="Y24" s="44"/>
     </row>
-    <row r="25" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A25" s="127">
+    <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="122">
         <v>21</v>
       </c>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="129" t="s">
-        <v>661</v>
+      <c r="C25" s="124" t="s">
+        <v>657</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="S25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="T25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="U25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X25" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Y25" s="44" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A26" s="127">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="122">
         <v>22</v>
       </c>
-      <c r="B26" s="128" t="s">
-        <v>634</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>662</v>
+      <c r="B26" s="123" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>658</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
@@ -18696,34 +18691,34 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
     </row>
-    <row r="27" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A27" s="127">
+    <row r="27" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="122">
         <v>23</v>
       </c>
-      <c r="B27" s="128" t="s">
-        <v>635</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>663</v>
+      <c r="B27" s="123" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>659</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
@@ -18741,52 +18736,52 @@
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
     </row>
-    <row r="28" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A28" s="127">
+    <row r="28" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="122">
         <v>24</v>
       </c>
-      <c r="B28" s="128" t="s">
-        <v>636</v>
-      </c>
-      <c r="C28" s="129" t="s">
-        <v>664</v>
+      <c r="B28" s="123" t="s">
+        <v>632</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>660</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -18798,97 +18793,97 @@
       <c r="X28" s="44"/>
       <c r="Y28" s="44"/>
     </row>
-    <row r="29" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A29" s="127">
+    <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="122">
         <v>25</v>
       </c>
-      <c r="B29" s="128" t="s">
-        <v>637</v>
-      </c>
-      <c r="C29" s="129" t="s">
-        <v>665</v>
+      <c r="B29" s="123" t="s">
+        <v>633</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>661</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="T29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="U29" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
       <c r="X29" s="44"/>
       <c r="Y29" s="44"/>
     </row>
-    <row r="30" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A30" s="127">
+    <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="122">
         <v>26</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="129" t="s">
-        <v>666</v>
+      <c r="C30" s="124" t="s">
+        <v>662</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
@@ -18906,15 +18901,15 @@
       <c r="X30" s="44"/>
       <c r="Y30" s="44"/>
     </row>
-    <row r="31" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A31" s="127">
+    <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="122">
         <v>27</v>
       </c>
-      <c r="B31" s="128" t="s">
-        <v>671</v>
-      </c>
-      <c r="C31" s="129" t="s">
-        <v>672</v>
+      <c r="B31" s="123" t="s">
+        <v>667</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>668</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -18936,20 +18931,20 @@
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
       <c r="W31" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X31" s="44"/>
       <c r="Y31" s="44"/>
     </row>
-    <row r="32" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A32" s="127">
+    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="122">
         <v>28</v>
       </c>
-      <c r="B32" s="128" t="s">
-        <v>670</v>
-      </c>
-      <c r="C32" s="129" t="s">
-        <v>673</v>
+      <c r="B32" s="123" t="s">
+        <v>666</v>
+      </c>
+      <c r="C32" s="124" t="s">
+        <v>669</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
@@ -18959,25 +18954,25 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q32" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
@@ -18988,92 +18983,92 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
     </row>
-    <row r="33" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A33" s="127">
+    <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="122">
         <v>29</v>
       </c>
-      <c r="B33" s="128" t="s">
-        <v>638</v>
-      </c>
-      <c r="C33" s="129" t="s">
-        <v>667</v>
+      <c r="B33" s="123" t="s">
+        <v>634</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>663</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="N33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="S33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="T33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="U33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="W33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X33" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Y33" s="44" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A34" s="127">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="122">
         <v>30</v>
       </c>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="129" t="s">
-        <v>668</v>
+      <c r="C34" s="124" t="s">
+        <v>664</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -19095,7 +19090,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="44"/>
       <c r="W34" s="44" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="X34" s="44"/>
       <c r="Y34" s="44"/>
@@ -19122,27 +19117,27 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1">
+    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1">
+    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
@@ -19153,7 +19148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1">
+    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -19164,7 +19159,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1">
+    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -19175,7 +19170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1">
+    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -19186,7 +19181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1">
+    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -19197,7 +19192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1">
+    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -19208,7 +19203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1">
+    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -19219,7 +19214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1">
+    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -19230,7 +19225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1">
+    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -19241,7 +19236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1">
+    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -19252,7 +19247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1">
+    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -19263,7 +19258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1">
+    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -19274,7 +19269,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1">
+    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -19285,7 +19280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1">
+    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -19296,7 +19291,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1">
+    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -19307,7 +19302,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1">
+    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -19318,7 +19313,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1">
+    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -19329,17 +19324,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1">
+    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="80" t="s">
         <v>22</v>
       </c>
@@ -19350,7 +19345,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -19361,40 +19356,40 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="81">
         <v>2</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="81">
         <v>3</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1">
+    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87">
         <v>4</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1">
+    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -19405,7 +19400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -19416,7 +19411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -19427,7 +19422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -19438,7 +19433,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -19449,7 +19444,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -19460,7 +19455,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1">
+    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -19471,7 +19466,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1">
+    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -19482,7 +19477,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1">
+    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -19493,7 +19488,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -19504,51 +19499,51 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="81">
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="81">
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="81">
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1">
+    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87">
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -19559,7 +19554,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -19570,7 +19565,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -19581,7 +19576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -19592,7 +19587,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1">
+    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -19603,7 +19598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1">
+    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -19614,7 +19609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1">
+    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -19625,7 +19620,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1">
+    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -19636,7 +19631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1">
+    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -19647,7 +19642,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1">
+    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -19658,7 +19653,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -19669,40 +19664,40 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="81">
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="81">
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1">
+    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="87">
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1">
+    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -19713,7 +19708,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -19724,62 +19719,62 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="81">
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="81">
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="81">
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="81">
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1">
+    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="85">
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -19790,51 +19785,51 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="81">
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="81">
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="81">
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1">
+    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="85">
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -19845,29 +19840,29 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="81">
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1">
+    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="87">
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1">
+    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -19878,7 +19873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -19889,7 +19884,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -19900,29 +19895,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="81">
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1">
+    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="87">
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1">
+    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -19933,7 +19928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1">
+    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -19944,7 +19939,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -19955,106 +19950,106 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="81">
         <v>56</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C79" s="83" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="81">
         <v>57</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C80" s="83" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="81">
         <v>58</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C81" s="83" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="81">
         <v>59</v>
       </c>
       <c r="B82" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C82" s="83" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="81">
         <v>60</v>
       </c>
       <c r="B83" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C83" s="83" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="81">
         <v>61</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C84" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="81">
         <v>62</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C85" s="83" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="81">
         <v>63</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C86" s="83" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1">
+    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="87">
         <v>64</v>
       </c>
       <c r="B87" s="101" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C87" s="82" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1">
+    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -20065,7 +20060,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1">
+    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -20076,7 +20071,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -20087,18 +20082,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1">
+    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="87">
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1">
+    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -20109,7 +20104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -20120,7 +20115,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -20131,7 +20126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -20142,7 +20137,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -20153,7 +20148,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -20164,7 +20159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -20175,7 +20170,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -20186,7 +20181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -20197,7 +20192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -20208,7 +20203,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -20219,7 +20214,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1">
+    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -20230,7 +20225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -20241,7 +20236,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -20252,7 +20247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -20263,7 +20258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -20274,7 +20269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -20285,7 +20280,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -20296,7 +20291,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -20307,7 +20302,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -20318,7 +20313,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -20329,7 +20324,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -20340,7 +20335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1">
+    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -20351,7 +20346,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -20362,7 +20357,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -20373,7 +20368,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -20384,7 +20379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1">
+    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -20395,7 +20390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -20406,7 +20401,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -20417,7 +20412,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -20428,7 +20423,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -20439,7 +20434,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -20450,7 +20445,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -20461,7 +20456,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -20472,7 +20467,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -20483,7 +20478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -20494,7 +20489,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1">
+    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -20505,7 +20500,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -20516,7 +20511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -20527,7 +20522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -20538,7 +20533,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1">
+    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -20549,7 +20544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -20560,7 +20555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -20571,7 +20566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -20582,7 +20577,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -20593,7 +20588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1">
+    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -20604,7 +20599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -20615,7 +20610,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1">
+    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -20648,78 +20643,78 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -20730,7 +20725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -20741,7 +20736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -20752,7 +20747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -20763,7 +20758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -20774,63 +20769,63 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="107" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -20841,7 +20836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -20852,7 +20847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -20863,7 +20858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -20874,7 +20869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5">
+    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -20885,122 +20880,122 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="107" t="s">
         <v>89</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$123</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">要素一覧!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
@@ -27,7 +32,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10402,7 +10407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -11747,7 +11752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11758,16 +11763,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X152"/>
+  <dimension ref="A1:X123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="W119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A123" sqref="A123"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -11778,7 +11783,7 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="127" t="s">
         <v>343</v>
       </c>
@@ -11820,7 +11825,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="12" thickBot="1">
       <c r="A2" s="127"/>
       <c r="B2" s="126"/>
       <c r="C2" s="125"/>
@@ -11882,7 +11887,7 @@
       <c r="W2" s="125"/>
       <c r="X2" s="125"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>357</v>
@@ -11918,7 +11923,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29"/>
       <c r="B4" s="4" t="s">
         <v>360</v>
@@ -11956,7 +11961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>363</v>
@@ -11992,7 +11997,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
         <v>365</v>
@@ -12030,7 +12035,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29"/>
       <c r="B7" s="4" t="s">
         <v>368</v>
@@ -12068,7 +12073,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29"/>
       <c r="B8" s="4" t="s">
         <v>370</v>
@@ -12106,7 +12111,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
         <v>373</v>
@@ -12144,7 +12149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28"/>
       <c r="B10" s="60" t="s">
         <v>373</v>
@@ -12180,7 +12185,7 @@
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30"/>
       <c r="B11" s="23" t="s">
         <v>377</v>
@@ -12220,7 +12225,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
         <v>380</v>
@@ -12260,7 +12265,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
         <v>559</v>
       </c>
@@ -12288,7 +12293,7 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>384</v>
@@ -12326,7 +12331,7 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30"/>
       <c r="B15" s="23" t="s">
         <v>385</v>
@@ -12366,7 +12371,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30"/>
       <c r="B16" s="23" t="s">
         <v>386</v>
@@ -12406,7 +12411,7 @@
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30"/>
       <c r="B17" s="23" t="s">
         <v>387</v>
@@ -12446,7 +12451,7 @@
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30"/>
       <c r="B18" s="23" t="s">
         <v>388</v>
@@ -12486,7 +12491,7 @@
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30"/>
       <c r="B19" s="23" t="s">
         <v>389</v>
@@ -12526,7 +12531,7 @@
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30"/>
       <c r="B20" s="23" t="s">
         <v>391</v>
@@ -12566,7 +12571,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30"/>
       <c r="B21" s="23" t="s">
         <v>393</v>
@@ -12604,7 +12609,7 @@
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31"/>
       <c r="B22" s="6" t="s">
         <v>394</v>
@@ -12644,7 +12649,7 @@
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
         <v>560</v>
       </c>
@@ -12672,7 +12677,7 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
         <v>395</v>
@@ -12712,7 +12717,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30"/>
       <c r="B25" s="23" t="s">
         <v>398</v>
@@ -12750,7 +12755,7 @@
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30"/>
       <c r="B26" s="23" t="s">
         <v>399</v>
@@ -12790,7 +12795,7 @@
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30"/>
       <c r="B27" s="23" t="s">
         <v>402</v>
@@ -12828,7 +12833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30"/>
       <c r="B28" s="23" t="s">
         <v>405</v>
@@ -12866,7 +12871,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30"/>
       <c r="B29" s="23" t="s">
         <v>407</v>
@@ -12904,7 +12909,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30"/>
       <c r="B30" s="23" t="s">
         <v>410</v>
@@ -12942,7 +12947,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30"/>
       <c r="B31" s="23" t="s">
         <v>411</v>
@@ -12980,7 +12985,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30"/>
       <c r="B32" s="23" t="s">
         <v>412</v>
@@ -13018,7 +13023,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30"/>
       <c r="B33" s="23" t="s">
         <v>413</v>
@@ -13056,7 +13061,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30"/>
       <c r="B34" s="23" t="s">
         <v>415</v>
@@ -13094,7 +13099,7 @@
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
         <v>417</v>
@@ -13134,7 +13139,7 @@
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30"/>
       <c r="B36" s="23" t="s">
         <v>420</v>
@@ -13174,7 +13179,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31"/>
       <c r="B37" s="6" t="s">
         <v>422</v>
@@ -13210,7 +13215,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24">
       <c r="A38" s="109" t="s">
         <v>582</v>
       </c>
@@ -13238,7 +13243,7 @@
       <c r="W38" s="111"/>
       <c r="X38" s="115"/>
     </row>
-    <row r="39" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="157.5">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
         <v>425</v>
@@ -13280,7 +13285,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="45">
       <c r="A40" s="30"/>
       <c r="B40" s="23" t="s">
         <v>427</v>
@@ -13320,7 +13325,7 @@
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
         <v>428</v>
@@ -13360,7 +13365,7 @@
       </c>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="33.75">
       <c r="A42" s="30"/>
       <c r="B42" s="23" t="s">
         <v>460</v>
@@ -13400,7 +13405,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="45">
       <c r="A43" s="30"/>
       <c r="B43" s="23" t="s">
         <v>565</v>
@@ -13440,7 +13445,7 @@
       </c>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="101.25">
       <c r="A44" s="30"/>
       <c r="B44" s="23" t="s">
         <v>566</v>
@@ -13482,7 +13487,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30"/>
       <c r="B45" s="23" t="s">
         <v>462</v>
@@ -13522,7 +13527,7 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="45">
       <c r="A46" s="30"/>
       <c r="B46" s="23" t="s">
         <v>568</v>
@@ -13562,7 +13567,7 @@
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="67.5">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
         <v>463</v>
@@ -13602,7 +13607,7 @@
       </c>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30"/>
       <c r="B48" s="23" t="s">
         <v>464</v>
@@ -13644,7 +13649,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="45">
       <c r="A49" s="30"/>
       <c r="B49" s="23" t="s">
         <v>465</v>
@@ -13684,7 +13689,7 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
         <v>466</v>
@@ -13724,7 +13729,7 @@
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30"/>
       <c r="B51" s="23" t="s">
         <v>468</v>
@@ -13764,7 +13769,7 @@
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30"/>
       <c r="B52" s="23" t="s">
         <v>571</v>
@@ -13804,7 +13809,7 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="33.75">
       <c r="A53" s="30"/>
       <c r="B53" s="23" t="s">
         <v>572</v>
@@ -13844,7 +13849,7 @@
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
         <v>573</v>
@@ -13884,7 +13889,7 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="22.5">
       <c r="A55" s="30"/>
       <c r="B55" s="23" t="s">
         <v>472</v>
@@ -13924,7 +13929,7 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="56.25">
       <c r="A56" s="30"/>
       <c r="B56" s="23" t="s">
         <v>475</v>
@@ -13964,7 +13969,7 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="45">
       <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
         <v>476</v>
@@ -14004,7 +14009,7 @@
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30"/>
       <c r="B58" s="23" t="s">
         <v>477</v>
@@ -14044,7 +14049,7 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="33.75">
       <c r="A59" s="30"/>
       <c r="B59" s="23" t="s">
         <v>478</v>
@@ -14084,7 +14089,7 @@
       </c>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="45">
       <c r="A60" s="30"/>
       <c r="B60" s="23" t="s">
         <v>480</v>
@@ -14126,7 +14131,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
         <v>482</v>
@@ -14162,7 +14167,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30"/>
       <c r="B62" s="23" t="s">
         <v>485</v>
@@ -14198,7 +14203,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30"/>
       <c r="B63" s="23" t="s">
         <v>574</v>
@@ -14234,7 +14239,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="33.75">
       <c r="A64" s="30"/>
       <c r="B64" s="23" t="s">
         <v>575</v>
@@ -14274,7 +14279,7 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="22.5">
       <c r="A65" s="30"/>
       <c r="B65" s="23" t="s">
         <v>488</v>
@@ -14314,7 +14319,7 @@
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="33.75">
       <c r="A66" s="30"/>
       <c r="B66" s="23" t="s">
         <v>577</v>
@@ -14352,7 +14357,7 @@
       </c>
       <c r="X66" s="24"/>
     </row>
-    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30"/>
       <c r="B67" s="23" t="s">
         <v>578</v>
@@ -14392,7 +14397,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="67.5">
       <c r="A68" s="30"/>
       <c r="B68" s="23" t="s">
         <v>579</v>
@@ -14430,7 +14435,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="34.5" thickBot="1">
       <c r="A69" s="31"/>
       <c r="B69" s="6" t="s">
         <v>496</v>
@@ -14468,7 +14473,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24">
       <c r="A70" s="109" t="s">
         <v>583</v>
       </c>
@@ -14496,7 +14501,7 @@
       <c r="W70" s="111"/>
       <c r="X70" s="115"/>
     </row>
-    <row r="71" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="157.5">
       <c r="A71" s="34"/>
       <c r="B71" s="35" t="s">
         <v>497</v>
@@ -14540,7 +14545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="191.25">
       <c r="A72" s="30"/>
       <c r="B72" s="23" t="s">
         <v>500</v>
@@ -14584,7 +14589,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="112.5">
       <c r="A73" s="30"/>
       <c r="B73" s="23" t="s">
         <v>584</v>
@@ -14630,7 +14635,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="213.75">
       <c r="A74" s="30"/>
       <c r="B74" s="23" t="s">
         <v>319</v>
@@ -14674,7 +14679,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="67.5">
       <c r="A75" s="30"/>
       <c r="B75" s="23" t="s">
         <v>321</v>
@@ -14710,7 +14715,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="258.75">
       <c r="A76" s="30"/>
       <c r="B76" s="23" t="s">
         <v>324</v>
@@ -14754,7 +14759,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="213.75">
       <c r="A77" s="30"/>
       <c r="B77" s="23" t="s">
         <v>326</v>
@@ -14798,7 +14803,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="90">
       <c r="A78" s="30"/>
       <c r="B78" s="23" t="s">
         <v>330</v>
@@ -14834,7 +14839,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="135">
       <c r="A79" s="30"/>
       <c r="B79" s="23" t="s">
         <v>332</v>
@@ -14870,7 +14875,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="67.5">
       <c r="A80" s="30"/>
       <c r="B80" s="23" t="s">
         <v>334</v>
@@ -14912,7 +14917,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="67.5">
       <c r="A81" s="30"/>
       <c r="B81" s="23" t="s">
         <v>337</v>
@@ -14952,7 +14957,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="225">
       <c r="A82" s="30"/>
       <c r="B82" s="23" t="s">
         <v>339</v>
@@ -14992,7 +14997,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="23.25" thickBot="1">
       <c r="A83" s="31"/>
       <c r="B83" s="6" t="s">
         <v>341</v>
@@ -15028,7 +15033,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24">
       <c r="A84" s="109" t="s">
         <v>586</v>
       </c>
@@ -15056,7 +15061,7 @@
       <c r="W84" s="111"/>
       <c r="X84" s="115"/>
     </row>
-    <row r="85" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="101.25">
       <c r="A85" s="34"/>
       <c r="B85" s="35" t="s">
         <v>538</v>
@@ -15094,7 +15099,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="67.5">
       <c r="A86" s="30"/>
       <c r="B86" s="23" t="s">
         <v>548</v>
@@ -15130,7 +15135,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="67.5">
       <c r="A87" s="30"/>
       <c r="B87" s="23" t="s">
         <v>525</v>
@@ -15166,7 +15171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="56.25">
       <c r="A88" s="30"/>
       <c r="B88" s="23" t="s">
         <v>3</v>
@@ -15202,7 +15207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30"/>
       <c r="B89" s="23" t="s">
         <v>524</v>
@@ -15238,7 +15243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="56.25">
       <c r="A90" s="30"/>
       <c r="B90" s="23" t="s">
         <v>10</v>
@@ -15272,7 +15277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="45">
       <c r="A91" s="30"/>
       <c r="B91" s="23" t="s">
         <v>531</v>
@@ -15314,7 +15319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="56.25">
       <c r="A92" s="30"/>
       <c r="B92" s="23" t="s">
         <v>526</v>
@@ -15350,7 +15355,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="157.5">
       <c r="A93" s="30"/>
       <c r="B93" s="23" t="s">
         <v>528</v>
@@ -15388,7 +15393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="90.75" thickBot="1">
       <c r="A94" s="31"/>
       <c r="B94" s="6" t="s">
         <v>527</v>
@@ -15426,7 +15431,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24">
       <c r="A95" s="109" t="s">
         <v>592</v>
       </c>
@@ -15454,7 +15459,7 @@
       <c r="W95" s="111"/>
       <c r="X95" s="115"/>
     </row>
-    <row r="96" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="202.5">
       <c r="A96" s="34"/>
       <c r="B96" s="35" t="s">
         <v>12</v>
@@ -15494,7 +15499,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="90">
       <c r="A97" s="30"/>
       <c r="B97" s="23" t="s">
         <v>14</v>
@@ -15536,7 +15541,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="45">
       <c r="A98" s="30"/>
       <c r="B98" s="23" t="s">
         <v>16</v>
@@ -15572,7 +15577,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="67.5">
       <c r="A99" s="30"/>
       <c r="B99" s="23" t="s">
         <v>18</v>
@@ -15616,7 +15621,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="101.25">
       <c r="A100" s="30"/>
       <c r="B100" s="23" t="s">
         <v>20</v>
@@ -15660,7 +15665,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" ht="112.5">
       <c r="A101" s="34"/>
       <c r="B101" s="64" t="s">
         <v>242</v>
@@ -15704,7 +15709,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="101.25">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
         <v>533</v>
@@ -15748,7 +15753,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="78.75">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
         <v>533</v>
@@ -15792,7 +15797,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="78.75">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
         <v>533</v>
@@ -15836,7 +15841,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="101.25">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
         <v>533</v>
@@ -15880,7 +15885,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="123.75">
       <c r="A106" s="71"/>
       <c r="B106" s="64" t="s">
         <v>533</v>
@@ -15924,7 +15929,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="123.75">
       <c r="A107" s="61"/>
       <c r="B107" s="60" t="s">
         <v>533</v>
@@ -15966,7 +15971,7 @@
       </c>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="135">
       <c r="A108" s="30"/>
       <c r="B108" s="23" t="s">
         <v>279</v>
@@ -16010,7 +16015,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="146.25">
       <c r="A109" s="28"/>
       <c r="B109" s="60" t="s">
         <v>252</v>
@@ -16052,7 +16057,7 @@
       </c>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="157.5">
       <c r="A110" s="30"/>
       <c r="B110" s="23" t="s">
         <v>284</v>
@@ -16094,7 +16099,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="112.5">
       <c r="A111" s="30"/>
       <c r="B111" s="23" t="s">
         <v>530</v>
@@ -16130,7 +16135,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="67.5">
       <c r="A112" s="30"/>
       <c r="B112" s="23" t="s">
         <v>529</v>
@@ -16166,7 +16171,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="270">
       <c r="A113" s="30"/>
       <c r="B113" s="23" t="s">
         <v>295</v>
@@ -16208,7 +16213,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" ht="168.75">
       <c r="A114" s="30"/>
       <c r="B114" s="23" t="s">
         <v>299</v>
@@ -16252,7 +16257,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24" ht="101.25">
       <c r="A115" s="30"/>
       <c r="B115" s="23" t="s">
         <v>671</v>
@@ -16292,7 +16297,7 @@
       </c>
       <c r="X115" s="24"/>
     </row>
-    <row r="116" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24" ht="67.5">
       <c r="A116" s="30"/>
       <c r="B116" s="23" t="s">
         <v>305</v>
@@ -16334,7 +16339,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" ht="168.75">
       <c r="A117" s="30"/>
       <c r="B117" s="23" t="s">
         <v>306</v>
@@ -16376,7 +16381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="57" thickBot="1">
       <c r="A118" s="31"/>
       <c r="B118" s="6" t="s">
         <v>308</v>
@@ -16414,7 +16419,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24">
       <c r="A119" s="109" t="s">
         <v>593</v>
       </c>
@@ -16442,7 +16447,7 @@
       <c r="W119" s="111"/>
       <c r="X119" s="115"/>
     </row>
-    <row r="120" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24" ht="45">
       <c r="A120" s="34"/>
       <c r="B120" s="35" t="s">
         <v>673</v>
@@ -16484,7 +16489,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24" ht="33.75">
       <c r="A121" s="30"/>
       <c r="B121" s="23" t="s">
         <v>272</v>
@@ -16520,7 +16525,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24" ht="67.5">
       <c r="A122" s="30"/>
       <c r="B122" s="23" t="s">
         <v>674</v>
@@ -16558,800 +16563,46 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="45" x14ac:dyDescent="0.15">
-      <c r="A123" s="30"/>
-      <c r="B123" s="23" t="s">
+    <row r="123" spans="1:24" ht="45.75" thickBot="1">
+      <c r="A123" s="31"/>
+      <c r="B123" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D123" s="51"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="26" t="s">
+      <c r="D123" s="52"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="26"/>
-      <c r="L123" s="26"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="33" t="s">
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="P123" s="26" t="s">
+      <c r="P123" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="Q123" s="26"/>
-      <c r="R123" s="26"/>
-      <c r="S123" s="26"/>
-      <c r="T123" s="26"/>
-      <c r="U123" s="26"/>
-      <c r="V123" s="27"/>
-      <c r="W123" s="24" t="s">
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="18"/>
+      <c r="W123" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="X123" s="24"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A124" s="30"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
-      <c r="L124" s="26"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="33"/>
-      <c r="P124" s="26"/>
-      <c r="Q124" s="26"/>
-      <c r="R124" s="26"/>
-      <c r="S124" s="26"/>
-      <c r="T124" s="26"/>
-      <c r="U124" s="26"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="24"/>
-      <c r="X124" s="24"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A125" s="30"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="26"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="25"/>
-      <c r="O125" s="33"/>
-      <c r="P125" s="26"/>
-      <c r="Q125" s="26"/>
-      <c r="R125" s="26"/>
-      <c r="S125" s="26"/>
-      <c r="T125" s="26"/>
-      <c r="U125" s="26"/>
-      <c r="V125" s="27"/>
-      <c r="W125" s="24"/>
-      <c r="X125" s="24"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A126" s="30"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="33"/>
-      <c r="P126" s="26"/>
-      <c r="Q126" s="26"/>
-      <c r="R126" s="26"/>
-      <c r="S126" s="26"/>
-      <c r="T126" s="26"/>
-      <c r="U126" s="26"/>
-      <c r="V126" s="27"/>
-      <c r="W126" s="24"/>
-      <c r="X126" s="24"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A127" s="30"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="33"/>
-      <c r="P127" s="26"/>
-      <c r="Q127" s="26"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="26"/>
-      <c r="T127" s="26"/>
-      <c r="U127" s="26"/>
-      <c r="V127" s="27"/>
-      <c r="W127" s="24"/>
-      <c r="X127" s="24"/>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="25"/>
-      <c r="O128" s="33"/>
-      <c r="P128" s="26"/>
-      <c r="Q128" s="26"/>
-      <c r="R128" s="26"/>
-      <c r="S128" s="26"/>
-      <c r="T128" s="26"/>
-      <c r="U128" s="26"/>
-      <c r="V128" s="27"/>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24"/>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A129" s="30"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="25"/>
-      <c r="O129" s="33"/>
-      <c r="P129" s="26"/>
-      <c r="Q129" s="26"/>
-      <c r="R129" s="26"/>
-      <c r="S129" s="26"/>
-      <c r="T129" s="26"/>
-      <c r="U129" s="26"/>
-      <c r="V129" s="27"/>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24"/>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A130" s="30"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="26"/>
-      <c r="K130" s="26"/>
-      <c r="L130" s="26"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="25"/>
-      <c r="O130" s="33"/>
-      <c r="P130" s="26"/>
-      <c r="Q130" s="26"/>
-      <c r="R130" s="26"/>
-      <c r="S130" s="26"/>
-      <c r="T130" s="26"/>
-      <c r="U130" s="26"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24"/>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A131" s="30"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="33"/>
-      <c r="P131" s="26"/>
-      <c r="Q131" s="26"/>
-      <c r="R131" s="26"/>
-      <c r="S131" s="26"/>
-      <c r="T131" s="26"/>
-      <c r="U131" s="26"/>
-      <c r="V131" s="27"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A132" s="30"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="25"/>
-      <c r="O132" s="33"/>
-      <c r="P132" s="26"/>
-      <c r="Q132" s="26"/>
-      <c r="R132" s="26"/>
-      <c r="S132" s="26"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="26"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="24"/>
-      <c r="X132" s="24"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="33"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="26"/>
-      <c r="R133" s="26"/>
-      <c r="S133" s="26"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="26"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="25"/>
-      <c r="O134" s="33"/>
-      <c r="P134" s="26"/>
-      <c r="Q134" s="26"/>
-      <c r="R134" s="26"/>
-      <c r="S134" s="26"/>
-      <c r="T134" s="26"/>
-      <c r="U134" s="26"/>
-      <c r="V134" s="27"/>
-      <c r="W134" s="24"/>
-      <c r="X134" s="24"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="26"/>
-      <c r="L135" s="26"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="25"/>
-      <c r="O135" s="33"/>
-      <c r="P135" s="26"/>
-      <c r="Q135" s="26"/>
-      <c r="R135" s="26"/>
-      <c r="S135" s="26"/>
-      <c r="T135" s="26"/>
-      <c r="U135" s="26"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="24"/>
-      <c r="X135" s="24"/>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="26"/>
-      <c r="L136" s="26"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="25"/>
-      <c r="O136" s="33"/>
-      <c r="P136" s="26"/>
-      <c r="Q136" s="26"/>
-      <c r="R136" s="26"/>
-      <c r="S136" s="26"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="26"/>
-      <c r="V136" s="27"/>
-      <c r="W136" s="24"/>
-      <c r="X136" s="24"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="26"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="25"/>
-      <c r="O137" s="33"/>
-      <c r="P137" s="26"/>
-      <c r="Q137" s="26"/>
-      <c r="R137" s="26"/>
-      <c r="S137" s="26"/>
-      <c r="T137" s="26"/>
-      <c r="U137" s="26"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="24"/>
-      <c r="X137" s="24"/>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="25"/>
-      <c r="O138" s="33"/>
-      <c r="P138" s="26"/>
-      <c r="Q138" s="26"/>
-      <c r="R138" s="26"/>
-      <c r="S138" s="26"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="26"/>
-      <c r="V138" s="27"/>
-      <c r="W138" s="24"/>
-      <c r="X138" s="24"/>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="26"/>
-      <c r="L139" s="26"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="25"/>
-      <c r="O139" s="33"/>
-      <c r="P139" s="26"/>
-      <c r="Q139" s="26"/>
-      <c r="R139" s="26"/>
-      <c r="S139" s="26"/>
-      <c r="T139" s="26"/>
-      <c r="U139" s="26"/>
-      <c r="V139" s="27"/>
-      <c r="W139" s="24"/>
-      <c r="X139" s="24"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="25"/>
-      <c r="O140" s="33"/>
-      <c r="P140" s="26"/>
-      <c r="Q140" s="26"/>
-      <c r="R140" s="26"/>
-      <c r="S140" s="26"/>
-      <c r="T140" s="26"/>
-      <c r="U140" s="26"/>
-      <c r="V140" s="27"/>
-      <c r="W140" s="24"/>
-      <c r="X140" s="24"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="26"/>
-      <c r="L141" s="26"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="25"/>
-      <c r="O141" s="33"/>
-      <c r="P141" s="26"/>
-      <c r="Q141" s="26"/>
-      <c r="R141" s="26"/>
-      <c r="S141" s="26"/>
-      <c r="T141" s="26"/>
-      <c r="U141" s="26"/>
-      <c r="V141" s="27"/>
-      <c r="W141" s="24"/>
-      <c r="X141" s="24"/>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="26"/>
-      <c r="K142" s="26"/>
-      <c r="L142" s="26"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="25"/>
-      <c r="O142" s="33"/>
-      <c r="P142" s="26"/>
-      <c r="Q142" s="26"/>
-      <c r="R142" s="26"/>
-      <c r="S142" s="26"/>
-      <c r="T142" s="26"/>
-      <c r="U142" s="26"/>
-      <c r="V142" s="27"/>
-      <c r="W142" s="24"/>
-      <c r="X142" s="24"/>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="26"/>
-      <c r="L143" s="26"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="25"/>
-      <c r="O143" s="33"/>
-      <c r="P143" s="26"/>
-      <c r="Q143" s="26"/>
-      <c r="R143" s="26"/>
-      <c r="S143" s="26"/>
-      <c r="T143" s="26"/>
-      <c r="U143" s="26"/>
-      <c r="V143" s="27"/>
-      <c r="W143" s="24"/>
-      <c r="X143" s="24"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="26"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="33"/>
-      <c r="P144" s="26"/>
-      <c r="Q144" s="26"/>
-      <c r="R144" s="26"/>
-      <c r="S144" s="26"/>
-      <c r="T144" s="26"/>
-      <c r="U144" s="26"/>
-      <c r="V144" s="27"/>
-      <c r="W144" s="24"/>
-      <c r="X144" s="24"/>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="26"/>
-      <c r="L145" s="26"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="25"/>
-      <c r="O145" s="33"/>
-      <c r="P145" s="26"/>
-      <c r="Q145" s="26"/>
-      <c r="R145" s="26"/>
-      <c r="S145" s="26"/>
-      <c r="T145" s="26"/>
-      <c r="U145" s="26"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="24"/>
-      <c r="X145" s="24"/>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="26"/>
-      <c r="K146" s="26"/>
-      <c r="L146" s="26"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="25"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="26"/>
-      <c r="Q146" s="26"/>
-      <c r="R146" s="26"/>
-      <c r="S146" s="26"/>
-      <c r="T146" s="26"/>
-      <c r="U146" s="26"/>
-      <c r="V146" s="27"/>
-      <c r="W146" s="24"/>
-      <c r="X146" s="24"/>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="51"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="26"/>
-      <c r="L147" s="26"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="25"/>
-      <c r="O147" s="33"/>
-      <c r="P147" s="26"/>
-      <c r="Q147" s="26"/>
-      <c r="R147" s="26"/>
-      <c r="S147" s="26"/>
-      <c r="T147" s="26"/>
-      <c r="U147" s="26"/>
-      <c r="V147" s="27"/>
-      <c r="W147" s="24"/>
-      <c r="X147" s="24"/>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A148" s="30"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="26"/>
-      <c r="L148" s="26"/>
-      <c r="M148" s="27"/>
-      <c r="N148" s="25"/>
-      <c r="O148" s="33"/>
-      <c r="P148" s="26"/>
-      <c r="Q148" s="26"/>
-      <c r="R148" s="26"/>
-      <c r="S148" s="26"/>
-      <c r="T148" s="26"/>
-      <c r="U148" s="26"/>
-      <c r="V148" s="27"/>
-      <c r="W148" s="24"/>
-      <c r="X148" s="24"/>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A149" s="30"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="26"/>
-      <c r="K149" s="26"/>
-      <c r="L149" s="26"/>
-      <c r="M149" s="27"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="33"/>
-      <c r="P149" s="26"/>
-      <c r="Q149" s="26"/>
-      <c r="R149" s="26"/>
-      <c r="S149" s="26"/>
-      <c r="T149" s="26"/>
-      <c r="U149" s="26"/>
-      <c r="V149" s="27"/>
-      <c r="W149" s="24"/>
-      <c r="X149" s="24"/>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A150" s="30"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
-      <c r="K150" s="26"/>
-      <c r="L150" s="26"/>
-      <c r="M150" s="27"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="33"/>
-      <c r="P150" s="26"/>
-      <c r="Q150" s="26"/>
-      <c r="R150" s="26"/>
-      <c r="S150" s="26"/>
-      <c r="T150" s="26"/>
-      <c r="U150" s="26"/>
-      <c r="V150" s="27"/>
-      <c r="W150" s="24"/>
-      <c r="X150" s="24"/>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A151" s="30"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="26"/>
-      <c r="L151" s="26"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="25"/>
-      <c r="O151" s="33"/>
-      <c r="P151" s="26"/>
-      <c r="Q151" s="26"/>
-      <c r="R151" s="26"/>
-      <c r="S151" s="26"/>
-      <c r="T151" s="26"/>
-      <c r="U151" s="26"/>
-      <c r="V151" s="27"/>
-      <c r="W151" s="24"/>
-      <c r="X151" s="24"/>
-    </row>
-    <row r="152" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="31"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="12"/>
-      <c r="T152" s="12"/>
-      <c r="U152" s="12"/>
-      <c r="V152" s="18"/>
-      <c r="W152" s="7"/>
-      <c r="X152" s="7"/>
+      <c r="X123" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X152"/>
+  <autoFilter ref="A2:X123"/>
   <mergeCells count="8">
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="B1:B2"/>
@@ -17363,7 +16614,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D83 D85:D94 D96:D118 D120:D152">
+  <conditionalFormatting sqref="D3:D22 D24:D37 D39:D69 D71:D83 D85:D94 D96:D118 D120:D123">
     <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>$D3="③"</formula>
     </cfRule>
@@ -17441,7 +16692,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D152">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D123">
       <formula1>"①,②,③"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17466,19 +16717,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
         <v>441</v>
       </c>
@@ -17489,7 +16740,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="44">
         <v>1</v>
       </c>
@@ -17500,7 +16751,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="44">
         <v>2</v>
       </c>
@@ -17511,7 +16762,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="44">
         <v>3</v>
       </c>
@@ -17522,7 +16773,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="44">
         <v>4</v>
       </c>
@@ -17533,7 +16784,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="33.75">
       <c r="A8" s="44">
         <v>5</v>
       </c>
@@ -17544,7 +16795,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="44">
         <v>6</v>
       </c>
@@ -17555,7 +16806,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="44">
         <v>7</v>
       </c>
@@ -17566,7 +16817,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="44">
         <v>8</v>
       </c>
@@ -17577,7 +16828,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="44">
         <v>9</v>
       </c>
@@ -17588,7 +16839,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="44">
         <v>10</v>
       </c>
@@ -17599,7 +16850,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="44">
         <v>11</v>
       </c>
@@ -17610,7 +16861,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="44">
         <v>12</v>
       </c>
@@ -17621,7 +16872,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="44">
         <v>13</v>
       </c>
@@ -17632,7 +16883,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>14</v>
       </c>
@@ -17643,7 +16894,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>15</v>
       </c>
@@ -17654,7 +16905,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
         <v>491</v>
       </c>
@@ -17684,7 +16935,7 @@
       <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -17693,20 +16944,20 @@
     <col min="26" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="14.25">
       <c r="A1" s="116" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2" s="117"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3" s="118" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4" s="119" t="s">
         <v>22</v>
       </c>
@@ -17783,7 +17034,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1">
       <c r="A5" s="122">
         <v>1</v>
       </c>
@@ -17818,7 +17069,7 @@
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
     </row>
-    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="122">
         <v>2</v>
       </c>
@@ -17853,7 +17104,7 @@
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
     </row>
-    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1">
       <c r="A7" s="122">
         <v>3</v>
       </c>
@@ -17914,7 +17165,7 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
     </row>
-    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1">
       <c r="A8" s="122">
         <v>4</v>
       </c>
@@ -17947,7 +17198,7 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
     </row>
-    <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="22.5" customHeight="1">
       <c r="A9" s="122">
         <v>5</v>
       </c>
@@ -17984,7 +17235,7 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
     </row>
-    <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="22.5" customHeight="1">
       <c r="A10" s="122">
         <v>6</v>
       </c>
@@ -18017,7 +17268,7 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
     </row>
-    <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="22.5" customHeight="1">
       <c r="A11" s="122">
         <v>7</v>
       </c>
@@ -18050,7 +17301,7 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
     </row>
-    <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="22.5" customHeight="1">
       <c r="A12" s="122">
         <v>8</v>
       </c>
@@ -18083,7 +17334,7 @@
       <c r="X12" s="44"/>
       <c r="Y12" s="44"/>
     </row>
-    <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="22.5" customHeight="1">
       <c r="A13" s="122">
         <v>9</v>
       </c>
@@ -18120,7 +17371,7 @@
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
     </row>
-    <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="22.5" customHeight="1">
       <c r="A14" s="122">
         <v>10</v>
       </c>
@@ -18157,7 +17408,7 @@
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
     </row>
-    <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="22.5" customHeight="1">
       <c r="A15" s="122">
         <v>11</v>
       </c>
@@ -18194,7 +17445,7 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
     </row>
-    <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="22.5" customHeight="1">
       <c r="A16" s="122">
         <v>12</v>
       </c>
@@ -18231,7 +17482,7 @@
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
     </row>
-    <row r="17" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="22.5" customHeight="1">
       <c r="A17" s="122">
         <v>13</v>
       </c>
@@ -18268,7 +17519,7 @@
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
     </row>
-    <row r="18" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="22.5" customHeight="1">
       <c r="A18" s="122">
         <v>14</v>
       </c>
@@ -18303,7 +17554,7 @@
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
     </row>
-    <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="22.5" customHeight="1">
       <c r="A19" s="122">
         <v>15</v>
       </c>
@@ -18362,7 +17613,7 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
     </row>
-    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="22.5" customHeight="1">
       <c r="A20" s="122">
         <v>16</v>
       </c>
@@ -18409,7 +17660,7 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
     </row>
-    <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="22.5" customHeight="1">
       <c r="A21" s="122">
         <v>17</v>
       </c>
@@ -18454,7 +17705,7 @@
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
     </row>
-    <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="22.5" customHeight="1">
       <c r="A22" s="122">
         <v>18</v>
       </c>
@@ -18501,7 +17752,7 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
     </row>
-    <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="22.5" customHeight="1">
       <c r="A23" s="122">
         <v>19</v>
       </c>
@@ -18534,7 +17785,7 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
     </row>
-    <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="22.5" customHeight="1">
       <c r="A24" s="122">
         <v>20</v>
       </c>
@@ -18569,7 +17820,7 @@
       <c r="X24" s="44"/>
       <c r="Y24" s="44"/>
     </row>
-    <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="22.5" customHeight="1">
       <c r="A25" s="122">
         <v>21</v>
       </c>
@@ -18646,7 +17897,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="22.5" customHeight="1">
       <c r="A26" s="122">
         <v>22</v>
       </c>
@@ -18691,7 +17942,7 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
     </row>
-    <row r="27" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="22.5" customHeight="1">
       <c r="A27" s="122">
         <v>23</v>
       </c>
@@ -18736,7 +17987,7 @@
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
     </row>
-    <row r="28" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="22.5" customHeight="1">
       <c r="A28" s="122">
         <v>24</v>
       </c>
@@ -18793,7 +18044,7 @@
       <c r="X28" s="44"/>
       <c r="Y28" s="44"/>
     </row>
-    <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="22.5" customHeight="1">
       <c r="A29" s="122">
         <v>25</v>
       </c>
@@ -18856,7 +18107,7 @@
       <c r="X29" s="44"/>
       <c r="Y29" s="44"/>
     </row>
-    <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" ht="22.5" customHeight="1">
       <c r="A30" s="122">
         <v>26</v>
       </c>
@@ -18901,7 +18152,7 @@
       <c r="X30" s="44"/>
       <c r="Y30" s="44"/>
     </row>
-    <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="22.5" customHeight="1">
       <c r="A31" s="122">
         <v>27</v>
       </c>
@@ -18936,7 +18187,7 @@
       <c r="X31" s="44"/>
       <c r="Y31" s="44"/>
     </row>
-    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="22.5" customHeight="1">
       <c r="A32" s="122">
         <v>28</v>
       </c>
@@ -18983,7 +18234,7 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
     </row>
-    <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" ht="22.5" customHeight="1">
       <c r="A33" s="122">
         <v>29</v>
       </c>
@@ -19060,7 +18311,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" ht="22.5" customHeight="1">
       <c r="A34" s="122">
         <v>30</v>
       </c>
@@ -19117,27 +18368,27 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12" thickBot="1">
       <c r="A3" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
@@ -19148,7 +18399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12" thickBot="1">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -19159,7 +18410,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12" thickBot="1">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -19170,7 +18421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12" thickBot="1">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -19181,7 +18432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12" thickBot="1">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -19192,7 +18443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12" thickBot="1">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -19203,7 +18454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12" thickBot="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -19214,7 +18465,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12" thickBot="1">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -19225,7 +18476,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12" thickBot="1">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -19236,7 +18487,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12" thickBot="1">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -19247,7 +18498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12" thickBot="1">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -19258,7 +18509,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12" thickBot="1">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -19269,7 +18520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12" thickBot="1">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -19280,7 +18531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12" thickBot="1">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -19291,7 +18542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12" thickBot="1">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -19302,7 +18553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12" thickBot="1">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -19313,7 +18564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12" thickBot="1">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -19324,17 +18575,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12" thickBot="1">
       <c r="A22" s="55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="80" t="s">
         <v>22</v>
       </c>
@@ -19345,7 +18596,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -19356,7 +18607,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="81">
         <v>2</v>
       </c>
@@ -19367,7 +18618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="81">
         <v>3</v>
       </c>
@@ -19378,7 +18629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12" thickBot="1">
       <c r="A27" s="87">
         <v>4</v>
       </c>
@@ -19389,7 +18640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12" thickBot="1">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -19400,7 +18651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -19411,7 +18662,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -19422,7 +18673,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -19433,7 +18684,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -19444,7 +18695,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -19455,7 +18706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12" thickBot="1">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -19466,7 +18717,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12" thickBot="1">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -19477,7 +18728,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12" thickBot="1">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -19488,7 +18739,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -19499,7 +18750,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="81">
         <v>15</v>
       </c>
@@ -19510,7 +18761,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="81">
         <v>16</v>
       </c>
@@ -19521,7 +18772,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="81">
         <v>17</v>
       </c>
@@ -19532,7 +18783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="12" thickBot="1">
       <c r="A41" s="87">
         <v>18</v>
       </c>
@@ -19543,7 +18794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -19554,7 +18805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -19565,7 +18816,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -19576,7 +18827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -19587,7 +18838,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12" thickBot="1">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -19598,7 +18849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12" thickBot="1">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -19609,7 +18860,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12" thickBot="1">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -19620,7 +18871,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="12" thickBot="1">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -19631,7 +18882,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="12" thickBot="1">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -19642,7 +18893,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="12" thickBot="1">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -19653,7 +18904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -19664,7 +18915,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="81">
         <v>30</v>
       </c>
@@ -19675,7 +18926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="81">
         <v>31</v>
       </c>
@@ -19686,7 +18937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="12" thickBot="1">
       <c r="A55" s="87">
         <v>32</v>
       </c>
@@ -19697,7 +18948,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="12" thickBot="1">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -19708,7 +18959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -19719,7 +18970,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="81">
         <v>35</v>
       </c>
@@ -19730,7 +18981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="81">
         <v>36</v>
       </c>
@@ -19741,7 +18992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="81">
         <v>37</v>
       </c>
@@ -19752,7 +19003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="81">
         <v>38</v>
       </c>
@@ -19763,7 +19014,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="12" thickBot="1">
       <c r="A62" s="85">
         <v>39</v>
       </c>
@@ -19774,7 +19025,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -19785,7 +19036,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="81">
         <v>41</v>
       </c>
@@ -19796,7 +19047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="81">
         <v>42</v>
       </c>
@@ -19807,7 +19058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="81">
         <v>43</v>
       </c>
@@ -19818,7 +19069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12" thickBot="1">
       <c r="A67" s="85">
         <v>44</v>
       </c>
@@ -19829,7 +19080,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -19840,7 +19091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="81">
         <v>46</v>
       </c>
@@ -19851,7 +19102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="12" thickBot="1">
       <c r="A70" s="87">
         <v>47</v>
       </c>
@@ -19862,7 +19113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="12" thickBot="1">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -19873,7 +19124,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -19884,7 +19135,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -19895,7 +19146,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="81">
         <v>51</v>
       </c>
@@ -19906,7 +19157,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="12" thickBot="1">
       <c r="A75" s="87">
         <v>52</v>
       </c>
@@ -19917,7 +19168,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="12" thickBot="1">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -19928,7 +19179,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="12" thickBot="1">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -19939,7 +19190,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -19950,7 +19201,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -19961,7 +19212,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -19972,7 +19223,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -19983,7 +19234,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -19994,7 +19245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -20005,7 +19256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -20016,7 +19267,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -20027,7 +19278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -20038,7 +19289,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="12" thickBot="1">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -20049,7 +19300,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="12" thickBot="1">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -20060,7 +19311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="12" thickBot="1">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -20071,7 +19322,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -20082,7 +19333,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="12" thickBot="1">
       <c r="A91" s="87">
         <v>68</v>
       </c>
@@ -20093,7 +19344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="12" thickBot="1">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -20104,7 +19355,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -20115,7 +19366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -20126,7 +19377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -20137,7 +19388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -20148,7 +19399,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -20159,7 +19410,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -20170,7 +19421,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -20181,7 +19432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -20192,7 +19443,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -20203,7 +19454,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -20214,7 +19465,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="12" thickBot="1">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -20225,7 +19476,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -20236,7 +19487,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -20247,7 +19498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -20258,7 +19509,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -20269,7 +19520,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -20280,7 +19531,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -20291,7 +19542,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -20302,7 +19553,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -20313,7 +19564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -20324,7 +19575,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -20335,7 +19586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="12" thickBot="1">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -20346,7 +19597,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -20357,7 +19608,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -20368,7 +19619,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -20379,7 +19630,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="12" thickBot="1">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -20390,7 +19641,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -20401,7 +19652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -20412,7 +19663,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -20423,7 +19674,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -20434,7 +19685,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -20445,7 +19696,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -20456,7 +19707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -20467,7 +19718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -20478,7 +19729,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -20489,7 +19740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="12" thickBot="1">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -20500,7 +19751,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -20511,7 +19762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -20522,7 +19773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -20533,7 +19784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="12" thickBot="1">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -20544,7 +19795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -20555,7 +19806,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -20566,7 +19817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -20577,7 +19828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -20588,7 +19839,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="12" thickBot="1">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -20599,7 +19850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -20610,7 +19861,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="12" thickBot="1">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -20643,67 +19894,67 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
         <v>441</v>
       </c>
@@ -20714,7 +19965,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -20725,7 +19976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -20736,7 +19987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -20747,7 +19998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -20758,7 +20009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -20769,52 +20020,52 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="107" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
         <v>441</v>
       </c>
@@ -20825,7 +20076,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -20836,7 +20087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -20847,7 +20098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -20858,7 +20109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -20869,7 +20120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -20880,122 +20131,122 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="107" t="s">
         <v>89</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="要素一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5576,10 +5571,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>section</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>article</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6141,10 +6132,6 @@
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>accesskey</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -10402,12 +10389,20 @@
     <t>menu</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>accesskey</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -11752,7 +11747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11765,14 +11760,14 @@
   </sheetPr>
   <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="W119" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="T101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -11783,7 +11778,7 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>343</v>
       </c>
@@ -11794,7 +11789,7 @@
         <v>345</v>
       </c>
       <c r="D1" s="128" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E1" s="126" t="s">
         <v>346</v>
@@ -11825,13 +11820,13 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1">
+    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="127"/>
       <c r="B2" s="126"/>
       <c r="C2" s="125"/>
       <c r="D2" s="129"/>
       <c r="E2" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>350</v>
@@ -11846,7 +11841,7 @@
         <v>353</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>354</v>
@@ -11858,7 +11853,7 @@
         <v>356</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>350</v>
@@ -11873,7 +11868,7 @@
         <v>353</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T2" s="21" t="s">
         <v>354</v>
@@ -11887,16 +11882,18 @@
       <c r="W2" s="125"/>
       <c r="X2" s="125"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25">
-      <c r="A3" s="28"/>
+    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="10"/>
@@ -11923,16 +11920,18 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="78.75">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>361</v>
@@ -11958,16 +11957,18 @@
         <v>362</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="56.25">
-      <c r="A5" s="29"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="14"/>
@@ -11997,16 +11998,18 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="123.75">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="11"/>
@@ -12035,16 +12038,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="157.5">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="11"/>
@@ -12073,16 +12078,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="67.5">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -12111,8 +12118,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="157.5">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
+        <v>7</v>
+      </c>
       <c r="B9" s="23" t="s">
         <v>373</v>
       </c>
@@ -12149,8 +12158,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
       <c r="B10" s="60" t="s">
         <v>373</v>
       </c>
@@ -12181,12 +12192,14 @@
       <c r="U10" s="58"/>
       <c r="V10" s="59"/>
       <c r="W10" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
       <c r="B11" s="23" t="s">
         <v>377</v>
       </c>
@@ -12219,14 +12232,16 @@
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30">
+        <v>10</v>
+      </c>
       <c r="B12" s="23" t="s">
         <v>380</v>
       </c>
@@ -12265,9 +12280,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="109" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="111"/>
@@ -12293,16 +12308,18 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
+        <v>11</v>
+      </c>
       <c r="B14" s="8" t="s">
         <v>384</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="19" t="s">
@@ -12331,13 +12348,15 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
       <c r="B15" s="23" t="s">
         <v>385</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="25"/>
@@ -12371,13 +12390,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
       <c r="B16" s="23" t="s">
         <v>386</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="25"/>
@@ -12411,13 +12432,15 @@
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
+        <v>14</v>
+      </c>
       <c r="B17" s="23" t="s">
-        <v>387</v>
+        <v>673</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="25"/>
@@ -12451,13 +12474,15 @@
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A18" s="30">
+        <v>15</v>
+      </c>
       <c r="B18" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="25"/>
@@ -12491,13 +12516,15 @@
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="30">
+        <v>16</v>
+      </c>
       <c r="B19" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>390</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="25"/>
@@ -12531,13 +12558,15 @@
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A20" s="30">
+        <v>17</v>
+      </c>
       <c r="B20" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>391</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>392</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="25"/>
@@ -12571,13 +12600,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25">
-      <c r="A21" s="30"/>
+    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="30">
+        <v>18</v>
+      </c>
       <c r="B21" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="25"/>
@@ -12609,13 +12640,15 @@
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1">
-      <c r="A22" s="31"/>
+    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31">
+        <v>19</v>
+      </c>
       <c r="B22" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="15"/>
@@ -12649,9 +12682,9 @@
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="109" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -12677,13 +12710,15 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="34">
+        <v>20</v>
+      </c>
       <c r="B24" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="37"/>
@@ -12699,7 +12734,7 @@
       <c r="M24" s="39"/>
       <c r="N24" s="37"/>
       <c r="O24" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
@@ -12708,7 +12743,7 @@
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W24" s="36" t="s">
         <v>381</v>
@@ -12717,13 +12752,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="30">
+        <v>21</v>
+      </c>
       <c r="B25" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="25"/>
@@ -12755,16 +12792,18 @@
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="30">
+        <v>22</v>
+      </c>
       <c r="B26" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
@@ -12795,13 +12834,15 @@
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="30">
+        <v>23</v>
+      </c>
       <c r="B27" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>403</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="25"/>
@@ -12827,19 +12868,21 @@
         <v>375</v>
       </c>
       <c r="W27" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X27" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="30">
+        <v>24</v>
+      </c>
       <c r="B28" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>406</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="25"/>
@@ -12871,16 +12914,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A29" s="30">
+        <v>25</v>
+      </c>
       <c r="B29" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26" t="s">
@@ -12903,19 +12948,21 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
       <c r="W29" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="X29" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="X29" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="67.5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="23" t="s">
-        <v>410</v>
-      </c>
       <c r="C30" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="25"/>
@@ -12947,16 +12994,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="30">
+        <v>27</v>
+      </c>
       <c r="B31" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="26" t="s">
@@ -12985,16 +13034,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="30">
+        <v>28</v>
+      </c>
       <c r="B32" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="26" t="s">
@@ -13020,19 +13071,21 @@
         <v>381</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="56.25">
-      <c r="A33" s="30"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="30">
+        <v>29</v>
+      </c>
       <c r="B33" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -13058,16 +13111,18 @@
         <v>381</v>
       </c>
       <c r="X33" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="30">
+        <v>30</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="22.5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="23" t="s">
+      <c r="C34" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>416</v>
       </c>
       <c r="D34" s="51"/>
       <c r="E34" s="25"/>
@@ -13099,13 +13154,15 @@
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A35" s="30">
+        <v>31</v>
+      </c>
       <c r="B35" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>417</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>418</v>
       </c>
       <c r="D35" s="51"/>
       <c r="E35" s="25"/>
@@ -13135,17 +13192,19 @@
         <v>375</v>
       </c>
       <c r="W35" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="X35" s="24"/>
+    </row>
+    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="30">
+        <v>32</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="X35" s="24"/>
-    </row>
-    <row r="36" spans="1:24" ht="67.5">
-      <c r="A36" s="30"/>
-      <c r="B36" s="23" t="s">
-        <v>420</v>
-      </c>
       <c r="C36" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="25"/>
@@ -13176,16 +13235,18 @@
         <v>381</v>
       </c>
       <c r="X36" s="24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="6" t="s">
-        <v>422</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="15"/>
@@ -13212,12 +13273,12 @@
         <v>381</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="109" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="111"/>
@@ -13243,13 +13304,15 @@
       <c r="W38" s="111"/>
       <c r="X38" s="115"/>
     </row>
-    <row r="39" spans="1:24" ht="157.5">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="34">
+        <v>34</v>
+      </c>
       <c r="B39" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="37"/>
@@ -13279,19 +13342,21 @@
         <v>376</v>
       </c>
       <c r="W39" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X39" s="36" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="45">
-      <c r="A40" s="30"/>
+    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A40" s="30">
+        <v>35</v>
+      </c>
       <c r="B40" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="25"/>
@@ -13325,13 +13390,15 @@
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75">
-      <c r="A41" s="30"/>
+    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="30">
+        <v>36</v>
+      </c>
       <c r="B41" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>429</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="25"/>
@@ -13365,16 +13432,18 @@
       </c>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24" ht="33.75">
-      <c r="A42" s="30"/>
+    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="30">
+        <v>37</v>
+      </c>
       <c r="B42" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
@@ -13402,16 +13471,18 @@
         <v>381</v>
       </c>
       <c r="X42" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="45">
-      <c r="A43" s="30"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A43" s="30">
+        <v>38</v>
+      </c>
       <c r="B43" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="25"/>
@@ -13445,13 +13516,15 @@
       </c>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24" ht="101.25">
-      <c r="A44" s="30"/>
+    <row r="44" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="30">
+        <v>39</v>
+      </c>
       <c r="B44" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="25"/>
@@ -13481,19 +13554,21 @@
         <v>376</v>
       </c>
       <c r="W44" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="45">
-      <c r="A45" s="30"/>
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A45" s="30">
+        <v>40</v>
+      </c>
       <c r="B45" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="25"/>
@@ -13527,13 +13602,15 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45">
-      <c r="A46" s="30"/>
+    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A46" s="30">
+        <v>41</v>
+      </c>
       <c r="B46" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="25"/>
@@ -13567,13 +13644,15 @@
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="67.5">
-      <c r="A47" s="30"/>
+    <row r="47" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="30">
+        <v>42</v>
+      </c>
       <c r="B47" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="25"/>
@@ -13603,14 +13682,16 @@
         <v>376</v>
       </c>
       <c r="W47" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24" ht="45">
-      <c r="A48" s="30"/>
+    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A48" s="30">
+        <v>43</v>
+      </c>
       <c r="B48" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>216</v>
@@ -13649,13 +13730,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="45">
-      <c r="A49" s="30"/>
+    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A49" s="30">
+        <v>44</v>
+      </c>
       <c r="B49" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="25"/>
@@ -13689,13 +13772,15 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="22.5">
-      <c r="A50" s="30"/>
+    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="30">
+        <v>45</v>
+      </c>
       <c r="B50" s="23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="25"/>
@@ -13729,13 +13814,15 @@
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75">
-      <c r="A51" s="30"/>
+    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="30">
+        <v>46</v>
+      </c>
       <c r="B51" s="23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="25"/>
@@ -13769,13 +13856,15 @@
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75">
-      <c r="A52" s="30"/>
+    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A52" s="30">
+        <v>47</v>
+      </c>
       <c r="B52" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="25"/>
@@ -13809,13 +13898,15 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="33.75">
-      <c r="A53" s="30"/>
+    <row r="53" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="30">
+        <v>48</v>
+      </c>
       <c r="B53" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="25"/>
@@ -13849,13 +13940,15 @@
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5">
-      <c r="A54" s="30"/>
+    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="30">
+        <v>49</v>
+      </c>
       <c r="B54" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="25"/>
@@ -13889,13 +13982,15 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5">
-      <c r="A55" s="30"/>
+    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="30">
+        <v>50</v>
+      </c>
       <c r="B55" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>472</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>474</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="25"/>
@@ -13929,13 +14024,15 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="56.25">
-      <c r="A56" s="30"/>
+    <row r="56" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="30">
+        <v>51</v>
+      </c>
       <c r="B56" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="25"/>
@@ -13969,13 +14066,15 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="45">
-      <c r="A57" s="30"/>
+    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A57" s="30">
+        <v>52</v>
+      </c>
       <c r="B57" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="25"/>
@@ -14009,13 +14108,15 @@
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75">
-      <c r="A58" s="30"/>
+    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="30">
+        <v>53</v>
+      </c>
       <c r="B58" s="23" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="25"/>
@@ -14049,13 +14150,15 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="33.75">
-      <c r="A59" s="30"/>
+    <row r="59" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="30">
+        <v>54</v>
+      </c>
       <c r="B59" s="23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="25"/>
@@ -14089,13 +14192,15 @@
       </c>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="45">
-      <c r="A60" s="30"/>
+    <row r="60" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A60" s="30">
+        <v>55</v>
+      </c>
       <c r="B60" s="23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D60" s="51"/>
       <c r="E60" s="25"/>
@@ -14131,13 +14236,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.75">
-      <c r="A61" s="30"/>
+    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A61" s="30">
+        <v>56</v>
+      </c>
       <c r="B61" s="23" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="25"/>
@@ -14164,16 +14271,18 @@
         <v>381</v>
       </c>
       <c r="X61" s="24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A62" s="30">
+        <v>57</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="33.75">
-      <c r="A62" s="30"/>
-      <c r="B62" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>486</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="25"/>
@@ -14200,16 +14309,18 @@
         <v>381</v>
       </c>
       <c r="X62" s="24" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="33.75">
-      <c r="A63" s="30"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A63" s="30">
+        <v>58</v>
+      </c>
       <c r="B63" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="25"/>
@@ -14236,16 +14347,18 @@
         <v>381</v>
       </c>
       <c r="X63" s="24" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="33.75">
-      <c r="A64" s="30"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A64" s="30">
+        <v>59</v>
+      </c>
       <c r="B64" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="25"/>
@@ -14279,13 +14392,15 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5">
-      <c r="A65" s="30"/>
+    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="30">
+        <v>60</v>
+      </c>
       <c r="B65" s="23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="25"/>
@@ -14319,16 +14434,18 @@
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="33.75">
-      <c r="A66" s="30"/>
+    <row r="66" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="30">
+        <v>61</v>
+      </c>
       <c r="B66" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
@@ -14357,13 +14474,15 @@
       </c>
       <c r="X66" s="24"/>
     </row>
-    <row r="67" spans="1:24" ht="67.5">
-      <c r="A67" s="30"/>
+    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="30">
+        <v>62</v>
+      </c>
       <c r="B67" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="25"/>
@@ -14397,13 +14516,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="67.5">
-      <c r="A68" s="30"/>
+    <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="30">
+        <v>63</v>
+      </c>
       <c r="B68" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D68" s="51"/>
       <c r="E68" s="25"/>
@@ -14435,13 +14556,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="34.5" thickBot="1">
-      <c r="A69" s="31"/>
+    <row r="69" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="31">
+        <v>64</v>
+      </c>
       <c r="B69" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15"/>
@@ -14473,9 +14596,9 @@
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" s="109" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="111"/>
@@ -14501,16 +14624,18 @@
       <c r="W70" s="111"/>
       <c r="X70" s="115"/>
     </row>
-    <row r="71" spans="1:24" ht="157.5">
-      <c r="A71" s="34"/>
+    <row r="71" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="34">
+        <v>65</v>
+      </c>
       <c r="B71" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="C71" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>499</v>
-      </c>
       <c r="D71" s="53" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
@@ -14539,19 +14664,21 @@
         <v>376</v>
       </c>
       <c r="W71" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="X71" s="36" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="30">
+        <v>66</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="X71" s="36" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" ht="191.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="23" t="s">
-        <v>500</v>
-      </c>
       <c r="C72" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="25"/>
@@ -14583,22 +14710,24 @@
         <v>376</v>
       </c>
       <c r="W72" s="24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="X72" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="112.5">
-      <c r="A73" s="30"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="30">
+        <v>67</v>
+      </c>
       <c r="B73" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
@@ -14632,16 +14761,18 @@
         <v>318</v>
       </c>
       <c r="X73" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="213.75">
-      <c r="A74" s="30"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="30">
+        <v>68</v>
+      </c>
       <c r="B74" s="23" t="s">
         <v>319</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="25"/>
@@ -14679,16 +14810,18 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="67.5">
-      <c r="A75" s="30"/>
+    <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="30">
+        <v>69</v>
+      </c>
       <c r="B75" s="23" t="s">
         <v>321</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
@@ -14715,8 +14848,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="258.75">
-      <c r="A76" s="30"/>
+    <row r="76" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="30">
+        <v>70</v>
+      </c>
       <c r="B76" s="23" t="s">
         <v>324</v>
       </c>
@@ -14759,8 +14894,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="213.75">
-      <c r="A77" s="30"/>
+    <row r="77" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+      <c r="A77" s="30">
+        <v>71</v>
+      </c>
       <c r="B77" s="23" t="s">
         <v>326</v>
       </c>
@@ -14803,16 +14940,18 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="90">
-      <c r="A78" s="30"/>
+    <row r="78" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+      <c r="A78" s="30">
+        <v>72</v>
+      </c>
       <c r="B78" s="23" t="s">
         <v>330</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
@@ -14839,16 +14978,18 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="135">
-      <c r="A79" s="30"/>
+    <row r="79" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+      <c r="A79" s="30">
+        <v>73</v>
+      </c>
       <c r="B79" s="23" t="s">
         <v>332</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
@@ -14875,8 +15016,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="67.5">
-      <c r="A80" s="30"/>
+    <row r="80" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="30">
+        <v>74</v>
+      </c>
       <c r="B80" s="23" t="s">
         <v>334</v>
       </c>
@@ -14914,16 +15057,18 @@
         <v>336</v>
       </c>
       <c r="X80" s="24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="67.5">
-      <c r="A81" s="30"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="30">
+        <v>75</v>
+      </c>
       <c r="B81" s="23" t="s">
         <v>337</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D81" s="51"/>
       <c r="E81" s="25"/>
@@ -14957,16 +15102,18 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="225">
-      <c r="A82" s="30"/>
+    <row r="82" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+      <c r="A82" s="30">
+        <v>76</v>
+      </c>
       <c r="B82" s="23" t="s">
         <v>339</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
@@ -14994,11 +15141,13 @@
         <v>340</v>
       </c>
       <c r="X82" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="23.25" thickBot="1">
-      <c r="A83" s="31"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="31">
+        <v>77</v>
+      </c>
       <c r="B83" s="6" t="s">
         <v>341</v>
       </c>
@@ -15033,9 +15182,9 @@
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84" s="109" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="111"/>
@@ -15061,13 +15210,15 @@
       <c r="W84" s="111"/>
       <c r="X84" s="115"/>
     </row>
-    <row r="85" spans="1:24" ht="101.25">
-      <c r="A85" s="34"/>
+    <row r="85" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="34">
+        <v>78</v>
+      </c>
       <c r="B85" s="35" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="37"/>
@@ -15096,13 +15247,15 @@
         <v>0</v>
       </c>
       <c r="X85" s="36" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="67.5">
-      <c r="A86" s="30"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="30">
+        <v>79</v>
+      </c>
       <c r="B86" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>11</v>
@@ -15135,16 +15288,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="67.5">
-      <c r="A87" s="30"/>
+    <row r="87" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="30">
+        <v>80</v>
+      </c>
       <c r="B87" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
@@ -15171,8 +15326,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="56.25">
-      <c r="A88" s="30"/>
+    <row r="88" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="30">
+        <v>81</v>
+      </c>
       <c r="B88" s="23" t="s">
         <v>3</v>
       </c>
@@ -15207,16 +15364,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25">
-      <c r="A89" s="30"/>
+    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="30">
+        <v>82</v>
+      </c>
       <c r="B89" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
@@ -15243,8 +15402,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="56.25">
-      <c r="A90" s="30"/>
+    <row r="90" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="30">
+        <v>83</v>
+      </c>
       <c r="B90" s="23" t="s">
         <v>10</v>
       </c>
@@ -15277,10 +15438,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="45">
-      <c r="A91" s="30"/>
+    <row r="91" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A91" s="30">
+        <v>84</v>
+      </c>
       <c r="B91" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>309</v>
@@ -15319,10 +15482,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="56.25">
-      <c r="A92" s="30"/>
+    <row r="92" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="30">
+        <v>85</v>
+      </c>
       <c r="B92" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>311</v>
@@ -15355,10 +15520,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="157.5">
-      <c r="A93" s="30"/>
+    <row r="93" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="30">
+        <v>86</v>
+      </c>
       <c r="B93" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C93" s="24" t="s">
         <v>313</v>
@@ -15393,10 +15560,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="90.75" thickBot="1">
-      <c r="A94" s="31"/>
+    <row r="94" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="31">
+        <v>87</v>
+      </c>
       <c r="B94" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>314</v>
@@ -15431,9 +15600,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A95" s="109" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B95" s="110"/>
       <c r="C95" s="111"/>
@@ -15459,13 +15628,15 @@
       <c r="W95" s="111"/>
       <c r="X95" s="115"/>
     </row>
-    <row r="96" spans="1:24" ht="202.5">
-      <c r="A96" s="34"/>
+    <row r="96" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A96" s="34">
+        <v>88</v>
+      </c>
       <c r="B96" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D96" s="53"/>
       <c r="E96" s="37"/>
@@ -15499,8 +15670,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="90">
-      <c r="A97" s="30"/>
+    <row r="97" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+      <c r="A97" s="30">
+        <v>89</v>
+      </c>
       <c r="B97" s="23" t="s">
         <v>14</v>
       </c>
@@ -15541,8 +15714,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="45">
-      <c r="A98" s="30"/>
+    <row r="98" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A98" s="30">
+        <v>90</v>
+      </c>
       <c r="B98" s="23" t="s">
         <v>16</v>
       </c>
@@ -15574,11 +15749,13 @@
         <v>381</v>
       </c>
       <c r="X98" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" ht="67.5">
-      <c r="A99" s="30"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="30">
+        <v>91</v>
+      </c>
       <c r="B99" s="23" t="s">
         <v>18</v>
       </c>
@@ -15621,8 +15798,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="101.25">
-      <c r="A100" s="30"/>
+    <row r="100" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="30">
+        <v>92</v>
+      </c>
       <c r="B100" s="23" t="s">
         <v>20</v>
       </c>
@@ -15665,7 +15844,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="112.5">
+    <row r="101" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A101" s="34"/>
       <c r="B101" s="64" t="s">
         <v>242</v>
@@ -15709,10 +15888,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="101.25">
+    <row r="102" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C102" s="63" t="s">
         <v>21</v>
@@ -15753,10 +15932,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="78.75">
+    <row r="103" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C103" s="63" t="s">
         <v>21</v>
@@ -15797,16 +15976,16 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="78.75">
+    <row r="104" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C104" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="38"/>
@@ -15841,16 +16020,16 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="101.25">
+    <row r="105" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C105" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="38"/>
@@ -15885,16 +16064,16 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="123.75">
+    <row r="106" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A106" s="71"/>
       <c r="B106" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C106" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="38"/>
@@ -15929,16 +16108,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="123.75">
+    <row r="107" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A107" s="61"/>
       <c r="B107" s="60" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C107" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="19"/>
@@ -15971,8 +16150,10 @@
       </c>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" ht="135">
-      <c r="A108" s="30"/>
+    <row r="108" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+      <c r="A108" s="30">
+        <v>93</v>
+      </c>
       <c r="B108" s="23" t="s">
         <v>279</v>
       </c>
@@ -16009,13 +16190,13 @@
         <v>375</v>
       </c>
       <c r="W108" s="24" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="X108" s="24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="146.25">
+    <row r="109" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A109" s="28"/>
       <c r="B109" s="60" t="s">
         <v>252</v>
@@ -16057,8 +16238,10 @@
       </c>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" ht="157.5">
-      <c r="A110" s="30"/>
+    <row r="110" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="30">
+        <v>94</v>
+      </c>
       <c r="B110" s="23" t="s">
         <v>284</v>
       </c>
@@ -16099,10 +16282,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="112.5">
-      <c r="A111" s="30"/>
+    <row r="111" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="30">
+        <v>95</v>
+      </c>
       <c r="B111" s="23" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>288</v>
@@ -16135,10 +16320,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="67.5">
-      <c r="A112" s="30"/>
+    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="30">
+        <v>96</v>
+      </c>
       <c r="B112" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>291</v>
@@ -16171,8 +16358,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="270">
-      <c r="A113" s="30"/>
+    <row r="113" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+      <c r="A113" s="30">
+        <v>97</v>
+      </c>
       <c r="B113" s="23" t="s">
         <v>295</v>
       </c>
@@ -16213,8 +16402,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="168.75">
-      <c r="A114" s="30"/>
+    <row r="114" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A114" s="30">
+        <v>98</v>
+      </c>
       <c r="B114" s="23" t="s">
         <v>299</v>
       </c>
@@ -16257,10 +16448,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="101.25">
-      <c r="A115" s="30"/>
+    <row r="115" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A115" s="30">
+        <v>99</v>
+      </c>
       <c r="B115" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>303</v>
@@ -16297,13 +16490,15 @@
       </c>
       <c r="X115" s="24"/>
     </row>
-    <row r="116" spans="1:24" ht="67.5">
-      <c r="A116" s="30"/>
+    <row r="116" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="30">
+        <v>100</v>
+      </c>
       <c r="B116" s="23" t="s">
         <v>305</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D116" s="51"/>
       <c r="E116" s="25"/>
@@ -16339,8 +16534,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="168.75">
-      <c r="A117" s="30"/>
+    <row r="117" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A117" s="30">
+        <v>101</v>
+      </c>
       <c r="B117" s="23" t="s">
         <v>306</v>
       </c>
@@ -16381,8 +16578,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="57" thickBot="1">
-      <c r="A118" s="31"/>
+    <row r="118" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="31">
+        <v>102</v>
+      </c>
       <c r="B118" s="6" t="s">
         <v>308</v>
       </c>
@@ -16419,9 +16618,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A119" s="109" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B119" s="110"/>
       <c r="C119" s="111"/>
@@ -16447,10 +16646,12 @@
       <c r="W119" s="111"/>
       <c r="X119" s="115"/>
     </row>
-    <row r="120" spans="1:24" ht="45">
-      <c r="A120" s="34"/>
+    <row r="120" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+      <c r="A120" s="34">
+        <v>103</v>
+      </c>
       <c r="B120" s="35" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C120" s="36" t="s">
         <v>266</v>
@@ -16489,8 +16690,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="33.75">
-      <c r="A121" s="30"/>
+    <row r="121" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A121" s="30">
+        <v>104</v>
+      </c>
       <c r="B121" s="23" t="s">
         <v>272</v>
       </c>
@@ -16522,13 +16725,15 @@
         <v>381</v>
       </c>
       <c r="X121" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" ht="67.5">
-      <c r="A122" s="30"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="30">
+        <v>105</v>
+      </c>
       <c r="B122" s="23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>275</v>
@@ -16563,8 +16768,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="45.75" thickBot="1">
-      <c r="A123" s="31"/>
+    <row r="123" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="31">
+        <v>106</v>
+      </c>
       <c r="B123" s="6" t="s">
         <v>276</v>
       </c>
@@ -16713,201 +16920,201 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
         <v>1</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>432</v>
+        <v>674</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="44">
         <v>2</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="44">
         <v>3</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="44">
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.75">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A8" s="44">
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="44">
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="44">
         <v>7</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="44">
         <v>8</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="44">
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="44">
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="44">
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="44">
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="44">
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -16929,13 +17136,13 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -16944,20 +17151,20 @@
     <col min="26" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25">
+    <row r="1" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="116" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="117"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="118" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="119" t="s">
         <v>22</v>
       </c>
@@ -16965,84 +17172,84 @@
         <v>44</v>
       </c>
       <c r="C4" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" s="121" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="121" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="121" t="s">
         <v>596</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="I4" s="121" t="s">
         <v>597</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="J4" s="121" t="s">
         <v>598</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="K4" s="121" t="s">
+        <v>492</v>
+      </c>
+      <c r="L4" s="121" t="s">
         <v>599</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="M4" s="121" t="s">
         <v>600</v>
       </c>
-      <c r="K4" s="121" t="s">
-        <v>494</v>
-      </c>
-      <c r="L4" s="121" t="s">
+      <c r="N4" s="121" t="s">
         <v>601</v>
       </c>
-      <c r="M4" s="121" t="s">
+      <c r="O4" s="121" t="s">
+        <v>564</v>
+      </c>
+      <c r="P4" s="121" t="s">
         <v>602</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="Q4" s="121" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="121" t="s">
-        <v>566</v>
-      </c>
-      <c r="P4" s="121" t="s">
+      <c r="R4" s="121" t="s">
         <v>604</v>
       </c>
-      <c r="Q4" s="121" t="s">
+      <c r="S4" s="121" t="s">
         <v>605</v>
       </c>
-      <c r="R4" s="121" t="s">
+      <c r="T4" s="121" t="s">
         <v>606</v>
       </c>
-      <c r="S4" s="121" t="s">
+      <c r="U4" s="121" t="s">
         <v>607</v>
       </c>
-      <c r="T4" s="121" t="s">
+      <c r="V4" s="121" t="s">
         <v>608</v>
       </c>
-      <c r="U4" s="121" t="s">
+      <c r="W4" s="121" t="s">
         <v>609</v>
       </c>
-      <c r="V4" s="121" t="s">
+      <c r="X4" s="121" t="s">
         <v>610</v>
-      </c>
-      <c r="W4" s="121" t="s">
-        <v>611</v>
-      </c>
-      <c r="X4" s="121" t="s">
-        <v>612</v>
       </c>
       <c r="Y4" s="121" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="122">
         <v>1</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -17062,22 +17269,22 @@
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
     </row>
-    <row r="6" spans="1:25" ht="22.5" customHeight="1">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="122">
         <v>2</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -17099,63 +17306,63 @@
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
       <c r="W6" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
     </row>
-    <row r="7" spans="1:25" ht="22.5" customHeight="1">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="122">
         <v>3</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
@@ -17165,15 +17372,15 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
     </row>
-    <row r="8" spans="1:25" ht="22.5" customHeight="1">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="122">
         <v>4</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -17198,15 +17405,15 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
     </row>
-    <row r="9" spans="1:25" ht="22.5" customHeight="1">
+    <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122">
         <v>5</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
@@ -17224,10 +17431,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U9" s="44"/>
       <c r="V9" s="44"/>
@@ -17235,15 +17442,15 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
     </row>
-    <row r="10" spans="1:25" ht="22.5" customHeight="1">
+    <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122">
         <v>6</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
@@ -17268,15 +17475,15 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
     </row>
-    <row r="11" spans="1:25" ht="22.5" customHeight="1">
+    <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122">
         <v>7</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -17301,7 +17508,7 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
     </row>
-    <row r="12" spans="1:25" ht="22.5" customHeight="1">
+    <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="122">
         <v>8</v>
       </c>
@@ -17309,7 +17516,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -17334,15 +17541,15 @@
       <c r="X12" s="44"/>
       <c r="Y12" s="44"/>
     </row>
-    <row r="13" spans="1:25" ht="22.5" customHeight="1">
+    <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="122">
         <v>9</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -17363,23 +17570,23 @@
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W13" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
     </row>
-    <row r="14" spans="1:25" ht="22.5" customHeight="1">
+    <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="122">
         <v>10</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -17400,23 +17607,23 @@
       <c r="T14" s="44"/>
       <c r="U14" s="44"/>
       <c r="V14" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W14" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
     </row>
-    <row r="15" spans="1:25" ht="22.5" customHeight="1">
+    <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="122">
         <v>11</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
@@ -17437,23 +17644,23 @@
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W15" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
     </row>
-    <row r="16" spans="1:25" ht="22.5" customHeight="1">
+    <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="122">
         <v>12</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -17474,23 +17681,23 @@
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
       <c r="V16" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W16" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
     </row>
-    <row r="17" spans="1:25" ht="22.5" customHeight="1">
+    <row r="17" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="122">
         <v>13</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -17511,15 +17718,15 @@
       <c r="T17" s="44"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W17" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
     </row>
-    <row r="18" spans="1:25" ht="22.5" customHeight="1">
+    <row r="18" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="122">
         <v>14</v>
       </c>
@@ -17527,7 +17734,7 @@
         <v>206</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -17549,61 +17756,61 @@
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
     </row>
-    <row r="19" spans="1:25" ht="22.5" customHeight="1">
+    <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="122">
         <v>15</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C19" s="124" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J19" s="44"/>
       <c r="K19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
@@ -17613,15 +17820,15 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
     </row>
-    <row r="20" spans="1:25" ht="22.5" customHeight="1">
+    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="122">
         <v>16</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C20" s="124" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
@@ -17631,25 +17838,25 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -17660,34 +17867,34 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
     </row>
-    <row r="21" spans="1:25" ht="22.5" customHeight="1">
+    <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="122">
         <v>17</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
@@ -17705,15 +17912,15 @@
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
     </row>
-    <row r="22" spans="1:25" ht="22.5" customHeight="1">
+    <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="122">
         <v>18</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
@@ -17723,25 +17930,25 @@
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
@@ -17752,15 +17959,15 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
     </row>
-    <row r="23" spans="1:25" ht="22.5" customHeight="1">
+    <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="122">
         <v>19</v>
       </c>
       <c r="B23" s="123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -17785,15 +17992,15 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
     </row>
-    <row r="24" spans="1:25" ht="22.5" customHeight="1">
+    <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="122">
         <v>20</v>
       </c>
       <c r="B24" s="123" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
@@ -17813,14 +18020,14 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
       <c r="X24" s="44"/>
       <c r="Y24" s="44"/>
     </row>
-    <row r="25" spans="1:25" ht="22.5" customHeight="1">
+    <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="122">
         <v>21</v>
       </c>
@@ -17828,103 +18035,103 @@
         <v>170</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="S25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="V25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X25" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Y25" s="44" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="22.5" customHeight="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="122">
         <v>22</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C26" s="124" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
@@ -17942,34 +18149,34 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
     </row>
-    <row r="27" spans="1:25" ht="22.5" customHeight="1">
+    <row r="27" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="122">
         <v>23</v>
       </c>
       <c r="B27" s="123" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C27" s="124" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
@@ -17987,52 +18194,52 @@
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
     </row>
-    <row r="28" spans="1:25" ht="22.5" customHeight="1">
+    <row r="28" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="122">
         <v>24</v>
       </c>
       <c r="B28" s="123" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -18044,70 +18251,70 @@
       <c r="X28" s="44"/>
       <c r="Y28" s="44"/>
     </row>
-    <row r="29" spans="1:25" ht="22.5" customHeight="1">
+    <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="122">
         <v>25</v>
       </c>
       <c r="B29" s="123" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U29" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
       <c r="X29" s="44"/>
       <c r="Y29" s="44"/>
     </row>
-    <row r="30" spans="1:25" ht="22.5" customHeight="1">
+    <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="122">
         <v>26</v>
       </c>
@@ -18115,26 +18322,26 @@
         <v>159</v>
       </c>
       <c r="C30" s="124" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
@@ -18152,15 +18359,15 @@
       <c r="X30" s="44"/>
       <c r="Y30" s="44"/>
     </row>
-    <row r="31" spans="1:25" ht="22.5" customHeight="1">
+    <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="122">
         <v>27</v>
       </c>
       <c r="B31" s="123" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C31" s="124" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -18182,20 +18389,20 @@
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
       <c r="W31" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X31" s="44"/>
       <c r="Y31" s="44"/>
     </row>
-    <row r="32" spans="1:25" ht="22.5" customHeight="1">
+    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="122">
         <v>28</v>
       </c>
       <c r="B32" s="123" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C32" s="124" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
@@ -18205,25 +18412,25 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q32" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
@@ -18234,84 +18441,84 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
     </row>
-    <row r="33" spans="1:25" ht="22.5" customHeight="1">
+    <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="122">
         <v>29</v>
       </c>
       <c r="B33" s="123" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C33" s="124" t="s">
+        <v>661</v>
+      </c>
+      <c r="D33" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>665</v>
-      </c>
       <c r="E33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="S33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="V33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X33" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Y33" s="44" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="22.5" customHeight="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="122">
         <v>30</v>
       </c>
@@ -18319,7 +18526,7 @@
         <v>145</v>
       </c>
       <c r="C34" s="124" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -18341,7 +18548,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="44"/>
       <c r="W34" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X34" s="44"/>
       <c r="Y34" s="44"/>
@@ -18365,30 +18572,30 @@
   <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1">
+    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1">
+    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
@@ -18399,7 +18606,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1">
+    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -18410,7 +18617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1">
+    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -18421,7 +18628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1">
+    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -18432,7 +18639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1">
+    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -18443,7 +18650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1">
+    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -18454,7 +18661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1">
+    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -18465,7 +18672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1">
+    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -18476,7 +18683,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1">
+    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -18487,7 +18694,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1">
+    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -18498,7 +18705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1">
+    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -18509,7 +18716,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1">
+    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -18520,7 +18727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1">
+    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -18531,7 +18738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1">
+    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -18542,7 +18749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1">
+    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -18553,7 +18760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1">
+    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -18564,7 +18771,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1">
+    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -18575,17 +18782,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1">
+    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="80" t="s">
         <v>22</v>
       </c>
@@ -18596,7 +18803,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -18607,40 +18814,40 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="81">
         <v>2</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="81">
         <v>3</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1">
+    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87">
         <v>4</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1">
+    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -18651,7 +18858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -18662,7 +18869,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -18673,7 +18880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -18684,7 +18891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -18695,7 +18902,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -18706,7 +18913,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1">
+    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -18717,7 +18924,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1">
+    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -18728,7 +18935,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1">
+    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -18739,7 +18946,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -18750,51 +18957,51 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="81">
         <v>15</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="81">
         <v>16</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="81">
         <v>17</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1">
+    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87">
         <v>18</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -18805,7 +19012,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -18816,7 +19023,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -18827,7 +19034,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -18838,7 +19045,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1">
+    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -18849,7 +19056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1">
+    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -18860,7 +19067,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1">
+    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -18871,7 +19078,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1">
+    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -18882,7 +19089,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1">
+    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -18893,7 +19100,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1">
+    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -18904,7 +19111,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -18915,40 +19122,40 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="81">
         <v>30</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C53" s="83" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="81">
         <v>31</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C54" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1">
+    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="87">
         <v>32</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C55" s="82" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1">
+    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -18959,7 +19166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -18970,62 +19177,62 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="81">
         <v>35</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="81">
         <v>36</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="81">
         <v>37</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="81">
         <v>38</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C61" s="83" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1">
+    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="85">
         <v>39</v>
       </c>
       <c r="B62" s="101" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C62" s="86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -19036,51 +19243,51 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="81">
         <v>41</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="81">
         <v>42</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="81">
         <v>43</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1">
+    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="85">
         <v>44</v>
       </c>
       <c r="B67" s="101" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -19091,29 +19298,29 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="81">
         <v>46</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1">
+    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="87">
         <v>47</v>
       </c>
       <c r="B70" s="101" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C70" s="82" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1">
+    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -19124,7 +19331,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -19135,7 +19342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -19146,29 +19353,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="81">
         <v>51</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1">
+    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="87">
         <v>52</v>
       </c>
       <c r="B75" s="101" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C75" s="82" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1">
+    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -19179,7 +19386,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1">
+    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -19190,7 +19397,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -19201,7 +19408,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -19212,7 +19419,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -19223,7 +19430,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -19234,7 +19441,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -19245,7 +19452,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -19256,7 +19463,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -19267,7 +19474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -19278,7 +19485,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -19289,7 +19496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1">
+    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -19300,7 +19507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1">
+    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -19311,7 +19518,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1">
+    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -19322,7 +19529,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -19333,18 +19540,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1">
+    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="87">
         <v>68</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C91" s="82" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1">
+    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -19355,7 +19562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -19366,7 +19573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -19377,7 +19584,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -19388,7 +19595,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -19399,7 +19606,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -19410,7 +19617,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -19421,7 +19628,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -19432,7 +19639,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -19443,7 +19650,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -19454,7 +19661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -19465,7 +19672,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1">
+    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -19476,7 +19683,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -19487,7 +19694,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -19498,7 +19705,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -19509,7 +19716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -19520,7 +19727,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -19531,7 +19738,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -19542,7 +19749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -19553,7 +19760,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -19564,7 +19771,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -19575,7 +19782,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -19586,7 +19793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1">
+    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -19597,7 +19804,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -19608,7 +19815,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -19619,7 +19826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -19630,7 +19837,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1">
+    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -19641,7 +19848,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -19652,7 +19859,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -19663,7 +19870,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -19674,7 +19881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -19685,7 +19892,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -19696,7 +19903,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -19707,7 +19914,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -19718,7 +19925,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -19729,7 +19936,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -19740,7 +19947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1">
+    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -19751,7 +19958,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -19762,7 +19969,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -19773,7 +19980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -19784,7 +19991,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1">
+    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -19795,7 +20002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -19806,7 +20013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -19817,7 +20024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -19828,7 +20035,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -19839,7 +20046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1">
+    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -19850,7 +20057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -19861,7 +20068,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1">
+    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -19894,78 +20101,78 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -19976,7 +20183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -19987,7 +20194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -19998,7 +20205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -20009,7 +20216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -20020,63 +20227,63 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="107" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -20087,7 +20294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -20098,7 +20305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -20109,7 +20316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -20120,7 +20327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5">
+    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -20131,122 +20338,122 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="107" t="s">
         <v>89</v>
       </c>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\study\html5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="要素一覧" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <author>tk</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="700">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -10397,12 +10402,100 @@
     <t>accesskey</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>※base64エンコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを64種類の印字可能な英数字のみを用いて、それ以外の文字を扱うことの出来ない通信環境にて</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチバイト文字やバイナリデータを扱うためのエンコード方式である。MIMEによって規定されていて、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ビットのデータしか扱うことの出来ない電子メールにて広く利用されている。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>具体的には、A–Z, a–z, 0–9 までの62文字と、記号2つ (+, /)、さらにパディング(余った部分を詰める)のための記号として</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = が用いられる。この変換によって、データ量は4/3（約133%）になる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16進表現: 41, 42, 43, 44, 45, 46, 47</t>
+  </si>
+  <si>
+    <t>2進表現: 0100 0001, 0100 0010, 0100 0011, 0100 0100, 0100 0101, 0100 0110, 0100 0111</t>
+  </si>
+  <si>
+    <t>010000 010100 001001 000011 010001 000100 010101 000110 010001 11</t>
+  </si>
+  <si>
+    <t>010000 010100 001001 000011 010001 000100 010101 000110 010001 110000</t>
+  </si>
+  <si>
+    <t>2ビット余るので、4ビット分0を追加して6ビットにする</t>
+  </si>
+  <si>
+    <t>QUJD, "REVG", "Rw"</t>
+  </si>
+  <si>
+    <t>2文字余るので、2文字分 = 記号を追加して4文字にする</t>
+  </si>
+  <si>
+    <t>QUJD, "REVG", "Rw=="</t>
+  </si>
+  <si>
+    <t>Base64文字列</t>
+  </si>
+  <si>
+    <t>QUJDREVGRw==</t>
+  </si>
+  <si>
+    <t>・Base64変換の手順</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)元データを6ビットずつに分割。(6ビットに満たない分は0を追加して6ビットにする)</t>
+  </si>
+  <si>
+    <t>2)各6ビットの値を変換表を使って4文字ずつ変換。(4文字に満たない分は = 記号を追加して4文字にする)</t>
+  </si>
+  <si>
+    <t>【変換例】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元データ　文字列: "ABCDEFG"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)6ビットずつに分割</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2)変換表により、4文字ずつ変換</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、MIMEの基準では76文字ごとに改行コードが入るため、この分の2バイトを計算に入れるとデータ量は</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>約137%となる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -11747,7 +11840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11760,14 +11853,14 @@
   </sheetPr>
   <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="T101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X102" sqref="X102"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
@@ -11778,7 +11871,7 @@
     <col min="25" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1">
       <c r="A1" s="127" t="s">
         <v>343</v>
       </c>
@@ -11820,7 +11913,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="12" thickBot="1">
       <c r="A2" s="127"/>
       <c r="B2" s="126"/>
       <c r="C2" s="125"/>
@@ -11882,7 +11975,7 @@
       <c r="W2" s="125"/>
       <c r="X2" s="125"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="56.25">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -11920,7 +12013,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="78.75">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -11960,7 +12053,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="56.25">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -11998,7 +12091,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="123.75">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -12038,7 +12131,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="157.5">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -12078,7 +12171,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="67.5">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -12118,7 +12211,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="157.5">
       <c r="A9" s="30">
         <v>7</v>
       </c>
@@ -12158,7 +12251,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="191.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -12196,7 +12289,7 @@
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="168.75">
       <c r="A11" s="30">
         <v>9</v>
       </c>
@@ -12238,7 +12331,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="45.75" thickBot="1">
       <c r="A12" s="30">
         <v>10</v>
       </c>
@@ -12280,7 +12373,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="A13" s="109" t="s">
         <v>557</v>
       </c>
@@ -12308,7 +12401,7 @@
       <c r="W13" s="111"/>
       <c r="X13" s="115"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="22.5">
       <c r="A14" s="28">
         <v>11</v>
       </c>
@@ -12348,7 +12441,7 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="56.25">
       <c r="A15" s="30">
         <v>12</v>
       </c>
@@ -12390,7 +12483,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="56.25">
       <c r="A16" s="30">
         <v>13</v>
       </c>
@@ -12432,7 +12525,7 @@
       </c>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="33.75">
       <c r="A17" s="30">
         <v>14</v>
       </c>
@@ -12474,7 +12567,7 @@
       </c>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="45">
       <c r="A18" s="30">
         <v>15</v>
       </c>
@@ -12516,7 +12609,7 @@
       </c>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="30">
         <v>16</v>
       </c>
@@ -12558,7 +12651,7 @@
       </c>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="45">
       <c r="A20" s="30">
         <v>17</v>
       </c>
@@ -12600,7 +12693,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="56.25">
       <c r="A21" s="30">
         <v>18</v>
       </c>
@@ -12640,7 +12733,7 @@
       </c>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="45.75" thickBot="1">
       <c r="A22" s="31">
         <v>19</v>
       </c>
@@ -12682,7 +12775,7 @@
       </c>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24">
       <c r="A23" s="109" t="s">
         <v>558</v>
       </c>
@@ -12710,7 +12803,7 @@
       <c r="W23" s="111"/>
       <c r="X23" s="115"/>
     </row>
-    <row r="24" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="78.75">
       <c r="A24" s="34">
         <v>20</v>
       </c>
@@ -12752,7 +12845,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="67.5">
       <c r="A25" s="30">
         <v>21</v>
       </c>
@@ -12792,7 +12885,7 @@
       </c>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="22.5">
       <c r="A26" s="30">
         <v>22</v>
       </c>
@@ -12834,7 +12927,7 @@
       </c>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="67.5">
       <c r="A27" s="30">
         <v>23</v>
       </c>
@@ -12874,7 +12967,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="67.5">
       <c r="A28" s="30">
         <v>24</v>
       </c>
@@ -12914,7 +13007,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="45">
       <c r="A29" s="30">
         <v>25</v>
       </c>
@@ -12954,7 +13047,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="67.5">
       <c r="A30" s="30">
         <v>26</v>
       </c>
@@ -12994,7 +13087,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="67.5">
       <c r="A31" s="30">
         <v>27</v>
       </c>
@@ -13034,7 +13127,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="33.75">
       <c r="A32" s="30">
         <v>28</v>
       </c>
@@ -13074,7 +13167,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="56.25">
       <c r="A33" s="30">
         <v>29</v>
       </c>
@@ -13114,7 +13207,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="22.5">
       <c r="A34" s="30">
         <v>30</v>
       </c>
@@ -13154,7 +13247,7 @@
       </c>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="45">
       <c r="A35" s="30">
         <v>31</v>
       </c>
@@ -13196,7 +13289,7 @@
       </c>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="67.5">
       <c r="A36" s="30">
         <v>32</v>
       </c>
@@ -13238,7 +13331,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="34.5" thickBot="1">
       <c r="A37" s="31">
         <v>33</v>
       </c>
@@ -13276,7 +13369,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24">
       <c r="A38" s="109" t="s">
         <v>580</v>
       </c>
@@ -13304,7 +13397,7 @@
       <c r="W38" s="111"/>
       <c r="X38" s="115"/>
     </row>
-    <row r="39" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="157.5">
       <c r="A39" s="34">
         <v>34</v>
       </c>
@@ -13348,7 +13441,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="45">
       <c r="A40" s="30">
         <v>35</v>
       </c>
@@ -13390,7 +13483,7 @@
       </c>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="33.75">
       <c r="A41" s="30">
         <v>36</v>
       </c>
@@ -13432,7 +13525,7 @@
       </c>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="33.75">
       <c r="A42" s="30">
         <v>37</v>
       </c>
@@ -13474,7 +13567,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="45">
       <c r="A43" s="30">
         <v>38</v>
       </c>
@@ -13516,7 +13609,7 @@
       </c>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="101.25">
       <c r="A44" s="30">
         <v>39</v>
       </c>
@@ -13560,7 +13653,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="45">
       <c r="A45" s="30">
         <v>40</v>
       </c>
@@ -13602,7 +13695,7 @@
       </c>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="45">
       <c r="A46" s="30">
         <v>41</v>
       </c>
@@ -13644,7 +13737,7 @@
       </c>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="67.5">
       <c r="A47" s="30">
         <v>42</v>
       </c>
@@ -13686,7 +13779,7 @@
       </c>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="45">
       <c r="A48" s="30">
         <v>43</v>
       </c>
@@ -13730,7 +13823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="45">
       <c r="A49" s="30">
         <v>44</v>
       </c>
@@ -13772,7 +13865,7 @@
       </c>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="30">
         <v>45</v>
       </c>
@@ -13814,7 +13907,7 @@
       </c>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="33.75">
       <c r="A51" s="30">
         <v>46</v>
       </c>
@@ -13856,7 +13949,7 @@
       </c>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="33.75">
       <c r="A52" s="30">
         <v>47</v>
       </c>
@@ -13898,7 +13991,7 @@
       </c>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="33.75">
       <c r="A53" s="30">
         <v>48</v>
       </c>
@@ -13940,7 +14033,7 @@
       </c>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="22.5">
       <c r="A54" s="30">
         <v>49</v>
       </c>
@@ -13982,7 +14075,7 @@
       </c>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="22.5">
       <c r="A55" s="30">
         <v>50</v>
       </c>
@@ -14024,7 +14117,7 @@
       </c>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="56.25">
       <c r="A56" s="30">
         <v>51</v>
       </c>
@@ -14066,7 +14159,7 @@
       </c>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="45">
       <c r="A57" s="30">
         <v>52</v>
       </c>
@@ -14108,7 +14201,7 @@
       </c>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="33.75">
       <c r="A58" s="30">
         <v>53</v>
       </c>
@@ -14150,7 +14243,7 @@
       </c>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="33.75">
       <c r="A59" s="30">
         <v>54</v>
       </c>
@@ -14192,7 +14285,7 @@
       </c>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="45">
       <c r="A60" s="30">
         <v>55</v>
       </c>
@@ -14236,7 +14329,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="33.75">
       <c r="A61" s="30">
         <v>56</v>
       </c>
@@ -14274,7 +14367,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="33.75">
       <c r="A62" s="30">
         <v>57</v>
       </c>
@@ -14312,7 +14405,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="33.75">
       <c r="A63" s="30">
         <v>58</v>
       </c>
@@ -14350,7 +14443,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="33.75">
       <c r="A64" s="30">
         <v>59</v>
       </c>
@@ -14392,7 +14485,7 @@
       </c>
       <c r="X64" s="24"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="22.5">
       <c r="A65" s="30">
         <v>60</v>
       </c>
@@ -14434,7 +14527,7 @@
       </c>
       <c r="X65" s="24"/>
     </row>
-    <row r="66" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="33.75">
       <c r="A66" s="30">
         <v>61</v>
       </c>
@@ -14474,7 +14567,7 @@
       </c>
       <c r="X66" s="24"/>
     </row>
-    <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="67.5">
       <c r="A67" s="30">
         <v>62</v>
       </c>
@@ -14516,7 +14609,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="67.5">
       <c r="A68" s="30">
         <v>63</v>
       </c>
@@ -14556,7 +14649,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="34.5" thickBot="1">
       <c r="A69" s="31">
         <v>64</v>
       </c>
@@ -14596,7 +14689,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24">
       <c r="A70" s="109" t="s">
         <v>581</v>
       </c>
@@ -14624,7 +14717,7 @@
       <c r="W70" s="111"/>
       <c r="X70" s="115"/>
     </row>
-    <row r="71" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="157.5">
       <c r="A71" s="34">
         <v>65</v>
       </c>
@@ -14670,7 +14763,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="191.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="191.25">
       <c r="A72" s="30">
         <v>66</v>
       </c>
@@ -14716,7 +14809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="112.5">
       <c r="A73" s="30">
         <v>67</v>
       </c>
@@ -14764,7 +14857,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" ht="213.75">
       <c r="A74" s="30">
         <v>68</v>
       </c>
@@ -14810,7 +14903,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="67.5">
       <c r="A75" s="30">
         <v>69</v>
       </c>
@@ -14848,7 +14941,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="258.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="258.75">
       <c r="A76" s="30">
         <v>70</v>
       </c>
@@ -14894,7 +14987,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="213.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="213.75">
       <c r="A77" s="30">
         <v>71</v>
       </c>
@@ -14940,7 +15033,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="90">
       <c r="A78" s="30">
         <v>72</v>
       </c>
@@ -14978,7 +15071,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="135">
       <c r="A79" s="30">
         <v>73</v>
       </c>
@@ -15016,7 +15109,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="67.5">
       <c r="A80" s="30">
         <v>74</v>
       </c>
@@ -15060,7 +15153,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="67.5">
       <c r="A81" s="30">
         <v>75</v>
       </c>
@@ -15102,7 +15195,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="225" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="225">
       <c r="A82" s="30">
         <v>76</v>
       </c>
@@ -15144,7 +15237,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="23.25" thickBot="1">
       <c r="A83" s="31">
         <v>77</v>
       </c>
@@ -15182,7 +15275,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24">
       <c r="A84" s="109" t="s">
         <v>584</v>
       </c>
@@ -15210,7 +15303,7 @@
       <c r="W84" s="111"/>
       <c r="X84" s="115"/>
     </row>
-    <row r="85" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="101.25">
       <c r="A85" s="34">
         <v>78</v>
       </c>
@@ -15250,7 +15343,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="67.5">
       <c r="A86" s="30">
         <v>79</v>
       </c>
@@ -15288,7 +15381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="67.5">
       <c r="A87" s="30">
         <v>80</v>
       </c>
@@ -15326,7 +15419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="56.25">
       <c r="A88" s="30">
         <v>81</v>
       </c>
@@ -15364,7 +15457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="30">
         <v>82</v>
       </c>
@@ -15402,7 +15495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="56.25">
       <c r="A90" s="30">
         <v>83</v>
       </c>
@@ -15438,7 +15531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="45">
       <c r="A91" s="30">
         <v>84</v>
       </c>
@@ -15482,7 +15575,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="56.25">
       <c r="A92" s="30">
         <v>85</v>
       </c>
@@ -15520,7 +15613,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="157.5">
       <c r="A93" s="30">
         <v>86</v>
       </c>
@@ -15560,7 +15653,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="90.75" thickBot="1">
       <c r="A94" s="31">
         <v>87</v>
       </c>
@@ -15600,7 +15693,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24">
       <c r="A95" s="109" t="s">
         <v>590</v>
       </c>
@@ -15628,7 +15721,7 @@
       <c r="W95" s="111"/>
       <c r="X95" s="115"/>
     </row>
-    <row r="96" spans="1:24" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="202.5">
       <c r="A96" s="34">
         <v>88</v>
       </c>
@@ -15670,7 +15763,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="90" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="90">
       <c r="A97" s="30">
         <v>89</v>
       </c>
@@ -15714,7 +15807,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="45">
       <c r="A98" s="30">
         <v>90</v>
       </c>
@@ -15752,7 +15845,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="67.5">
       <c r="A99" s="30">
         <v>91</v>
       </c>
@@ -15798,7 +15891,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="101.25">
       <c r="A100" s="30">
         <v>92</v>
       </c>
@@ -15844,7 +15937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" ht="112.5">
       <c r="A101" s="34"/>
       <c r="B101" s="64" t="s">
         <v>242</v>
@@ -15888,7 +15981,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="101.25">
       <c r="A102" s="71"/>
       <c r="B102" s="64" t="s">
         <v>531</v>
@@ -15932,7 +16025,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="78.75">
       <c r="A103" s="71"/>
       <c r="B103" s="64" t="s">
         <v>531</v>
@@ -15976,7 +16069,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="78.75">
       <c r="A104" s="71"/>
       <c r="B104" s="64" t="s">
         <v>531</v>
@@ -16020,7 +16113,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="101.25">
       <c r="A105" s="71"/>
       <c r="B105" s="64" t="s">
         <v>531</v>
@@ -16064,7 +16157,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="123.75">
       <c r="A106" s="71"/>
       <c r="B106" s="64" t="s">
         <v>531</v>
@@ -16108,7 +16201,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="123.75">
       <c r="A107" s="61"/>
       <c r="B107" s="60" t="s">
         <v>531</v>
@@ -16150,7 +16243,7 @@
       </c>
       <c r="X107" s="9"/>
     </row>
-    <row r="108" spans="1:24" ht="135" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="135">
       <c r="A108" s="30">
         <v>93</v>
       </c>
@@ -16196,7 +16289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="146.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="146.25">
       <c r="A109" s="28"/>
       <c r="B109" s="60" t="s">
         <v>252</v>
@@ -16238,7 +16331,7 @@
       </c>
       <c r="X109" s="9"/>
     </row>
-    <row r="110" spans="1:24" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="157.5">
       <c r="A110" s="30">
         <v>94</v>
       </c>
@@ -16282,7 +16375,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="112.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="112.5">
       <c r="A111" s="30">
         <v>95</v>
       </c>
@@ -16320,7 +16413,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:24" ht="67.5">
       <c r="A112" s="30">
         <v>96</v>
       </c>
@@ -16358,7 +16451,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="270" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24" ht="270">
       <c r="A113" s="30">
         <v>97</v>
       </c>
@@ -16402,7 +16495,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24" ht="168.75">
       <c r="A114" s="30">
         <v>98</v>
       </c>
@@ -16448,7 +16541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24" ht="101.25">
       <c r="A115" s="30">
         <v>99</v>
       </c>
@@ -16490,7 +16583,7 @@
       </c>
       <c r="X115" s="24"/>
     </row>
-    <row r="116" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24" ht="67.5">
       <c r="A116" s="30">
         <v>100</v>
       </c>
@@ -16534,7 +16627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24" ht="168.75">
       <c r="A117" s="30">
         <v>101</v>
       </c>
@@ -16578,7 +16671,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="57" thickBot="1">
       <c r="A118" s="31">
         <v>102</v>
       </c>
@@ -16618,7 +16711,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24">
       <c r="A119" s="109" t="s">
         <v>591</v>
       </c>
@@ -16646,7 +16739,7 @@
       <c r="W119" s="111"/>
       <c r="X119" s="115"/>
     </row>
-    <row r="120" spans="1:24" ht="45" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24" ht="45">
       <c r="A120" s="34">
         <v>103</v>
       </c>
@@ -16690,7 +16783,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24" ht="33.75">
       <c r="A121" s="30">
         <v>104</v>
       </c>
@@ -16728,7 +16821,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24" ht="67.5">
       <c r="A122" s="30">
         <v>105</v>
       </c>
@@ -16768,7 +16861,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="45.75" thickBot="1">
       <c r="A123" s="31">
         <v>106</v>
       </c>
@@ -16920,23 +17013,23 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="45" t="s">
         <v>439</v>
       </c>
@@ -16947,7 +17040,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="44">
         <v>1</v>
       </c>
@@ -16958,7 +17051,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="44">
         <v>2</v>
       </c>
@@ -16969,7 +17062,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="44">
         <v>3</v>
       </c>
@@ -16980,7 +17073,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="44">
         <v>4</v>
       </c>
@@ -16991,7 +17084,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="33.75">
       <c r="A8" s="44">
         <v>5</v>
       </c>
@@ -17002,7 +17095,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="44">
         <v>6</v>
       </c>
@@ -17013,7 +17106,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="44">
         <v>7</v>
       </c>
@@ -17024,7 +17117,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="44">
         <v>8</v>
       </c>
@@ -17035,7 +17128,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="44">
         <v>9</v>
       </c>
@@ -17046,7 +17139,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="44">
         <v>10</v>
       </c>
@@ -17057,7 +17150,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="44">
         <v>11</v>
       </c>
@@ -17068,7 +17161,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="44">
         <v>12</v>
       </c>
@@ -17079,7 +17172,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="44">
         <v>13</v>
       </c>
@@ -17090,7 +17183,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>14</v>
       </c>
@@ -17101,7 +17194,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>15</v>
       </c>
@@ -17112,7 +17205,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="48" t="s">
         <v>489</v>
       </c>
@@ -17139,10 +17232,10 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -17151,20 +17244,20 @@
     <col min="26" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="14.25">
       <c r="A1" s="116" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2" s="117"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3" s="118" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4" s="119" t="s">
         <v>22</v>
       </c>
@@ -17241,7 +17334,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1">
       <c r="A5" s="122">
         <v>1</v>
       </c>
@@ -17276,7 +17369,7 @@
       <c r="X5" s="44"/>
       <c r="Y5" s="44"/>
     </row>
-    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1">
       <c r="A6" s="122">
         <v>2</v>
       </c>
@@ -17311,7 +17404,7 @@
       <c r="X6" s="44"/>
       <c r="Y6" s="44"/>
     </row>
-    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1">
       <c r="A7" s="122">
         <v>3</v>
       </c>
@@ -17372,7 +17465,7 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
     </row>
-    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1">
       <c r="A8" s="122">
         <v>4</v>
       </c>
@@ -17405,7 +17498,7 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
     </row>
-    <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="22.5" customHeight="1">
       <c r="A9" s="122">
         <v>5</v>
       </c>
@@ -17442,7 +17535,7 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
     </row>
-    <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="22.5" customHeight="1">
       <c r="A10" s="122">
         <v>6</v>
       </c>
@@ -17475,7 +17568,7 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
     </row>
-    <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="22.5" customHeight="1">
       <c r="A11" s="122">
         <v>7</v>
       </c>
@@ -17508,7 +17601,7 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
     </row>
-    <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="22.5" customHeight="1">
       <c r="A12" s="122">
         <v>8</v>
       </c>
@@ -17541,7 +17634,7 @@
       <c r="X12" s="44"/>
       <c r="Y12" s="44"/>
     </row>
-    <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="22.5" customHeight="1">
       <c r="A13" s="122">
         <v>9</v>
       </c>
@@ -17578,7 +17671,7 @@
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
     </row>
-    <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="22.5" customHeight="1">
       <c r="A14" s="122">
         <v>10</v>
       </c>
@@ -17615,7 +17708,7 @@
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
     </row>
-    <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="22.5" customHeight="1">
       <c r="A15" s="122">
         <v>11</v>
       </c>
@@ -17652,7 +17745,7 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
     </row>
-    <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="22.5" customHeight="1">
       <c r="A16" s="122">
         <v>12</v>
       </c>
@@ -17689,7 +17782,7 @@
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
     </row>
-    <row r="17" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" ht="22.5" customHeight="1">
       <c r="A17" s="122">
         <v>13</v>
       </c>
@@ -17726,7 +17819,7 @@
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
     </row>
-    <row r="18" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" ht="22.5" customHeight="1">
       <c r="A18" s="122">
         <v>14</v>
       </c>
@@ -17761,7 +17854,7 @@
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
     </row>
-    <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="22.5" customHeight="1">
       <c r="A19" s="122">
         <v>15</v>
       </c>
@@ -17820,7 +17913,7 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
     </row>
-    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="22.5" customHeight="1">
       <c r="A20" s="122">
         <v>16</v>
       </c>
@@ -17867,7 +17960,7 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="44"/>
     </row>
-    <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="22.5" customHeight="1">
       <c r="A21" s="122">
         <v>17</v>
       </c>
@@ -17912,7 +18005,7 @@
       <c r="X21" s="44"/>
       <c r="Y21" s="44"/>
     </row>
-    <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="22.5" customHeight="1">
       <c r="A22" s="122">
         <v>18</v>
       </c>
@@ -17959,7 +18052,7 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="44"/>
     </row>
-    <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="22.5" customHeight="1">
       <c r="A23" s="122">
         <v>19</v>
       </c>
@@ -17992,7 +18085,7 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
     </row>
-    <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="22.5" customHeight="1">
       <c r="A24" s="122">
         <v>20</v>
       </c>
@@ -18027,7 +18120,7 @@
       <c r="X24" s="44"/>
       <c r="Y24" s="44"/>
     </row>
-    <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" ht="22.5" customHeight="1">
       <c r="A25" s="122">
         <v>21</v>
       </c>
@@ -18104,7 +18197,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" ht="22.5" customHeight="1">
       <c r="A26" s="122">
         <v>22</v>
       </c>
@@ -18149,7 +18242,7 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
     </row>
-    <row r="27" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" ht="22.5" customHeight="1">
       <c r="A27" s="122">
         <v>23</v>
       </c>
@@ -18194,7 +18287,7 @@
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
     </row>
-    <row r="28" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="22.5" customHeight="1">
       <c r="A28" s="122">
         <v>24</v>
       </c>
@@ -18251,7 +18344,7 @@
       <c r="X28" s="44"/>
       <c r="Y28" s="44"/>
     </row>
-    <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" ht="22.5" customHeight="1">
       <c r="A29" s="122">
         <v>25</v>
       </c>
@@ -18314,7 +18407,7 @@
       <c r="X29" s="44"/>
       <c r="Y29" s="44"/>
     </row>
-    <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" ht="22.5" customHeight="1">
       <c r="A30" s="122">
         <v>26</v>
       </c>
@@ -18359,7 +18452,7 @@
       <c r="X30" s="44"/>
       <c r="Y30" s="44"/>
     </row>
-    <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" ht="22.5" customHeight="1">
       <c r="A31" s="122">
         <v>27</v>
       </c>
@@ -18394,7 +18487,7 @@
       <c r="X31" s="44"/>
       <c r="Y31" s="44"/>
     </row>
-    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" ht="22.5" customHeight="1">
       <c r="A32" s="122">
         <v>28</v>
       </c>
@@ -18441,7 +18534,7 @@
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
     </row>
-    <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" ht="22.5" customHeight="1">
       <c r="A33" s="122">
         <v>29</v>
       </c>
@@ -18518,7 +18611,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" ht="22.5" customHeight="1">
       <c r="A34" s="122">
         <v>30</v>
       </c>
@@ -18575,27 +18668,27 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="46"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12" thickBot="1">
       <c r="A3" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
@@ -18606,7 +18699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12" thickBot="1">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -18617,7 +18710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12" thickBot="1">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -18628,7 +18721,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12" thickBot="1">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -18639,7 +18732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12" thickBot="1">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -18650,7 +18743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12" thickBot="1">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -18661,7 +18754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12" thickBot="1">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -18672,7 +18765,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12" thickBot="1">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -18683,7 +18776,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12" thickBot="1">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -18694,7 +18787,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12" thickBot="1">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -18705,7 +18798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12" thickBot="1">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -18716,7 +18809,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12" thickBot="1">
       <c r="A15" s="76">
         <v>11</v>
       </c>
@@ -18727,7 +18820,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12" thickBot="1">
       <c r="A16" s="76">
         <v>12</v>
       </c>
@@ -18738,7 +18831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="12" thickBot="1">
       <c r="A17" s="76">
         <v>13</v>
       </c>
@@ -18749,7 +18842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12" thickBot="1">
       <c r="A18" s="76">
         <v>14</v>
       </c>
@@ -18760,7 +18853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="12" thickBot="1">
       <c r="A19" s="76">
         <v>15</v>
       </c>
@@ -18771,7 +18864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12" thickBot="1">
       <c r="A20" s="76">
         <v>16</v>
       </c>
@@ -18782,17 +18875,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
     </row>
-    <row r="22" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="12" thickBot="1">
       <c r="A22" s="55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="80" t="s">
         <v>22</v>
       </c>
@@ -18803,7 +18896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="81">
         <v>1</v>
       </c>
@@ -18814,7 +18907,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="81">
         <v>2</v>
       </c>
@@ -18825,7 +18918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="81">
         <v>3</v>
       </c>
@@ -18836,7 +18929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12" thickBot="1">
       <c r="A27" s="87">
         <v>4</v>
       </c>
@@ -18847,7 +18940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12" thickBot="1">
       <c r="A28" s="76">
         <v>5</v>
       </c>
@@ -18858,7 +18951,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="90">
         <v>6</v>
       </c>
@@ -18869,7 +18962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="81">
         <v>7</v>
       </c>
@@ -18880,7 +18973,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="81">
         <v>8</v>
       </c>
@@ -18891,7 +18984,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="81">
         <v>9</v>
       </c>
@@ -18902,7 +18995,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -18913,7 +19006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12" thickBot="1">
       <c r="A34" s="85">
         <v>11</v>
       </c>
@@ -18924,7 +19017,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12" thickBot="1">
       <c r="A35" s="94">
         <v>12</v>
       </c>
@@ -18935,7 +19028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12" thickBot="1">
       <c r="A36" s="76">
         <v>13</v>
       </c>
@@ -18946,7 +19039,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="90">
         <v>14</v>
       </c>
@@ -18957,7 +19050,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="81">
         <v>15</v>
       </c>
@@ -18968,7 +19061,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="81">
         <v>16</v>
       </c>
@@ -18979,7 +19072,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="81">
         <v>17</v>
       </c>
@@ -18990,7 +19083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="12" thickBot="1">
       <c r="A41" s="87">
         <v>18</v>
       </c>
@@ -19001,7 +19094,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="95">
         <v>19</v>
       </c>
@@ -19012,7 +19105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="87">
         <v>20</v>
       </c>
@@ -19023,7 +19116,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="81">
         <v>21</v>
       </c>
@@ -19034,7 +19127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="81">
         <v>22</v>
       </c>
@@ -19045,7 +19138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12" thickBot="1">
       <c r="A46" s="85">
         <v>23</v>
       </c>
@@ -19056,7 +19149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12" thickBot="1">
       <c r="A47" s="76">
         <v>24</v>
       </c>
@@ -19067,7 +19160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12" thickBot="1">
       <c r="A48" s="76">
         <v>25</v>
       </c>
@@ -19078,7 +19171,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="12" thickBot="1">
       <c r="A49" s="76">
         <v>26</v>
       </c>
@@ -19089,7 +19182,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="12" thickBot="1">
       <c r="A50" s="76">
         <v>27</v>
       </c>
@@ -19100,7 +19193,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="12" thickBot="1">
       <c r="A51" s="76">
         <v>28</v>
       </c>
@@ -19111,7 +19204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="90">
         <v>29</v>
       </c>
@@ -19122,7 +19215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="81">
         <v>30</v>
       </c>
@@ -19133,7 +19226,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="81">
         <v>31</v>
       </c>
@@ -19144,7 +19237,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="12" thickBot="1">
       <c r="A55" s="87">
         <v>32</v>
       </c>
@@ -19155,7 +19248,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="12" thickBot="1">
       <c r="A56" s="76">
         <v>33</v>
       </c>
@@ -19166,7 +19259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="90">
         <v>34</v>
       </c>
@@ -19177,7 +19270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="81">
         <v>35</v>
       </c>
@@ -19188,7 +19281,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="81">
         <v>36</v>
       </c>
@@ -19199,7 +19292,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="81">
         <v>37</v>
       </c>
@@ -19210,7 +19303,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="81">
         <v>38</v>
       </c>
@@ -19221,7 +19314,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="12" thickBot="1">
       <c r="A62" s="85">
         <v>39</v>
       </c>
@@ -19232,7 +19325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="90">
         <v>40</v>
       </c>
@@ -19243,7 +19336,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="81">
         <v>41</v>
       </c>
@@ -19254,7 +19347,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="81">
         <v>42</v>
       </c>
@@ -19265,7 +19358,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="81">
         <v>43</v>
       </c>
@@ -19276,7 +19369,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12" thickBot="1">
       <c r="A67" s="85">
         <v>44</v>
       </c>
@@ -19287,7 +19380,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="90">
         <v>45</v>
       </c>
@@ -19298,7 +19391,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="81">
         <v>46</v>
       </c>
@@ -19309,7 +19402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="12" thickBot="1">
       <c r="A70" s="87">
         <v>47</v>
       </c>
@@ -19320,7 +19413,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="12" thickBot="1">
       <c r="A71" s="76">
         <v>48</v>
       </c>
@@ -19331,7 +19424,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="90">
         <v>49</v>
       </c>
@@ -19342,7 +19435,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="81">
         <v>50</v>
       </c>
@@ -19353,7 +19446,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="81">
         <v>51</v>
       </c>
@@ -19364,7 +19457,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="12" thickBot="1">
       <c r="A75" s="87">
         <v>52</v>
       </c>
@@ -19375,7 +19468,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="12" thickBot="1">
       <c r="A76" s="76">
         <v>53</v>
       </c>
@@ -19386,7 +19479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="12" thickBot="1">
       <c r="A77" s="76">
         <v>54</v>
       </c>
@@ -19397,7 +19490,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="90">
         <v>55</v>
       </c>
@@ -19408,7 +19501,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="81">
         <v>56</v>
       </c>
@@ -19419,7 +19512,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="81">
         <v>57</v>
       </c>
@@ -19430,7 +19523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="81">
         <v>58</v>
       </c>
@@ -19441,7 +19534,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="81">
         <v>59</v>
       </c>
@@ -19452,7 +19545,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="81">
         <v>60</v>
       </c>
@@ -19463,7 +19556,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="81">
         <v>61</v>
       </c>
@@ -19474,7 +19567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="81">
         <v>62</v>
       </c>
@@ -19485,7 +19578,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="81">
         <v>63</v>
       </c>
@@ -19496,7 +19589,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="12" thickBot="1">
       <c r="A87" s="87">
         <v>64</v>
       </c>
@@ -19507,7 +19600,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="12" thickBot="1">
       <c r="A88" s="76">
         <v>65</v>
       </c>
@@ -19518,7 +19611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="12" thickBot="1">
       <c r="A89" s="76">
         <v>66</v>
       </c>
@@ -19529,7 +19622,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="90">
         <v>67</v>
       </c>
@@ -19540,7 +19633,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="12" thickBot="1">
       <c r="A91" s="87">
         <v>68</v>
       </c>
@@ -19551,7 +19644,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="12" thickBot="1">
       <c r="A92" s="76">
         <v>69</v>
       </c>
@@ -19562,7 +19655,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="90">
         <v>70</v>
       </c>
@@ -19573,7 +19666,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="81">
         <v>71</v>
       </c>
@@ -19584,7 +19677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="81">
         <v>72</v>
       </c>
@@ -19595,7 +19688,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="81">
         <v>73</v>
       </c>
@@ -19606,7 +19699,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="81">
         <v>74</v>
       </c>
@@ -19617,7 +19710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="81">
         <v>75</v>
       </c>
@@ -19628,7 +19721,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="81">
         <v>76</v>
       </c>
@@ -19639,7 +19732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="81">
         <v>77</v>
       </c>
@@ -19650,7 +19743,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="81">
         <v>78</v>
       </c>
@@ -19661,7 +19754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="81">
         <v>79</v>
       </c>
@@ -19672,7 +19765,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="12" thickBot="1">
       <c r="A103" s="85">
         <v>80</v>
       </c>
@@ -19683,7 +19776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="90">
         <v>81</v>
       </c>
@@ -19694,7 +19787,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="81">
         <v>82</v>
       </c>
@@ -19705,7 +19798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="81">
         <v>83</v>
       </c>
@@ -19716,7 +19809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="81">
         <v>84</v>
       </c>
@@ -19727,7 +19820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="81">
         <v>85</v>
       </c>
@@ -19738,7 +19831,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="81">
         <v>86</v>
       </c>
@@ -19749,7 +19842,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="81">
         <v>87</v>
       </c>
@@ -19760,7 +19853,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="81">
         <v>88</v>
       </c>
@@ -19771,7 +19864,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="81">
         <v>89</v>
       </c>
@@ -19782,7 +19875,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="81">
         <v>90</v>
       </c>
@@ -19793,7 +19886,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="12" thickBot="1">
       <c r="A114" s="87">
         <v>91</v>
       </c>
@@ -19804,7 +19897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="88">
         <v>92</v>
       </c>
@@ -19815,7 +19908,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="81">
         <v>93</v>
       </c>
@@ -19826,7 +19919,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="81">
         <v>94</v>
       </c>
@@ -19837,7 +19930,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="12" thickBot="1">
       <c r="A118" s="87">
         <v>95</v>
       </c>
@@ -19848,7 +19941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="88">
         <v>96</v>
       </c>
@@ -19859,7 +19952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" s="81">
         <v>97</v>
       </c>
@@ -19870,7 +19963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" s="81">
         <v>98</v>
       </c>
@@ -19881,7 +19974,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" s="81">
         <v>99</v>
       </c>
@@ -19892,7 +19985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" s="81">
         <v>100</v>
       </c>
@@ -19903,7 +19996,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" s="81">
         <v>101</v>
       </c>
@@ -19914,7 +20007,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" s="81">
         <v>102</v>
       </c>
@@ -19925,7 +20018,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" s="81">
         <v>103</v>
       </c>
@@ -19936,7 +20029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" s="81">
         <v>104</v>
       </c>
@@ -19947,7 +20040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="12" thickBot="1">
       <c r="A128" s="87">
         <v>105</v>
       </c>
@@ -19958,7 +20051,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="88">
         <v>106</v>
       </c>
@@ -19969,7 +20062,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="81">
         <v>107</v>
       </c>
@@ -19980,7 +20073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" s="81">
         <v>108</v>
       </c>
@@ -19991,7 +20084,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="12" thickBot="1">
       <c r="A132" s="87">
         <v>109</v>
       </c>
@@ -20002,7 +20095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" s="88">
         <v>110</v>
       </c>
@@ -20013,7 +20106,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" s="81">
         <v>111</v>
       </c>
@@ -20024,7 +20117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" s="81">
         <v>112</v>
       </c>
@@ -20035,7 +20128,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" s="81">
         <v>113</v>
       </c>
@@ -20046,7 +20139,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="12" thickBot="1">
       <c r="A137" s="87">
         <v>114</v>
       </c>
@@ -20057,7 +20150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" s="88">
         <v>115</v>
       </c>
@@ -20068,7 +20161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="12" thickBot="1">
       <c r="A139" s="85">
         <v>116</v>
       </c>
@@ -20095,73 +20188,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
-    </sheetView>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="107"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="56"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="107" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="107" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="45" t="s">
         <v>439</v>
       </c>
@@ -20172,7 +20263,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="44">
         <v>1</v>
       </c>
@@ -20183,7 +20274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="44">
         <v>2</v>
       </c>
@@ -20194,7 +20285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="44">
         <v>3</v>
       </c>
@@ -20205,7 +20296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="44">
         <v>4</v>
       </c>
@@ -20216,7 +20307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="44">
         <v>5</v>
       </c>
@@ -20227,52 +20318,52 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="107" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="107" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="45" t="s">
         <v>439</v>
       </c>
@@ -20283,7 +20374,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="44">
         <v>1</v>
       </c>
@@ -20294,7 +20385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="44">
         <v>2</v>
       </c>
@@ -20305,7 +20396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="44">
         <v>3</v>
       </c>
@@ -20316,7 +20407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="44">
         <v>4</v>
       </c>
@@ -20327,7 +20418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="44">
         <v>5</v>
       </c>
@@ -20338,124 +20429,249 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="107" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="107" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="107" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="107" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="107" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="107" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="107" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="107" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="55" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="107" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="107" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="107" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="107" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="107" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="107" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="107" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="107" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="107" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="107" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="107" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="107" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="107" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="107" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="107" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="107" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="107" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="107" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="107" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="107" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="107" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="107" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="107" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="107" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="要素一覧" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="input要素type属性" sheetId="8" r:id="rId3"/>
     <sheet name="HTML5で廃止された要素・属性" sheetId="6" r:id="rId4"/>
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId5"/>
+    <sheet name="HTTP" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$123</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="786">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -10397,6 +10398,464 @@
     <t>accesskey</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>■HTTPメソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HEAD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TRACE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LINK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNLINK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URIで指定した情報を要求する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアントからデータを（名前と値）のセットで渡す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GETと同じだがHTTPヘッダのみを返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通信オプションの通知などを行う。</t>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URIで指定したサーバ上のファイルを置き換える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URIで指定したサーバ上のファイルを削除する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバが受け取った要求行とヘッダ行をそのまま送り返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PUTと同じだが、差分のみを置き換える。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他の情報との関連付けを行う。</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LINKで設定した関連を外す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■HTTPレスポンスコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1xx Informational 情報</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストは受け取られた。処理は継続される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Continue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>継続。クライアントはリクエストを継続できる。サーバがリクエストの最初の部分を受け取り、まだ拒否していないことを示す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Switching Protocols</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロトコル切替え。サーバはリクエストを理解し、遂行のためにプロトコルの切替えを要求している。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Processing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理中。WebDAVの拡張ステータスコード。処理が継続されて行われていることを示す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2xx Success 成功</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストは受け取られ、理解され、受理された。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK。リクエストは成功し、レスポンスとともに要求に応じた情報が返される。
+ブラウザでページが正しく表示された場合は、ほとんどがこのステータスコードを返している。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Created</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成。リクエストは完了し、新たに作成されたリソースのURIが返される。
+例: PUTメソッドでリソースを作成するリクエストを行ったとき、そのリクエストが完了した場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Accepted</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受理。リクエストは受理されたが、処理は完了していない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Non-Authoritative Information</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信頼できない情報。オリジナルのデータではなく、ローカルやプロキシ等からの情報であることを示す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No Content</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容なし。リクエストを受理したが、返すべきレスポンスエンティティが存在しない場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reset Content</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容のリセット。リクエストを受理し、ユーザエージェントの画面をリセットする場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Partial Content</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部分的内容。部分的GETリクエストを受理したときに、返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Multi-Status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数のステータス。WebDAVの拡張ステータスコード。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IM Used</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IM使用。Delta encoding in HTTPの拡張ステータスコード。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3xx Redirection リダイレクション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストを完了させるために、追加的な処理が必要。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数の選択。リクエストしたリソースが複数存在し、ユーザやユーザーエージェントに選択肢を提示するときに返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Multiple Choices</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Moved Permanently</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恒久的に移動した。リクエストしたリソースが恒久的に移動されているときに返される。Location:ヘッダに移動先のURLが示されている。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Found</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発見した。リクエストしたリソースが一時的に移動されているときに返される。Location:ヘッダに移動先のURLが示されている。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>See Other</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他を参照せよ。リクエストに対するレスポンスが他のURLに存在するときに返される。Location:ヘッダに移動先のURLが示されている。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not Modified</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未更新。リクエストしたリソースは更新されていないことを示す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Use Proxy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロキシを使用せよ。レスポンスのLocation:ヘッダに示されるプロキシを使用してリクエストを行わなければならないことを示す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>将来のために予約されている。ステータスコードは前のバージョンの仕様書では使われていたが、もはや使われておらず、将来のために予約されているとされる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(Unused)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Temporary Redirect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一時的リダイレクト。リクエストしたリソースは一時的に移動されているときに返される。Location:ヘッダに移動先のURLが示されている。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Permanent Redirect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恒久的リダイレクト。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4xx Client Error クライアントエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアントからのリクエストに誤りがあった。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bad Request</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストが不正である。定義されていないメソッドを使うなど、クライアントのリクエストがおかしい場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>認証が必要である。Basic認証やDigest認証などを行うときに使用される。
+たいていのブラウザはこのステータスを受け取ると、認証ダイアログを表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Payment Required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払いが必要である。現在は実装されておらず、将来のために予約されているとされる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Forbidden</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>禁止されている。リソースにアクセスすることを拒否された。リクエストはしたが処理できないという意味。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not Found</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未検出。リソースが見つからなかった。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Method Not Allowed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>許可されていないメソッド。許可されていないメソッドを使用しようとした。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not Acceptable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受理できない。Accept関連のヘッダに受理できない内容が含まれている場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Proxy Authentication Required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロキシ認証が必要である。プロキシの認証が必要な場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request Timeout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストタイムアウト。リクエストが時間以内に完了していない場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Conflict</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>矛盾。要求は現在のリソースと矛盾するので完了出来ない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Gone</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消滅した。リソースは恒久的に移動・消滅した。どこに行ったかもわからない。
+404 Not Foundと似ているが、こちらは二度と復活しない場合に使われる。ただし、このコードは特別に設定しないと提示できないため、リソースが消滅しても404コードを出すサイトが多い。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Length Required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長さが必要。Content-Length ヘッダがないのでサーバがアクセスを拒否した場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Precondition Failed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前提条件で失敗した。前提条件が偽だった場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request Entity Too Large</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストエンティティが大きすぎる。リクエストエンティティがサーバの許容範囲を超えている場合に返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Request-URI Too Long</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストURIが大きすぎる。URIが長過ぎるのでサーバが処理を拒否した場合に返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unsupported Media Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポートしていないメディアタイプ。指定されたメディアタイプがサーバでサポートされていない場合に返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requested Range Not Satisfiable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストしたレンジは範囲外にある。実リソースのサイズを超えるデータを要求した。
+たとえば、リソースのサイズが1024Byteしかないのに、1025Byteを取得しようとした場合などに返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Expectation Failed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Expectヘッダによる拡張が失敗。その拡張はレスポンスできない。またはプロキシサーバは、次に到達するサーバがレスポンスできないと判断している。</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -10467,7 +10926,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10495,6 +10954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10936,7 +11401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11312,6 +11777,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -11326,6 +11800,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11779,52 +12262,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="128" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="131" t="s">
         <v>502</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="129" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126" t="s">
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129" t="s">
         <v>347</v>
       </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="125" t="s">
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="X1" s="125" t="s">
+      <c r="X1" s="128" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="129"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="132"/>
       <c r="E2" s="20" t="s">
         <v>400</v>
       </c>
@@ -11879,8 +12362,8 @@
       <c r="V2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
     </row>
     <row r="3" spans="1:24" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A3" s="28">
@@ -16920,7 +17403,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -20467,4 +20950,640 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="46"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" style="125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="44">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="44">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="44">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="44">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="44">
+        <v>6</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="44">
+        <v>7</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="44">
+        <v>8</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="44">
+        <v>9</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="44">
+        <v>10</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="56" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>698</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="133" t="s">
+        <v>699</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="44">
+        <v>100</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="44">
+        <v>101</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="44">
+        <v>102</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="133" t="s">
+        <v>708</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="44">
+        <v>200</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>710</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="44">
+        <v>201</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>712</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="44">
+        <v>202</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>714</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="44">
+        <v>203</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="44">
+        <v>204</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="44">
+        <v>205</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="44">
+        <v>206</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>722</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="44">
+        <v>207</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="44">
+        <v>226</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="133" t="s">
+        <v>728</v>
+      </c>
+      <c r="B32" s="134"/>
+      <c r="C32" s="135" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="44">
+        <v>300</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="44">
+        <v>301</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="44">
+        <v>302</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>734</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="44">
+        <v>303</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="44">
+        <v>304</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="44">
+        <v>305</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="44">
+        <v>306</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="44">
+        <v>307</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="44">
+        <v>308</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="133" t="s">
+        <v>748</v>
+      </c>
+      <c r="B42" s="134"/>
+      <c r="C42" s="135" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="44">
+        <v>400</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="44">
+        <v>401</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="44">
+        <v>402</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="44">
+        <v>403</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="44">
+        <v>404</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="44">
+        <v>405</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="44">
+        <v>406</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="44">
+        <v>407</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="44">
+        <v>408</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="44">
+        <v>409</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="44">
+        <v>410</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="44">
+        <v>411</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="44">
+        <v>412</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="44">
+        <v>413</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="44">
+        <v>414</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="44">
+        <v>415</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="44">
+        <v>416</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="44">
+        <v>417</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>784</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>785</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.86" right="0.23" top="0.48" bottom="0.43" header="0.18" footer="0.2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="要素一覧" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="HTML5で廃止された要素・属性" sheetId="6" r:id="rId4"/>
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId5"/>
     <sheet name="HTTP" sheetId="10" r:id="rId6"/>
+    <sheet name="CSS" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$123</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="815">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -10854,6 +10855,392 @@
   </si>
   <si>
     <t>Expectヘッダによる拡張が失敗。その拡張はレスポンスできない。またはプロキシサーバは、次に到達するサーバがレスポンスできないと判断している。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1)色の指定</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■CSS(Cascading Style Sheets)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色の指定は英単語(キーワード)、もしくは数値で行う。</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)英単語(キーワード)での指定</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: red;}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: blue;}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)数値での指定</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・RGB指定</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・RGBA指定</t>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: #ff0000;}　⇒　RRGGBB指定</t>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: rgb(255, 0, 0);}　⇒　#ff0000と同意</t>
+    <rPh sb="40" eb="42">
+      <t>ドウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: rgba(255, 0, 0, 0.5);}　⇒　Aは透明度。0.5は透明度50%を表す(指定可能範囲は0～1)</t>
+    <rPh sb="40" eb="43">
+      <t>トウメイド</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>トウメイド</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※完全に透明にする場合はtransparentを指定する</t>
+    <rPh sb="1" eb="3">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: transparent;}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: #f00;}　⇒　RGB指定(各色の値の1桁目と2桁目が同じであれば省略可能)</t>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクイロ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・HSL指定</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HSLは「色相」、「彩度」、「明度」で指定する。</t>
+    <rPh sb="5" eb="7">
+      <t>シキソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メイド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の例では文字が赤になる。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: hsl(0, 100%, 50%);}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(CSS上は度の単位は記載しない)</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色相の単位は度で、範囲は0～360度。赤は0度、緑は120度、青は240度と定められている。</t>
+    <rPh sb="0" eb="2">
+      <t>シキソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彩度は色の鮮やかさを示し、低いとくすんだ色になる。彩度の単位は%で、範囲は0～100%。</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アザ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明度は明るさを表し、高いなるほど明るくなる。明度の単位は%で、範囲は0～100%。</t>
+    <rPh sb="0" eb="2">
+      <t>メイド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メイド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・HSLA指定</t>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HSLに透明度を加えたもの。透明度の範囲はRGBAと同様、0～1。</t>
+    <rPh sb="4" eb="7">
+      <t>トウメイド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トウメイド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body {color: hsl(0, 100%, 50%, 0.5);}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・opacity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>opacityプロパティに透明度を指定可能。範囲は0～1。</t>
+    <rPh sb="13" eb="16">
+      <t>トウメイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>opacity: 0.5;　⇒　透明度50%になる</t>
+    <rPh sb="16" eb="19">
+      <t>トウメイド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12230,7 +12617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20959,7 +21346,7 @@
   </sheetPr>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21584,4 +21971,181 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="107"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="56"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="107" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="55" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="107" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="107" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="55" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="107" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="107" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="107" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="107" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="107" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="107" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="107" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="107" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="107" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="107" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="107" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="107" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="107" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="107" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="107" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="107" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="107" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="107" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="107" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="107" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="107" t="s">
+        <v>814</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.86" right="0.23" top="0.48" bottom="0.43" header="0.18" footer="0.2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="861">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -11243,12 +11243,628 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>(2)単位の指定</t>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相対単位と絶対単位がある。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基準となる値に対して相対的に大きさが決まる。</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ソウタイテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基準となる値が変化すると、相対単位で指定されいてる値も変化する。</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2)em</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その要素の親要素のサイズを100%として算出される。</t>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その要素の親要素のサイズを1として算出される。</t>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)親要素のwidthが200px、子要素にwidth:0.5emを指定すると、子要素のwidthは100pxとなる。</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)親要素のwidthが200px、子要素にwidth:50%を指定すると、子要素のwidthは100pxとなる。</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【相対単位】</t>
+    <rPh sb="1" eb="3">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【絶対単位】</t>
+    <rPh sb="1" eb="3">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普遍的なサイズが決められている。</t>
+    <rPh sb="0" eb="3">
+      <t>フヘンテキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3)rem</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>html要素font-sizeを基準とする。</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクリーンディスプレイではディスプレイの1ドット、高密度ディスプレイなど1ピクセルが倍の密度になっている場合、</t>
+    <rPh sb="25" eb="28">
+      <t>コウミツド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理的なピクセル数の横幅が640pxだとしても、CSSでは320pxとして算出するルールとなっている。</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨコハバ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3)セレクタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)全称セレクタ</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*(アスタリスク)をセレクタに指定すると、全ての要素に対してスタイルが適用される。</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  margin: 0:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* 全ての要素に適用 */</t>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* div要素に含まれる全ての要素に適用 */</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>div *{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2)要素の属性や状態で絞り込むセレクタ</t>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* div要素に含まれるp要素に適用 */</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>div p{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>classname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のクラスが指定されているp要素に適用 */</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>p.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>classname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>idname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のidが指定されているp要素に適用 */</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>p#</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>idname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* div要素に含まれる直近のp要素のみに適用 */</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>div &gt; p{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;p&gt;適用されない&lt;/p&gt;</t>
+    <rPh sb="5" eb="7">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/* h2要素に隣接するp要素にのみ適用 */</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h2+p{</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h2&gt;基準となる&lt;/h2&gt;</t>
+    <rPh sb="6" eb="8">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>適用される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>適用される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -11306,6 +11922,20 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -12617,7 +13247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21978,10 +22608,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -22139,6 +22769,321 @@
         <v>814</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="55" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="107" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="55" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="107" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="107" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="107" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="107" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="107" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="107" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="107" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="107" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="107" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="107" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="107" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="55" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="107" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="107" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="107" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="107" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="55" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="107" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="107" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="107" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="107" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="107" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="107" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="107" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="107" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="107" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="107" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="107" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="107" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="107" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="107" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="107" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="107" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="107" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="107" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="107" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="107" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="107" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="107" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="107" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="107" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="107" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="107" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="107" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="107" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="107" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="107" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="107" t="s">
+        <v>851</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.86" right="0.23" top="0.48" bottom="0.43" header="0.18" footer="0.2"/>
@@ -22147,5 +23092,9 @@
     <oddHeader>&amp;L&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="46" max="16383" man="1"/>
+    <brk id="112" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="25140" windowHeight="13725" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="要素一覧" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="HTML5で廃止された要素・属性" sheetId="6" r:id="rId4"/>
     <sheet name="セマンティックWeb" sheetId="7" r:id="rId5"/>
     <sheet name="HTTP" sheetId="10" r:id="rId6"/>
-    <sheet name="CSS" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要素一覧!$A$2:$X$123</definedName>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="786">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -10857,1014 +10856,12 @@
     <t>Expectヘッダによる拡張が失敗。その拡張はレスポンスできない。またはプロキシサーバは、次に到達するサーバがレスポンスできないと判断している。</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>(1)色の指定</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■CSS(Cascading Style Sheets)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>色の指定は英単語(キーワード)、もしくは数値で行う。</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>エイタンゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例)英単語(キーワード)での指定</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>エイタンゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: red;}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: blue;}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例)数値での指定</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・RGB指定</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・RGBA指定</t>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: #ff0000;}　⇒　RRGGBB指定</t>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: rgb(255, 0, 0);}　⇒　#ff0000と同意</t>
-    <rPh sb="40" eb="42">
-      <t>ドウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: rgba(255, 0, 0, 0.5);}　⇒　Aは透明度。0.5は透明度50%を表す(指定可能範囲は0～1)</t>
-    <rPh sb="40" eb="43">
-      <t>トウメイド</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>トウメイド</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※完全に透明にする場合はtransparentを指定する</t>
-    <rPh sb="1" eb="3">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: transparent;}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: #f00;}　⇒　RGB指定(各色の値の1桁目と2桁目が同じであれば省略可能)</t>
-    <rPh sb="25" eb="27">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクイロ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショウリャク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・HSL指定</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HSLは「色相」、「彩度」、「明度」で指定する。</t>
-    <rPh sb="5" eb="7">
-      <t>シキソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>メイド</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下の例では文字が赤になる。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: hsl(0, 100%, 50%);}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(CSS上は度の単位は記載しない)</t>
-    <rPh sb="4" eb="5">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>色相の単位は度で、範囲は0～360度。赤は0度、緑は120度、青は240度と定められている。</t>
-    <rPh sb="0" eb="2">
-      <t>シキソウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>サダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>彩度は色の鮮やかさを示し、低いとくすんだ色になる。彩度の単位は%で、範囲は0～100%。</t>
-    <rPh sb="0" eb="2">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アザ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>明度は明るさを表し、高いなるほど明るくなる。明度の単位は%で、範囲は0～100%。</t>
-    <rPh sb="0" eb="2">
-      <t>メイド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>メイド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・HSLA指定</t>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HSLに透明度を加えたもの。透明度の範囲はRGBAと同様、0～1。</t>
-    <rPh sb="4" eb="7">
-      <t>トウメイド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>トウメイド</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body {color: hsl(0, 100%, 50%, 0.5);}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・opacity</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>opacityプロパティに透明度を指定可能。範囲は0～1。</t>
-    <rPh sb="13" eb="16">
-      <t>トウメイド</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>opacity: 0.5;　⇒　透明度50%になる</t>
-    <rPh sb="16" eb="19">
-      <t>トウメイド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(2)単位の指定</t>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相対単位と絶対単位がある。</t>
-    <rPh sb="0" eb="2">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基準となる値に対して相対的に大きさが決まる。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ソウタイテキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基準となる値が変化すると、相対単位で指定されいてる値も変化する。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1)%</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2)em</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その要素の親要素のサイズを100%として算出される。</t>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その要素の親要素のサイズを1として算出される。</t>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例)親要素のwidthが200px、子要素にwidth:0.5emを指定すると、子要素のwidthは100pxとなる。</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例)親要素のwidthが200px、子要素にwidth:50%を指定すると、子要素のwidthは100pxとなる。</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【相対単位】</t>
-    <rPh sb="1" eb="3">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【絶対単位】</t>
-    <rPh sb="1" eb="3">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>普遍的なサイズが決められている。</t>
-    <rPh sb="0" eb="3">
-      <t>フヘンテキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3)rem</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>html要素font-sizeを基準とする。</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1)px</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スクリーンディスプレイではディスプレイの1ドット、高密度ディスプレイなど1ピクセルが倍の密度になっている場合、</t>
-    <rPh sb="25" eb="28">
-      <t>コウミツド</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ミツド</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>物理的なピクセル数の横幅が640pxだとしても、CSSでは320pxとして算出するルールとなっている。</t>
-    <rPh sb="0" eb="3">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨコハバ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(3)セレクタ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1)全称セレクタ</t>
-    <rPh sb="2" eb="4">
-      <t>ゼンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*(アスタリスク)をセレクタに指定すると、全ての要素に対してスタイルが適用される。</t>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*{</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  margin: 0:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/* 全ての要素に適用 */</t>
-    <rPh sb="3" eb="4">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/* div要素に含まれる全ての要素に適用 */</t>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>div *{</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2)要素の属性や状態で絞り込むセレクタ</t>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/* div要素に含まれるp要素に適用 */</t>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>div p{</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/* </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>classname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のクラスが指定されているp要素に適用 */</t>
-    </r>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>p.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>classname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/* </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>idname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のidが指定されているp要素に適用 */</t>
-    </r>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>p#</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>idname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/* div要素に含まれる直近のp要素のみに適用 */</t>
-    <rPh sb="6" eb="8">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョッキン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>div &gt; p{</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;div&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;div&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;/div&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;p&gt;適用されない&lt;/p&gt;</t>
-    <rPh sb="5" eb="7">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;/div&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/* h2要素に隣接するp要素にのみ適用 */</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リンセツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>h2+p{</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;h2&gt;基準となる&lt;/h2&gt;</t>
-    <rPh sb="6" eb="8">
-      <t>キジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>適用される</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/p&gt;</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>適用される</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/p&gt;</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -11922,20 +10919,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -13247,7 +12230,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21976,7 +20959,7 @@
   </sheetPr>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22601,500 +21584,4 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:A135"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="107"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="107" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="107" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="107" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="107" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="107" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="107" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="107" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="107" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="107" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="107" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="107" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="107" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="107" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="107" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="107" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="107" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="107" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="107" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="107" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="107" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="107" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="107" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="107" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="107" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="107" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="107" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="107" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="107" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="55" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="107" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="107" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="107" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="107" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="107" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="107" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="107" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="107" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="107" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="107" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="107" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="107" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="107" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="107" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="107" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="107" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="107" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="107" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="107" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="107" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="107" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="107" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="107" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="107" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="107" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="107" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="107" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="107" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="107" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="107" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="107" t="s">
-        <v>851</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.86" right="0.23" top="0.48" bottom="0.43" header="0.18" footer="0.2"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="46" max="16383" man="1"/>
-    <brk id="112" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
 </file>
--- a/HTML5要素.xlsx
+++ b/HTML5要素.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="818">
   <si>
     <t xml:space="preserve">(1)グローバル属性
 (2)border属性
@@ -10854,6 +10854,134 @@
   </si>
   <si>
     <t>Expectヘッダによる拡張が失敗。その拡張はレスポンスできない。またはプロキシサーバは、次に到達するサーバがレスポンスできないと判断している。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I'm a teapot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTCPCP/1.0の拡張ステータスコード。ティーポットにコーヒーを淹れさせようとして、拒否された場合に返すとされる、ジョークのコードである。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5xx Server Error サーバエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバがリクエストの処理に失敗した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal Server Error</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not Implemented</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装されていない。実装されていないメソッドを使用した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバ内部エラー。サーバ内部にエラーが発生した場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bad Gateway</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正なゲートウェイ。ゲートウェイ・プロキシサーバは不正な要求を受け取り、これを拒否した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Service Unavailable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービス利用不可。サービスが一時的に過負荷やメンテナンスで使用不可能である。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Gateway Timeout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲートウェイタイムアウト。ゲートウェイ・プロキシサーバはURIから推測されるサーバからの適切なレスポンスがなくタイムアウトした。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTTP Version Not Supported</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サポートしていないHTTPバージョン。リクエストがサポートされていないHTTPバージョンである場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Variant Also Negotiates</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Transparent Content Negotiation in HTTPで定義されている拡張ステータスコード。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Insufficient Storage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>容量不足。WebDAVの拡張ステータスコード。リクエストを処理するために必要なストレージの容量が足りない場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bandwidth Limit Exceeded</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帯域幅制限超過。そのサーバに設定されている帯域幅（転送量）を使い切った場合に返される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not Extended</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拡張できない。An HTTP Extension Frameworkで定義されている拡張ステータスコード。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unprocessable Entity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理できないエンティティ。WebDAVの拡張ステータスコード。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロックされている。WebDAVの拡張ステータスコード。リクエストしたリソースがロックされている場合に返す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Failed Dependency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>依存関係で失敗。WebDAVの拡張ステータスコード。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Upgrade Required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップグレード要求。Upgrading to TLS Within HTTP/1.1の拡張ステータスコード。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12230,7 +12358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20957,9 +21085,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21575,6 +21705,180 @@
         <v>785</v>
       </c>
     </row>
+    <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="44">
+        <v>418</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="44">
+        <v>422</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="44">
+        <v>423</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="44">
+        <v>424</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>814</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="44">
+        <v>426</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="128" t="s">
+        <v>788</v>
+      </c>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="44">
+        <v>500</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="44">
+        <v>501</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>791</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="44">
+        <v>502</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>794</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="44">
+        <v>503</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="44">
+        <v>504</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>798</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="44">
+        <v>505</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>800</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="44">
+        <v>506</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>802</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="44">
+        <v>507</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="44">
+        <v>509</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="44">
+        <v>510</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>809</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.86" right="0.23" top="0.48" bottom="0.43" header="0.18" footer="0.2"/>
